--- a/doc/detail_design/api/MCS_Web_API_Specification.xlsx
+++ b/doc/detail_design/api/MCS_Web_API_Specification.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5620" yWindow="-19140" windowWidth="27480" windowHeight="14520" tabRatio="957" activeTab="5"/>
+    <workbookView xWindow="5620" yWindow="-19140" windowWidth="27480" windowHeight="14520" tabRatio="957" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="23" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="350">
   <si>
     <t>Description</t>
   </si>
@@ -693,9 +693,6 @@
     <t>Get some user's public info.</t>
   </si>
   <si>
-    <t>POST: /users (with the variables in the entity-body)</t>
-  </si>
-  <si>
     <t>Sample URI</t>
   </si>
   <si>
@@ -729,12 +726,6 @@
     <t>Create new article for current user.</t>
   </si>
   <si>
-    <t>PUT /auth/logout</t>
-  </si>
-  <si>
-    <t>POST /auth/{username}/login</t>
-  </si>
-  <si>
     <t>Get all articles for current user.</t>
   </si>
   <si>
@@ -1069,12 +1060,6 @@
   </si>
   <si>
     <t>Search users by name</t>
-  </si>
-  <si>
-    <t>GET /v1/users/list/vutm</t>
-  </si>
-  <si>
-    <t>Search all users by first name or last name.</t>
   </si>
   <si>
     <t>/v1/users/login</t>
@@ -1093,12 +1078,36 @@
       <t>response</t>
     </r>
   </si>
+  <si>
+    <t>PUT /v1/users</t>
+  </si>
+  <si>
+    <t>Update user info (not include password).</t>
+  </si>
+  <si>
+    <t>Search users by some conditions.</t>
+  </si>
+  <si>
+    <t>GET /v1/users?name=xxx&amp;email=zzz</t>
+  </si>
+  <si>
+    <t>GET /v1/articles?keyword=xxx</t>
+  </si>
+  <si>
+    <t>Search articles that title or content matched some keyword.</t>
+  </si>
+  <si>
+    <t>Update user info</t>
+  </si>
+  <si>
+    <t>Search articles</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1296,6 +1305,11 @@
       <b/>
       <sz val="18"/>
       <color theme="0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -1542,7 +1556,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="398">
+  <cellStyleXfs count="400">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1941,8 +1955,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2260,44 +2276,48 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="243" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2329,16 +2349,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2366,21 +2376,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -2393,51 +2388,72 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2473,21 +2489,19 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2503,8 +2517,28 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="34" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="398">
+  <cellStyles count="400">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2827,6 +2861,8 @@
     <cellStyle name="Followed Hyperlink" xfId="395" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="397" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="399" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4450,299 +4486,299 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="43" customFormat="1">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="171" t="s">
+      <c r="B1" s="138"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="172"/>
-      <c r="K1" s="176" t="s">
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="142" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="177"/>
-      <c r="M1" s="178"/>
-      <c r="N1" s="158" t="s">
+      <c r="L1" s="143"/>
+      <c r="M1" s="144"/>
+      <c r="N1" s="145" t="s">
         <v>197</v>
       </c>
-      <c r="O1" s="159"/>
-      <c r="P1" s="159"/>
-      <c r="Q1" s="159"/>
-      <c r="R1" s="159"/>
-      <c r="S1" s="159"/>
-      <c r="T1" s="159"/>
-      <c r="U1" s="160"/>
-      <c r="V1" s="179" t="s">
+      <c r="O1" s="146"/>
+      <c r="P1" s="146"/>
+      <c r="Q1" s="146"/>
+      <c r="R1" s="146"/>
+      <c r="S1" s="146"/>
+      <c r="T1" s="146"/>
+      <c r="U1" s="147"/>
+      <c r="V1" s="148" t="s">
         <v>42</v>
       </c>
-      <c r="W1" s="180"/>
-      <c r="X1" s="180"/>
-      <c r="Y1" s="180"/>
-      <c r="Z1" s="180"/>
-      <c r="AA1" s="180"/>
-      <c r="AB1" s="180"/>
-      <c r="AC1" s="180"/>
-      <c r="AD1" s="181"/>
+      <c r="W1" s="149"/>
+      <c r="X1" s="149"/>
+      <c r="Y1" s="149"/>
+      <c r="Z1" s="149"/>
+      <c r="AA1" s="149"/>
+      <c r="AB1" s="149"/>
+      <c r="AC1" s="149"/>
+      <c r="AD1" s="150"/>
     </row>
     <row r="2" spans="1:30" s="43" customFormat="1">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="171" t="s">
+      <c r="B2" s="138"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="140" t="s">
         <v>200</v>
       </c>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="153" t="s">
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="154"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="173" t="s">
+      <c r="L2" s="155"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="166" t="s">
         <v>202</v>
       </c>
-      <c r="O2" s="174"/>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="174"/>
-      <c r="S2" s="174"/>
-      <c r="T2" s="174"/>
-      <c r="U2" s="175"/>
-      <c r="V2" s="150" t="s">
+      <c r="O2" s="167"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="167"/>
+      <c r="S2" s="167"/>
+      <c r="T2" s="167"/>
+      <c r="U2" s="168"/>
+      <c r="V2" s="151" t="s">
         <v>204</v>
       </c>
-      <c r="W2" s="151"/>
-      <c r="X2" s="152"/>
-      <c r="Y2" s="150" t="s">
+      <c r="W2" s="152"/>
+      <c r="X2" s="153"/>
+      <c r="Y2" s="151" t="s">
         <v>45</v>
       </c>
-      <c r="Z2" s="151"/>
-      <c r="AA2" s="152"/>
-      <c r="AB2" s="150" t="s">
+      <c r="Z2" s="152"/>
+      <c r="AA2" s="153"/>
+      <c r="AB2" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="AC2" s="151"/>
-      <c r="AD2" s="152"/>
+      <c r="AC2" s="152"/>
+      <c r="AD2" s="153"/>
     </row>
     <row r="3" spans="1:30" s="43" customFormat="1">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="154"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="156" t="s">
+      <c r="B3" s="155"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="157" t="s">
         <v>201</v>
       </c>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="153" t="s">
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="154" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="154"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="158" t="s">
+      <c r="L3" s="155"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="145" t="s">
         <v>203</v>
       </c>
-      <c r="O3" s="159"/>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="159"/>
-      <c r="R3" s="159"/>
-      <c r="S3" s="159"/>
-      <c r="T3" s="159"/>
-      <c r="U3" s="160"/>
-      <c r="V3" s="161" t="s">
+      <c r="O3" s="146"/>
+      <c r="P3" s="146"/>
+      <c r="Q3" s="146"/>
+      <c r="R3" s="146"/>
+      <c r="S3" s="146"/>
+      <c r="T3" s="146"/>
+      <c r="U3" s="147"/>
+      <c r="V3" s="159" t="s">
         <v>205</v>
       </c>
-      <c r="W3" s="162"/>
-      <c r="X3" s="163"/>
-      <c r="Y3" s="164"/>
-      <c r="Z3" s="165"/>
-      <c r="AA3" s="166"/>
-      <c r="AB3" s="167"/>
-      <c r="AC3" s="165"/>
-      <c r="AD3" s="166"/>
+      <c r="W3" s="160"/>
+      <c r="X3" s="161"/>
+      <c r="Y3" s="162"/>
+      <c r="Z3" s="163"/>
+      <c r="AA3" s="164"/>
+      <c r="AB3" s="165"/>
+      <c r="AC3" s="163"/>
+      <c r="AD3" s="164"/>
     </row>
     <row r="7" spans="1:30" ht="16" thickBot="1"/>
     <row r="8" spans="1:30" ht="16" thickBot="1">
-      <c r="B8" s="148" t="s">
+      <c r="B8" s="181" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="148"/>
-      <c r="D8" s="148"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="148" t="s">
+      <c r="C8" s="181"/>
+      <c r="D8" s="181"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="181" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="148"/>
-      <c r="H8" s="148" t="s">
+      <c r="G8" s="181"/>
+      <c r="H8" s="181" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="148"/>
-      <c r="J8" s="148"/>
-      <c r="K8" s="148" t="s">
+      <c r="I8" s="181"/>
+      <c r="J8" s="181"/>
+      <c r="K8" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="148"/>
-      <c r="M8" s="148"/>
-      <c r="N8" s="148"/>
-      <c r="O8" s="148"/>
-      <c r="P8" s="148"/>
-      <c r="Q8" s="148"/>
-      <c r="R8" s="148"/>
-      <c r="S8" s="148"/>
-      <c r="T8" s="148"/>
-      <c r="U8" s="148"/>
-      <c r="V8" s="148"/>
-      <c r="W8" s="148"/>
-      <c r="X8" s="148" t="s">
+      <c r="L8" s="181"/>
+      <c r="M8" s="181"/>
+      <c r="N8" s="181"/>
+      <c r="O8" s="181"/>
+      <c r="P8" s="181"/>
+      <c r="Q8" s="181"/>
+      <c r="R8" s="181"/>
+      <c r="S8" s="181"/>
+      <c r="T8" s="181"/>
+      <c r="U8" s="181"/>
+      <c r="V8" s="181"/>
+      <c r="W8" s="181"/>
+      <c r="X8" s="181" t="s">
         <v>50</v>
       </c>
-      <c r="Y8" s="148"/>
-      <c r="Z8" s="148"/>
-      <c r="AA8" s="148"/>
-      <c r="AB8" s="148"/>
-      <c r="AC8" s="148"/>
+      <c r="Y8" s="181"/>
+      <c r="Z8" s="181"/>
+      <c r="AA8" s="181"/>
+      <c r="AB8" s="181"/>
+      <c r="AC8" s="181"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="B9" s="149" t="s">
+      <c r="B9" s="169" t="s">
         <v>199</v>
       </c>
-      <c r="C9" s="138"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="140" t="s">
+      <c r="C9" s="170"/>
+      <c r="D9" s="170"/>
+      <c r="E9" s="171"/>
+      <c r="F9" s="172" t="s">
         <v>196</v>
       </c>
-      <c r="G9" s="141"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="138"/>
-      <c r="J9" s="139"/>
-      <c r="K9" s="142"/>
-      <c r="L9" s="143"/>
-      <c r="M9" s="143"/>
-      <c r="N9" s="143"/>
-      <c r="O9" s="143"/>
-      <c r="P9" s="143"/>
-      <c r="Q9" s="143"/>
-      <c r="R9" s="143"/>
-      <c r="S9" s="143"/>
-      <c r="T9" s="143"/>
-      <c r="U9" s="143"/>
-      <c r="V9" s="143"/>
-      <c r="W9" s="144"/>
-      <c r="X9" s="145"/>
-      <c r="Y9" s="146"/>
-      <c r="Z9" s="146"/>
-      <c r="AA9" s="146"/>
-      <c r="AB9" s="146"/>
-      <c r="AC9" s="147"/>
+      <c r="G9" s="173"/>
+      <c r="H9" s="174"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="171"/>
+      <c r="K9" s="175"/>
+      <c r="L9" s="176"/>
+      <c r="M9" s="176"/>
+      <c r="N9" s="176"/>
+      <c r="O9" s="176"/>
+      <c r="P9" s="176"/>
+      <c r="Q9" s="176"/>
+      <c r="R9" s="176"/>
+      <c r="S9" s="176"/>
+      <c r="T9" s="176"/>
+      <c r="U9" s="176"/>
+      <c r="V9" s="176"/>
+      <c r="W9" s="177"/>
+      <c r="X9" s="178"/>
+      <c r="Y9" s="179"/>
+      <c r="Z9" s="179"/>
+      <c r="AA9" s="179"/>
+      <c r="AB9" s="179"/>
+      <c r="AC9" s="180"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="B10" s="137"/>
-      <c r="C10" s="138"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="139"/>
-      <c r="K10" s="142"/>
-      <c r="L10" s="143"/>
-      <c r="M10" s="143"/>
-      <c r="N10" s="143"/>
-      <c r="O10" s="143"/>
-      <c r="P10" s="143"/>
-      <c r="Q10" s="143"/>
-      <c r="R10" s="143"/>
-      <c r="S10" s="143"/>
-      <c r="T10" s="143"/>
-      <c r="U10" s="143"/>
-      <c r="V10" s="143"/>
-      <c r="W10" s="144"/>
-      <c r="X10" s="145"/>
-      <c r="Y10" s="146"/>
-      <c r="Z10" s="146"/>
-      <c r="AA10" s="146"/>
-      <c r="AB10" s="146"/>
-      <c r="AC10" s="147"/>
+      <c r="B10" s="174"/>
+      <c r="C10" s="170"/>
+      <c r="D10" s="170"/>
+      <c r="E10" s="171"/>
+      <c r="F10" s="172"/>
+      <c r="G10" s="173"/>
+      <c r="H10" s="174"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="171"/>
+      <c r="K10" s="175"/>
+      <c r="L10" s="176"/>
+      <c r="M10" s="176"/>
+      <c r="N10" s="176"/>
+      <c r="O10" s="176"/>
+      <c r="P10" s="176"/>
+      <c r="Q10" s="176"/>
+      <c r="R10" s="176"/>
+      <c r="S10" s="176"/>
+      <c r="T10" s="176"/>
+      <c r="U10" s="176"/>
+      <c r="V10" s="176"/>
+      <c r="W10" s="177"/>
+      <c r="X10" s="178"/>
+      <c r="Y10" s="179"/>
+      <c r="Z10" s="179"/>
+      <c r="AA10" s="179"/>
+      <c r="AB10" s="179"/>
+      <c r="AC10" s="180"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="B11" s="137"/>
-      <c r="C11" s="138"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="139"/>
-      <c r="K11" s="142"/>
-      <c r="L11" s="143"/>
-      <c r="M11" s="143"/>
-      <c r="N11" s="143"/>
-      <c r="O11" s="143"/>
-      <c r="P11" s="143"/>
-      <c r="Q11" s="143"/>
-      <c r="R11" s="143"/>
-      <c r="S11" s="143"/>
-      <c r="T11" s="143"/>
-      <c r="U11" s="143"/>
-      <c r="V11" s="143"/>
-      <c r="W11" s="144"/>
-      <c r="X11" s="145"/>
-      <c r="Y11" s="146"/>
-      <c r="Z11" s="146"/>
-      <c r="AA11" s="146"/>
-      <c r="AB11" s="146"/>
-      <c r="AC11" s="147"/>
+      <c r="B11" s="174"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="170"/>
+      <c r="E11" s="171"/>
+      <c r="F11" s="172"/>
+      <c r="G11" s="173"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="170"/>
+      <c r="J11" s="171"/>
+      <c r="K11" s="175"/>
+      <c r="L11" s="176"/>
+      <c r="M11" s="176"/>
+      <c r="N11" s="176"/>
+      <c r="O11" s="176"/>
+      <c r="P11" s="176"/>
+      <c r="Q11" s="176"/>
+      <c r="R11" s="176"/>
+      <c r="S11" s="176"/>
+      <c r="T11" s="176"/>
+      <c r="U11" s="176"/>
+      <c r="V11" s="176"/>
+      <c r="W11" s="177"/>
+      <c r="X11" s="178"/>
+      <c r="Y11" s="179"/>
+      <c r="Z11" s="179"/>
+      <c r="AA11" s="179"/>
+      <c r="AB11" s="179"/>
+      <c r="AC11" s="180"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="B12" s="137"/>
-      <c r="C12" s="138"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="141"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="138"/>
-      <c r="J12" s="139"/>
-      <c r="K12" s="142"/>
-      <c r="L12" s="143"/>
-      <c r="M12" s="143"/>
-      <c r="N12" s="143"/>
-      <c r="O12" s="143"/>
-      <c r="P12" s="143"/>
-      <c r="Q12" s="143"/>
-      <c r="R12" s="143"/>
-      <c r="S12" s="143"/>
-      <c r="T12" s="143"/>
-      <c r="U12" s="143"/>
-      <c r="V12" s="143"/>
-      <c r="W12" s="144"/>
-      <c r="X12" s="145"/>
-      <c r="Y12" s="146"/>
-      <c r="Z12" s="146"/>
-      <c r="AA12" s="146"/>
-      <c r="AB12" s="146"/>
-      <c r="AC12" s="147"/>
+      <c r="B12" s="174"/>
+      <c r="C12" s="170"/>
+      <c r="D12" s="170"/>
+      <c r="E12" s="171"/>
+      <c r="F12" s="172"/>
+      <c r="G12" s="173"/>
+      <c r="H12" s="174"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="171"/>
+      <c r="K12" s="175"/>
+      <c r="L12" s="176"/>
+      <c r="M12" s="176"/>
+      <c r="N12" s="176"/>
+      <c r="O12" s="176"/>
+      <c r="P12" s="176"/>
+      <c r="Q12" s="176"/>
+      <c r="R12" s="176"/>
+      <c r="S12" s="176"/>
+      <c r="T12" s="176"/>
+      <c r="U12" s="176"/>
+      <c r="V12" s="176"/>
+      <c r="W12" s="177"/>
+      <c r="X12" s="178"/>
+      <c r="Y12" s="179"/>
+      <c r="Z12" s="179"/>
+      <c r="AA12" s="179"/>
+      <c r="AB12" s="179"/>
+      <c r="AC12" s="180"/>
     </row>
     <row r="13" spans="1:30" ht="18" customHeight="1"/>
     <row r="14" spans="1:30" ht="18" customHeight="1"/>
@@ -4772,11 +4808,31 @@
     <row r="38" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AD1"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AC9"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="A3:C3"/>
@@ -4791,31 +4847,11 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:U2"/>
     <mergeCell ref="V2:X2"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AC9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AD1"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5922,15 +5958,15 @@
       <c r="C4" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="187" t="s">
+      <c r="D4" s="190" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187" t="s">
+      <c r="E4" s="190"/>
+      <c r="F4" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="187"/>
-      <c r="H4" s="187"/>
+      <c r="G4" s="190"/>
+      <c r="H4" s="190"/>
       <c r="I4" s="125"/>
       <c r="J4" s="122"/>
       <c r="K4" s="122"/>
@@ -5945,13 +5981,13 @@
       <c r="C5" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="182" t="s">
+      <c r="D5" s="187" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="182"/>
-      <c r="F5" s="183"/>
-      <c r="G5" s="183"/>
-      <c r="H5" s="183"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="189"/>
+      <c r="G5" s="189"/>
+      <c r="H5" s="189"/>
       <c r="I5" s="125"/>
       <c r="J5" s="125"/>
     </row>
@@ -6008,15 +6044,15 @@
       <c r="C9" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="187" t="s">
+      <c r="D9" s="190" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="187"/>
-      <c r="F9" s="187" t="s">
+      <c r="E9" s="190"/>
+      <c r="F9" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="187"/>
-      <c r="H9" s="187"/>
+      <c r="G9" s="190"/>
+      <c r="H9" s="190"/>
     </row>
     <row r="10" spans="2:14" ht="20" customHeight="1">
       <c r="B10" s="126">
@@ -6025,15 +6061,15 @@
       <c r="C10" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="182" t="s">
+      <c r="D10" s="187" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="182"/>
-      <c r="F10" s="183"/>
-      <c r="G10" s="183"/>
-      <c r="H10" s="183"/>
+      <c r="E10" s="187"/>
+      <c r="F10" s="189"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="189"/>
       <c r="I10" s="125" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="J10" s="125"/>
     </row>
@@ -6044,13 +6080,13 @@
       <c r="C11" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="182" t="s">
+      <c r="D11" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="182"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="183"/>
+      <c r="E11" s="187"/>
+      <c r="F11" s="189"/>
+      <c r="G11" s="189"/>
+      <c r="H11" s="189"/>
       <c r="I11" s="125"/>
       <c r="J11" s="125"/>
     </row>
@@ -6061,13 +6097,13 @@
       <c r="C12" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="182" t="s">
+      <c r="D12" s="187" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="182"/>
-      <c r="F12" s="183"/>
-      <c r="G12" s="183"/>
-      <c r="H12" s="183"/>
+      <c r="E12" s="187"/>
+      <c r="F12" s="189"/>
+      <c r="G12" s="189"/>
+      <c r="H12" s="189"/>
       <c r="I12" s="125"/>
       <c r="J12" s="125"/>
     </row>
@@ -6078,13 +6114,13 @@
       <c r="C13" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="182" t="s">
+      <c r="D13" s="187" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="182"/>
-      <c r="F13" s="183"/>
-      <c r="G13" s="183"/>
-      <c r="H13" s="183"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="189"/>
+      <c r="G13" s="189"/>
+      <c r="H13" s="189"/>
       <c r="I13" s="125"/>
       <c r="J13" s="125"/>
     </row>
@@ -6095,13 +6131,13 @@
       <c r="C14" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="182" t="s">
+      <c r="D14" s="187" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="182"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="183"/>
+      <c r="E14" s="187"/>
+      <c r="F14" s="189"/>
+      <c r="G14" s="189"/>
+      <c r="H14" s="189"/>
       <c r="I14" s="125"/>
       <c r="J14" s="125"/>
     </row>
@@ -6112,13 +6148,13 @@
       <c r="C15" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="182" t="s">
+      <c r="D15" s="187" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="182"/>
-      <c r="F15" s="183"/>
-      <c r="G15" s="183"/>
-      <c r="H15" s="183"/>
+      <c r="E15" s="187"/>
+      <c r="F15" s="189"/>
+      <c r="G15" s="189"/>
+      <c r="H15" s="189"/>
       <c r="I15" s="125"/>
       <c r="J15" s="125"/>
     </row>
@@ -6137,15 +6173,15 @@
       <c r="C18" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="187" t="s">
+      <c r="D18" s="190" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="187"/>
-      <c r="F18" s="187" t="s">
+      <c r="E18" s="190"/>
+      <c r="F18" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="187"/>
-      <c r="H18" s="187"/>
+      <c r="G18" s="190"/>
+      <c r="H18" s="190"/>
     </row>
     <row r="19" spans="2:10" ht="20" customHeight="1">
       <c r="B19" s="126">
@@ -6154,10 +6190,10 @@
       <c r="C19" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="182" t="s">
+      <c r="D19" s="187" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="182"/>
+      <c r="E19" s="187"/>
       <c r="F19" s="184"/>
       <c r="G19" s="185"/>
       <c r="H19" s="186"/>
@@ -6171,10 +6207,10 @@
       <c r="C20" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="182" t="s">
+      <c r="D20" s="187" t="s">
         <v>106</v>
       </c>
-      <c r="E20" s="182"/>
+      <c r="E20" s="187"/>
       <c r="F20" s="184"/>
       <c r="G20" s="185"/>
       <c r="H20" s="186"/>
@@ -6188,10 +6224,10 @@
       <c r="C21" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="182" t="s">
+      <c r="D21" s="187" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="182"/>
+      <c r="E21" s="187"/>
       <c r="F21" s="184"/>
       <c r="G21" s="185"/>
       <c r="H21" s="186"/>
@@ -6205,10 +6241,10 @@
       <c r="C22" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="182" t="s">
+      <c r="D22" s="187" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="182"/>
+      <c r="E22" s="187"/>
       <c r="F22" s="184"/>
       <c r="G22" s="185"/>
       <c r="H22" s="186"/>
@@ -6222,10 +6258,10 @@
       <c r="C23" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="182" t="s">
+      <c r="D23" s="187" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="182"/>
+      <c r="E23" s="187"/>
       <c r="F23" s="184"/>
       <c r="G23" s="185"/>
       <c r="H23" s="186"/>
@@ -6239,10 +6275,10 @@
       <c r="C24" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="182" t="s">
+      <c r="D24" s="187" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="182"/>
+      <c r="E24" s="187"/>
       <c r="F24" s="184"/>
       <c r="G24" s="185"/>
       <c r="H24" s="186"/>
@@ -6264,15 +6300,15 @@
       <c r="C27" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="187" t="s">
+      <c r="D27" s="190" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="187"/>
-      <c r="F27" s="187" t="s">
+      <c r="E27" s="190"/>
+      <c r="F27" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="187"/>
-      <c r="H27" s="187"/>
+      <c r="G27" s="190"/>
+      <c r="H27" s="190"/>
     </row>
     <row r="28" spans="2:10" ht="20" customHeight="1">
       <c r="B28" s="126">
@@ -6281,15 +6317,15 @@
       <c r="C28" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="182" t="s">
+      <c r="D28" s="187" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="182"/>
+      <c r="E28" s="187"/>
       <c r="F28" s="184"/>
       <c r="G28" s="185"/>
       <c r="H28" s="186"/>
       <c r="I28" s="125" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="J28" s="125"/>
     </row>
@@ -6300,10 +6336,10 @@
       <c r="C29" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="182" t="s">
+      <c r="D29" s="187" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="182"/>
+      <c r="E29" s="187"/>
       <c r="F29" s="184"/>
       <c r="G29" s="185"/>
       <c r="H29" s="186"/>
@@ -6317,10 +6353,10 @@
       <c r="C30" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="182" t="s">
+      <c r="D30" s="187" t="s">
         <v>103</v>
       </c>
-      <c r="E30" s="182"/>
+      <c r="E30" s="187"/>
       <c r="F30" s="184"/>
       <c r="G30" s="185"/>
       <c r="H30" s="186"/>
@@ -6334,10 +6370,10 @@
       <c r="C31" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="182" t="s">
+      <c r="D31" s="187" t="s">
         <v>104</v>
       </c>
-      <c r="E31" s="182"/>
+      <c r="E31" s="187"/>
       <c r="F31" s="184"/>
       <c r="G31" s="185"/>
       <c r="H31" s="186"/>
@@ -6351,10 +6387,10 @@
       <c r="C32" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="182" t="s">
+      <c r="D32" s="187" t="s">
         <v>105</v>
       </c>
-      <c r="E32" s="182"/>
+      <c r="E32" s="187"/>
       <c r="F32" s="184"/>
       <c r="G32" s="185"/>
       <c r="H32" s="186"/>
@@ -6368,10 +6404,10 @@
       <c r="C33" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="182" t="s">
+      <c r="D33" s="187" t="s">
         <v>107</v>
       </c>
-      <c r="E33" s="182"/>
+      <c r="E33" s="187"/>
       <c r="F33" s="184"/>
       <c r="G33" s="185"/>
       <c r="H33" s="186"/>
@@ -6385,10 +6421,10 @@
       <c r="C34" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="182" t="s">
+      <c r="D34" s="187" t="s">
         <v>108</v>
       </c>
-      <c r="E34" s="182"/>
+      <c r="E34" s="187"/>
       <c r="F34" s="184"/>
       <c r="G34" s="185"/>
       <c r="H34" s="186"/>
@@ -6402,10 +6438,10 @@
       <c r="C35" s="127" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="182" t="s">
+      <c r="D35" s="187" t="s">
         <v>100</v>
       </c>
-      <c r="E35" s="182"/>
+      <c r="E35" s="187"/>
       <c r="F35" s="184"/>
       <c r="G35" s="185"/>
       <c r="H35" s="186"/>
@@ -6419,10 +6455,10 @@
       <c r="C36" s="127" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="182" t="s">
+      <c r="D36" s="187" t="s">
         <v>113</v>
       </c>
-      <c r="E36" s="182"/>
+      <c r="E36" s="187"/>
       <c r="F36" s="184"/>
       <c r="G36" s="185"/>
       <c r="H36" s="186"/>
@@ -6440,11 +6476,11 @@
     <row r="40" spans="2:10">
       <c r="B40" s="124"/>
       <c r="C40" s="124"/>
-      <c r="D40" s="190"/>
-      <c r="E40" s="190"/>
-      <c r="F40" s="190"/>
-      <c r="G40" s="190"/>
-      <c r="H40" s="190"/>
+      <c r="D40" s="188"/>
+      <c r="E40" s="188"/>
+      <c r="F40" s="188"/>
+      <c r="G40" s="188"/>
+      <c r="H40" s="188"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1">
       <c r="B41" s="126">
@@ -6453,10 +6489,10 @@
       <c r="C41" s="127" t="s">
         <v>152</v>
       </c>
-      <c r="D41" s="188" t="s">
+      <c r="D41" s="182" t="s">
         <v>157</v>
       </c>
-      <c r="E41" s="189"/>
+      <c r="E41" s="183"/>
       <c r="F41" s="184"/>
       <c r="G41" s="185"/>
       <c r="H41" s="186"/>
@@ -6468,10 +6504,10 @@
       <c r="C42" s="127" t="s">
         <v>153</v>
       </c>
-      <c r="D42" s="188" t="s">
+      <c r="D42" s="182" t="s">
         <v>162</v>
       </c>
-      <c r="E42" s="189"/>
+      <c r="E42" s="183"/>
       <c r="F42" s="184"/>
       <c r="G42" s="185"/>
       <c r="H42" s="186"/>
@@ -6483,8 +6519,8 @@
       <c r="C43" s="127" t="s">
         <v>154</v>
       </c>
-      <c r="D43" s="188"/>
-      <c r="E43" s="189"/>
+      <c r="D43" s="182"/>
+      <c r="E43" s="183"/>
       <c r="F43" s="184"/>
       <c r="G43" s="185"/>
       <c r="H43" s="186"/>
@@ -6496,8 +6532,8 @@
       <c r="C44" s="127" t="s">
         <v>155</v>
       </c>
-      <c r="D44" s="188"/>
-      <c r="E44" s="189"/>
+      <c r="D44" s="182"/>
+      <c r="E44" s="183"/>
       <c r="F44" s="184"/>
       <c r="G44" s="185"/>
       <c r="H44" s="186"/>
@@ -6509,8 +6545,8 @@
       <c r="C45" s="127" t="s">
         <v>156</v>
       </c>
-      <c r="D45" s="188"/>
-      <c r="E45" s="189"/>
+      <c r="D45" s="182"/>
+      <c r="E45" s="183"/>
       <c r="F45" s="184"/>
       <c r="G45" s="185"/>
       <c r="H45" s="186"/>
@@ -6526,11 +6562,11 @@
     <row r="49" spans="2:8">
       <c r="B49" s="124"/>
       <c r="C49" s="124"/>
-      <c r="D49" s="190"/>
-      <c r="E49" s="190"/>
-      <c r="F49" s="190"/>
-      <c r="G49" s="190"/>
-      <c r="H49" s="190"/>
+      <c r="D49" s="188"/>
+      <c r="E49" s="188"/>
+      <c r="F49" s="188"/>
+      <c r="G49" s="188"/>
+      <c r="H49" s="188"/>
     </row>
     <row r="50" spans="2:8" ht="20" customHeight="1">
       <c r="B50" s="126">
@@ -6539,10 +6575,10 @@
       <c r="C50" s="127" t="s">
         <v>122</v>
       </c>
-      <c r="D50" s="182" t="s">
+      <c r="D50" s="187" t="s">
         <v>121</v>
       </c>
-      <c r="E50" s="182"/>
+      <c r="E50" s="187"/>
       <c r="F50" s="184"/>
       <c r="G50" s="185"/>
       <c r="H50" s="186"/>
@@ -6554,10 +6590,10 @@
       <c r="C51" s="127" t="s">
         <v>123</v>
       </c>
-      <c r="D51" s="182" t="s">
+      <c r="D51" s="187" t="s">
         <v>129</v>
       </c>
-      <c r="E51" s="182"/>
+      <c r="E51" s="187"/>
       <c r="F51" s="184"/>
       <c r="G51" s="185"/>
       <c r="H51" s="186"/>
@@ -6569,10 +6605,10 @@
       <c r="C52" s="127" t="s">
         <v>124</v>
       </c>
-      <c r="D52" s="182" t="s">
+      <c r="D52" s="187" t="s">
         <v>130</v>
       </c>
-      <c r="E52" s="182"/>
+      <c r="E52" s="187"/>
       <c r="F52" s="184"/>
       <c r="G52" s="185"/>
       <c r="H52" s="186"/>
@@ -6584,10 +6620,10 @@
       <c r="C53" s="127" t="s">
         <v>125</v>
       </c>
-      <c r="D53" s="182" t="s">
+      <c r="D53" s="187" t="s">
         <v>131</v>
       </c>
-      <c r="E53" s="182"/>
+      <c r="E53" s="187"/>
       <c r="F53" s="184"/>
       <c r="G53" s="185"/>
       <c r="H53" s="186"/>
@@ -6599,10 +6635,10 @@
       <c r="C54" s="127" t="s">
         <v>126</v>
       </c>
-      <c r="D54" s="182" t="s">
+      <c r="D54" s="187" t="s">
         <v>132</v>
       </c>
-      <c r="E54" s="182"/>
+      <c r="E54" s="187"/>
       <c r="F54" s="184"/>
       <c r="G54" s="185"/>
       <c r="H54" s="186"/>
@@ -6614,10 +6650,10 @@
       <c r="C55" s="127" t="s">
         <v>127</v>
       </c>
-      <c r="D55" s="182" t="s">
+      <c r="D55" s="187" t="s">
         <v>133</v>
       </c>
-      <c r="E55" s="182"/>
+      <c r="E55" s="187"/>
       <c r="F55" s="184"/>
       <c r="G55" s="185"/>
       <c r="H55" s="186"/>
@@ -6629,10 +6665,10 @@
       <c r="C56" s="127" t="s">
         <v>128</v>
       </c>
-      <c r="D56" s="182" t="s">
+      <c r="D56" s="187" t="s">
         <v>134</v>
       </c>
-      <c r="E56" s="182"/>
+      <c r="E56" s="187"/>
       <c r="F56" s="184"/>
       <c r="G56" s="185"/>
       <c r="H56" s="186"/>
@@ -6648,11 +6684,11 @@
     <row r="60" spans="2:8">
       <c r="B60" s="124"/>
       <c r="C60" s="124"/>
-      <c r="D60" s="190"/>
-      <c r="E60" s="190"/>
-      <c r="F60" s="190"/>
-      <c r="G60" s="190"/>
-      <c r="H60" s="190"/>
+      <c r="D60" s="188"/>
+      <c r="E60" s="188"/>
+      <c r="F60" s="188"/>
+      <c r="G60" s="188"/>
+      <c r="H60" s="188"/>
     </row>
     <row r="61" spans="2:8" ht="15" customHeight="1">
       <c r="B61" s="126">
@@ -6661,10 +6697,10 @@
       <c r="C61" s="127" t="s">
         <v>136</v>
       </c>
-      <c r="D61" s="188" t="s">
+      <c r="D61" s="182" t="s">
         <v>141</v>
       </c>
-      <c r="E61" s="189"/>
+      <c r="E61" s="183"/>
       <c r="F61" s="184"/>
       <c r="G61" s="185"/>
       <c r="H61" s="186"/>
@@ -6676,10 +6712,10 @@
       <c r="C62" s="127" t="s">
         <v>137</v>
       </c>
-      <c r="D62" s="188" t="s">
+      <c r="D62" s="182" t="s">
         <v>142</v>
       </c>
-      <c r="E62" s="189"/>
+      <c r="E62" s="183"/>
       <c r="F62" s="184"/>
       <c r="G62" s="185"/>
       <c r="H62" s="186"/>
@@ -6691,10 +6727,10 @@
       <c r="C63" s="127" t="s">
         <v>138</v>
       </c>
-      <c r="D63" s="188" t="s">
+      <c r="D63" s="182" t="s">
         <v>143</v>
       </c>
-      <c r="E63" s="189"/>
+      <c r="E63" s="183"/>
       <c r="F63" s="184"/>
       <c r="G63" s="185"/>
       <c r="H63" s="186"/>
@@ -6706,10 +6742,10 @@
       <c r="C64" s="127" t="s">
         <v>139</v>
       </c>
-      <c r="D64" s="188" t="s">
+      <c r="D64" s="182" t="s">
         <v>144</v>
       </c>
-      <c r="E64" s="189"/>
+      <c r="E64" s="183"/>
       <c r="F64" s="184"/>
       <c r="G64" s="185"/>
       <c r="H64" s="186"/>
@@ -6721,32 +6757,72 @@
       <c r="C65" s="127" t="s">
         <v>140</v>
       </c>
-      <c r="D65" s="188"/>
-      <c r="E65" s="189"/>
+      <c r="D65" s="182"/>
+      <c r="E65" s="183"/>
       <c r="F65" s="184"/>
       <c r="G65" s="185"/>
       <c r="H65" s="186"/>
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="F36:H36"/>
     <mergeCell ref="D51:E51"/>
@@ -6763,64 +6839,24 @@
     <mergeCell ref="F43:H43"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="F44:H44"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:H55"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6835,10 +6871,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N30"/>
+  <dimension ref="B1:N32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6849,8 +6885,8 @@
     <col min="4" max="4" width="11.5" style="36" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="36" customWidth="1"/>
     <col min="6" max="6" width="48.6640625" style="36" customWidth="1"/>
-    <col min="7" max="7" width="43.5" style="36" customWidth="1"/>
-    <col min="8" max="8" width="51.83203125" style="36" customWidth="1"/>
+    <col min="7" max="7" width="62.33203125" style="36" customWidth="1"/>
+    <col min="8" max="8" width="62.83203125" style="36" customWidth="1"/>
     <col min="9" max="9" width="57.5" style="36" customWidth="1"/>
     <col min="10" max="16384" width="10.83203125" style="36"/>
   </cols>
@@ -6899,20 +6935,17 @@
         <v>169</v>
       </c>
       <c r="D4" s="104" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E4" s="191" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F4" s="192"/>
       <c r="G4" s="104" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H4" s="104" t="s">
         <v>0</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="20" customHeight="1">
@@ -6920,7 +6953,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="106" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D5" s="193" t="s">
         <v>209</v>
@@ -6929,13 +6962,13 @@
         <v>212</v>
       </c>
       <c r="F5" s="108" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G5" s="108" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H5" s="109" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I5" s="110"/>
       <c r="J5" s="38"/>
@@ -6945,24 +6978,22 @@
         <v>2</v>
       </c>
       <c r="C6" s="106" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D6" s="194"/>
       <c r="E6" s="107" t="s">
         <v>212</v>
       </c>
       <c r="F6" s="108" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G6" s="108" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H6" s="109" t="s">
-        <v>225</v>
-      </c>
-      <c r="I6" s="110" t="s">
-        <v>230</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="I6" s="110"/>
       <c r="J6" s="38"/>
     </row>
     <row r="7" spans="2:14" ht="20" customHeight="1">
@@ -6970,20 +7001,20 @@
         <v>3</v>
       </c>
       <c r="C7" s="106" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D7" s="194"/>
       <c r="E7" s="107" t="s">
         <v>213</v>
       </c>
       <c r="F7" s="108" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G7" s="108" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H7" s="109" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I7" s="110"/>
       <c r="J7" s="38"/>
@@ -6993,20 +7024,20 @@
         <v>4</v>
       </c>
       <c r="C8" s="106" t="s">
-        <v>243</v>
+        <v>348</v>
       </c>
       <c r="D8" s="194"/>
-      <c r="E8" s="107" t="s">
-        <v>215</v>
-      </c>
-      <c r="F8" s="108" t="s">
-        <v>262</v>
-      </c>
-      <c r="G8" s="108" t="s">
-        <v>221</v>
-      </c>
-      <c r="H8" s="109" t="s">
-        <v>216</v>
+      <c r="E8" s="216" t="s">
+        <v>213</v>
+      </c>
+      <c r="F8" s="217" t="s">
+        <v>257</v>
+      </c>
+      <c r="G8" s="217" t="s">
+        <v>342</v>
+      </c>
+      <c r="H8" s="218" t="s">
+        <v>343</v>
       </c>
       <c r="I8" s="110"/>
       <c r="J8" s="38"/>
@@ -7016,20 +7047,20 @@
         <v>5</v>
       </c>
       <c r="C9" s="106" t="s">
-        <v>342</v>
+        <v>240</v>
       </c>
       <c r="D9" s="194"/>
       <c r="E9" s="107" t="s">
         <v>215</v>
       </c>
       <c r="F9" s="108" t="s">
-        <v>341</v>
+        <v>259</v>
       </c>
       <c r="G9" s="108" t="s">
-        <v>343</v>
+        <v>220</v>
       </c>
       <c r="H9" s="109" t="s">
-        <v>344</v>
+        <v>216</v>
       </c>
       <c r="I9" s="110"/>
       <c r="J9" s="38"/>
@@ -7039,47 +7070,43 @@
         <v>6</v>
       </c>
       <c r="C10" s="106" t="s">
-        <v>244</v>
-      </c>
-      <c r="D10" s="195"/>
-      <c r="E10" s="107" t="s">
-        <v>213</v>
-      </c>
-      <c r="F10" s="108" t="s">
-        <v>263</v>
-      </c>
-      <c r="G10" s="108" t="s">
-        <v>286</v>
-      </c>
-      <c r="H10" s="109" t="s">
-        <v>227</v>
-      </c>
-      <c r="I10" s="110" t="s">
-        <v>229</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="D10" s="194"/>
+      <c r="E10" s="216" t="s">
+        <v>215</v>
+      </c>
+      <c r="F10" s="217" t="s">
+        <v>338</v>
+      </c>
+      <c r="G10" s="217" t="s">
+        <v>345</v>
+      </c>
+      <c r="H10" s="218" t="s">
+        <v>344</v>
+      </c>
+      <c r="I10" s="110"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="2:14" ht="20" customHeight="1">
       <c r="B11" s="105">
         <v>7</v>
       </c>
-      <c r="C11" s="111" t="s">
-        <v>248</v>
-      </c>
-      <c r="D11" s="196" t="s">
-        <v>210</v>
-      </c>
-      <c r="E11" s="112" t="s">
-        <v>215</v>
-      </c>
-      <c r="F11" s="113" t="s">
-        <v>264</v>
-      </c>
-      <c r="G11" s="113" t="s">
-        <v>222</v>
-      </c>
-      <c r="H11" s="114" t="s">
-        <v>247</v>
+      <c r="C11" s="106" t="s">
+        <v>241</v>
+      </c>
+      <c r="D11" s="195"/>
+      <c r="E11" s="107" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="G11" s="108" t="s">
+        <v>283</v>
+      </c>
+      <c r="H11" s="109" t="s">
+        <v>226</v>
       </c>
       <c r="I11" s="110"/>
       <c r="J11" s="38"/>
@@ -7089,20 +7116,22 @@
         <v>8</v>
       </c>
       <c r="C12" s="111" t="s">
-        <v>246</v>
-      </c>
-      <c r="D12" s="197"/>
+        <v>245</v>
+      </c>
+      <c r="D12" s="196" t="s">
+        <v>210</v>
+      </c>
       <c r="E12" s="112" t="s">
         <v>215</v>
       </c>
       <c r="F12" s="113" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G12" s="113" t="s">
-        <v>284</v>
+        <v>221</v>
       </c>
       <c r="H12" s="114" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="I12" s="110"/>
       <c r="J12" s="38"/>
@@ -7112,20 +7141,20 @@
         <v>9</v>
       </c>
       <c r="C13" s="111" t="s">
-        <v>245</v>
+        <v>349</v>
       </c>
       <c r="D13" s="197"/>
-      <c r="E13" s="112" t="s">
+      <c r="E13" s="219" t="s">
         <v>215</v>
       </c>
-      <c r="F13" s="113" t="s">
-        <v>266</v>
-      </c>
-      <c r="G13" s="113" t="s">
-        <v>272</v>
-      </c>
-      <c r="H13" s="114" t="s">
-        <v>231</v>
+      <c r="F13" s="220" t="s">
+        <v>261</v>
+      </c>
+      <c r="G13" s="220" t="s">
+        <v>346</v>
+      </c>
+      <c r="H13" s="221" t="s">
+        <v>347</v>
       </c>
       <c r="I13" s="110"/>
       <c r="J13" s="38"/>
@@ -7135,20 +7164,20 @@
         <v>10</v>
       </c>
       <c r="C14" s="111" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="D14" s="197"/>
       <c r="E14" s="112" t="s">
         <v>215</v>
       </c>
       <c r="F14" s="113" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G14" s="113" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="H14" s="114" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="I14" s="110"/>
       <c r="J14" s="38"/>
@@ -7158,17 +7187,17 @@
         <v>11</v>
       </c>
       <c r="C15" s="111" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D15" s="197"/>
       <c r="E15" s="112" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F15" s="113" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G15" s="113" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="H15" s="114" t="s">
         <v>228</v>
@@ -7181,20 +7210,20 @@
         <v>12</v>
       </c>
       <c r="C16" s="111" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D16" s="197"/>
       <c r="E16" s="112" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F16" s="113" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G16" s="113" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H16" s="114" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="I16" s="110"/>
       <c r="J16" s="38"/>
@@ -7204,20 +7233,20 @@
         <v>13</v>
       </c>
       <c r="C17" s="111" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D17" s="197"/>
       <c r="E17" s="112" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F17" s="113" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G17" s="113" t="s">
-        <v>275</v>
+        <v>222</v>
       </c>
       <c r="H17" s="114" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I17" s="110"/>
       <c r="J17" s="38"/>
@@ -7226,23 +7255,21 @@
       <c r="B18" s="105">
         <v>14</v>
       </c>
-      <c r="C18" s="115" t="s">
-        <v>252</v>
-      </c>
-      <c r="D18" s="198" t="s">
-        <v>211</v>
-      </c>
-      <c r="E18" s="116" t="s">
-        <v>215</v>
-      </c>
-      <c r="F18" s="117" t="s">
-        <v>268</v>
-      </c>
-      <c r="G18" s="117" t="s">
-        <v>276</v>
-      </c>
-      <c r="H18" s="118" t="s">
-        <v>278</v>
+      <c r="C18" s="111" t="s">
+        <v>247</v>
+      </c>
+      <c r="D18" s="197"/>
+      <c r="E18" s="112" t="s">
+        <v>213</v>
+      </c>
+      <c r="F18" s="113" t="s">
+        <v>264</v>
+      </c>
+      <c r="G18" s="113" t="s">
+        <v>271</v>
+      </c>
+      <c r="H18" s="114" t="s">
+        <v>230</v>
       </c>
       <c r="I18" s="110"/>
       <c r="J18" s="38"/>
@@ -7251,21 +7278,21 @@
       <c r="B19" s="105">
         <v>15</v>
       </c>
-      <c r="C19" s="115" t="s">
-        <v>253</v>
-      </c>
-      <c r="D19" s="199"/>
-      <c r="E19" s="116" t="s">
-        <v>215</v>
-      </c>
-      <c r="F19" s="117" t="s">
-        <v>269</v>
-      </c>
-      <c r="G19" s="117" t="s">
-        <v>285</v>
-      </c>
-      <c r="H19" s="118" t="s">
-        <v>279</v>
+      <c r="C19" s="111" t="s">
+        <v>248</v>
+      </c>
+      <c r="D19" s="197"/>
+      <c r="E19" s="112" t="s">
+        <v>214</v>
+      </c>
+      <c r="F19" s="113" t="s">
+        <v>264</v>
+      </c>
+      <c r="G19" s="113" t="s">
+        <v>272</v>
+      </c>
+      <c r="H19" s="114" t="s">
+        <v>231</v>
       </c>
       <c r="I19" s="110"/>
       <c r="J19" s="38"/>
@@ -7275,20 +7302,22 @@
         <v>16</v>
       </c>
       <c r="C20" s="115" t="s">
-        <v>254</v>
-      </c>
-      <c r="D20" s="199"/>
+        <v>249</v>
+      </c>
+      <c r="D20" s="198" t="s">
+        <v>211</v>
+      </c>
       <c r="E20" s="116" t="s">
         <v>215</v>
       </c>
       <c r="F20" s="117" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G20" s="117" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H20" s="118" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="I20" s="110"/>
       <c r="J20" s="38"/>
@@ -7298,20 +7327,20 @@
         <v>17</v>
       </c>
       <c r="C21" s="115" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D21" s="199"/>
       <c r="E21" s="116" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F21" s="117" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G21" s="117" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H21" s="118" t="s">
-        <v>235</v>
+        <v>276</v>
       </c>
       <c r="I21" s="110"/>
       <c r="J21" s="38"/>
@@ -7321,20 +7350,20 @@
         <v>18</v>
       </c>
       <c r="C22" s="115" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D22" s="199"/>
       <c r="E22" s="116" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F22" s="117" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G22" s="117" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="H22" s="118" t="s">
-        <v>236</v>
+        <v>277</v>
       </c>
       <c r="I22" s="110"/>
       <c r="J22" s="38"/>
@@ -7344,20 +7373,20 @@
         <v>19</v>
       </c>
       <c r="C23" s="115" t="s">
-        <v>257</v>
-      </c>
-      <c r="D23" s="200"/>
+        <v>252</v>
+      </c>
+      <c r="D23" s="199"/>
       <c r="E23" s="116" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F23" s="117" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G23" s="117" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H23" s="118" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="I23" s="110"/>
       <c r="J23" s="38"/>
@@ -7366,12 +7395,22 @@
       <c r="B24" s="105">
         <v>20</v>
       </c>
-      <c r="C24" s="106"/>
-      <c r="D24" s="119"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="109"/>
+      <c r="C24" s="115" t="s">
+        <v>253</v>
+      </c>
+      <c r="D24" s="199"/>
+      <c r="E24" s="116" t="s">
+        <v>213</v>
+      </c>
+      <c r="F24" s="117" t="s">
+        <v>268</v>
+      </c>
+      <c r="G24" s="117" t="s">
+        <v>279</v>
+      </c>
+      <c r="H24" s="118" t="s">
+        <v>233</v>
+      </c>
       <c r="I24" s="110"/>
       <c r="J24" s="38"/>
     </row>
@@ -7379,12 +7418,22 @@
       <c r="B25" s="105">
         <v>21</v>
       </c>
-      <c r="C25" s="106"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="109"/>
+      <c r="C25" s="115" t="s">
+        <v>254</v>
+      </c>
+      <c r="D25" s="200"/>
+      <c r="E25" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="F25" s="117" t="s">
+        <v>268</v>
+      </c>
+      <c r="G25" s="117" t="s">
+        <v>280</v>
+      </c>
+      <c r="H25" s="118" t="s">
+        <v>234</v>
+      </c>
       <c r="I25" s="110"/>
       <c r="J25" s="38"/>
     </row>
@@ -7415,44 +7464,70 @@
       <c r="J27" s="38"/>
     </row>
     <row r="28" spans="2:10" ht="20" customHeight="1">
-      <c r="B28" s="58"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="61"/>
+      <c r="B28" s="105">
+        <v>24</v>
+      </c>
+      <c r="C28" s="106"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="109"/>
+      <c r="I28" s="110"/>
       <c r="J28" s="38"/>
     </row>
     <row r="29" spans="2:10" ht="20" customHeight="1">
-      <c r="B29" s="39"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="61"/>
+      <c r="B29" s="105">
+        <v>25</v>
+      </c>
+      <c r="C29" s="106"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="109"/>
+      <c r="I29" s="110"/>
       <c r="J29" s="38"/>
     </row>
     <row r="30" spans="2:10" ht="20" customHeight="1">
-      <c r="B30" s="39"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
       <c r="I30" s="61"/>
       <c r="J30" s="38"/>
+    </row>
+    <row r="31" spans="2:10" ht="20" customHeight="1">
+      <c r="B31" s="39"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="38"/>
+    </row>
+    <row r="32" spans="2:10" ht="20" customHeight="1">
+      <c r="B32" s="39"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="D5:D10"/>
-    <mergeCell ref="D11:D17"/>
-    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="D5:D11"/>
+    <mergeCell ref="D12:D19"/>
+    <mergeCell ref="D20:D25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -7468,7 +7543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="D38" sqref="D38:E38"/>
     </sheetView>
   </sheetViews>
@@ -7511,7 +7586,7 @@
         <v>182</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -7552,13 +7627,13 @@
         <v>169</v>
       </c>
       <c r="C4" s="201" t="s">
-        <v>240</v>
-      </c>
-      <c r="D4" s="211"/>
-      <c r="E4" s="211"/>
-      <c r="F4" s="211"/>
-      <c r="G4" s="211"/>
-      <c r="H4" s="211"/>
+        <v>237</v>
+      </c>
+      <c r="D4" s="209"/>
+      <c r="E4" s="209"/>
+      <c r="F4" s="209"/>
+      <c r="G4" s="209"/>
+      <c r="H4" s="209"/>
       <c r="I4" s="202"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -7573,13 +7648,13 @@
         <v>170</v>
       </c>
       <c r="C5" s="201" t="s">
-        <v>224</v>
-      </c>
-      <c r="D5" s="211"/>
-      <c r="E5" s="211"/>
-      <c r="F5" s="211"/>
-      <c r="G5" s="211"/>
-      <c r="H5" s="211"/>
+        <v>223</v>
+      </c>
+      <c r="D5" s="209"/>
+      <c r="E5" s="209"/>
+      <c r="F5" s="209"/>
+      <c r="G5" s="209"/>
+      <c r="H5" s="209"/>
       <c r="I5" s="202"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -7591,10 +7666,10 @@
     <row r="6" spans="1:15" ht="20" customHeight="1">
       <c r="A6" s="66"/>
       <c r="B6" s="70" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C6" s="103" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D6" s="72"/>
       <c r="E6" s="72"/>
@@ -7612,16 +7687,16 @@
     <row r="7" spans="1:15" ht="20" customHeight="1">
       <c r="A7" s="66"/>
       <c r="B7" s="70" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C7" s="201" t="s">
         <v>212</v>
       </c>
-      <c r="D7" s="211"/>
-      <c r="E7" s="211"/>
-      <c r="F7" s="211"/>
-      <c r="G7" s="211"/>
-      <c r="H7" s="211"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="209"/>
+      <c r="H7" s="209"/>
       <c r="I7" s="202"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -7633,7 +7708,7 @@
     <row r="8" spans="1:15" ht="20" customHeight="1">
       <c r="A8" s="66"/>
       <c r="B8" s="70" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C8" s="71" t="s">
         <v>38</v>
@@ -7654,16 +7729,16 @@
     <row r="9" spans="1:15" ht="20" customHeight="1">
       <c r="A9" s="66"/>
       <c r="B9" s="70" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C9" s="201" t="s">
-        <v>336</v>
-      </c>
-      <c r="D9" s="211"/>
-      <c r="E9" s="211"/>
-      <c r="F9" s="211"/>
-      <c r="G9" s="211"/>
-      <c r="H9" s="211"/>
+        <v>333</v>
+      </c>
+      <c r="D9" s="209"/>
+      <c r="E9" s="209"/>
+      <c r="F9" s="209"/>
+      <c r="G9" s="209"/>
+      <c r="H9" s="209"/>
       <c r="I9" s="202"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -7692,7 +7767,7 @@
     <row r="11" spans="1:15" ht="20" customHeight="1">
       <c r="A11" s="66"/>
       <c r="B11" s="74" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C11" s="74"/>
       <c r="D11" s="66"/>
@@ -7727,19 +7802,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="208" t="s">
+      <c r="B13" s="203" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="209"/>
-      <c r="D13" s="209"/>
-      <c r="E13" s="209"/>
-      <c r="F13" s="209"/>
-      <c r="G13" s="209"/>
-      <c r="H13" s="209"/>
-      <c r="I13" s="209"/>
-      <c r="J13" s="209"/>
-      <c r="K13" s="209"/>
-      <c r="L13" s="210"/>
+      <c r="C13" s="204"/>
+      <c r="D13" s="204"/>
+      <c r="E13" s="204"/>
+      <c r="F13" s="204"/>
+      <c r="G13" s="204"/>
+      <c r="H13" s="204"/>
+      <c r="I13" s="204"/>
+      <c r="J13" s="204"/>
+      <c r="K13" s="204"/>
+      <c r="L13" s="205"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -7768,11 +7843,11 @@
       <c r="I14" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="J14" s="212" t="s">
+      <c r="J14" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="212"/>
-      <c r="L14" s="212"/>
+      <c r="K14" s="210"/>
+      <c r="L14" s="210"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -7781,16 +7856,16 @@
       <c r="A15" s="66"/>
       <c r="B15" s="77"/>
       <c r="C15" s="78" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D15" s="79" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E15" s="80" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F15" s="80" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G15" s="80">
         <v>4</v>
@@ -7799,13 +7874,13 @@
         <v>50</v>
       </c>
       <c r="I15" s="81" t="s">
-        <v>292</v>
-      </c>
-      <c r="J15" s="213" t="s">
-        <v>293</v>
-      </c>
-      <c r="K15" s="213"/>
-      <c r="L15" s="213"/>
+        <v>289</v>
+      </c>
+      <c r="J15" s="211" t="s">
+        <v>290</v>
+      </c>
+      <c r="K15" s="211"/>
+      <c r="L15" s="211"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -7814,16 +7889,16 @@
       <c r="A16" s="66"/>
       <c r="B16" s="77"/>
       <c r="C16" s="78" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D16" s="79" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E16" s="80" t="s">
         <v>183</v>
       </c>
       <c r="F16" s="80" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G16" s="80">
         <v>4</v>
@@ -7832,13 +7907,13 @@
         <v>50</v>
       </c>
       <c r="I16" s="81" t="s">
-        <v>296</v>
-      </c>
-      <c r="J16" s="213" t="s">
-        <v>297</v>
-      </c>
-      <c r="K16" s="213"/>
-      <c r="L16" s="213"/>
+        <v>293</v>
+      </c>
+      <c r="J16" s="211" t="s">
+        <v>294</v>
+      </c>
+      <c r="K16" s="211"/>
+      <c r="L16" s="211"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -7847,16 +7922,16 @@
       <c r="A17" s="66"/>
       <c r="B17" s="77"/>
       <c r="C17" s="78" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D17" s="79" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E17" s="80" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F17" s="80" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G17" s="80" t="s">
         <v>180</v>
@@ -7865,10 +7940,10 @@
         <v>50</v>
       </c>
       <c r="I17" s="81" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="J17" s="71" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K17" s="72"/>
       <c r="L17" s="73"/>
@@ -7880,16 +7955,16 @@
       <c r="A18" s="66"/>
       <c r="B18" s="77"/>
       <c r="C18" s="78" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D18" s="79" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E18" s="80" t="s">
         <v>184</v>
       </c>
       <c r="F18" s="80" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G18" s="80" t="s">
         <v>180</v>
@@ -7898,12 +7973,12 @@
         <v>50</v>
       </c>
       <c r="I18" s="79" t="s">
+        <v>303</v>
+      </c>
+      <c r="J18" s="201" t="s">
         <v>306</v>
       </c>
-      <c r="J18" s="201" t="s">
-        <v>309</v>
-      </c>
-      <c r="K18" s="211"/>
+      <c r="K18" s="209"/>
       <c r="L18" s="202"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
@@ -7913,16 +7988,16 @@
       <c r="A19" s="66"/>
       <c r="B19" s="82"/>
       <c r="C19" s="78" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D19" s="79" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E19" s="80" t="s">
         <v>184</v>
       </c>
       <c r="F19" s="80" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G19" s="80" t="s">
         <v>180</v>
@@ -7931,12 +8006,12 @@
         <v>255</v>
       </c>
       <c r="I19" s="83" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J19" s="201" t="s">
-        <v>314</v>
-      </c>
-      <c r="K19" s="211"/>
+        <v>311</v>
+      </c>
+      <c r="K19" s="209"/>
       <c r="L19" s="202"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
@@ -7962,7 +8037,7 @@
     <row r="21" spans="1:15" ht="20" customHeight="1">
       <c r="A21" s="66"/>
       <c r="B21" s="74" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C21" s="84"/>
       <c r="D21" s="84"/>
@@ -8099,11 +8174,11 @@
     </row>
     <row r="29" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A29" s="69"/>
-      <c r="B29" s="214" t="s">
-        <v>302</v>
-      </c>
-      <c r="C29" s="214"/>
-      <c r="D29" s="214"/>
+      <c r="B29" s="212" t="s">
+        <v>299</v>
+      </c>
+      <c r="C29" s="212"/>
+      <c r="D29" s="212"/>
       <c r="E29" s="87"/>
       <c r="F29" s="88"/>
       <c r="G29" s="87"/>
@@ -8118,12 +8193,12 @@
     </row>
     <row r="30" spans="1:15" s="91" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="90"/>
-      <c r="B30" s="205" t="s">
+      <c r="B30" s="206" t="s">
         <v>173</v>
       </c>
-      <c r="C30" s="206"/>
-      <c r="D30" s="206"/>
-      <c r="E30" s="207"/>
+      <c r="C30" s="207"/>
+      <c r="D30" s="207"/>
+      <c r="E30" s="208"/>
       <c r="F30" s="76" t="s">
         <v>172</v>
       </c>
@@ -8143,7 +8218,7 @@
         <v>177</v>
       </c>
       <c r="L30" s="76" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="M30" s="90"/>
       <c r="N30" s="90"/>
@@ -8184,18 +8259,18 @@
       <c r="A32" s="66"/>
       <c r="B32" s="92"/>
       <c r="C32" s="95" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D32" s="96"/>
       <c r="E32" s="94"/>
       <c r="F32" s="78" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G32" s="80" t="s">
         <v>185</v>
       </c>
       <c r="H32" s="80" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I32" s="80">
         <v>1</v>
@@ -8216,7 +8291,7 @@
       <c r="B33" s="92"/>
       <c r="C33" s="97"/>
       <c r="D33" s="201" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E33" s="202"/>
       <c r="F33" s="78" t="s">
@@ -8226,7 +8301,7 @@
         <v>181</v>
       </c>
       <c r="H33" s="80" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I33" s="80">
         <v>1</v>
@@ -8249,11 +8324,11 @@
       <c r="B34" s="92"/>
       <c r="C34" s="99"/>
       <c r="D34" s="201" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E34" s="202"/>
       <c r="F34" s="78" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G34" s="80" t="s">
         <v>191</v>
@@ -8271,7 +8346,7 @@
         <v>180</v>
       </c>
       <c r="L34" s="79" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M34" s="66"/>
       <c r="N34" s="66"/>
@@ -8281,18 +8356,18 @@
       <c r="A35" s="66"/>
       <c r="B35" s="92"/>
       <c r="C35" s="95" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D35" s="96"/>
       <c r="E35" s="94"/>
       <c r="F35" s="78" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G35" s="80" t="s">
         <v>185</v>
       </c>
       <c r="H35" s="80" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I35" s="80">
         <v>1</v>
@@ -8304,7 +8379,7 @@
         <v>193</v>
       </c>
       <c r="L35" s="79" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M35" s="66"/>
       <c r="N35" s="66"/>
@@ -8315,17 +8390,17 @@
       <c r="B36" s="92"/>
       <c r="C36" s="102"/>
       <c r="D36" s="201" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E36" s="202"/>
       <c r="F36" s="78" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G36" s="80" t="s">
         <v>194</v>
       </c>
       <c r="H36" s="80" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I36" s="80">
         <v>1</v>
@@ -8337,7 +8412,7 @@
         <v>180</v>
       </c>
       <c r="L36" s="79" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M36" s="66"/>
       <c r="N36" s="66"/>
@@ -8347,18 +8422,18 @@
       <c r="A37" s="66"/>
       <c r="B37" s="92"/>
       <c r="C37" s="102"/>
-      <c r="D37" s="203" t="s">
-        <v>289</v>
-      </c>
-      <c r="E37" s="204"/>
+      <c r="D37" s="214" t="s">
+        <v>286</v>
+      </c>
+      <c r="E37" s="215"/>
       <c r="F37" s="78" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G37" s="80" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H37" s="80" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I37" s="80">
         <v>1</v>
@@ -8370,7 +8445,7 @@
         <v>180</v>
       </c>
       <c r="L37" s="79" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="M37" s="66"/>
       <c r="N37" s="66"/>
@@ -8381,17 +8456,17 @@
       <c r="B38" s="92"/>
       <c r="C38" s="97"/>
       <c r="D38" s="201" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E38" s="202"/>
       <c r="F38" s="78" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G38" s="80" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H38" s="80" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I38" s="80">
         <v>1</v>
@@ -8403,7 +8478,7 @@
         <v>180</v>
       </c>
       <c r="L38" s="79" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M38" s="66"/>
       <c r="N38" s="66"/>
@@ -8414,17 +8489,17 @@
       <c r="B39" s="92"/>
       <c r="C39" s="97"/>
       <c r="D39" s="71" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E39" s="73"/>
       <c r="F39" s="78" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G39" s="80" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H39" s="80" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I39" s="80">
         <v>1</v>
@@ -8436,7 +8511,7 @@
         <v>180</v>
       </c>
       <c r="L39" s="79" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M39" s="66"/>
       <c r="N39" s="66"/>
@@ -8457,7 +8532,7 @@
         <v>191</v>
       </c>
       <c r="H40" s="80" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I40" s="80">
         <v>1</v>
@@ -8469,7 +8544,7 @@
         <v>180</v>
       </c>
       <c r="L40" s="79" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M40" s="66"/>
       <c r="N40" s="66"/>
@@ -8495,7 +8570,7 @@
     <row r="42" spans="1:15" ht="20" customHeight="1">
       <c r="A42" s="66"/>
       <c r="B42" s="33" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C42" s="93"/>
       <c r="D42" s="86"/>
@@ -8751,11 +8826,11 @@
     </row>
     <row r="57" spans="1:15" ht="20" customHeight="1">
       <c r="A57" s="66"/>
-      <c r="B57" s="215" t="s">
+      <c r="B57" s="213" t="s">
         <v>192</v>
       </c>
-      <c r="C57" s="215"/>
-      <c r="D57" s="215"/>
+      <c r="C57" s="213"/>
+      <c r="D57" s="213"/>
       <c r="E57" s="66"/>
       <c r="F57" s="66"/>
       <c r="G57" s="66"/>
@@ -8772,12 +8847,12 @@
     </row>
     <row r="58" spans="1:15" s="91" customFormat="1" ht="20" customHeight="1">
       <c r="A58" s="90"/>
-      <c r="B58" s="205" t="s">
+      <c r="B58" s="206" t="s">
         <v>173</v>
       </c>
-      <c r="C58" s="206"/>
-      <c r="D58" s="206"/>
-      <c r="E58" s="207"/>
+      <c r="C58" s="207"/>
+      <c r="D58" s="207"/>
+      <c r="E58" s="208"/>
       <c r="F58" s="76" t="s">
         <v>172</v>
       </c>
@@ -8838,18 +8913,18 @@
       <c r="A60" s="66"/>
       <c r="B60" s="92"/>
       <c r="C60" s="95" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D60" s="96"/>
       <c r="E60" s="94"/>
       <c r="F60" s="78" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G60" s="80" t="s">
         <v>185</v>
       </c>
       <c r="H60" s="80" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I60" s="80">
         <v>1</v>
@@ -8870,7 +8945,7 @@
       <c r="B61" s="92"/>
       <c r="C61" s="97"/>
       <c r="D61" s="201" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E61" s="202"/>
       <c r="F61" s="78" t="s">
@@ -8880,7 +8955,7 @@
         <v>181</v>
       </c>
       <c r="H61" s="80" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I61" s="80">
         <v>1</v>
@@ -8901,11 +8976,11 @@
       <c r="B62" s="92"/>
       <c r="C62" s="99"/>
       <c r="D62" s="201" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E62" s="202"/>
       <c r="F62" s="78" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G62" s="80" t="s">
         <v>191</v>
@@ -8923,7 +8998,7 @@
         <v>180</v>
       </c>
       <c r="L62" s="79" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="M62" s="66"/>
       <c r="N62" s="66"/>
@@ -8933,18 +9008,18 @@
       <c r="A63" s="66"/>
       <c r="B63" s="92"/>
       <c r="C63" s="95" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D63" s="96"/>
       <c r="E63" s="94"/>
       <c r="F63" s="78" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G63" s="80" t="s">
         <v>185</v>
       </c>
       <c r="H63" s="80" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I63" s="80">
         <v>1</v>
@@ -8997,7 +9072,7 @@
     <row r="66" spans="1:15" ht="20" customHeight="1">
       <c r="A66" s="66"/>
       <c r="B66" s="74" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C66" s="66"/>
       <c r="D66" s="66"/>
@@ -9219,6 +9294,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B58:E58"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="B30:E30"/>
@@ -9235,13 +9317,6 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B58:E58"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>

--- a/doc/detail_design/api/MCS_Web_API_Specification.xlsx
+++ b/doc/detail_design/api/MCS_Web_API_Specification.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="359">
   <si>
     <t>Description</t>
   </si>
@@ -831,9 +831,6 @@
     <t>/v1/users/{user_id}/articles</t>
   </si>
   <si>
-    <t>/v1/users/articles</t>
-  </si>
-  <si>
     <t>/v1/articles/{article_id}</t>
   </si>
   <si>
@@ -1054,9 +1051,6 @@
   </si>
   <si>
     <t>POST /v1/users/login</t>
-  </si>
-  <si>
-    <t>/v1/users/list/{name}</t>
   </si>
   <si>
     <t>Search users by name</t>
@@ -1091,9 +1085,6 @@
     <t>GET /v1/users?name=xxx&amp;email=zzz</t>
   </si>
   <si>
-    <t>GET /v1/articles?keyword=xxx</t>
-  </si>
-  <si>
     <t>Search articles that title or content matched some keyword.</t>
   </si>
   <si>
@@ -1101,6 +1092,44 @@
   </si>
   <si>
     <t>Search articles</t>
+  </si>
+  <si>
+    <t>GET /v1/users/search?name=xxx&amp;email=zzz</t>
+  </si>
+  <si>
+    <t>GET /v1/articles/search?keyword=xxx</t>
+  </si>
+  <si>
+    <t>Global search</t>
+  </si>
+  <si>
+    <t>Return all users that first name or last name contains "keyword".
+Return all articles that title or content contains "keyword".
+Return all comments that content contains "keyword".</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>GET /v1/search?q={keyword}</t>
+  </si>
+  <si>
+    <t>GET /v1/search?q=Vietnam</t>
+  </si>
+  <si>
+    <t>/v1/articles?q={keyword}</t>
+  </si>
+  <si>
+    <t>GET /v1/articles?q=Vietnam</t>
+  </si>
+  <si>
+    <t>/v1/users?name={name}&amp;email={email}</t>
+  </si>
+  <si>
+    <t>/v1/users/articles?token={token}</t>
+  </si>
+  <si>
+    <t>/v1/articles/{article_id}/comments?token={token}</t>
   </si>
 </sst>
 </file>
@@ -1313,7 +1342,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1359,6 +1388,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1556,7 +1591,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="400">
+  <cellStyleXfs count="401">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1957,8 +1992,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="222">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2537,8 +2573,23 @@
     <xf numFmtId="0" fontId="34" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="9" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="400">
+  <cellStyles count="401">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2863,6 +2914,7 @@
     <cellStyle name="Followed Hyperlink" xfId="397" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="399" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6069,7 +6121,7 @@
       <c r="G10" s="189"/>
       <c r="H10" s="189"/>
       <c r="I10" s="125" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J10" s="125"/>
     </row>
@@ -6325,7 +6377,7 @@
       <c r="G28" s="185"/>
       <c r="H28" s="186"/>
       <c r="I28" s="125" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J28" s="125"/>
     </row>
@@ -6874,7 +6926,7 @@
   <dimension ref="B1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6985,10 +7037,10 @@
         <v>212</v>
       </c>
       <c r="F6" s="108" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G6" s="108" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H6" s="109" t="s">
         <v>224</v>
@@ -7024,7 +7076,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="106" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D8" s="194"/>
       <c r="E8" s="216" t="s">
@@ -7034,10 +7086,10 @@
         <v>257</v>
       </c>
       <c r="G8" s="217" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H8" s="218" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I8" s="110"/>
       <c r="J8" s="38"/>
@@ -7070,22 +7122,24 @@
         <v>6</v>
       </c>
       <c r="C10" s="106" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D10" s="194"/>
       <c r="E10" s="216" t="s">
         <v>215</v>
       </c>
       <c r="F10" s="217" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="G10" s="217" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H10" s="218" t="s">
-        <v>344</v>
-      </c>
-      <c r="I10" s="110"/>
+        <v>342</v>
+      </c>
+      <c r="I10" s="110" t="s">
+        <v>347</v>
+      </c>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="2:14" ht="20" customHeight="1">
@@ -7103,7 +7157,7 @@
         <v>260</v>
       </c>
       <c r="G11" s="108" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H11" s="109" t="s">
         <v>226</v>
@@ -7141,22 +7195,24 @@
         <v>9</v>
       </c>
       <c r="C13" s="111" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D13" s="197"/>
       <c r="E13" s="219" t="s">
         <v>215</v>
       </c>
       <c r="F13" s="220" t="s">
-        <v>261</v>
+        <v>354</v>
       </c>
       <c r="G13" s="220" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="H13" s="221" t="s">
-        <v>347</v>
-      </c>
-      <c r="I13" s="110"/>
+        <v>344</v>
+      </c>
+      <c r="I13" s="110" t="s">
+        <v>348</v>
+      </c>
       <c r="J13" s="38"/>
     </row>
     <row r="14" spans="2:14" ht="20" customHeight="1">
@@ -7174,7 +7230,7 @@
         <v>262</v>
       </c>
       <c r="G14" s="113" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H14" s="114" t="s">
         <v>229</v>
@@ -7194,10 +7250,10 @@
         <v>215</v>
       </c>
       <c r="F15" s="113" t="s">
-        <v>263</v>
+        <v>357</v>
       </c>
       <c r="G15" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H15" s="114" t="s">
         <v>228</v>
@@ -7217,10 +7273,10 @@
         <v>215</v>
       </c>
       <c r="F16" s="113" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G16" s="113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H16" s="114" t="s">
         <v>256</v>
@@ -7263,10 +7319,10 @@
         <v>213</v>
       </c>
       <c r="F18" s="113" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G18" s="113" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H18" s="114" t="s">
         <v>230</v>
@@ -7286,10 +7342,10 @@
         <v>214</v>
       </c>
       <c r="F19" s="113" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G19" s="113" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H19" s="114" t="s">
         <v>231</v>
@@ -7311,13 +7367,13 @@
         <v>215</v>
       </c>
       <c r="F20" s="117" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G20" s="117" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H20" s="118" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I20" s="110"/>
       <c r="J20" s="38"/>
@@ -7334,13 +7390,13 @@
         <v>215</v>
       </c>
       <c r="F21" s="117" t="s">
-        <v>266</v>
+        <v>358</v>
       </c>
       <c r="G21" s="117" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H21" s="118" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I21" s="110"/>
       <c r="J21" s="38"/>
@@ -7357,13 +7413,13 @@
         <v>215</v>
       </c>
       <c r="F22" s="117" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G22" s="117" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H22" s="118" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I22" s="110"/>
       <c r="J22" s="38"/>
@@ -7380,10 +7436,10 @@
         <v>212</v>
       </c>
       <c r="F23" s="117" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G23" s="117" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H23" s="118" t="s">
         <v>232</v>
@@ -7403,10 +7459,10 @@
         <v>213</v>
       </c>
       <c r="F24" s="117" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G24" s="117" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H24" s="118" t="s">
         <v>233</v>
@@ -7426,10 +7482,10 @@
         <v>214</v>
       </c>
       <c r="F25" s="117" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G25" s="117" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H25" s="118" t="s">
         <v>234</v>
@@ -7437,16 +7493,28 @@
       <c r="I25" s="110"/>
       <c r="J25" s="38"/>
     </row>
-    <row r="26" spans="2:10" ht="20" customHeight="1">
+    <row r="26" spans="2:10" ht="58" customHeight="1">
       <c r="B26" s="105">
         <v>22</v>
       </c>
-      <c r="C26" s="106"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="109"/>
+      <c r="C26" s="222" t="s">
+        <v>349</v>
+      </c>
+      <c r="D26" s="223" t="s">
+        <v>351</v>
+      </c>
+      <c r="E26" s="224" t="s">
+        <v>215</v>
+      </c>
+      <c r="F26" s="225" t="s">
+        <v>352</v>
+      </c>
+      <c r="G26" s="225" t="s">
+        <v>353</v>
+      </c>
+      <c r="H26" s="226" t="s">
+        <v>350</v>
+      </c>
       <c r="I26" s="110"/>
       <c r="J26" s="38"/>
     </row>
@@ -7586,7 +7654,7 @@
         <v>182</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -7666,10 +7734,10 @@
     <row r="6" spans="1:15" ht="20" customHeight="1">
       <c r="A6" s="66"/>
       <c r="B6" s="70" t="s">
+        <v>283</v>
+      </c>
+      <c r="C6" s="103" t="s">
         <v>284</v>
-      </c>
-      <c r="C6" s="103" t="s">
-        <v>285</v>
       </c>
       <c r="D6" s="72"/>
       <c r="E6" s="72"/>
@@ -7687,7 +7755,7 @@
     <row r="7" spans="1:15" ht="20" customHeight="1">
       <c r="A7" s="66"/>
       <c r="B7" s="70" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C7" s="201" t="s">
         <v>212</v>
@@ -7708,7 +7776,7 @@
     <row r="8" spans="1:15" ht="20" customHeight="1">
       <c r="A8" s="66"/>
       <c r="B8" s="70" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C8" s="71" t="s">
         <v>38</v>
@@ -7729,10 +7797,10 @@
     <row r="9" spans="1:15" ht="20" customHeight="1">
       <c r="A9" s="66"/>
       <c r="B9" s="70" t="s">
+        <v>331</v>
+      </c>
+      <c r="C9" s="201" t="s">
         <v>332</v>
-      </c>
-      <c r="C9" s="201" t="s">
-        <v>333</v>
       </c>
       <c r="D9" s="209"/>
       <c r="E9" s="209"/>
@@ -7767,7 +7835,7 @@
     <row r="11" spans="1:15" ht="20" customHeight="1">
       <c r="A11" s="66"/>
       <c r="B11" s="74" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C11" s="74"/>
       <c r="D11" s="66"/>
@@ -7856,16 +7924,16 @@
       <c r="A15" s="66"/>
       <c r="B15" s="77"/>
       <c r="C15" s="78" t="s">
+        <v>285</v>
+      </c>
+      <c r="D15" s="79" t="s">
         <v>286</v>
       </c>
-      <c r="D15" s="79" t="s">
+      <c r="E15" s="80" t="s">
         <v>287</v>
       </c>
-      <c r="E15" s="80" t="s">
-        <v>288</v>
-      </c>
       <c r="F15" s="80" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G15" s="80">
         <v>4</v>
@@ -7874,10 +7942,10 @@
         <v>50</v>
       </c>
       <c r="I15" s="81" t="s">
+        <v>288</v>
+      </c>
+      <c r="J15" s="211" t="s">
         <v>289</v>
-      </c>
-      <c r="J15" s="211" t="s">
-        <v>290</v>
       </c>
       <c r="K15" s="211"/>
       <c r="L15" s="211"/>
@@ -7889,16 +7957,16 @@
       <c r="A16" s="66"/>
       <c r="B16" s="77"/>
       <c r="C16" s="78" t="s">
+        <v>290</v>
+      </c>
+      <c r="D16" s="79" t="s">
         <v>291</v>
-      </c>
-      <c r="D16" s="79" t="s">
-        <v>292</v>
       </c>
       <c r="E16" s="80" t="s">
         <v>183</v>
       </c>
       <c r="F16" s="80" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G16" s="80">
         <v>4</v>
@@ -7907,10 +7975,10 @@
         <v>50</v>
       </c>
       <c r="I16" s="81" t="s">
+        <v>292</v>
+      </c>
+      <c r="J16" s="211" t="s">
         <v>293</v>
-      </c>
-      <c r="J16" s="211" t="s">
-        <v>294</v>
       </c>
       <c r="K16" s="211"/>
       <c r="L16" s="211"/>
@@ -7922,16 +7990,16 @@
       <c r="A17" s="66"/>
       <c r="B17" s="77"/>
       <c r="C17" s="78" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D17" s="79" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E17" s="80" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F17" s="80" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G17" s="80" t="s">
         <v>180</v>
@@ -7940,10 +8008,10 @@
         <v>50</v>
       </c>
       <c r="I17" s="81" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J17" s="71" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K17" s="72"/>
       <c r="L17" s="73"/>
@@ -7955,16 +8023,16 @@
       <c r="A18" s="66"/>
       <c r="B18" s="77"/>
       <c r="C18" s="78" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D18" s="79" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E18" s="80" t="s">
         <v>184</v>
       </c>
       <c r="F18" s="80" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G18" s="80" t="s">
         <v>180</v>
@@ -7973,10 +8041,10 @@
         <v>50</v>
       </c>
       <c r="I18" s="79" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J18" s="201" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K18" s="209"/>
       <c r="L18" s="202"/>
@@ -7988,16 +8056,16 @@
       <c r="A19" s="66"/>
       <c r="B19" s="82"/>
       <c r="C19" s="78" t="s">
+        <v>307</v>
+      </c>
+      <c r="D19" s="79" t="s">
         <v>308</v>
-      </c>
-      <c r="D19" s="79" t="s">
-        <v>309</v>
       </c>
       <c r="E19" s="80" t="s">
         <v>184</v>
       </c>
       <c r="F19" s="80" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G19" s="80" t="s">
         <v>180</v>
@@ -8006,10 +8074,10 @@
         <v>255</v>
       </c>
       <c r="I19" s="83" t="s">
+        <v>309</v>
+      </c>
+      <c r="J19" s="201" t="s">
         <v>310</v>
-      </c>
-      <c r="J19" s="201" t="s">
-        <v>311</v>
       </c>
       <c r="K19" s="209"/>
       <c r="L19" s="202"/>
@@ -8037,7 +8105,7 @@
     <row r="21" spans="1:15" ht="20" customHeight="1">
       <c r="A21" s="66"/>
       <c r="B21" s="74" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C21" s="84"/>
       <c r="D21" s="84"/>
@@ -8175,7 +8243,7 @@
     <row r="29" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A29" s="69"/>
       <c r="B29" s="212" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C29" s="212"/>
       <c r="D29" s="212"/>
@@ -8218,7 +8286,7 @@
         <v>177</v>
       </c>
       <c r="L30" s="76" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M30" s="90"/>
       <c r="N30" s="90"/>
@@ -8259,18 +8327,18 @@
       <c r="A32" s="66"/>
       <c r="B32" s="92"/>
       <c r="C32" s="95" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D32" s="96"/>
       <c r="E32" s="94"/>
       <c r="F32" s="78" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G32" s="80" t="s">
         <v>185</v>
       </c>
       <c r="H32" s="80" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I32" s="80">
         <v>1</v>
@@ -8291,7 +8359,7 @@
       <c r="B33" s="92"/>
       <c r="C33" s="97"/>
       <c r="D33" s="201" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E33" s="202"/>
       <c r="F33" s="78" t="s">
@@ -8301,7 +8369,7 @@
         <v>181</v>
       </c>
       <c r="H33" s="80" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I33" s="80">
         <v>1</v>
@@ -8324,11 +8392,11 @@
       <c r="B34" s="92"/>
       <c r="C34" s="99"/>
       <c r="D34" s="201" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E34" s="202"/>
       <c r="F34" s="78" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G34" s="80" t="s">
         <v>191</v>
@@ -8346,7 +8414,7 @@
         <v>180</v>
       </c>
       <c r="L34" s="79" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M34" s="66"/>
       <c r="N34" s="66"/>
@@ -8356,18 +8424,18 @@
       <c r="A35" s="66"/>
       <c r="B35" s="92"/>
       <c r="C35" s="95" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D35" s="96"/>
       <c r="E35" s="94"/>
       <c r="F35" s="78" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G35" s="80" t="s">
         <v>185</v>
       </c>
       <c r="H35" s="80" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I35" s="80">
         <v>1</v>
@@ -8379,7 +8447,7 @@
         <v>193</v>
       </c>
       <c r="L35" s="79" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M35" s="66"/>
       <c r="N35" s="66"/>
@@ -8390,17 +8458,17 @@
       <c r="B36" s="92"/>
       <c r="C36" s="102"/>
       <c r="D36" s="201" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E36" s="202"/>
       <c r="F36" s="78" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G36" s="80" t="s">
         <v>194</v>
       </c>
       <c r="H36" s="80" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I36" s="80">
         <v>1</v>
@@ -8412,7 +8480,7 @@
         <v>180</v>
       </c>
       <c r="L36" s="79" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M36" s="66"/>
       <c r="N36" s="66"/>
@@ -8423,17 +8491,17 @@
       <c r="B37" s="92"/>
       <c r="C37" s="102"/>
       <c r="D37" s="214" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E37" s="215"/>
       <c r="F37" s="78" t="s">
+        <v>286</v>
+      </c>
+      <c r="G37" s="80" t="s">
         <v>287</v>
       </c>
-      <c r="G37" s="80" t="s">
-        <v>288</v>
-      </c>
       <c r="H37" s="80" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I37" s="80">
         <v>1</v>
@@ -8445,7 +8513,7 @@
         <v>180</v>
       </c>
       <c r="L37" s="79" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M37" s="66"/>
       <c r="N37" s="66"/>
@@ -8456,17 +8524,17 @@
       <c r="B38" s="92"/>
       <c r="C38" s="97"/>
       <c r="D38" s="201" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E38" s="202"/>
       <c r="F38" s="78" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G38" s="80" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H38" s="80" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I38" s="80">
         <v>1</v>
@@ -8478,7 +8546,7 @@
         <v>180</v>
       </c>
       <c r="L38" s="79" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M38" s="66"/>
       <c r="N38" s="66"/>
@@ -8489,17 +8557,17 @@
       <c r="B39" s="92"/>
       <c r="C39" s="97"/>
       <c r="D39" s="71" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E39" s="73"/>
       <c r="F39" s="78" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G39" s="80" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H39" s="80" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I39" s="80">
         <v>1</v>
@@ -8511,7 +8579,7 @@
         <v>180</v>
       </c>
       <c r="L39" s="79" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M39" s="66"/>
       <c r="N39" s="66"/>
@@ -8532,7 +8600,7 @@
         <v>191</v>
       </c>
       <c r="H40" s="80" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I40" s="80">
         <v>1</v>
@@ -8544,7 +8612,7 @@
         <v>180</v>
       </c>
       <c r="L40" s="79" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M40" s="66"/>
       <c r="N40" s="66"/>
@@ -8570,7 +8638,7 @@
     <row r="42" spans="1:15" ht="20" customHeight="1">
       <c r="A42" s="66"/>
       <c r="B42" s="33" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C42" s="93"/>
       <c r="D42" s="86"/>
@@ -8913,18 +8981,18 @@
       <c r="A60" s="66"/>
       <c r="B60" s="92"/>
       <c r="C60" s="95" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D60" s="96"/>
       <c r="E60" s="94"/>
       <c r="F60" s="78" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G60" s="80" t="s">
         <v>185</v>
       </c>
       <c r="H60" s="80" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I60" s="80">
         <v>1</v>
@@ -8945,7 +9013,7 @@
       <c r="B61" s="92"/>
       <c r="C61" s="97"/>
       <c r="D61" s="201" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E61" s="202"/>
       <c r="F61" s="78" t="s">
@@ -8955,7 +9023,7 @@
         <v>181</v>
       </c>
       <c r="H61" s="80" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I61" s="80">
         <v>1</v>
@@ -8976,11 +9044,11 @@
       <c r="B62" s="92"/>
       <c r="C62" s="99"/>
       <c r="D62" s="201" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E62" s="202"/>
       <c r="F62" s="78" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G62" s="80" t="s">
         <v>191</v>
@@ -8998,7 +9066,7 @@
         <v>180</v>
       </c>
       <c r="L62" s="79" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M62" s="66"/>
       <c r="N62" s="66"/>
@@ -9008,18 +9076,18 @@
       <c r="A63" s="66"/>
       <c r="B63" s="92"/>
       <c r="C63" s="95" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D63" s="96"/>
       <c r="E63" s="94"/>
       <c r="F63" s="78" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G63" s="80" t="s">
         <v>185</v>
       </c>
       <c r="H63" s="80" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I63" s="80">
         <v>1</v>
@@ -9072,7 +9140,7 @@
     <row r="66" spans="1:15" ht="20" customHeight="1">
       <c r="A66" s="66"/>
       <c r="B66" s="74" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C66" s="66"/>
       <c r="D66" s="66"/>

--- a/doc/detail_design/api/MCS_Web_API_Specification.xlsx
+++ b/doc/detail_design/api/MCS_Web_API_Specification.xlsx
@@ -1393,7 +1393,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6925,8 +6925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7611,8 +7611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38:E38"/>
+    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/doc/detail_design/api/MCS_Web_API_Specification.xlsx
+++ b/doc/detail_design/api/MCS_Web_API_Specification.xlsx
@@ -1103,33 +1103,32 @@
     <t>Global search</t>
   </si>
   <si>
-    <t>Return all users that first name or last name contains "keyword".
-Return all articles that title or content contains "keyword".
+    <t>All</t>
+  </si>
+  <si>
+    <t>GET /v1/search?q={keyword}</t>
+  </si>
+  <si>
+    <t>GET /v1/search?q=Vietnam</t>
+  </si>
+  <si>
+    <t>/v1/articles?q={keyword}</t>
+  </si>
+  <si>
+    <t>GET /v1/articles?q=Vietnam</t>
+  </si>
+  <si>
+    <t>/v1/users?name={name}&amp;email={email}</t>
+  </si>
+  <si>
+    <t>/v1/users/articles?token={token}</t>
+  </si>
+  <si>
+    <t>/v1/articles/{article_id}/comments?token={token}</t>
+  </si>
+  <si>
+    <t>Return all articles that title or content contains "keyword".
 Return all comments that content contains "keyword".</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>GET /v1/search?q={keyword}</t>
-  </si>
-  <si>
-    <t>GET /v1/search?q=Vietnam</t>
-  </si>
-  <si>
-    <t>/v1/articles?q={keyword}</t>
-  </si>
-  <si>
-    <t>GET /v1/articles?q=Vietnam</t>
-  </si>
-  <si>
-    <t>/v1/users?name={name}&amp;email={email}</t>
-  </si>
-  <si>
-    <t>/v1/users/articles?token={token}</t>
-  </si>
-  <si>
-    <t>/v1/articles/{article_id}/comments?token={token}</t>
   </si>
 </sst>
 </file>
@@ -2312,29 +2311,106 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="243" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="34" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="9" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2346,44 +2422,6 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2412,6 +2450,21 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -2424,43 +2477,40 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2469,27 +2519,9 @@
     <xf numFmtId="0" fontId="32" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2525,19 +2557,21 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2552,41 +2586,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="34" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="9" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="9" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="401">
@@ -4538,299 +4537,299 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="43" customFormat="1">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="179" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="140" t="s">
+      <c r="B1" s="180"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="182" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="142" t="s">
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="187" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="143"/>
-      <c r="M1" s="144"/>
-      <c r="N1" s="145" t="s">
+      <c r="L1" s="188"/>
+      <c r="M1" s="189"/>
+      <c r="N1" s="169" t="s">
         <v>197</v>
       </c>
-      <c r="O1" s="146"/>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="146"/>
-      <c r="S1" s="146"/>
-      <c r="T1" s="146"/>
-      <c r="U1" s="147"/>
-      <c r="V1" s="148" t="s">
+      <c r="O1" s="170"/>
+      <c r="P1" s="170"/>
+      <c r="Q1" s="170"/>
+      <c r="R1" s="170"/>
+      <c r="S1" s="170"/>
+      <c r="T1" s="170"/>
+      <c r="U1" s="171"/>
+      <c r="V1" s="190" t="s">
         <v>42</v>
       </c>
-      <c r="W1" s="149"/>
-      <c r="X1" s="149"/>
-      <c r="Y1" s="149"/>
-      <c r="Z1" s="149"/>
-      <c r="AA1" s="149"/>
-      <c r="AB1" s="149"/>
-      <c r="AC1" s="149"/>
-      <c r="AD1" s="150"/>
+      <c r="W1" s="191"/>
+      <c r="X1" s="191"/>
+      <c r="Y1" s="191"/>
+      <c r="Z1" s="191"/>
+      <c r="AA1" s="191"/>
+      <c r="AB1" s="191"/>
+      <c r="AC1" s="191"/>
+      <c r="AD1" s="192"/>
     </row>
     <row r="2" spans="1:30" s="43" customFormat="1">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="179" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="140" t="s">
+      <c r="B2" s="180"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="182" t="s">
         <v>200</v>
       </c>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="154" t="s">
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="155"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="166" t="s">
+      <c r="L2" s="165"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="184" t="s">
         <v>202</v>
       </c>
-      <c r="O2" s="167"/>
-      <c r="P2" s="167"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="167"/>
-      <c r="S2" s="167"/>
-      <c r="T2" s="167"/>
-      <c r="U2" s="168"/>
-      <c r="V2" s="151" t="s">
+      <c r="O2" s="185"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="185"/>
+      <c r="T2" s="185"/>
+      <c r="U2" s="186"/>
+      <c r="V2" s="161" t="s">
         <v>204</v>
       </c>
-      <c r="W2" s="152"/>
-      <c r="X2" s="153"/>
-      <c r="Y2" s="151" t="s">
+      <c r="W2" s="162"/>
+      <c r="X2" s="163"/>
+      <c r="Y2" s="161" t="s">
         <v>45</v>
       </c>
-      <c r="Z2" s="152"/>
-      <c r="AA2" s="153"/>
-      <c r="AB2" s="151" t="s">
+      <c r="Z2" s="162"/>
+      <c r="AA2" s="163"/>
+      <c r="AB2" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="AC2" s="152"/>
-      <c r="AD2" s="153"/>
+      <c r="AC2" s="162"/>
+      <c r="AD2" s="163"/>
     </row>
     <row r="3" spans="1:30" s="43" customFormat="1">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="157" t="s">
+      <c r="B3" s="165"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="167" t="s">
         <v>201</v>
       </c>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="154" t="s">
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="164" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="155"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="145" t="s">
+      <c r="L3" s="165"/>
+      <c r="M3" s="166"/>
+      <c r="N3" s="169" t="s">
         <v>203</v>
       </c>
-      <c r="O3" s="146"/>
-      <c r="P3" s="146"/>
-      <c r="Q3" s="146"/>
-      <c r="R3" s="146"/>
-      <c r="S3" s="146"/>
-      <c r="T3" s="146"/>
-      <c r="U3" s="147"/>
-      <c r="V3" s="159" t="s">
+      <c r="O3" s="170"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="170"/>
+      <c r="S3" s="170"/>
+      <c r="T3" s="170"/>
+      <c r="U3" s="171"/>
+      <c r="V3" s="172" t="s">
         <v>205</v>
       </c>
-      <c r="W3" s="160"/>
-      <c r="X3" s="161"/>
-      <c r="Y3" s="162"/>
-      <c r="Z3" s="163"/>
-      <c r="AA3" s="164"/>
-      <c r="AB3" s="165"/>
-      <c r="AC3" s="163"/>
-      <c r="AD3" s="164"/>
+      <c r="W3" s="173"/>
+      <c r="X3" s="174"/>
+      <c r="Y3" s="175"/>
+      <c r="Z3" s="176"/>
+      <c r="AA3" s="177"/>
+      <c r="AB3" s="178"/>
+      <c r="AC3" s="176"/>
+      <c r="AD3" s="177"/>
     </row>
     <row r="7" spans="1:30" ht="16" thickBot="1"/>
     <row r="8" spans="1:30" ht="16" thickBot="1">
-      <c r="B8" s="181" t="s">
+      <c r="B8" s="159" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="181"/>
-      <c r="D8" s="181"/>
-      <c r="E8" s="181"/>
-      <c r="F8" s="181" t="s">
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="159" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="181"/>
-      <c r="H8" s="181" t="s">
+      <c r="G8" s="159"/>
+      <c r="H8" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="181"/>
-      <c r="J8" s="181"/>
-      <c r="K8" s="181" t="s">
+      <c r="I8" s="159"/>
+      <c r="J8" s="159"/>
+      <c r="K8" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="181"/>
-      <c r="M8" s="181"/>
-      <c r="N8" s="181"/>
-      <c r="O8" s="181"/>
-      <c r="P8" s="181"/>
-      <c r="Q8" s="181"/>
-      <c r="R8" s="181"/>
-      <c r="S8" s="181"/>
-      <c r="T8" s="181"/>
-      <c r="U8" s="181"/>
-      <c r="V8" s="181"/>
-      <c r="W8" s="181"/>
-      <c r="X8" s="181" t="s">
+      <c r="L8" s="159"/>
+      <c r="M8" s="159"/>
+      <c r="N8" s="159"/>
+      <c r="O8" s="159"/>
+      <c r="P8" s="159"/>
+      <c r="Q8" s="159"/>
+      <c r="R8" s="159"/>
+      <c r="S8" s="159"/>
+      <c r="T8" s="159"/>
+      <c r="U8" s="159"/>
+      <c r="V8" s="159"/>
+      <c r="W8" s="159"/>
+      <c r="X8" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="Y8" s="181"/>
-      <c r="Z8" s="181"/>
-      <c r="AA8" s="181"/>
-      <c r="AB8" s="181"/>
-      <c r="AC8" s="181"/>
+      <c r="Y8" s="159"/>
+      <c r="Z8" s="159"/>
+      <c r="AA8" s="159"/>
+      <c r="AB8" s="159"/>
+      <c r="AC8" s="159"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="B9" s="169" t="s">
+      <c r="B9" s="160" t="s">
         <v>199</v>
       </c>
-      <c r="C9" s="170"/>
-      <c r="D9" s="170"/>
-      <c r="E9" s="171"/>
-      <c r="F9" s="172" t="s">
+      <c r="C9" s="149"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="151" t="s">
         <v>196</v>
       </c>
-      <c r="G9" s="173"/>
-      <c r="H9" s="174"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="171"/>
-      <c r="K9" s="175"/>
-      <c r="L9" s="176"/>
-      <c r="M9" s="176"/>
-      <c r="N9" s="176"/>
-      <c r="O9" s="176"/>
-      <c r="P9" s="176"/>
-      <c r="Q9" s="176"/>
-      <c r="R9" s="176"/>
-      <c r="S9" s="176"/>
-      <c r="T9" s="176"/>
-      <c r="U9" s="176"/>
-      <c r="V9" s="176"/>
-      <c r="W9" s="177"/>
-      <c r="X9" s="178"/>
-      <c r="Y9" s="179"/>
-      <c r="Z9" s="179"/>
-      <c r="AA9" s="179"/>
-      <c r="AB9" s="179"/>
-      <c r="AC9" s="180"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="149"/>
+      <c r="J9" s="150"/>
+      <c r="K9" s="153"/>
+      <c r="L9" s="154"/>
+      <c r="M9" s="154"/>
+      <c r="N9" s="154"/>
+      <c r="O9" s="154"/>
+      <c r="P9" s="154"/>
+      <c r="Q9" s="154"/>
+      <c r="R9" s="154"/>
+      <c r="S9" s="154"/>
+      <c r="T9" s="154"/>
+      <c r="U9" s="154"/>
+      <c r="V9" s="154"/>
+      <c r="W9" s="155"/>
+      <c r="X9" s="156"/>
+      <c r="Y9" s="157"/>
+      <c r="Z9" s="157"/>
+      <c r="AA9" s="157"/>
+      <c r="AB9" s="157"/>
+      <c r="AC9" s="158"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="B10" s="174"/>
-      <c r="C10" s="170"/>
-      <c r="D10" s="170"/>
-      <c r="E10" s="171"/>
-      <c r="F10" s="172"/>
-      <c r="G10" s="173"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="171"/>
-      <c r="K10" s="175"/>
-      <c r="L10" s="176"/>
-      <c r="M10" s="176"/>
-      <c r="N10" s="176"/>
-      <c r="O10" s="176"/>
-      <c r="P10" s="176"/>
-      <c r="Q10" s="176"/>
-      <c r="R10" s="176"/>
-      <c r="S10" s="176"/>
-      <c r="T10" s="176"/>
-      <c r="U10" s="176"/>
-      <c r="V10" s="176"/>
-      <c r="W10" s="177"/>
-      <c r="X10" s="178"/>
-      <c r="Y10" s="179"/>
-      <c r="Z10" s="179"/>
-      <c r="AA10" s="179"/>
-      <c r="AB10" s="179"/>
-      <c r="AC10" s="180"/>
+      <c r="B10" s="148"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="150"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="149"/>
+      <c r="J10" s="150"/>
+      <c r="K10" s="153"/>
+      <c r="L10" s="154"/>
+      <c r="M10" s="154"/>
+      <c r="N10" s="154"/>
+      <c r="O10" s="154"/>
+      <c r="P10" s="154"/>
+      <c r="Q10" s="154"/>
+      <c r="R10" s="154"/>
+      <c r="S10" s="154"/>
+      <c r="T10" s="154"/>
+      <c r="U10" s="154"/>
+      <c r="V10" s="154"/>
+      <c r="W10" s="155"/>
+      <c r="X10" s="156"/>
+      <c r="Y10" s="157"/>
+      <c r="Z10" s="157"/>
+      <c r="AA10" s="157"/>
+      <c r="AB10" s="157"/>
+      <c r="AC10" s="158"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="B11" s="174"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="171"/>
-      <c r="F11" s="172"/>
-      <c r="G11" s="173"/>
-      <c r="H11" s="174"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="171"/>
-      <c r="K11" s="175"/>
-      <c r="L11" s="176"/>
-      <c r="M11" s="176"/>
-      <c r="N11" s="176"/>
-      <c r="O11" s="176"/>
-      <c r="P11" s="176"/>
-      <c r="Q11" s="176"/>
-      <c r="R11" s="176"/>
-      <c r="S11" s="176"/>
-      <c r="T11" s="176"/>
-      <c r="U11" s="176"/>
-      <c r="V11" s="176"/>
-      <c r="W11" s="177"/>
-      <c r="X11" s="178"/>
-      <c r="Y11" s="179"/>
-      <c r="Z11" s="179"/>
-      <c r="AA11" s="179"/>
-      <c r="AB11" s="179"/>
-      <c r="AC11" s="180"/>
+      <c r="B11" s="148"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="149"/>
+      <c r="J11" s="150"/>
+      <c r="K11" s="153"/>
+      <c r="L11" s="154"/>
+      <c r="M11" s="154"/>
+      <c r="N11" s="154"/>
+      <c r="O11" s="154"/>
+      <c r="P11" s="154"/>
+      <c r="Q11" s="154"/>
+      <c r="R11" s="154"/>
+      <c r="S11" s="154"/>
+      <c r="T11" s="154"/>
+      <c r="U11" s="154"/>
+      <c r="V11" s="154"/>
+      <c r="W11" s="155"/>
+      <c r="X11" s="156"/>
+      <c r="Y11" s="157"/>
+      <c r="Z11" s="157"/>
+      <c r="AA11" s="157"/>
+      <c r="AB11" s="157"/>
+      <c r="AC11" s="158"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="B12" s="174"/>
-      <c r="C12" s="170"/>
-      <c r="D12" s="170"/>
-      <c r="E12" s="171"/>
-      <c r="F12" s="172"/>
-      <c r="G12" s="173"/>
-      <c r="H12" s="174"/>
-      <c r="I12" s="170"/>
-      <c r="J12" s="171"/>
-      <c r="K12" s="175"/>
-      <c r="L12" s="176"/>
-      <c r="M12" s="176"/>
-      <c r="N12" s="176"/>
-      <c r="O12" s="176"/>
-      <c r="P12" s="176"/>
-      <c r="Q12" s="176"/>
-      <c r="R12" s="176"/>
-      <c r="S12" s="176"/>
-      <c r="T12" s="176"/>
-      <c r="U12" s="176"/>
-      <c r="V12" s="176"/>
-      <c r="W12" s="177"/>
-      <c r="X12" s="178"/>
-      <c r="Y12" s="179"/>
-      <c r="Z12" s="179"/>
-      <c r="AA12" s="179"/>
-      <c r="AB12" s="179"/>
-      <c r="AC12" s="180"/>
+      <c r="B12" s="148"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="151"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="149"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="153"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="154"/>
+      <c r="N12" s="154"/>
+      <c r="O12" s="154"/>
+      <c r="P12" s="154"/>
+      <c r="Q12" s="154"/>
+      <c r="R12" s="154"/>
+      <c r="S12" s="154"/>
+      <c r="T12" s="154"/>
+      <c r="U12" s="154"/>
+      <c r="V12" s="154"/>
+      <c r="W12" s="155"/>
+      <c r="X12" s="156"/>
+      <c r="Y12" s="157"/>
+      <c r="Z12" s="157"/>
+      <c r="AA12" s="157"/>
+      <c r="AB12" s="157"/>
+      <c r="AC12" s="158"/>
     </row>
     <row r="13" spans="1:30" ht="18" customHeight="1"/>
     <row r="14" spans="1:30" ht="18" customHeight="1"/>
@@ -4860,31 +4859,11 @@
     <row r="38" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AC12"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AC9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AD1"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="A3:C3"/>
@@ -4899,11 +4878,31 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:U2"/>
     <mergeCell ref="V2:X2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AD1"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AC9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AC12"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6010,15 +6009,15 @@
       <c r="C4" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="190" t="s">
+      <c r="D4" s="198" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="190"/>
-      <c r="F4" s="190" t="s">
+      <c r="E4" s="198"/>
+      <c r="F4" s="198" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="190"/>
-      <c r="H4" s="190"/>
+      <c r="G4" s="198"/>
+      <c r="H4" s="198"/>
       <c r="I4" s="125"/>
       <c r="J4" s="122"/>
       <c r="K4" s="122"/>
@@ -6033,13 +6032,13 @@
       <c r="C5" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="187" t="s">
+      <c r="D5" s="193" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="187"/>
-      <c r="F5" s="189"/>
-      <c r="G5" s="189"/>
-      <c r="H5" s="189"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="194"/>
       <c r="I5" s="125"/>
       <c r="J5" s="125"/>
     </row>
@@ -6096,15 +6095,15 @@
       <c r="C9" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="190" t="s">
+      <c r="D9" s="198" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="190"/>
-      <c r="F9" s="190" t="s">
+      <c r="E9" s="198"/>
+      <c r="F9" s="198" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="190"/>
-      <c r="H9" s="190"/>
+      <c r="G9" s="198"/>
+      <c r="H9" s="198"/>
     </row>
     <row r="10" spans="2:14" ht="20" customHeight="1">
       <c r="B10" s="126">
@@ -6113,13 +6112,13 @@
       <c r="C10" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="187" t="s">
+      <c r="D10" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="187"/>
-      <c r="F10" s="189"/>
-      <c r="G10" s="189"/>
-      <c r="H10" s="189"/>
+      <c r="E10" s="193"/>
+      <c r="F10" s="194"/>
+      <c r="G10" s="194"/>
+      <c r="H10" s="194"/>
       <c r="I10" s="125" t="s">
         <v>335</v>
       </c>
@@ -6132,13 +6131,13 @@
       <c r="C11" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="187" t="s">
+      <c r="D11" s="193" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="187"/>
-      <c r="F11" s="189"/>
-      <c r="G11" s="189"/>
-      <c r="H11" s="189"/>
+      <c r="E11" s="193"/>
+      <c r="F11" s="194"/>
+      <c r="G11" s="194"/>
+      <c r="H11" s="194"/>
       <c r="I11" s="125"/>
       <c r="J11" s="125"/>
     </row>
@@ -6149,13 +6148,13 @@
       <c r="C12" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="187" t="s">
+      <c r="D12" s="193" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="187"/>
-      <c r="F12" s="189"/>
-      <c r="G12" s="189"/>
-      <c r="H12" s="189"/>
+      <c r="E12" s="193"/>
+      <c r="F12" s="194"/>
+      <c r="G12" s="194"/>
+      <c r="H12" s="194"/>
       <c r="I12" s="125"/>
       <c r="J12" s="125"/>
     </row>
@@ -6166,13 +6165,13 @@
       <c r="C13" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="187" t="s">
+      <c r="D13" s="193" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="187"/>
-      <c r="F13" s="189"/>
-      <c r="G13" s="189"/>
-      <c r="H13" s="189"/>
+      <c r="E13" s="193"/>
+      <c r="F13" s="194"/>
+      <c r="G13" s="194"/>
+      <c r="H13" s="194"/>
       <c r="I13" s="125"/>
       <c r="J13" s="125"/>
     </row>
@@ -6183,13 +6182,13 @@
       <c r="C14" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="187" t="s">
+      <c r="D14" s="193" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="187"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="189"/>
-      <c r="H14" s="189"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="194"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="194"/>
       <c r="I14" s="125"/>
       <c r="J14" s="125"/>
     </row>
@@ -6200,13 +6199,13 @@
       <c r="C15" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="187" t="s">
+      <c r="D15" s="193" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="187"/>
-      <c r="F15" s="189"/>
-      <c r="G15" s="189"/>
-      <c r="H15" s="189"/>
+      <c r="E15" s="193"/>
+      <c r="F15" s="194"/>
+      <c r="G15" s="194"/>
+      <c r="H15" s="194"/>
       <c r="I15" s="125"/>
       <c r="J15" s="125"/>
     </row>
@@ -6225,15 +6224,15 @@
       <c r="C18" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="190" t="s">
+      <c r="D18" s="198" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="190"/>
-      <c r="F18" s="190" t="s">
+      <c r="E18" s="198"/>
+      <c r="F18" s="198" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="190"/>
-      <c r="H18" s="190"/>
+      <c r="G18" s="198"/>
+      <c r="H18" s="198"/>
     </row>
     <row r="19" spans="2:10" ht="20" customHeight="1">
       <c r="B19" s="126">
@@ -6242,13 +6241,13 @@
       <c r="C19" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="187" t="s">
+      <c r="D19" s="193" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="187"/>
-      <c r="F19" s="184"/>
-      <c r="G19" s="185"/>
-      <c r="H19" s="186"/>
+      <c r="E19" s="193"/>
+      <c r="F19" s="195"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="197"/>
       <c r="I19" s="125"/>
       <c r="J19" s="125"/>
     </row>
@@ -6259,13 +6258,13 @@
       <c r="C20" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="187" t="s">
+      <c r="D20" s="193" t="s">
         <v>106</v>
       </c>
-      <c r="E20" s="187"/>
-      <c r="F20" s="184"/>
-      <c r="G20" s="185"/>
-      <c r="H20" s="186"/>
+      <c r="E20" s="193"/>
+      <c r="F20" s="195"/>
+      <c r="G20" s="196"/>
+      <c r="H20" s="197"/>
       <c r="I20" s="125"/>
       <c r="J20" s="125"/>
     </row>
@@ -6276,13 +6275,13 @@
       <c r="C21" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="187" t="s">
+      <c r="D21" s="193" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="187"/>
-      <c r="F21" s="184"/>
-      <c r="G21" s="185"/>
-      <c r="H21" s="186"/>
+      <c r="E21" s="193"/>
+      <c r="F21" s="195"/>
+      <c r="G21" s="196"/>
+      <c r="H21" s="197"/>
       <c r="I21" s="125"/>
       <c r="J21" s="125"/>
     </row>
@@ -6293,13 +6292,13 @@
       <c r="C22" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="187" t="s">
+      <c r="D22" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="187"/>
-      <c r="F22" s="184"/>
-      <c r="G22" s="185"/>
-      <c r="H22" s="186"/>
+      <c r="E22" s="193"/>
+      <c r="F22" s="195"/>
+      <c r="G22" s="196"/>
+      <c r="H22" s="197"/>
       <c r="I22" s="125"/>
       <c r="J22" s="125"/>
     </row>
@@ -6310,13 +6309,13 @@
       <c r="C23" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="187" t="s">
+      <c r="D23" s="193" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="187"/>
-      <c r="F23" s="184"/>
-      <c r="G23" s="185"/>
-      <c r="H23" s="186"/>
+      <c r="E23" s="193"/>
+      <c r="F23" s="195"/>
+      <c r="G23" s="196"/>
+      <c r="H23" s="197"/>
       <c r="I23" s="125"/>
       <c r="J23" s="125"/>
     </row>
@@ -6327,13 +6326,13 @@
       <c r="C24" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="187" t="s">
+      <c r="D24" s="193" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="187"/>
-      <c r="F24" s="184"/>
-      <c r="G24" s="185"/>
-      <c r="H24" s="186"/>
+      <c r="E24" s="193"/>
+      <c r="F24" s="195"/>
+      <c r="G24" s="196"/>
+      <c r="H24" s="197"/>
       <c r="I24" s="125"/>
       <c r="J24" s="125"/>
     </row>
@@ -6352,15 +6351,15 @@
       <c r="C27" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="190" t="s">
+      <c r="D27" s="198" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="190"/>
-      <c r="F27" s="190" t="s">
+      <c r="E27" s="198"/>
+      <c r="F27" s="198" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="190"/>
-      <c r="H27" s="190"/>
+      <c r="G27" s="198"/>
+      <c r="H27" s="198"/>
     </row>
     <row r="28" spans="2:10" ht="20" customHeight="1">
       <c r="B28" s="126">
@@ -6369,13 +6368,13 @@
       <c r="C28" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="187" t="s">
+      <c r="D28" s="193" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="187"/>
-      <c r="F28" s="184"/>
-      <c r="G28" s="185"/>
-      <c r="H28" s="186"/>
+      <c r="E28" s="193"/>
+      <c r="F28" s="195"/>
+      <c r="G28" s="196"/>
+      <c r="H28" s="197"/>
       <c r="I28" s="125" t="s">
         <v>334</v>
       </c>
@@ -6388,13 +6387,13 @@
       <c r="C29" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="187" t="s">
+      <c r="D29" s="193" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="187"/>
-      <c r="F29" s="184"/>
-      <c r="G29" s="185"/>
-      <c r="H29" s="186"/>
+      <c r="E29" s="193"/>
+      <c r="F29" s="195"/>
+      <c r="G29" s="196"/>
+      <c r="H29" s="197"/>
       <c r="I29" s="125"/>
       <c r="J29" s="125"/>
     </row>
@@ -6405,13 +6404,13 @@
       <c r="C30" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="187" t="s">
+      <c r="D30" s="193" t="s">
         <v>103</v>
       </c>
-      <c r="E30" s="187"/>
-      <c r="F30" s="184"/>
-      <c r="G30" s="185"/>
-      <c r="H30" s="186"/>
+      <c r="E30" s="193"/>
+      <c r="F30" s="195"/>
+      <c r="G30" s="196"/>
+      <c r="H30" s="197"/>
       <c r="I30" s="125"/>
       <c r="J30" s="125"/>
     </row>
@@ -6422,13 +6421,13 @@
       <c r="C31" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="187" t="s">
+      <c r="D31" s="193" t="s">
         <v>104</v>
       </c>
-      <c r="E31" s="187"/>
-      <c r="F31" s="184"/>
-      <c r="G31" s="185"/>
-      <c r="H31" s="186"/>
+      <c r="E31" s="193"/>
+      <c r="F31" s="195"/>
+      <c r="G31" s="196"/>
+      <c r="H31" s="197"/>
       <c r="I31" s="125"/>
       <c r="J31" s="125"/>
     </row>
@@ -6439,13 +6438,13 @@
       <c r="C32" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="187" t="s">
+      <c r="D32" s="193" t="s">
         <v>105</v>
       </c>
-      <c r="E32" s="187"/>
-      <c r="F32" s="184"/>
-      <c r="G32" s="185"/>
-      <c r="H32" s="186"/>
+      <c r="E32" s="193"/>
+      <c r="F32" s="195"/>
+      <c r="G32" s="196"/>
+      <c r="H32" s="197"/>
       <c r="I32" s="125"/>
       <c r="J32" s="125"/>
     </row>
@@ -6456,13 +6455,13 @@
       <c r="C33" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="187" t="s">
+      <c r="D33" s="193" t="s">
         <v>107</v>
       </c>
-      <c r="E33" s="187"/>
-      <c r="F33" s="184"/>
-      <c r="G33" s="185"/>
-      <c r="H33" s="186"/>
+      <c r="E33" s="193"/>
+      <c r="F33" s="195"/>
+      <c r="G33" s="196"/>
+      <c r="H33" s="197"/>
       <c r="I33" s="125"/>
       <c r="J33" s="125"/>
     </row>
@@ -6473,13 +6472,13 @@
       <c r="C34" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="187" t="s">
+      <c r="D34" s="193" t="s">
         <v>108</v>
       </c>
-      <c r="E34" s="187"/>
-      <c r="F34" s="184"/>
-      <c r="G34" s="185"/>
-      <c r="H34" s="186"/>
+      <c r="E34" s="193"/>
+      <c r="F34" s="195"/>
+      <c r="G34" s="196"/>
+      <c r="H34" s="197"/>
       <c r="I34" s="125"/>
       <c r="J34" s="125"/>
     </row>
@@ -6490,13 +6489,13 @@
       <c r="C35" s="127" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="187" t="s">
+      <c r="D35" s="193" t="s">
         <v>100</v>
       </c>
-      <c r="E35" s="187"/>
-      <c r="F35" s="184"/>
-      <c r="G35" s="185"/>
-      <c r="H35" s="186"/>
+      <c r="E35" s="193"/>
+      <c r="F35" s="195"/>
+      <c r="G35" s="196"/>
+      <c r="H35" s="197"/>
       <c r="I35" s="125"/>
       <c r="J35" s="125"/>
     </row>
@@ -6507,13 +6506,13 @@
       <c r="C36" s="127" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="187" t="s">
+      <c r="D36" s="193" t="s">
         <v>113</v>
       </c>
-      <c r="E36" s="187"/>
-      <c r="F36" s="184"/>
-      <c r="G36" s="185"/>
-      <c r="H36" s="186"/>
+      <c r="E36" s="193"/>
+      <c r="F36" s="195"/>
+      <c r="G36" s="196"/>
+      <c r="H36" s="197"/>
       <c r="I36" s="125"/>
       <c r="J36" s="125"/>
     </row>
@@ -6528,11 +6527,11 @@
     <row r="40" spans="2:10">
       <c r="B40" s="124"/>
       <c r="C40" s="124"/>
-      <c r="D40" s="188"/>
-      <c r="E40" s="188"/>
-      <c r="F40" s="188"/>
-      <c r="G40" s="188"/>
-      <c r="H40" s="188"/>
+      <c r="D40" s="201"/>
+      <c r="E40" s="201"/>
+      <c r="F40" s="201"/>
+      <c r="G40" s="201"/>
+      <c r="H40" s="201"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1">
       <c r="B41" s="126">
@@ -6541,13 +6540,13 @@
       <c r="C41" s="127" t="s">
         <v>152</v>
       </c>
-      <c r="D41" s="182" t="s">
+      <c r="D41" s="199" t="s">
         <v>157</v>
       </c>
-      <c r="E41" s="183"/>
-      <c r="F41" s="184"/>
-      <c r="G41" s="185"/>
-      <c r="H41" s="186"/>
+      <c r="E41" s="200"/>
+      <c r="F41" s="195"/>
+      <c r="G41" s="196"/>
+      <c r="H41" s="197"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1">
       <c r="B42" s="126">
@@ -6556,13 +6555,13 @@
       <c r="C42" s="127" t="s">
         <v>153</v>
       </c>
-      <c r="D42" s="182" t="s">
+      <c r="D42" s="199" t="s">
         <v>162</v>
       </c>
-      <c r="E42" s="183"/>
-      <c r="F42" s="184"/>
-      <c r="G42" s="185"/>
-      <c r="H42" s="186"/>
+      <c r="E42" s="200"/>
+      <c r="F42" s="195"/>
+      <c r="G42" s="196"/>
+      <c r="H42" s="197"/>
     </row>
     <row r="43" spans="2:10">
       <c r="B43" s="126">
@@ -6571,11 +6570,11 @@
       <c r="C43" s="127" t="s">
         <v>154</v>
       </c>
-      <c r="D43" s="182"/>
-      <c r="E43" s="183"/>
-      <c r="F43" s="184"/>
-      <c r="G43" s="185"/>
-      <c r="H43" s="186"/>
+      <c r="D43" s="199"/>
+      <c r="E43" s="200"/>
+      <c r="F43" s="195"/>
+      <c r="G43" s="196"/>
+      <c r="H43" s="197"/>
     </row>
     <row r="44" spans="2:10">
       <c r="B44" s="126">
@@ -6584,11 +6583,11 @@
       <c r="C44" s="127" t="s">
         <v>155</v>
       </c>
-      <c r="D44" s="182"/>
-      <c r="E44" s="183"/>
-      <c r="F44" s="184"/>
-      <c r="G44" s="185"/>
-      <c r="H44" s="186"/>
+      <c r="D44" s="199"/>
+      <c r="E44" s="200"/>
+      <c r="F44" s="195"/>
+      <c r="G44" s="196"/>
+      <c r="H44" s="197"/>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" s="126">
@@ -6597,11 +6596,11 @@
       <c r="C45" s="127" t="s">
         <v>156</v>
       </c>
-      <c r="D45" s="182"/>
-      <c r="E45" s="183"/>
-      <c r="F45" s="184"/>
-      <c r="G45" s="185"/>
-      <c r="H45" s="186"/>
+      <c r="D45" s="199"/>
+      <c r="E45" s="200"/>
+      <c r="F45" s="195"/>
+      <c r="G45" s="196"/>
+      <c r="H45" s="197"/>
     </row>
     <row r="48" spans="2:10">
       <c r="B48" s="123" t="s">
@@ -6614,11 +6613,11 @@
     <row r="49" spans="2:8">
       <c r="B49" s="124"/>
       <c r="C49" s="124"/>
-      <c r="D49" s="188"/>
-      <c r="E49" s="188"/>
-      <c r="F49" s="188"/>
-      <c r="G49" s="188"/>
-      <c r="H49" s="188"/>
+      <c r="D49" s="201"/>
+      <c r="E49" s="201"/>
+      <c r="F49" s="201"/>
+      <c r="G49" s="201"/>
+      <c r="H49" s="201"/>
     </row>
     <row r="50" spans="2:8" ht="20" customHeight="1">
       <c r="B50" s="126">
@@ -6627,13 +6626,13 @@
       <c r="C50" s="127" t="s">
         <v>122</v>
       </c>
-      <c r="D50" s="187" t="s">
+      <c r="D50" s="193" t="s">
         <v>121</v>
       </c>
-      <c r="E50" s="187"/>
-      <c r="F50" s="184"/>
-      <c r="G50" s="185"/>
-      <c r="H50" s="186"/>
+      <c r="E50" s="193"/>
+      <c r="F50" s="195"/>
+      <c r="G50" s="196"/>
+      <c r="H50" s="197"/>
     </row>
     <row r="51" spans="2:8" ht="20" customHeight="1">
       <c r="B51" s="126">
@@ -6642,13 +6641,13 @@
       <c r="C51" s="127" t="s">
         <v>123</v>
       </c>
-      <c r="D51" s="187" t="s">
+      <c r="D51" s="193" t="s">
         <v>129</v>
       </c>
-      <c r="E51" s="187"/>
-      <c r="F51" s="184"/>
-      <c r="G51" s="185"/>
-      <c r="H51" s="186"/>
+      <c r="E51" s="193"/>
+      <c r="F51" s="195"/>
+      <c r="G51" s="196"/>
+      <c r="H51" s="197"/>
     </row>
     <row r="52" spans="2:8" ht="20" customHeight="1">
       <c r="B52" s="126">
@@ -6657,13 +6656,13 @@
       <c r="C52" s="127" t="s">
         <v>124</v>
       </c>
-      <c r="D52" s="187" t="s">
+      <c r="D52" s="193" t="s">
         <v>130</v>
       </c>
-      <c r="E52" s="187"/>
-      <c r="F52" s="184"/>
-      <c r="G52" s="185"/>
-      <c r="H52" s="186"/>
+      <c r="E52" s="193"/>
+      <c r="F52" s="195"/>
+      <c r="G52" s="196"/>
+      <c r="H52" s="197"/>
     </row>
     <row r="53" spans="2:8" ht="20" customHeight="1">
       <c r="B53" s="126">
@@ -6672,13 +6671,13 @@
       <c r="C53" s="127" t="s">
         <v>125</v>
       </c>
-      <c r="D53" s="187" t="s">
+      <c r="D53" s="193" t="s">
         <v>131</v>
       </c>
-      <c r="E53" s="187"/>
-      <c r="F53" s="184"/>
-      <c r="G53" s="185"/>
-      <c r="H53" s="186"/>
+      <c r="E53" s="193"/>
+      <c r="F53" s="195"/>
+      <c r="G53" s="196"/>
+      <c r="H53" s="197"/>
     </row>
     <row r="54" spans="2:8" ht="20" customHeight="1">
       <c r="B54" s="126">
@@ -6687,13 +6686,13 @@
       <c r="C54" s="127" t="s">
         <v>126</v>
       </c>
-      <c r="D54" s="187" t="s">
+      <c r="D54" s="193" t="s">
         <v>132</v>
       </c>
-      <c r="E54" s="187"/>
-      <c r="F54" s="184"/>
-      <c r="G54" s="185"/>
-      <c r="H54" s="186"/>
+      <c r="E54" s="193"/>
+      <c r="F54" s="195"/>
+      <c r="G54" s="196"/>
+      <c r="H54" s="197"/>
     </row>
     <row r="55" spans="2:8" ht="20" customHeight="1">
       <c r="B55" s="126">
@@ -6702,13 +6701,13 @@
       <c r="C55" s="127" t="s">
         <v>127</v>
       </c>
-      <c r="D55" s="187" t="s">
+      <c r="D55" s="193" t="s">
         <v>133</v>
       </c>
-      <c r="E55" s="187"/>
-      <c r="F55" s="184"/>
-      <c r="G55" s="185"/>
-      <c r="H55" s="186"/>
+      <c r="E55" s="193"/>
+      <c r="F55" s="195"/>
+      <c r="G55" s="196"/>
+      <c r="H55" s="197"/>
     </row>
     <row r="56" spans="2:8" ht="20" customHeight="1">
       <c r="B56" s="126">
@@ -6717,13 +6716,13 @@
       <c r="C56" s="127" t="s">
         <v>128</v>
       </c>
-      <c r="D56" s="187" t="s">
+      <c r="D56" s="193" t="s">
         <v>134</v>
       </c>
-      <c r="E56" s="187"/>
-      <c r="F56" s="184"/>
-      <c r="G56" s="185"/>
-      <c r="H56" s="186"/>
+      <c r="E56" s="193"/>
+      <c r="F56" s="195"/>
+      <c r="G56" s="196"/>
+      <c r="H56" s="197"/>
     </row>
     <row r="59" spans="2:8">
       <c r="B59" s="123" t="s">
@@ -6736,11 +6735,11 @@
     <row r="60" spans="2:8">
       <c r="B60" s="124"/>
       <c r="C60" s="124"/>
-      <c r="D60" s="188"/>
-      <c r="E60" s="188"/>
-      <c r="F60" s="188"/>
-      <c r="G60" s="188"/>
-      <c r="H60" s="188"/>
+      <c r="D60" s="201"/>
+      <c r="E60" s="201"/>
+      <c r="F60" s="201"/>
+      <c r="G60" s="201"/>
+      <c r="H60" s="201"/>
     </row>
     <row r="61" spans="2:8" ht="15" customHeight="1">
       <c r="B61" s="126">
@@ -6749,13 +6748,13 @@
       <c r="C61" s="127" t="s">
         <v>136</v>
       </c>
-      <c r="D61" s="182" t="s">
+      <c r="D61" s="199" t="s">
         <v>141</v>
       </c>
-      <c r="E61" s="183"/>
-      <c r="F61" s="184"/>
-      <c r="G61" s="185"/>
-      <c r="H61" s="186"/>
+      <c r="E61" s="200"/>
+      <c r="F61" s="195"/>
+      <c r="G61" s="196"/>
+      <c r="H61" s="197"/>
     </row>
     <row r="62" spans="2:8" ht="15" customHeight="1">
       <c r="B62" s="126">
@@ -6764,13 +6763,13 @@
       <c r="C62" s="127" t="s">
         <v>137</v>
       </c>
-      <c r="D62" s="182" t="s">
+      <c r="D62" s="199" t="s">
         <v>142</v>
       </c>
-      <c r="E62" s="183"/>
-      <c r="F62" s="184"/>
-      <c r="G62" s="185"/>
-      <c r="H62" s="186"/>
+      <c r="E62" s="200"/>
+      <c r="F62" s="195"/>
+      <c r="G62" s="196"/>
+      <c r="H62" s="197"/>
     </row>
     <row r="63" spans="2:8" ht="15" customHeight="1">
       <c r="B63" s="126">
@@ -6779,13 +6778,13 @@
       <c r="C63" s="127" t="s">
         <v>138</v>
       </c>
-      <c r="D63" s="182" t="s">
+      <c r="D63" s="199" t="s">
         <v>143</v>
       </c>
-      <c r="E63" s="183"/>
-      <c r="F63" s="184"/>
-      <c r="G63" s="185"/>
-      <c r="H63" s="186"/>
+      <c r="E63" s="200"/>
+      <c r="F63" s="195"/>
+      <c r="G63" s="196"/>
+      <c r="H63" s="197"/>
     </row>
     <row r="64" spans="2:8" ht="15" customHeight="1">
       <c r="B64" s="126">
@@ -6794,13 +6793,13 @@
       <c r="C64" s="127" t="s">
         <v>139</v>
       </c>
-      <c r="D64" s="182" t="s">
+      <c r="D64" s="199" t="s">
         <v>144</v>
       </c>
-      <c r="E64" s="183"/>
-      <c r="F64" s="184"/>
-      <c r="G64" s="185"/>
-      <c r="H64" s="186"/>
+      <c r="E64" s="200"/>
+      <c r="F64" s="195"/>
+      <c r="G64" s="196"/>
+      <c r="H64" s="197"/>
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="126">
@@ -6809,14 +6808,90 @@
       <c r="C65" s="127" t="s">
         <v>140</v>
       </c>
-      <c r="D65" s="182"/>
-      <c r="E65" s="183"/>
-      <c r="F65" s="184"/>
-      <c r="G65" s="185"/>
-      <c r="H65" s="186"/>
+      <c r="D65" s="199"/>
+      <c r="E65" s="200"/>
+      <c r="F65" s="195"/>
+      <c r="G65" s="196"/>
+      <c r="H65" s="197"/>
     </row>
   </sheetData>
   <mergeCells count="92">
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="D34:E34"/>
@@ -6833,82 +6908,6 @@
     <mergeCell ref="F28:H28"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="F29:H29"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:H55"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6925,8 +6924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6989,10 +6988,10 @@
       <c r="D4" s="104" t="s">
         <v>236</v>
       </c>
-      <c r="E4" s="191" t="s">
+      <c r="E4" s="202" t="s">
         <v>235</v>
       </c>
-      <c r="F4" s="192"/>
+      <c r="F4" s="203"/>
       <c r="G4" s="104" t="s">
         <v>217</v>
       </c>
@@ -7007,7 +7006,7 @@
       <c r="C5" s="106" t="s">
         <v>237</v>
       </c>
-      <c r="D5" s="193" t="s">
+      <c r="D5" s="204" t="s">
         <v>209</v>
       </c>
       <c r="E5" s="107" t="s">
@@ -7032,7 +7031,7 @@
       <c r="C6" s="106" t="s">
         <v>238</v>
       </c>
-      <c r="D6" s="194"/>
+      <c r="D6" s="205"/>
       <c r="E6" s="107" t="s">
         <v>212</v>
       </c>
@@ -7055,7 +7054,7 @@
       <c r="C7" s="106" t="s">
         <v>239</v>
       </c>
-      <c r="D7" s="194"/>
+      <c r="D7" s="205"/>
       <c r="E7" s="107" t="s">
         <v>213</v>
       </c>
@@ -7078,17 +7077,17 @@
       <c r="C8" s="106" t="s">
         <v>345</v>
       </c>
-      <c r="D8" s="194"/>
-      <c r="E8" s="216" t="s">
+      <c r="D8" s="205"/>
+      <c r="E8" s="137" t="s">
         <v>213</v>
       </c>
-      <c r="F8" s="217" t="s">
+      <c r="F8" s="138" t="s">
         <v>257</v>
       </c>
-      <c r="G8" s="217" t="s">
+      <c r="G8" s="138" t="s">
         <v>340</v>
       </c>
-      <c r="H8" s="218" t="s">
+      <c r="H8" s="139" t="s">
         <v>341</v>
       </c>
       <c r="I8" s="110"/>
@@ -7101,7 +7100,7 @@
       <c r="C9" s="106" t="s">
         <v>240</v>
       </c>
-      <c r="D9" s="194"/>
+      <c r="D9" s="205"/>
       <c r="E9" s="107" t="s">
         <v>215</v>
       </c>
@@ -7124,17 +7123,17 @@
       <c r="C10" s="106" t="s">
         <v>337</v>
       </c>
-      <c r="D10" s="194"/>
-      <c r="E10" s="216" t="s">
+      <c r="D10" s="205"/>
+      <c r="E10" s="137" t="s">
         <v>215</v>
       </c>
-      <c r="F10" s="217" t="s">
-        <v>356</v>
-      </c>
-      <c r="G10" s="217" t="s">
+      <c r="F10" s="138" t="s">
+        <v>355</v>
+      </c>
+      <c r="G10" s="138" t="s">
         <v>343</v>
       </c>
-      <c r="H10" s="218" t="s">
+      <c r="H10" s="139" t="s">
         <v>342</v>
       </c>
       <c r="I10" s="110" t="s">
@@ -7149,7 +7148,7 @@
       <c r="C11" s="106" t="s">
         <v>241</v>
       </c>
-      <c r="D11" s="195"/>
+      <c r="D11" s="206"/>
       <c r="E11" s="107" t="s">
         <v>213</v>
       </c>
@@ -7172,7 +7171,7 @@
       <c r="C12" s="111" t="s">
         <v>245</v>
       </c>
-      <c r="D12" s="196" t="s">
+      <c r="D12" s="207" t="s">
         <v>210</v>
       </c>
       <c r="E12" s="112" t="s">
@@ -7197,17 +7196,17 @@
       <c r="C13" s="111" t="s">
         <v>346</v>
       </c>
-      <c r="D13" s="197"/>
-      <c r="E13" s="219" t="s">
+      <c r="D13" s="208"/>
+      <c r="E13" s="140" t="s">
         <v>215</v>
       </c>
-      <c r="F13" s="220" t="s">
+      <c r="F13" s="141" t="s">
+        <v>353</v>
+      </c>
+      <c r="G13" s="141" t="s">
         <v>354</v>
       </c>
-      <c r="G13" s="220" t="s">
-        <v>355</v>
-      </c>
-      <c r="H13" s="221" t="s">
+      <c r="H13" s="142" t="s">
         <v>344</v>
       </c>
       <c r="I13" s="110" t="s">
@@ -7222,7 +7221,7 @@
       <c r="C14" s="111" t="s">
         <v>243</v>
       </c>
-      <c r="D14" s="197"/>
+      <c r="D14" s="208"/>
       <c r="E14" s="112" t="s">
         <v>215</v>
       </c>
@@ -7245,12 +7244,12 @@
       <c r="C15" s="111" t="s">
         <v>242</v>
       </c>
-      <c r="D15" s="197"/>
+      <c r="D15" s="208"/>
       <c r="E15" s="112" t="s">
         <v>215</v>
       </c>
       <c r="F15" s="113" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G15" s="113" t="s">
         <v>268</v>
@@ -7268,7 +7267,7 @@
       <c r="C16" s="111" t="s">
         <v>255</v>
       </c>
-      <c r="D16" s="197"/>
+      <c r="D16" s="208"/>
       <c r="E16" s="112" t="s">
         <v>215</v>
       </c>
@@ -7291,7 +7290,7 @@
       <c r="C17" s="111" t="s">
         <v>246</v>
       </c>
-      <c r="D17" s="197"/>
+      <c r="D17" s="208"/>
       <c r="E17" s="112" t="s">
         <v>212</v>
       </c>
@@ -7314,7 +7313,7 @@
       <c r="C18" s="111" t="s">
         <v>247</v>
       </c>
-      <c r="D18" s="197"/>
+      <c r="D18" s="208"/>
       <c r="E18" s="112" t="s">
         <v>213</v>
       </c>
@@ -7337,7 +7336,7 @@
       <c r="C19" s="111" t="s">
         <v>248</v>
       </c>
-      <c r="D19" s="197"/>
+      <c r="D19" s="208"/>
       <c r="E19" s="112" t="s">
         <v>214</v>
       </c>
@@ -7360,7 +7359,7 @@
       <c r="C20" s="115" t="s">
         <v>249</v>
       </c>
-      <c r="D20" s="198" t="s">
+      <c r="D20" s="209" t="s">
         <v>211</v>
       </c>
       <c r="E20" s="116" t="s">
@@ -7385,12 +7384,12 @@
       <c r="C21" s="115" t="s">
         <v>250</v>
       </c>
-      <c r="D21" s="199"/>
+      <c r="D21" s="210"/>
       <c r="E21" s="116" t="s">
         <v>215</v>
       </c>
       <c r="F21" s="117" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G21" s="117" t="s">
         <v>281</v>
@@ -7408,7 +7407,7 @@
       <c r="C22" s="115" t="s">
         <v>251</v>
       </c>
-      <c r="D22" s="199"/>
+      <c r="D22" s="210"/>
       <c r="E22" s="116" t="s">
         <v>215</v>
       </c>
@@ -7431,7 +7430,7 @@
       <c r="C23" s="115" t="s">
         <v>252</v>
       </c>
-      <c r="D23" s="199"/>
+      <c r="D23" s="210"/>
       <c r="E23" s="116" t="s">
         <v>212</v>
       </c>
@@ -7454,7 +7453,7 @@
       <c r="C24" s="115" t="s">
         <v>253</v>
       </c>
-      <c r="D24" s="199"/>
+      <c r="D24" s="210"/>
       <c r="E24" s="116" t="s">
         <v>213</v>
       </c>
@@ -7477,7 +7476,7 @@
       <c r="C25" s="115" t="s">
         <v>254</v>
       </c>
-      <c r="D25" s="200"/>
+      <c r="D25" s="211"/>
       <c r="E25" s="116" t="s">
         <v>214</v>
       </c>
@@ -7493,27 +7492,27 @@
       <c r="I25" s="110"/>
       <c r="J25" s="38"/>
     </row>
-    <row r="26" spans="2:10" ht="58" customHeight="1">
+    <row r="26" spans="2:10" ht="47" customHeight="1">
       <c r="B26" s="105">
         <v>22</v>
       </c>
-      <c r="C26" s="222" t="s">
+      <c r="C26" s="143" t="s">
         <v>349</v>
       </c>
-      <c r="D26" s="223" t="s">
+      <c r="D26" s="144" t="s">
+        <v>350</v>
+      </c>
+      <c r="E26" s="145" t="s">
+        <v>215</v>
+      </c>
+      <c r="F26" s="146" t="s">
         <v>351</v>
       </c>
-      <c r="E26" s="224" t="s">
-        <v>215</v>
-      </c>
-      <c r="F26" s="225" t="s">
+      <c r="G26" s="146" t="s">
         <v>352</v>
       </c>
-      <c r="G26" s="225" t="s">
-        <v>353</v>
-      </c>
-      <c r="H26" s="226" t="s">
-        <v>350</v>
+      <c r="H26" s="147" t="s">
+        <v>358</v>
       </c>
       <c r="I26" s="110"/>
       <c r="J26" s="38"/>
@@ -7694,15 +7693,15 @@
       <c r="B4" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="201" t="s">
+      <c r="C4" s="212" t="s">
         <v>237</v>
       </c>
-      <c r="D4" s="209"/>
-      <c r="E4" s="209"/>
-      <c r="F4" s="209"/>
-      <c r="G4" s="209"/>
-      <c r="H4" s="209"/>
-      <c r="I4" s="202"/>
+      <c r="D4" s="222"/>
+      <c r="E4" s="222"/>
+      <c r="F4" s="222"/>
+      <c r="G4" s="222"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="213"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -7715,15 +7714,15 @@
       <c r="B5" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="201" t="s">
+      <c r="C5" s="212" t="s">
         <v>223</v>
       </c>
-      <c r="D5" s="209"/>
-      <c r="E5" s="209"/>
-      <c r="F5" s="209"/>
-      <c r="G5" s="209"/>
-      <c r="H5" s="209"/>
-      <c r="I5" s="202"/>
+      <c r="D5" s="222"/>
+      <c r="E5" s="222"/>
+      <c r="F5" s="222"/>
+      <c r="G5" s="222"/>
+      <c r="H5" s="222"/>
+      <c r="I5" s="213"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -7757,15 +7756,15 @@
       <c r="B7" s="70" t="s">
         <v>296</v>
       </c>
-      <c r="C7" s="201" t="s">
+      <c r="C7" s="212" t="s">
         <v>212</v>
       </c>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
-      <c r="F7" s="209"/>
-      <c r="G7" s="209"/>
-      <c r="H7" s="209"/>
-      <c r="I7" s="202"/>
+      <c r="D7" s="222"/>
+      <c r="E7" s="222"/>
+      <c r="F7" s="222"/>
+      <c r="G7" s="222"/>
+      <c r="H7" s="222"/>
+      <c r="I7" s="213"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -7799,15 +7798,15 @@
       <c r="B9" s="70" t="s">
         <v>331</v>
       </c>
-      <c r="C9" s="201" t="s">
+      <c r="C9" s="212" t="s">
         <v>332</v>
       </c>
-      <c r="D9" s="209"/>
-      <c r="E9" s="209"/>
-      <c r="F9" s="209"/>
-      <c r="G9" s="209"/>
-      <c r="H9" s="209"/>
-      <c r="I9" s="202"/>
+      <c r="D9" s="222"/>
+      <c r="E9" s="222"/>
+      <c r="F9" s="222"/>
+      <c r="G9" s="222"/>
+      <c r="H9" s="222"/>
+      <c r="I9" s="213"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -7870,19 +7869,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="203" t="s">
+      <c r="B13" s="219" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="204"/>
-      <c r="D13" s="204"/>
-      <c r="E13" s="204"/>
-      <c r="F13" s="204"/>
-      <c r="G13" s="204"/>
-      <c r="H13" s="204"/>
-      <c r="I13" s="204"/>
-      <c r="J13" s="204"/>
-      <c r="K13" s="204"/>
-      <c r="L13" s="205"/>
+      <c r="C13" s="220"/>
+      <c r="D13" s="220"/>
+      <c r="E13" s="220"/>
+      <c r="F13" s="220"/>
+      <c r="G13" s="220"/>
+      <c r="H13" s="220"/>
+      <c r="I13" s="220"/>
+      <c r="J13" s="220"/>
+      <c r="K13" s="220"/>
+      <c r="L13" s="221"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -7911,11 +7910,11 @@
       <c r="I14" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="J14" s="210" t="s">
+      <c r="J14" s="223" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="210"/>
-      <c r="L14" s="210"/>
+      <c r="K14" s="223"/>
+      <c r="L14" s="223"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -7944,11 +7943,11 @@
       <c r="I15" s="81" t="s">
         <v>288</v>
       </c>
-      <c r="J15" s="211" t="s">
+      <c r="J15" s="224" t="s">
         <v>289</v>
       </c>
-      <c r="K15" s="211"/>
-      <c r="L15" s="211"/>
+      <c r="K15" s="224"/>
+      <c r="L15" s="224"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -7977,11 +7976,11 @@
       <c r="I16" s="81" t="s">
         <v>292</v>
       </c>
-      <c r="J16" s="211" t="s">
+      <c r="J16" s="224" t="s">
         <v>293</v>
       </c>
-      <c r="K16" s="211"/>
-      <c r="L16" s="211"/>
+      <c r="K16" s="224"/>
+      <c r="L16" s="224"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -8043,11 +8042,11 @@
       <c r="I18" s="79" t="s">
         <v>302</v>
       </c>
-      <c r="J18" s="201" t="s">
+      <c r="J18" s="212" t="s">
         <v>305</v>
       </c>
-      <c r="K18" s="209"/>
-      <c r="L18" s="202"/>
+      <c r="K18" s="222"/>
+      <c r="L18" s="213"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
       <c r="O18" s="66"/>
@@ -8076,11 +8075,11 @@
       <c r="I19" s="83" t="s">
         <v>309</v>
       </c>
-      <c r="J19" s="201" t="s">
+      <c r="J19" s="212" t="s">
         <v>310</v>
       </c>
-      <c r="K19" s="209"/>
-      <c r="L19" s="202"/>
+      <c r="K19" s="222"/>
+      <c r="L19" s="213"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
       <c r="O19" s="66"/>
@@ -8242,11 +8241,11 @@
     </row>
     <row r="29" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A29" s="69"/>
-      <c r="B29" s="212" t="s">
+      <c r="B29" s="225" t="s">
         <v>298</v>
       </c>
-      <c r="C29" s="212"/>
-      <c r="D29" s="212"/>
+      <c r="C29" s="225"/>
+      <c r="D29" s="225"/>
       <c r="E29" s="87"/>
       <c r="F29" s="88"/>
       <c r="G29" s="87"/>
@@ -8261,12 +8260,12 @@
     </row>
     <row r="30" spans="1:15" s="91" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="90"/>
-      <c r="B30" s="206" t="s">
+      <c r="B30" s="216" t="s">
         <v>173</v>
       </c>
-      <c r="C30" s="207"/>
-      <c r="D30" s="207"/>
-      <c r="E30" s="208"/>
+      <c r="C30" s="217"/>
+      <c r="D30" s="217"/>
+      <c r="E30" s="218"/>
       <c r="F30" s="76" t="s">
         <v>172</v>
       </c>
@@ -8358,10 +8357,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="92"/>
       <c r="C33" s="97"/>
-      <c r="D33" s="201" t="s">
+      <c r="D33" s="212" t="s">
         <v>316</v>
       </c>
-      <c r="E33" s="202"/>
+      <c r="E33" s="213"/>
       <c r="F33" s="78" t="s">
         <v>188</v>
       </c>
@@ -8391,10 +8390,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="92"/>
       <c r="C34" s="99"/>
-      <c r="D34" s="201" t="s">
+      <c r="D34" s="212" t="s">
         <v>317</v>
       </c>
-      <c r="E34" s="202"/>
+      <c r="E34" s="213"/>
       <c r="F34" s="78" t="s">
         <v>318</v>
       </c>
@@ -8457,10 +8456,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="92"/>
       <c r="C36" s="102"/>
-      <c r="D36" s="201" t="s">
+      <c r="D36" s="212" t="s">
         <v>320</v>
       </c>
-      <c r="E36" s="202"/>
+      <c r="E36" s="213"/>
       <c r="F36" s="78" t="s">
         <v>322</v>
       </c>
@@ -8523,10 +8522,10 @@
       <c r="A38" s="66"/>
       <c r="B38" s="92"/>
       <c r="C38" s="97"/>
-      <c r="D38" s="201" t="s">
+      <c r="D38" s="212" t="s">
         <v>306</v>
       </c>
-      <c r="E38" s="202"/>
+      <c r="E38" s="213"/>
       <c r="F38" s="78" t="s">
         <v>299</v>
       </c>
@@ -8589,10 +8588,10 @@
       <c r="A40" s="66"/>
       <c r="B40" s="98"/>
       <c r="C40" s="99"/>
-      <c r="D40" s="201" t="s">
+      <c r="D40" s="212" t="s">
         <v>189</v>
       </c>
-      <c r="E40" s="202"/>
+      <c r="E40" s="213"/>
       <c r="F40" s="78" t="s">
         <v>190</v>
       </c>
@@ -8894,11 +8893,11 @@
     </row>
     <row r="57" spans="1:15" ht="20" customHeight="1">
       <c r="A57" s="66"/>
-      <c r="B57" s="213" t="s">
+      <c r="B57" s="226" t="s">
         <v>192</v>
       </c>
-      <c r="C57" s="213"/>
-      <c r="D57" s="213"/>
+      <c r="C57" s="226"/>
+      <c r="D57" s="226"/>
       <c r="E57" s="66"/>
       <c r="F57" s="66"/>
       <c r="G57" s="66"/>
@@ -8915,12 +8914,12 @@
     </row>
     <row r="58" spans="1:15" s="91" customFormat="1" ht="20" customHeight="1">
       <c r="A58" s="90"/>
-      <c r="B58" s="206" t="s">
+      <c r="B58" s="216" t="s">
         <v>173</v>
       </c>
-      <c r="C58" s="207"/>
-      <c r="D58" s="207"/>
-      <c r="E58" s="208"/>
+      <c r="C58" s="217"/>
+      <c r="D58" s="217"/>
+      <c r="E58" s="218"/>
       <c r="F58" s="76" t="s">
         <v>172</v>
       </c>
@@ -9012,10 +9011,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="92"/>
       <c r="C61" s="97"/>
-      <c r="D61" s="201" t="s">
+      <c r="D61" s="212" t="s">
         <v>316</v>
       </c>
-      <c r="E61" s="202"/>
+      <c r="E61" s="213"/>
       <c r="F61" s="78" t="s">
         <v>188</v>
       </c>
@@ -9043,10 +9042,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="92"/>
       <c r="C62" s="99"/>
-      <c r="D62" s="201" t="s">
+      <c r="D62" s="212" t="s">
         <v>317</v>
       </c>
-      <c r="E62" s="202"/>
+      <c r="E62" s="213"/>
       <c r="F62" s="78" t="s">
         <v>318</v>
       </c>
@@ -9107,8 +9106,8 @@
       <c r="A64" s="66"/>
       <c r="B64" s="98"/>
       <c r="C64" s="99"/>
-      <c r="D64" s="201"/>
-      <c r="E64" s="202"/>
+      <c r="D64" s="212"/>
+      <c r="E64" s="213"/>
       <c r="F64" s="78"/>
       <c r="G64" s="80"/>
       <c r="H64" s="80"/>
@@ -9362,13 +9361,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B58:E58"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="B30:E30"/>
@@ -9385,6 +9377,13 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B58:E58"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>

--- a/doc/detail_design/api/MCS_Web_API_Specification.xlsx
+++ b/doc/detail_design/api/MCS_Web_API_Specification.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5620" yWindow="-19140" windowWidth="27480" windowHeight="14520" tabRatio="957" activeTab="4"/>
+    <workbookView xWindow="5620" yWindow="-19140" windowWidth="27480" windowHeight="14520" tabRatio="957" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="23" r:id="rId1"/>
@@ -24,27 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="358">
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Remarks</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Error Code</t>
   </si>
   <si>
     <t xml:space="preserve"> No.</t>
   </si>
   <si>
-    <t>Error code</t>
-  </si>
-  <si>
     <t>General error</t>
-  </si>
-  <si>
-    <t>Content</t>
   </si>
   <si>
     <t>Token has expired</t>
@@ -1129,6 +1120,12 @@
   <si>
     <t>Return all articles that title or content contains "keyword".
 Return all comments that content contains "keyword".</t>
+  </si>
+  <si>
+    <t>Error Code</t>
+  </si>
+  <si>
+    <t>Note</t>
   </si>
 </sst>
 </file>
@@ -1590,7 +1587,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="401">
+  <cellStyleXfs count="404">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1992,8 +1989,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2344,44 +2344,57 @@
     <xf numFmtId="0" fontId="34" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2413,16 +2426,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2450,21 +2453,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -2477,51 +2465,57 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2557,21 +2551,19 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2587,8 +2579,13 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="401">
+  <cellStyles count="404">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2914,6 +2911,9 @@
     <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="399" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="403" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4537,299 +4537,299 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="43" customFormat="1">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="151" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="152"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="154" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="156" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="157"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="159" t="s">
+        <v>194</v>
+      </c>
+      <c r="O1" s="160"/>
+      <c r="P1" s="160"/>
+      <c r="Q1" s="160"/>
+      <c r="R1" s="160"/>
+      <c r="S1" s="160"/>
+      <c r="T1" s="160"/>
+      <c r="U1" s="161"/>
+      <c r="V1" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="182" t="s">
+      <c r="W1" s="163"/>
+      <c r="X1" s="163"/>
+      <c r="Y1" s="163"/>
+      <c r="Z1" s="163"/>
+      <c r="AA1" s="163"/>
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="163"/>
+      <c r="AD1" s="164"/>
+    </row>
+    <row r="2" spans="1:30" s="43" customFormat="1">
+      <c r="A2" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="187" t="s">
+      <c r="B2" s="152"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="154" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="168" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="188"/>
-      <c r="M1" s="189"/>
-      <c r="N1" s="169" t="s">
-        <v>197</v>
-      </c>
-      <c r="O1" s="170"/>
-      <c r="P1" s="170"/>
-      <c r="Q1" s="170"/>
-      <c r="R1" s="170"/>
-      <c r="S1" s="170"/>
-      <c r="T1" s="170"/>
-      <c r="U1" s="171"/>
-      <c r="V1" s="190" t="s">
+      <c r="L2" s="169"/>
+      <c r="M2" s="170"/>
+      <c r="N2" s="180" t="s">
+        <v>199</v>
+      </c>
+      <c r="O2" s="181"/>
+      <c r="P2" s="181"/>
+      <c r="Q2" s="181"/>
+      <c r="R2" s="181"/>
+      <c r="S2" s="181"/>
+      <c r="T2" s="181"/>
+      <c r="U2" s="182"/>
+      <c r="V2" s="165" t="s">
+        <v>201</v>
+      </c>
+      <c r="W2" s="166"/>
+      <c r="X2" s="167"/>
+      <c r="Y2" s="165" t="s">
         <v>42</v>
       </c>
-      <c r="W1" s="191"/>
-      <c r="X1" s="191"/>
-      <c r="Y1" s="191"/>
-      <c r="Z1" s="191"/>
-      <c r="AA1" s="191"/>
-      <c r="AB1" s="191"/>
-      <c r="AC1" s="191"/>
-      <c r="AD1" s="192"/>
-    </row>
-    <row r="2" spans="1:30" s="43" customFormat="1">
-      <c r="A2" s="179" t="s">
+      <c r="Z2" s="166"/>
+      <c r="AA2" s="167"/>
+      <c r="AB2" s="165" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="182" t="s">
+      <c r="AC2" s="166"/>
+      <c r="AD2" s="167"/>
+    </row>
+    <row r="3" spans="1:30" s="43" customFormat="1">
+      <c r="A3" s="168" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="169"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="171" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="172"/>
+      <c r="I3" s="172"/>
+      <c r="J3" s="172"/>
+      <c r="K3" s="168" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="169"/>
+      <c r="M3" s="170"/>
+      <c r="N3" s="159" t="s">
         <v>200</v>
       </c>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="164" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="165"/>
-      <c r="M2" s="166"/>
-      <c r="N2" s="184" t="s">
+      <c r="O3" s="160"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="160"/>
+      <c r="R3" s="160"/>
+      <c r="S3" s="160"/>
+      <c r="T3" s="160"/>
+      <c r="U3" s="161"/>
+      <c r="V3" s="173" t="s">
         <v>202</v>
       </c>
-      <c r="O2" s="185"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="185"/>
-      <c r="S2" s="185"/>
-      <c r="T2" s="185"/>
-      <c r="U2" s="186"/>
-      <c r="V2" s="161" t="s">
-        <v>204</v>
-      </c>
-      <c r="W2" s="162"/>
-      <c r="X2" s="163"/>
-      <c r="Y2" s="161" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z2" s="162"/>
-      <c r="AA2" s="163"/>
-      <c r="AB2" s="161" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC2" s="162"/>
-      <c r="AD2" s="163"/>
-    </row>
-    <row r="3" spans="1:30" s="43" customFormat="1">
-      <c r="A3" s="164" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="165"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="167" t="s">
-        <v>201</v>
-      </c>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="164" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="165"/>
-      <c r="M3" s="166"/>
-      <c r="N3" s="169" t="s">
-        <v>203</v>
-      </c>
-      <c r="O3" s="170"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="170"/>
-      <c r="S3" s="170"/>
-      <c r="T3" s="170"/>
-      <c r="U3" s="171"/>
-      <c r="V3" s="172" t="s">
-        <v>205</v>
-      </c>
-      <c r="W3" s="173"/>
-      <c r="X3" s="174"/>
-      <c r="Y3" s="175"/>
-      <c r="Z3" s="176"/>
-      <c r="AA3" s="177"/>
-      <c r="AB3" s="178"/>
-      <c r="AC3" s="176"/>
-      <c r="AD3" s="177"/>
+      <c r="W3" s="174"/>
+      <c r="X3" s="175"/>
+      <c r="Y3" s="176"/>
+      <c r="Z3" s="177"/>
+      <c r="AA3" s="178"/>
+      <c r="AB3" s="179"/>
+      <c r="AC3" s="177"/>
+      <c r="AD3" s="178"/>
     </row>
     <row r="7" spans="1:30" ht="16" thickBot="1"/>
     <row r="8" spans="1:30" ht="16" thickBot="1">
-      <c r="B8" s="159" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="159"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="159"/>
-      <c r="F8" s="159" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="159"/>
-      <c r="H8" s="159" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="159"/>
-      <c r="J8" s="159"/>
-      <c r="K8" s="159" t="s">
+      <c r="B8" s="195" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="195"/>
+      <c r="H8" s="195" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="195"/>
+      <c r="J8" s="195"/>
+      <c r="K8" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="159"/>
-      <c r="M8" s="159"/>
-      <c r="N8" s="159"/>
-      <c r="O8" s="159"/>
-      <c r="P8" s="159"/>
-      <c r="Q8" s="159"/>
-      <c r="R8" s="159"/>
-      <c r="S8" s="159"/>
-      <c r="T8" s="159"/>
-      <c r="U8" s="159"/>
-      <c r="V8" s="159"/>
-      <c r="W8" s="159"/>
-      <c r="X8" s="159" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y8" s="159"/>
-      <c r="Z8" s="159"/>
-      <c r="AA8" s="159"/>
-      <c r="AB8" s="159"/>
-      <c r="AC8" s="159"/>
+      <c r="L8" s="195"/>
+      <c r="M8" s="195"/>
+      <c r="N8" s="195"/>
+      <c r="O8" s="195"/>
+      <c r="P8" s="195"/>
+      <c r="Q8" s="195"/>
+      <c r="R8" s="195"/>
+      <c r="S8" s="195"/>
+      <c r="T8" s="195"/>
+      <c r="U8" s="195"/>
+      <c r="V8" s="195"/>
+      <c r="W8" s="195"/>
+      <c r="X8" s="195" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y8" s="195"/>
+      <c r="Z8" s="195"/>
+      <c r="AA8" s="195"/>
+      <c r="AB8" s="195"/>
+      <c r="AC8" s="195"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="B9" s="160" t="s">
-        <v>199</v>
-      </c>
-      <c r="C9" s="149"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="151" t="s">
+      <c r="B9" s="183" t="s">
         <v>196</v>
       </c>
-      <c r="G9" s="152"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="149"/>
-      <c r="J9" s="150"/>
-      <c r="K9" s="153"/>
-      <c r="L9" s="154"/>
-      <c r="M9" s="154"/>
-      <c r="N9" s="154"/>
-      <c r="O9" s="154"/>
-      <c r="P9" s="154"/>
-      <c r="Q9" s="154"/>
-      <c r="R9" s="154"/>
-      <c r="S9" s="154"/>
-      <c r="T9" s="154"/>
-      <c r="U9" s="154"/>
-      <c r="V9" s="154"/>
-      <c r="W9" s="155"/>
-      <c r="X9" s="156"/>
-      <c r="Y9" s="157"/>
-      <c r="Z9" s="157"/>
-      <c r="AA9" s="157"/>
-      <c r="AB9" s="157"/>
-      <c r="AC9" s="158"/>
+      <c r="C9" s="184"/>
+      <c r="D9" s="184"/>
+      <c r="E9" s="185"/>
+      <c r="F9" s="186" t="s">
+        <v>193</v>
+      </c>
+      <c r="G9" s="187"/>
+      <c r="H9" s="188"/>
+      <c r="I9" s="184"/>
+      <c r="J9" s="185"/>
+      <c r="K9" s="189"/>
+      <c r="L9" s="190"/>
+      <c r="M9" s="190"/>
+      <c r="N9" s="190"/>
+      <c r="O9" s="190"/>
+      <c r="P9" s="190"/>
+      <c r="Q9" s="190"/>
+      <c r="R9" s="190"/>
+      <c r="S9" s="190"/>
+      <c r="T9" s="190"/>
+      <c r="U9" s="190"/>
+      <c r="V9" s="190"/>
+      <c r="W9" s="191"/>
+      <c r="X9" s="192"/>
+      <c r="Y9" s="193"/>
+      <c r="Z9" s="193"/>
+      <c r="AA9" s="193"/>
+      <c r="AB9" s="193"/>
+      <c r="AC9" s="194"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="B10" s="148"/>
-      <c r="C10" s="149"/>
-      <c r="D10" s="149"/>
-      <c r="E10" s="150"/>
-      <c r="F10" s="151"/>
-      <c r="G10" s="152"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="149"/>
-      <c r="J10" s="150"/>
-      <c r="K10" s="153"/>
-      <c r="L10" s="154"/>
-      <c r="M10" s="154"/>
-      <c r="N10" s="154"/>
-      <c r="O10" s="154"/>
-      <c r="P10" s="154"/>
-      <c r="Q10" s="154"/>
-      <c r="R10" s="154"/>
-      <c r="S10" s="154"/>
-      <c r="T10" s="154"/>
-      <c r="U10" s="154"/>
-      <c r="V10" s="154"/>
-      <c r="W10" s="155"/>
-      <c r="X10" s="156"/>
-      <c r="Y10" s="157"/>
-      <c r="Z10" s="157"/>
-      <c r="AA10" s="157"/>
-      <c r="AB10" s="157"/>
-      <c r="AC10" s="158"/>
+      <c r="B10" s="188"/>
+      <c r="C10" s="184"/>
+      <c r="D10" s="184"/>
+      <c r="E10" s="185"/>
+      <c r="F10" s="186"/>
+      <c r="G10" s="187"/>
+      <c r="H10" s="188"/>
+      <c r="I10" s="184"/>
+      <c r="J10" s="185"/>
+      <c r="K10" s="189"/>
+      <c r="L10" s="190"/>
+      <c r="M10" s="190"/>
+      <c r="N10" s="190"/>
+      <c r="O10" s="190"/>
+      <c r="P10" s="190"/>
+      <c r="Q10" s="190"/>
+      <c r="R10" s="190"/>
+      <c r="S10" s="190"/>
+      <c r="T10" s="190"/>
+      <c r="U10" s="190"/>
+      <c r="V10" s="190"/>
+      <c r="W10" s="191"/>
+      <c r="X10" s="192"/>
+      <c r="Y10" s="193"/>
+      <c r="Z10" s="193"/>
+      <c r="AA10" s="193"/>
+      <c r="AB10" s="193"/>
+      <c r="AC10" s="194"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="B11" s="148"/>
-      <c r="C11" s="149"/>
-      <c r="D11" s="149"/>
-      <c r="E11" s="150"/>
-      <c r="F11" s="151"/>
-      <c r="G11" s="152"/>
-      <c r="H11" s="148"/>
-      <c r="I11" s="149"/>
-      <c r="J11" s="150"/>
-      <c r="K11" s="153"/>
-      <c r="L11" s="154"/>
-      <c r="M11" s="154"/>
-      <c r="N11" s="154"/>
-      <c r="O11" s="154"/>
-      <c r="P11" s="154"/>
-      <c r="Q11" s="154"/>
-      <c r="R11" s="154"/>
-      <c r="S11" s="154"/>
-      <c r="T11" s="154"/>
-      <c r="U11" s="154"/>
-      <c r="V11" s="154"/>
-      <c r="W11" s="155"/>
-      <c r="X11" s="156"/>
-      <c r="Y11" s="157"/>
-      <c r="Z11" s="157"/>
-      <c r="AA11" s="157"/>
-      <c r="AB11" s="157"/>
-      <c r="AC11" s="158"/>
+      <c r="B11" s="188"/>
+      <c r="C11" s="184"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="185"/>
+      <c r="F11" s="186"/>
+      <c r="G11" s="187"/>
+      <c r="H11" s="188"/>
+      <c r="I11" s="184"/>
+      <c r="J11" s="185"/>
+      <c r="K11" s="189"/>
+      <c r="L11" s="190"/>
+      <c r="M11" s="190"/>
+      <c r="N11" s="190"/>
+      <c r="O11" s="190"/>
+      <c r="P11" s="190"/>
+      <c r="Q11" s="190"/>
+      <c r="R11" s="190"/>
+      <c r="S11" s="190"/>
+      <c r="T11" s="190"/>
+      <c r="U11" s="190"/>
+      <c r="V11" s="190"/>
+      <c r="W11" s="191"/>
+      <c r="X11" s="192"/>
+      <c r="Y11" s="193"/>
+      <c r="Z11" s="193"/>
+      <c r="AA11" s="193"/>
+      <c r="AB11" s="193"/>
+      <c r="AC11" s="194"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="B12" s="148"/>
-      <c r="C12" s="149"/>
-      <c r="D12" s="149"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="152"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="149"/>
-      <c r="J12" s="150"/>
-      <c r="K12" s="153"/>
-      <c r="L12" s="154"/>
-      <c r="M12" s="154"/>
-      <c r="N12" s="154"/>
-      <c r="O12" s="154"/>
-      <c r="P12" s="154"/>
-      <c r="Q12" s="154"/>
-      <c r="R12" s="154"/>
-      <c r="S12" s="154"/>
-      <c r="T12" s="154"/>
-      <c r="U12" s="154"/>
-      <c r="V12" s="154"/>
-      <c r="W12" s="155"/>
-      <c r="X12" s="156"/>
-      <c r="Y12" s="157"/>
-      <c r="Z12" s="157"/>
-      <c r="AA12" s="157"/>
-      <c r="AB12" s="157"/>
-      <c r="AC12" s="158"/>
+      <c r="B12" s="188"/>
+      <c r="C12" s="184"/>
+      <c r="D12" s="184"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="186"/>
+      <c r="G12" s="187"/>
+      <c r="H12" s="188"/>
+      <c r="I12" s="184"/>
+      <c r="J12" s="185"/>
+      <c r="K12" s="189"/>
+      <c r="L12" s="190"/>
+      <c r="M12" s="190"/>
+      <c r="N12" s="190"/>
+      <c r="O12" s="190"/>
+      <c r="P12" s="190"/>
+      <c r="Q12" s="190"/>
+      <c r="R12" s="190"/>
+      <c r="S12" s="190"/>
+      <c r="T12" s="190"/>
+      <c r="U12" s="190"/>
+      <c r="V12" s="190"/>
+      <c r="W12" s="191"/>
+      <c r="X12" s="192"/>
+      <c r="Y12" s="193"/>
+      <c r="Z12" s="193"/>
+      <c r="AA12" s="193"/>
+      <c r="AB12" s="193"/>
+      <c r="AC12" s="194"/>
     </row>
     <row r="13" spans="1:30" ht="18" customHeight="1"/>
     <row r="14" spans="1:30" ht="18" customHeight="1"/>
@@ -4859,11 +4859,31 @@
     <row r="38" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AD1"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AC9"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="A3:C3"/>
@@ -4878,31 +4898,11 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:U2"/>
     <mergeCell ref="V2:X2"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AC9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AD1"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4935,7 +4935,7 @@
   <sheetData>
     <row r="1" spans="2:6" s="3" customFormat="1" ht="26" customHeight="1">
       <c r="B1" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C1" s="4"/>
       <c r="E1" s="22"/>
@@ -4946,7 +4946,7 @@
     </row>
     <row r="4" spans="2:6" ht="18">
       <c r="C4" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="24"/>
@@ -4954,7 +4954,7 @@
     </row>
     <row r="5" spans="2:6" ht="18">
       <c r="C5" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="24"/>
@@ -4962,13 +4962,13 @@
     </row>
     <row r="6" spans="2:6" ht="18">
       <c r="C6" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F6" s="25" t="s">
         <v>0</v>
@@ -4979,13 +4979,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="31" t="s">
         <v>52</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="18">
@@ -4993,13 +4993,13 @@
         <v>2</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="18">
@@ -5016,7 +5016,7 @@
     </row>
     <row r="11" spans="2:6" ht="18">
       <c r="C11" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="27"/>
@@ -5024,7 +5024,7 @@
     </row>
     <row r="12" spans="2:6" ht="18">
       <c r="C12" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="27"/>
@@ -5032,13 +5032,13 @@
     </row>
     <row r="13" spans="2:6" ht="18">
       <c r="C13" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F13" s="25" t="s">
         <v>0</v>
@@ -5049,13 +5049,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="18">
@@ -5063,13 +5063,13 @@
         <v>2</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="18">
@@ -5077,13 +5077,13 @@
         <v>3</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="3:6" ht="18">
@@ -5094,7 +5094,7 @@
     </row>
     <row r="18" spans="3:6" ht="18">
       <c r="C18" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="28"/>
@@ -5102,7 +5102,7 @@
     </row>
     <row r="19" spans="3:6" ht="18">
       <c r="C19" s="17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="28"/>
@@ -5110,13 +5110,13 @@
     </row>
     <row r="20" spans="3:6" ht="18">
       <c r="C20" s="18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F20" s="29" t="s">
         <v>0</v>
@@ -5127,13 +5127,13 @@
         <v>1</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E21" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="32" t="s">
         <v>66</v>
-      </c>
-      <c r="F21" s="32" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="22" spans="3:6" ht="18">
@@ -5141,13 +5141,13 @@
         <v>2</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E22" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="32" t="s">
         <v>67</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="23" spans="3:6" ht="18">
@@ -5155,13 +5155,13 @@
         <v>3</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E23" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="32" t="s">
         <v>68</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="24" spans="3:6" ht="18">
@@ -5169,13 +5169,13 @@
         <v>4</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="3:6" ht="18">
@@ -5183,18 +5183,18 @@
         <v>5</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="18">
       <c r="C28" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="28"/>
@@ -5202,7 +5202,7 @@
     </row>
     <row r="29" spans="3:6" ht="18">
       <c r="C29" s="17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="28"/>
@@ -5210,13 +5210,13 @@
     </row>
     <row r="30" spans="3:6" ht="18">
       <c r="C30" s="18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F30" s="29" t="s">
         <v>0</v>
@@ -5227,13 +5227,13 @@
         <v>1</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="3:6" ht="18">
@@ -5241,13 +5241,13 @@
         <v>2</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="3:6" ht="18">
@@ -5264,7 +5264,7 @@
     </row>
     <row r="35" spans="3:6" ht="18">
       <c r="C35" s="15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="28"/>
@@ -5272,7 +5272,7 @@
     </row>
     <row r="36" spans="3:6" ht="18">
       <c r="C36" s="17" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="28"/>
@@ -5280,13 +5280,13 @@
     </row>
     <row r="37" spans="3:6" ht="18">
       <c r="C37" s="18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F37" s="29" t="s">
         <v>0</v>
@@ -5297,13 +5297,13 @@
         <v>1</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="3:6" ht="18">
@@ -5311,13 +5311,13 @@
         <v>2</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="3:6" ht="18">
@@ -5325,18 +5325,18 @@
         <v>3</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="3:6" ht="18">
       <c r="C43" s="15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D43" s="16"/>
       <c r="E43" s="28"/>
@@ -5344,7 +5344,7 @@
     </row>
     <row r="44" spans="3:6" ht="18">
       <c r="C44" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="28"/>
@@ -5352,13 +5352,13 @@
     </row>
     <row r="45" spans="3:6" ht="18">
       <c r="C45" s="18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F45" s="29" t="s">
         <v>0</v>
@@ -5369,13 +5369,13 @@
         <v>1</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="3:6" ht="18">
@@ -5383,18 +5383,18 @@
         <v>2</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="3:6" ht="18">
       <c r="C50" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="28"/>
@@ -5402,7 +5402,7 @@
     </row>
     <row r="51" spans="3:6" ht="18">
       <c r="C51" s="17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="28"/>
@@ -5410,13 +5410,13 @@
     </row>
     <row r="52" spans="3:6" ht="18">
       <c r="C52" s="18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F52" s="29" t="s">
         <v>0</v>
@@ -5427,18 +5427,18 @@
         <v>1</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F53" s="32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="3:6" ht="18">
       <c r="C56" s="15" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D56" s="16"/>
       <c r="E56" s="28"/>
@@ -5446,7 +5446,7 @@
     </row>
     <row r="57" spans="3:6" ht="18">
       <c r="C57" s="17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="28"/>
@@ -5454,13 +5454,13 @@
     </row>
     <row r="58" spans="3:6" ht="18">
       <c r="C58" s="18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F58" s="29" t="s">
         <v>0</v>
@@ -5471,13 +5471,13 @@
         <v>1</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F59" s="32" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -5530,7 +5530,7 @@
   <sheetData>
     <row r="1" spans="2:11" s="135" customFormat="1" ht="26" customHeight="1">
       <c r="B1" s="56" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C1" s="134"/>
     </row>
@@ -5549,7 +5549,7 @@
     <row r="4" spans="2:11">
       <c r="B4" s="48"/>
       <c r="C4" s="136" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D4" s="49"/>
       <c r="E4" s="49"/>
@@ -5755,7 +5755,7 @@
     <row r="21" spans="2:14">
       <c r="B21" s="48"/>
       <c r="C21" s="136" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D21" s="49"/>
       <c r="E21" s="49"/>
@@ -5950,964 +5950,837 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N65"/>
+  <dimension ref="B1:L65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="36"/>
     <col min="2" max="2" width="7.83203125" style="36" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="36" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="36" customWidth="1"/>
     <col min="4" max="4" width="16.1640625" style="36" customWidth="1"/>
     <col min="5" max="5" width="42.6640625" style="36" customWidth="1"/>
-    <col min="6" max="8" width="10.83203125" style="36"/>
-    <col min="9" max="9" width="56.1640625" style="36" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="36"/>
+    <col min="6" max="6" width="41.83203125" style="36" customWidth="1"/>
+    <col min="7" max="7" width="56.1640625" style="36" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" s="120" customFormat="1" ht="26" customHeight="1">
+    <row r="1" spans="2:12" s="120" customFormat="1" ht="26" customHeight="1">
       <c r="B1" s="133" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="121"/>
     </row>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:12">
       <c r="B2" s="122"/>
       <c r="C2" s="122"/>
       <c r="D2" s="122"/>
       <c r="E2" s="122"/>
+      <c r="G2" s="122"/>
       <c r="H2" s="122"/>
       <c r="I2" s="122"/>
       <c r="J2" s="122"/>
       <c r="K2" s="122"/>
       <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-    </row>
-    <row r="3" spans="2:14">
+    </row>
+    <row r="3" spans="2:12">
       <c r="B3" s="123" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C3" s="122"/>
       <c r="D3" s="122"/>
       <c r="E3" s="122"/>
+      <c r="G3" s="122"/>
       <c r="H3" s="122"/>
       <c r="I3" s="122"/>
       <c r="J3" s="122"/>
       <c r="K3" s="122"/>
       <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="122"/>
-    </row>
-    <row r="4" spans="2:14">
+    </row>
+    <row r="4" spans="2:12">
       <c r="B4" s="104" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="104" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="198" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="198"/>
-      <c r="F4" s="198" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="198"/>
-      <c r="H4" s="198"/>
-      <c r="I4" s="125"/>
+        <v>356</v>
+      </c>
+      <c r="D4" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="199"/>
+      <c r="F4" s="150" t="s">
+        <v>357</v>
+      </c>
+      <c r="G4" s="125"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
       <c r="J4" s="122"/>
       <c r="K4" s="122"/>
       <c r="L4" s="122"/>
-      <c r="M4" s="122"/>
-      <c r="N4" s="122"/>
-    </row>
-    <row r="5" spans="2:14" ht="20" customHeight="1">
+    </row>
+    <row r="5" spans="2:12" ht="20" customHeight="1">
       <c r="B5" s="126">
         <v>1</v>
       </c>
       <c r="C5" s="127" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="193" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="193"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="194"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-    </row>
-    <row r="6" spans="2:14">
+        <v>21</v>
+      </c>
+      <c r="D5" s="198" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="198"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+    </row>
+    <row r="6" spans="2:12">
       <c r="B6" s="128"/>
       <c r="C6" s="129"/>
       <c r="D6" s="130"/>
       <c r="E6" s="130"/>
       <c r="F6" s="131"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
       <c r="J6" s="122"/>
       <c r="K6" s="122"/>
       <c r="L6" s="122"/>
-      <c r="M6" s="122"/>
-      <c r="N6" s="122"/>
-    </row>
-    <row r="7" spans="2:14">
+    </row>
+    <row r="7" spans="2:12">
       <c r="B7" s="128"/>
       <c r="C7" s="129"/>
       <c r="D7" s="130"/>
       <c r="E7" s="130"/>
       <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
       <c r="J7" s="122"/>
       <c r="K7" s="122"/>
       <c r="L7" s="122"/>
-      <c r="M7" s="122"/>
-      <c r="N7" s="122"/>
-    </row>
-    <row r="8" spans="2:14">
+    </row>
+    <row r="8" spans="2:12">
       <c r="B8" s="123" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" s="132"/>
       <c r="D8" s="132"/>
       <c r="E8" s="122"/>
       <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
       <c r="H8" s="122"/>
       <c r="I8" s="122"/>
       <c r="J8" s="122"/>
       <c r="K8" s="122"/>
       <c r="L8" s="122"/>
-      <c r="M8" s="122"/>
-      <c r="N8" s="122"/>
-    </row>
-    <row r="9" spans="2:14">
+    </row>
+    <row r="9" spans="2:12">
       <c r="B9" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="104" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="198" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="198"/>
-      <c r="F9" s="198" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="198"/>
-      <c r="H9" s="198"/>
-    </row>
-    <row r="10" spans="2:14" ht="20" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="150" t="s">
+        <v>356</v>
+      </c>
+      <c r="D9" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="199"/>
+      <c r="F9" s="150" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="20" customHeight="1">
       <c r="B10" s="126">
         <v>1</v>
       </c>
       <c r="C10" s="127" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="193" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="193"/>
-      <c r="F10" s="194"/>
-      <c r="G10" s="194"/>
-      <c r="H10" s="194"/>
-      <c r="I10" s="125" t="s">
-        <v>335</v>
-      </c>
-      <c r="J10" s="125"/>
-    </row>
-    <row r="11" spans="2:14" ht="20" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="D10" s="198" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="198"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="125" t="s">
+        <v>332</v>
+      </c>
+      <c r="H10" s="125"/>
+    </row>
+    <row r="11" spans="2:12" ht="20" customHeight="1">
       <c r="B11" s="126">
         <v>2</v>
       </c>
       <c r="C11" s="127" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="193" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="193"/>
-      <c r="F11" s="194"/>
-      <c r="G11" s="194"/>
-      <c r="H11" s="194"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="125"/>
-    </row>
-    <row r="12" spans="2:14" ht="20" customHeight="1">
+        <v>19</v>
+      </c>
+      <c r="D11" s="198" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="198"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="125"/>
+    </row>
+    <row r="12" spans="2:12" ht="20" customHeight="1">
       <c r="B12" s="126">
         <v>3</v>
       </c>
       <c r="C12" s="127" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="193" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="193"/>
-      <c r="F12" s="194"/>
-      <c r="G12" s="194"/>
-      <c r="H12" s="194"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="125"/>
-    </row>
-    <row r="13" spans="2:14" ht="20" customHeight="1">
+        <v>18</v>
+      </c>
+      <c r="D12" s="198" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="198"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="125"/>
+    </row>
+    <row r="13" spans="2:12" ht="20" customHeight="1">
       <c r="B13" s="126">
         <v>4</v>
       </c>
       <c r="C13" s="127" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="193" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="193"/>
-      <c r="F13" s="194"/>
-      <c r="G13" s="194"/>
-      <c r="H13" s="194"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="125"/>
-    </row>
-    <row r="14" spans="2:14" ht="20" customHeight="1">
+        <v>17</v>
+      </c>
+      <c r="D13" s="198" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="198"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="125"/>
+    </row>
+    <row r="14" spans="2:12" ht="20" customHeight="1">
       <c r="B14" s="126">
         <v>5</v>
       </c>
       <c r="C14" s="127" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="193" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="193"/>
-      <c r="F14" s="194"/>
-      <c r="G14" s="194"/>
-      <c r="H14" s="194"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="125"/>
-    </row>
-    <row r="15" spans="2:14" ht="20" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="D14" s="198" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="198"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
+    </row>
+    <row r="15" spans="2:12" ht="20" customHeight="1">
       <c r="B15" s="126">
         <v>6</v>
       </c>
       <c r="C15" s="127" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="193" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="193"/>
-      <c r="F15" s="194"/>
-      <c r="G15" s="194"/>
-      <c r="H15" s="194"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="125"/>
-    </row>
-    <row r="17" spans="2:10">
+        <v>15</v>
+      </c>
+      <c r="D15" s="198" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="198"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="125"/>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17" s="123" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C17" s="132"/>
       <c r="D17" s="132"/>
       <c r="E17" s="122"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:8">
       <c r="B18" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="104" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="198" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="198"/>
-      <c r="F18" s="198" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="198"/>
-      <c r="H18" s="198"/>
-    </row>
-    <row r="19" spans="2:10" ht="20" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="150" t="s">
+        <v>356</v>
+      </c>
+      <c r="D18" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="199"/>
+      <c r="F18" s="150" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="20" customHeight="1">
       <c r="B19" s="126">
         <v>1</v>
       </c>
       <c r="C19" s="127" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="193" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="193"/>
-      <c r="F19" s="195"/>
-      <c r="G19" s="196"/>
-      <c r="H19" s="197"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="125"/>
-    </row>
-    <row r="20" spans="2:10" ht="20" customHeight="1">
+        <v>22</v>
+      </c>
+      <c r="D19" s="198" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="198"/>
+      <c r="F19" s="225"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="125"/>
+    </row>
+    <row r="20" spans="2:8" ht="20" customHeight="1">
       <c r="B20" s="126">
         <v>2</v>
       </c>
       <c r="C20" s="127" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="193" t="s">
-        <v>106</v>
-      </c>
-      <c r="E20" s="193"/>
-      <c r="F20" s="195"/>
-      <c r="G20" s="196"/>
-      <c r="H20" s="197"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="125"/>
-    </row>
-    <row r="21" spans="2:10" ht="20" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="D20" s="198" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="198"/>
+      <c r="F20" s="225"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="125"/>
+    </row>
+    <row r="21" spans="2:8" ht="20" customHeight="1">
       <c r="B21" s="126">
         <v>3</v>
       </c>
       <c r="C21" s="127" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="193" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="193"/>
-      <c r="F21" s="195"/>
-      <c r="G21" s="196"/>
-      <c r="H21" s="197"/>
-      <c r="I21" s="125"/>
-      <c r="J21" s="125"/>
-    </row>
-    <row r="22" spans="2:10" ht="20" customHeight="1">
+        <v>24</v>
+      </c>
+      <c r="D21" s="198" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="198"/>
+      <c r="F21" s="225"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="125"/>
+    </row>
+    <row r="22" spans="2:8" ht="20" customHeight="1">
       <c r="B22" s="126">
         <v>4</v>
       </c>
       <c r="C22" s="127" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="193" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="193"/>
-      <c r="F22" s="195"/>
-      <c r="G22" s="196"/>
-      <c r="H22" s="197"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="125"/>
-    </row>
-    <row r="23" spans="2:10" ht="20" customHeight="1">
+        <v>25</v>
+      </c>
+      <c r="D22" s="198" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="198"/>
+      <c r="F22" s="225"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="125"/>
+    </row>
+    <row r="23" spans="2:8" ht="20" customHeight="1">
       <c r="B23" s="126">
         <v>5</v>
       </c>
       <c r="C23" s="127" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="193" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="193"/>
-      <c r="F23" s="195"/>
-      <c r="G23" s="196"/>
-      <c r="H23" s="197"/>
-      <c r="I23" s="125"/>
-      <c r="J23" s="125"/>
-    </row>
-    <row r="24" spans="2:10" ht="20" customHeight="1">
+        <v>26</v>
+      </c>
+      <c r="D23" s="198" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="198"/>
+      <c r="F23" s="225"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="125"/>
+    </row>
+    <row r="24" spans="2:8" ht="20" customHeight="1">
       <c r="B24" s="126">
         <v>6</v>
       </c>
       <c r="C24" s="127" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="193" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="193"/>
-      <c r="F24" s="195"/>
-      <c r="G24" s="196"/>
-      <c r="H24" s="197"/>
-      <c r="I24" s="125"/>
-      <c r="J24" s="125"/>
-    </row>
-    <row r="26" spans="2:10">
+        <v>27</v>
+      </c>
+      <c r="D24" s="198" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="198"/>
+      <c r="F24" s="225"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="125"/>
+    </row>
+    <row r="26" spans="2:8">
       <c r="B26" s="123" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C26" s="132"/>
       <c r="D26" s="132"/>
       <c r="E26" s="122"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:8">
       <c r="B27" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="104" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="198" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="198"/>
-      <c r="F27" s="198" t="s">
-        <v>1</v>
-      </c>
-      <c r="G27" s="198"/>
-      <c r="H27" s="198"/>
-    </row>
-    <row r="28" spans="2:10" ht="20" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="150" t="s">
+        <v>356</v>
+      </c>
+      <c r="D27" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="199"/>
+      <c r="F27" s="150" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="20" customHeight="1">
       <c r="B28" s="126">
         <v>1</v>
       </c>
       <c r="C28" s="127" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="193" t="s">
-        <v>101</v>
-      </c>
-      <c r="E28" s="193"/>
-      <c r="F28" s="195"/>
-      <c r="G28" s="196"/>
-      <c r="H28" s="197"/>
-      <c r="I28" s="125" t="s">
-        <v>334</v>
-      </c>
-      <c r="J28" s="125"/>
-    </row>
-    <row r="29" spans="2:10" ht="20" customHeight="1">
+        <v>22</v>
+      </c>
+      <c r="D28" s="198" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="198"/>
+      <c r="F28" s="225"/>
+      <c r="G28" s="125" t="s">
+        <v>331</v>
+      </c>
+      <c r="H28" s="125"/>
+    </row>
+    <row r="29" spans="2:8" ht="20" customHeight="1">
       <c r="B29" s="126">
         <v>2</v>
       </c>
       <c r="C29" s="127" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="193" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="193"/>
-      <c r="F29" s="195"/>
-      <c r="G29" s="196"/>
-      <c r="H29" s="197"/>
-      <c r="I29" s="125"/>
-      <c r="J29" s="125"/>
-    </row>
-    <row r="30" spans="2:10" ht="20" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="D29" s="198" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="198"/>
+      <c r="F29" s="225"/>
+      <c r="G29" s="125"/>
+      <c r="H29" s="125"/>
+    </row>
+    <row r="30" spans="2:8" ht="20" customHeight="1">
       <c r="B30" s="126">
         <v>3</v>
       </c>
       <c r="C30" s="127" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="193" t="s">
-        <v>103</v>
-      </c>
-      <c r="E30" s="193"/>
-      <c r="F30" s="195"/>
-      <c r="G30" s="196"/>
-      <c r="H30" s="197"/>
-      <c r="I30" s="125"/>
-      <c r="J30" s="125"/>
-    </row>
-    <row r="31" spans="2:10" ht="20" customHeight="1">
+        <v>24</v>
+      </c>
+      <c r="D30" s="198" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="198"/>
+      <c r="F30" s="225"/>
+      <c r="G30" s="125"/>
+      <c r="H30" s="125"/>
+    </row>
+    <row r="31" spans="2:8" ht="20" customHeight="1">
       <c r="B31" s="126">
         <v>4</v>
       </c>
       <c r="C31" s="127" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="193" t="s">
-        <v>104</v>
-      </c>
-      <c r="E31" s="193"/>
-      <c r="F31" s="195"/>
-      <c r="G31" s="196"/>
-      <c r="H31" s="197"/>
-      <c r="I31" s="125"/>
-      <c r="J31" s="125"/>
-    </row>
-    <row r="32" spans="2:10" ht="20" customHeight="1">
+        <v>25</v>
+      </c>
+      <c r="D31" s="198" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="198"/>
+      <c r="F31" s="225"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="125"/>
+    </row>
+    <row r="32" spans="2:8" ht="20" customHeight="1">
       <c r="B32" s="126">
         <v>5</v>
       </c>
       <c r="C32" s="127" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="193" t="s">
-        <v>105</v>
-      </c>
-      <c r="E32" s="193"/>
-      <c r="F32" s="195"/>
-      <c r="G32" s="196"/>
-      <c r="H32" s="197"/>
-      <c r="I32" s="125"/>
-      <c r="J32" s="125"/>
-    </row>
-    <row r="33" spans="2:10" ht="20" customHeight="1">
+        <v>26</v>
+      </c>
+      <c r="D32" s="198" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="198"/>
+      <c r="F32" s="225"/>
+      <c r="G32" s="125"/>
+      <c r="H32" s="125"/>
+    </row>
+    <row r="33" spans="2:8" ht="20" customHeight="1">
       <c r="B33" s="126">
         <v>6</v>
       </c>
       <c r="C33" s="127" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="193" t="s">
-        <v>107</v>
-      </c>
-      <c r="E33" s="193"/>
-      <c r="F33" s="195"/>
-      <c r="G33" s="196"/>
-      <c r="H33" s="197"/>
-      <c r="I33" s="125"/>
-      <c r="J33" s="125"/>
-    </row>
-    <row r="34" spans="2:10" ht="20" customHeight="1">
+        <v>27</v>
+      </c>
+      <c r="D33" s="198" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="198"/>
+      <c r="F33" s="225"/>
+      <c r="G33" s="125"/>
+      <c r="H33" s="125"/>
+    </row>
+    <row r="34" spans="2:8" ht="20" customHeight="1">
       <c r="B34" s="126">
         <v>7</v>
       </c>
       <c r="C34" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="193" t="s">
-        <v>108</v>
-      </c>
-      <c r="E34" s="193"/>
-      <c r="F34" s="195"/>
-      <c r="G34" s="196"/>
-      <c r="H34" s="197"/>
-      <c r="I34" s="125"/>
-      <c r="J34" s="125"/>
-    </row>
-    <row r="35" spans="2:10" ht="20" customHeight="1">
+        <v>30</v>
+      </c>
+      <c r="D34" s="198" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="198"/>
+      <c r="F34" s="225"/>
+      <c r="G34" s="125"/>
+      <c r="H34" s="125"/>
+    </row>
+    <row r="35" spans="2:8" ht="20" customHeight="1">
       <c r="B35" s="126">
         <v>8</v>
       </c>
       <c r="C35" s="127" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="193" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" s="193"/>
-      <c r="F35" s="195"/>
-      <c r="G35" s="196"/>
-      <c r="H35" s="197"/>
-      <c r="I35" s="125"/>
-      <c r="J35" s="125"/>
-    </row>
-    <row r="36" spans="2:10" ht="20" customHeight="1">
+        <v>96</v>
+      </c>
+      <c r="D35" s="198" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="198"/>
+      <c r="F35" s="225"/>
+      <c r="G35" s="125"/>
+      <c r="H35" s="125"/>
+    </row>
+    <row r="36" spans="2:8" ht="20" customHeight="1">
       <c r="B36" s="126">
         <v>9</v>
       </c>
       <c r="C36" s="127" t="s">
-        <v>114</v>
-      </c>
-      <c r="D36" s="193" t="s">
-        <v>113</v>
-      </c>
-      <c r="E36" s="193"/>
-      <c r="F36" s="195"/>
-      <c r="G36" s="196"/>
-      <c r="H36" s="197"/>
-      <c r="I36" s="125"/>
-      <c r="J36" s="125"/>
-    </row>
-    <row r="39" spans="2:10">
+        <v>111</v>
+      </c>
+      <c r="D36" s="198" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" s="198"/>
+      <c r="F36" s="225"/>
+      <c r="G36" s="125"/>
+      <c r="H36" s="125"/>
+    </row>
+    <row r="39" spans="2:8">
       <c r="B39" s="123" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C39" s="132"/>
       <c r="D39" s="132"/>
       <c r="E39" s="122"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:8">
       <c r="B40" s="124"/>
-      <c r="C40" s="124"/>
-      <c r="D40" s="201"/>
-      <c r="E40" s="201"/>
-      <c r="F40" s="201"/>
-      <c r="G40" s="201"/>
-      <c r="H40" s="201"/>
-    </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1">
+      <c r="C40" s="150" t="s">
+        <v>356</v>
+      </c>
+      <c r="D40" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="199"/>
+      <c r="F40" s="150" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="15" customHeight="1">
       <c r="B41" s="126">
         <v>1</v>
       </c>
       <c r="C41" s="127" t="s">
-        <v>152</v>
-      </c>
-      <c r="D41" s="199" t="s">
-        <v>157</v>
-      </c>
-      <c r="E41" s="200"/>
-      <c r="F41" s="195"/>
-      <c r="G41" s="196"/>
-      <c r="H41" s="197"/>
-    </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1">
+        <v>149</v>
+      </c>
+      <c r="D41" s="196" t="s">
+        <v>154</v>
+      </c>
+      <c r="E41" s="197"/>
+      <c r="F41" s="149"/>
+    </row>
+    <row r="42" spans="2:8" ht="15" customHeight="1">
       <c r="B42" s="126">
         <v>2</v>
       </c>
       <c r="C42" s="127" t="s">
-        <v>153</v>
-      </c>
-      <c r="D42" s="199" t="s">
-        <v>162</v>
-      </c>
-      <c r="E42" s="200"/>
-      <c r="F42" s="195"/>
-      <c r="G42" s="196"/>
-      <c r="H42" s="197"/>
-    </row>
-    <row r="43" spans="2:10">
+        <v>150</v>
+      </c>
+      <c r="D42" s="196" t="s">
+        <v>159</v>
+      </c>
+      <c r="E42" s="197"/>
+      <c r="F42" s="149"/>
+    </row>
+    <row r="43" spans="2:8">
       <c r="B43" s="126">
         <v>3</v>
       </c>
       <c r="C43" s="127" t="s">
-        <v>154</v>
-      </c>
-      <c r="D43" s="199"/>
-      <c r="E43" s="200"/>
-      <c r="F43" s="195"/>
-      <c r="G43" s="196"/>
-      <c r="H43" s="197"/>
-    </row>
-    <row r="44" spans="2:10">
+        <v>151</v>
+      </c>
+      <c r="D43" s="196"/>
+      <c r="E43" s="197"/>
+      <c r="F43" s="149"/>
+    </row>
+    <row r="44" spans="2:8">
       <c r="B44" s="126">
         <v>4</v>
       </c>
       <c r="C44" s="127" t="s">
-        <v>155</v>
-      </c>
-      <c r="D44" s="199"/>
-      <c r="E44" s="200"/>
-      <c r="F44" s="195"/>
-      <c r="G44" s="196"/>
-      <c r="H44" s="197"/>
-    </row>
-    <row r="45" spans="2:10">
+        <v>152</v>
+      </c>
+      <c r="D44" s="196"/>
+      <c r="E44" s="197"/>
+      <c r="F44" s="149"/>
+    </row>
+    <row r="45" spans="2:8">
       <c r="B45" s="126">
         <v>5</v>
       </c>
       <c r="C45" s="127" t="s">
-        <v>156</v>
-      </c>
-      <c r="D45" s="199"/>
-      <c r="E45" s="200"/>
-      <c r="F45" s="195"/>
-      <c r="G45" s="196"/>
-      <c r="H45" s="197"/>
-    </row>
-    <row r="48" spans="2:10">
+        <v>153</v>
+      </c>
+      <c r="D45" s="196"/>
+      <c r="E45" s="197"/>
+      <c r="F45" s="149"/>
+    </row>
+    <row r="48" spans="2:8">
       <c r="B48" s="123" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C48" s="132"/>
       <c r="D48" s="132"/>
       <c r="E48" s="122"/>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:6">
       <c r="B49" s="124"/>
-      <c r="C49" s="124"/>
-      <c r="D49" s="201"/>
-      <c r="E49" s="201"/>
-      <c r="F49" s="201"/>
-      <c r="G49" s="201"/>
-      <c r="H49" s="201"/>
-    </row>
-    <row r="50" spans="2:8" ht="20" customHeight="1">
+      <c r="C49" s="150" t="s">
+        <v>356</v>
+      </c>
+      <c r="D49" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="199"/>
+      <c r="F49" s="150" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="20" customHeight="1">
       <c r="B50" s="126">
         <v>1</v>
       </c>
       <c r="C50" s="127" t="s">
-        <v>122</v>
-      </c>
-      <c r="D50" s="193" t="s">
-        <v>121</v>
-      </c>
-      <c r="E50" s="193"/>
-      <c r="F50" s="195"/>
-      <c r="G50" s="196"/>
-      <c r="H50" s="197"/>
-    </row>
-    <row r="51" spans="2:8" ht="20" customHeight="1">
+        <v>119</v>
+      </c>
+      <c r="D50" s="198" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" s="198"/>
+      <c r="F50" s="225"/>
+    </row>
+    <row r="51" spans="2:6" ht="20" customHeight="1">
       <c r="B51" s="126">
         <v>2</v>
       </c>
       <c r="C51" s="127" t="s">
-        <v>123</v>
-      </c>
-      <c r="D51" s="193" t="s">
-        <v>129</v>
-      </c>
-      <c r="E51" s="193"/>
-      <c r="F51" s="195"/>
-      <c r="G51" s="196"/>
-      <c r="H51" s="197"/>
-    </row>
-    <row r="52" spans="2:8" ht="20" customHeight="1">
+        <v>120</v>
+      </c>
+      <c r="D51" s="198" t="s">
+        <v>126</v>
+      </c>
+      <c r="E51" s="198"/>
+      <c r="F51" s="225"/>
+    </row>
+    <row r="52" spans="2:6" ht="20" customHeight="1">
       <c r="B52" s="126">
         <v>3</v>
       </c>
       <c r="C52" s="127" t="s">
-        <v>124</v>
-      </c>
-      <c r="D52" s="193" t="s">
-        <v>130</v>
-      </c>
-      <c r="E52" s="193"/>
-      <c r="F52" s="195"/>
-      <c r="G52" s="196"/>
-      <c r="H52" s="197"/>
-    </row>
-    <row r="53" spans="2:8" ht="20" customHeight="1">
+        <v>121</v>
+      </c>
+      <c r="D52" s="198" t="s">
+        <v>127</v>
+      </c>
+      <c r="E52" s="198"/>
+      <c r="F52" s="225"/>
+    </row>
+    <row r="53" spans="2:6" ht="20" customHeight="1">
       <c r="B53" s="126">
         <v>4</v>
       </c>
       <c r="C53" s="127" t="s">
-        <v>125</v>
-      </c>
-      <c r="D53" s="193" t="s">
-        <v>131</v>
-      </c>
-      <c r="E53" s="193"/>
-      <c r="F53" s="195"/>
-      <c r="G53" s="196"/>
-      <c r="H53" s="197"/>
-    </row>
-    <row r="54" spans="2:8" ht="20" customHeight="1">
+        <v>122</v>
+      </c>
+      <c r="D53" s="198" t="s">
+        <v>128</v>
+      </c>
+      <c r="E53" s="198"/>
+      <c r="F53" s="225"/>
+    </row>
+    <row r="54" spans="2:6" ht="20" customHeight="1">
       <c r="B54" s="126">
         <v>5</v>
       </c>
       <c r="C54" s="127" t="s">
-        <v>126</v>
-      </c>
-      <c r="D54" s="193" t="s">
-        <v>132</v>
-      </c>
-      <c r="E54" s="193"/>
-      <c r="F54" s="195"/>
-      <c r="G54" s="196"/>
-      <c r="H54" s="197"/>
-    </row>
-    <row r="55" spans="2:8" ht="20" customHeight="1">
+        <v>123</v>
+      </c>
+      <c r="D54" s="198" t="s">
+        <v>129</v>
+      </c>
+      <c r="E54" s="198"/>
+      <c r="F54" s="225"/>
+    </row>
+    <row r="55" spans="2:6" ht="20" customHeight="1">
       <c r="B55" s="126">
         <v>6</v>
       </c>
       <c r="C55" s="127" t="s">
-        <v>127</v>
-      </c>
-      <c r="D55" s="193" t="s">
-        <v>133</v>
-      </c>
-      <c r="E55" s="193"/>
-      <c r="F55" s="195"/>
-      <c r="G55" s="196"/>
-      <c r="H55" s="197"/>
-    </row>
-    <row r="56" spans="2:8" ht="20" customHeight="1">
+        <v>124</v>
+      </c>
+      <c r="D55" s="198" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55" s="198"/>
+      <c r="F55" s="225"/>
+    </row>
+    <row r="56" spans="2:6" ht="20" customHeight="1">
       <c r="B56" s="126">
         <v>7</v>
       </c>
       <c r="C56" s="127" t="s">
-        <v>128</v>
-      </c>
-      <c r="D56" s="193" t="s">
-        <v>134</v>
-      </c>
-      <c r="E56" s="193"/>
-      <c r="F56" s="195"/>
-      <c r="G56" s="196"/>
-      <c r="H56" s="197"/>
-    </row>
-    <row r="59" spans="2:8">
+        <v>125</v>
+      </c>
+      <c r="D56" s="198" t="s">
+        <v>131</v>
+      </c>
+      <c r="E56" s="198"/>
+      <c r="F56" s="225"/>
+    </row>
+    <row r="59" spans="2:6">
       <c r="B59" s="123" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C59" s="132"/>
       <c r="D59" s="132"/>
       <c r="E59" s="122"/>
     </row>
-    <row r="60" spans="2:8">
+    <row r="60" spans="2:6">
       <c r="B60" s="124"/>
-      <c r="C60" s="124"/>
-      <c r="D60" s="201"/>
-      <c r="E60" s="201"/>
-      <c r="F60" s="201"/>
-      <c r="G60" s="201"/>
-      <c r="H60" s="201"/>
-    </row>
-    <row r="61" spans="2:8" ht="15" customHeight="1">
+      <c r="C60" s="150" t="s">
+        <v>356</v>
+      </c>
+      <c r="D60" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="199"/>
+      <c r="F60" s="150" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="15" customHeight="1">
       <c r="B61" s="126">
         <v>1</v>
       </c>
       <c r="C61" s="127" t="s">
-        <v>136</v>
-      </c>
-      <c r="D61" s="199" t="s">
-        <v>141</v>
-      </c>
-      <c r="E61" s="200"/>
-      <c r="F61" s="195"/>
-      <c r="G61" s="196"/>
-      <c r="H61" s="197"/>
-    </row>
-    <row r="62" spans="2:8" ht="15" customHeight="1">
+        <v>133</v>
+      </c>
+      <c r="D61" s="196" t="s">
+        <v>138</v>
+      </c>
+      <c r="E61" s="197"/>
+      <c r="F61" s="225"/>
+    </row>
+    <row r="62" spans="2:6" ht="15" customHeight="1">
       <c r="B62" s="126">
         <v>2</v>
       </c>
       <c r="C62" s="127" t="s">
-        <v>137</v>
-      </c>
-      <c r="D62" s="199" t="s">
-        <v>142</v>
-      </c>
-      <c r="E62" s="200"/>
-      <c r="F62" s="195"/>
-      <c r="G62" s="196"/>
-      <c r="H62" s="197"/>
-    </row>
-    <row r="63" spans="2:8" ht="15" customHeight="1">
+        <v>134</v>
+      </c>
+      <c r="D62" s="196" t="s">
+        <v>139</v>
+      </c>
+      <c r="E62" s="197"/>
+      <c r="F62" s="225"/>
+    </row>
+    <row r="63" spans="2:6" ht="15" customHeight="1">
       <c r="B63" s="126">
         <v>3</v>
       </c>
       <c r="C63" s="127" t="s">
-        <v>138</v>
-      </c>
-      <c r="D63" s="199" t="s">
-        <v>143</v>
-      </c>
-      <c r="E63" s="200"/>
-      <c r="F63" s="195"/>
-      <c r="G63" s="196"/>
-      <c r="H63" s="197"/>
-    </row>
-    <row r="64" spans="2:8" ht="15" customHeight="1">
+        <v>135</v>
+      </c>
+      <c r="D63" s="196" t="s">
+        <v>140</v>
+      </c>
+      <c r="E63" s="197"/>
+      <c r="F63" s="225"/>
+    </row>
+    <row r="64" spans="2:6" ht="15" customHeight="1">
       <c r="B64" s="126">
         <v>4</v>
       </c>
       <c r="C64" s="127" t="s">
-        <v>139</v>
-      </c>
-      <c r="D64" s="199" t="s">
-        <v>144</v>
-      </c>
-      <c r="E64" s="200"/>
-      <c r="F64" s="195"/>
-      <c r="G64" s="196"/>
-      <c r="H64" s="197"/>
-    </row>
-    <row r="65" spans="2:8">
+        <v>136</v>
+      </c>
+      <c r="D64" s="196" t="s">
+        <v>141</v>
+      </c>
+      <c r="E64" s="197"/>
+      <c r="F64" s="225"/>
+    </row>
+    <row r="65" spans="2:6">
       <c r="B65" s="126">
         <v>5</v>
       </c>
       <c r="C65" s="127" t="s">
-        <v>140</v>
-      </c>
-      <c r="D65" s="199"/>
-      <c r="E65" s="200"/>
-      <c r="F65" s="195"/>
-      <c r="G65" s="196"/>
-      <c r="H65" s="197"/>
+        <v>137</v>
+      </c>
+      <c r="D65" s="196"/>
+      <c r="E65" s="197"/>
+      <c r="F65" s="225"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="46">
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
     <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:H45"/>
     <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:H56"/>
     <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:H62"/>
     <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:H53"/>
     <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:H54"/>
     <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6924,7 +6797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -6944,7 +6817,7 @@
   <sheetData>
     <row r="1" spans="2:14" s="34" customFormat="1" ht="26" customHeight="1">
       <c r="B1" s="133" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C1" s="57"/>
       <c r="D1" s="35"/>
@@ -6980,20 +6853,20 @@
     </row>
     <row r="4" spans="2:14" ht="19.5" customHeight="1">
       <c r="B4" s="104" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="104" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D4" s="104" t="s">
-        <v>236</v>
-      </c>
-      <c r="E4" s="202" t="s">
-        <v>235</v>
-      </c>
-      <c r="F4" s="203"/>
+        <v>233</v>
+      </c>
+      <c r="E4" s="200" t="s">
+        <v>232</v>
+      </c>
+      <c r="F4" s="201"/>
       <c r="G4" s="104" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H4" s="104" t="s">
         <v>0</v>
@@ -7004,22 +6877,22 @@
         <v>1</v>
       </c>
       <c r="C5" s="106" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5" s="204" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" s="202" t="s">
+        <v>206</v>
+      </c>
+      <c r="E5" s="107" t="s">
         <v>209</v>
       </c>
-      <c r="E5" s="107" t="s">
-        <v>212</v>
-      </c>
       <c r="F5" s="108" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G5" s="108" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H5" s="109" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I5" s="110"/>
       <c r="J5" s="38"/>
@@ -7029,20 +6902,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="106" t="s">
-        <v>238</v>
-      </c>
-      <c r="D6" s="205"/>
+        <v>235</v>
+      </c>
+      <c r="D6" s="203"/>
       <c r="E6" s="107" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F6" s="108" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G6" s="108" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H6" s="109" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I6" s="110"/>
       <c r="J6" s="38"/>
@@ -7052,20 +6925,20 @@
         <v>3</v>
       </c>
       <c r="C7" s="106" t="s">
-        <v>239</v>
-      </c>
-      <c r="D7" s="205"/>
+        <v>236</v>
+      </c>
+      <c r="D7" s="203"/>
       <c r="E7" s="107" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F7" s="108" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G7" s="108" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H7" s="109" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I7" s="110"/>
       <c r="J7" s="38"/>
@@ -7075,20 +6948,20 @@
         <v>4</v>
       </c>
       <c r="C8" s="106" t="s">
-        <v>345</v>
-      </c>
-      <c r="D8" s="205"/>
+        <v>342</v>
+      </c>
+      <c r="D8" s="203"/>
       <c r="E8" s="137" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F8" s="138" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G8" s="138" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H8" s="139" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="I8" s="110"/>
       <c r="J8" s="38"/>
@@ -7098,20 +6971,20 @@
         <v>5</v>
       </c>
       <c r="C9" s="106" t="s">
-        <v>240</v>
-      </c>
-      <c r="D9" s="205"/>
+        <v>237</v>
+      </c>
+      <c r="D9" s="203"/>
       <c r="E9" s="107" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F9" s="108" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G9" s="108" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H9" s="109" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I9" s="110"/>
       <c r="J9" s="38"/>
@@ -7121,23 +6994,23 @@
         <v>6</v>
       </c>
       <c r="C10" s="106" t="s">
-        <v>337</v>
-      </c>
-      <c r="D10" s="205"/>
+        <v>334</v>
+      </c>
+      <c r="D10" s="203"/>
       <c r="E10" s="137" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F10" s="138" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G10" s="138" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H10" s="139" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I10" s="110" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J10" s="38"/>
     </row>
@@ -7146,20 +7019,20 @@
         <v>7</v>
       </c>
       <c r="C11" s="106" t="s">
-        <v>241</v>
-      </c>
-      <c r="D11" s="206"/>
+        <v>238</v>
+      </c>
+      <c r="D11" s="204"/>
       <c r="E11" s="107" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F11" s="108" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G11" s="108" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H11" s="109" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I11" s="110"/>
       <c r="J11" s="38"/>
@@ -7169,22 +7042,22 @@
         <v>8</v>
       </c>
       <c r="C12" s="111" t="s">
-        <v>245</v>
-      </c>
-      <c r="D12" s="207" t="s">
-        <v>210</v>
+        <v>242</v>
+      </c>
+      <c r="D12" s="205" t="s">
+        <v>207</v>
       </c>
       <c r="E12" s="112" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F12" s="113" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G12" s="113" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H12" s="114" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I12" s="110"/>
       <c r="J12" s="38"/>
@@ -7194,23 +7067,23 @@
         <v>9</v>
       </c>
       <c r="C13" s="111" t="s">
-        <v>346</v>
-      </c>
-      <c r="D13" s="208"/>
+        <v>343</v>
+      </c>
+      <c r="D13" s="206"/>
       <c r="E13" s="140" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F13" s="141" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G13" s="141" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H13" s="142" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="I13" s="110" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="J13" s="38"/>
     </row>
@@ -7219,20 +7092,20 @@
         <v>10</v>
       </c>
       <c r="C14" s="111" t="s">
-        <v>243</v>
-      </c>
-      <c r="D14" s="208"/>
+        <v>240</v>
+      </c>
+      <c r="D14" s="206"/>
       <c r="E14" s="112" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F14" s="113" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G14" s="113" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H14" s="114" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I14" s="110"/>
       <c r="J14" s="38"/>
@@ -7242,20 +7115,20 @@
         <v>11</v>
       </c>
       <c r="C15" s="111" t="s">
-        <v>242</v>
-      </c>
-      <c r="D15" s="208"/>
+        <v>239</v>
+      </c>
+      <c r="D15" s="206"/>
       <c r="E15" s="112" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F15" s="113" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G15" s="113" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H15" s="114" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I15" s="110"/>
       <c r="J15" s="38"/>
@@ -7265,20 +7138,20 @@
         <v>12</v>
       </c>
       <c r="C16" s="111" t="s">
-        <v>255</v>
-      </c>
-      <c r="D16" s="208"/>
+        <v>252</v>
+      </c>
+      <c r="D16" s="206"/>
       <c r="E16" s="112" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F16" s="113" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G16" s="113" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H16" s="114" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I16" s="110"/>
       <c r="J16" s="38"/>
@@ -7288,20 +7161,20 @@
         <v>13</v>
       </c>
       <c r="C17" s="111" t="s">
-        <v>246</v>
-      </c>
-      <c r="D17" s="208"/>
+        <v>243</v>
+      </c>
+      <c r="D17" s="206"/>
       <c r="E17" s="112" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F17" s="113" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G17" s="113" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H17" s="114" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I17" s="110"/>
       <c r="J17" s="38"/>
@@ -7311,20 +7184,20 @@
         <v>14</v>
       </c>
       <c r="C18" s="111" t="s">
-        <v>247</v>
-      </c>
-      <c r="D18" s="208"/>
+        <v>244</v>
+      </c>
+      <c r="D18" s="206"/>
       <c r="E18" s="112" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F18" s="113" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G18" s="113" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H18" s="114" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I18" s="110"/>
       <c r="J18" s="38"/>
@@ -7334,20 +7207,20 @@
         <v>15</v>
       </c>
       <c r="C19" s="111" t="s">
-        <v>248</v>
-      </c>
-      <c r="D19" s="208"/>
+        <v>245</v>
+      </c>
+      <c r="D19" s="206"/>
       <c r="E19" s="112" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F19" s="113" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G19" s="113" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H19" s="114" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I19" s="110"/>
       <c r="J19" s="38"/>
@@ -7357,22 +7230,22 @@
         <v>16</v>
       </c>
       <c r="C20" s="115" t="s">
-        <v>249</v>
-      </c>
-      <c r="D20" s="209" t="s">
-        <v>211</v>
+        <v>246</v>
+      </c>
+      <c r="D20" s="207" t="s">
+        <v>208</v>
       </c>
       <c r="E20" s="116" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F20" s="117" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G20" s="117" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H20" s="118" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I20" s="110"/>
       <c r="J20" s="38"/>
@@ -7382,20 +7255,20 @@
         <v>17</v>
       </c>
       <c r="C21" s="115" t="s">
-        <v>250</v>
-      </c>
-      <c r="D21" s="210"/>
+        <v>247</v>
+      </c>
+      <c r="D21" s="208"/>
       <c r="E21" s="116" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F21" s="117" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G21" s="117" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H21" s="118" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I21" s="110"/>
       <c r="J21" s="38"/>
@@ -7405,20 +7278,20 @@
         <v>18</v>
       </c>
       <c r="C22" s="115" t="s">
-        <v>251</v>
-      </c>
-      <c r="D22" s="210"/>
+        <v>248</v>
+      </c>
+      <c r="D22" s="208"/>
       <c r="E22" s="116" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F22" s="117" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G22" s="117" t="s">
+        <v>270</v>
+      </c>
+      <c r="H22" s="118" t="s">
         <v>273</v>
-      </c>
-      <c r="H22" s="118" t="s">
-        <v>276</v>
       </c>
       <c r="I22" s="110"/>
       <c r="J22" s="38"/>
@@ -7428,20 +7301,20 @@
         <v>19</v>
       </c>
       <c r="C23" s="115" t="s">
-        <v>252</v>
-      </c>
-      <c r="D23" s="210"/>
+        <v>249</v>
+      </c>
+      <c r="D23" s="208"/>
       <c r="E23" s="116" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F23" s="117" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G23" s="117" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H23" s="118" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I23" s="110"/>
       <c r="J23" s="38"/>
@@ -7451,20 +7324,20 @@
         <v>20</v>
       </c>
       <c r="C24" s="115" t="s">
-        <v>253</v>
-      </c>
-      <c r="D24" s="210"/>
+        <v>250</v>
+      </c>
+      <c r="D24" s="208"/>
       <c r="E24" s="116" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F24" s="117" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G24" s="117" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H24" s="118" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I24" s="110"/>
       <c r="J24" s="38"/>
@@ -7474,20 +7347,20 @@
         <v>21</v>
       </c>
       <c r="C25" s="115" t="s">
-        <v>254</v>
-      </c>
-      <c r="D25" s="211"/>
+        <v>251</v>
+      </c>
+      <c r="D25" s="209"/>
       <c r="E25" s="116" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F25" s="117" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G25" s="117" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H25" s="118" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I25" s="110"/>
       <c r="J25" s="38"/>
@@ -7497,22 +7370,22 @@
         <v>22</v>
       </c>
       <c r="C26" s="143" t="s">
+        <v>346</v>
+      </c>
+      <c r="D26" s="144" t="s">
+        <v>347</v>
+      </c>
+      <c r="E26" s="145" t="s">
+        <v>212</v>
+      </c>
+      <c r="F26" s="146" t="s">
+        <v>348</v>
+      </c>
+      <c r="G26" s="146" t="s">
         <v>349</v>
       </c>
-      <c r="D26" s="144" t="s">
-        <v>350</v>
-      </c>
-      <c r="E26" s="145" t="s">
-        <v>215</v>
-      </c>
-      <c r="F26" s="146" t="s">
-        <v>351</v>
-      </c>
-      <c r="G26" s="146" t="s">
-        <v>352</v>
-      </c>
       <c r="H26" s="147" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="I26" s="110"/>
       <c r="J26" s="38"/>
@@ -7610,7 +7483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="J19" sqref="J19:L19"/>
     </sheetView>
   </sheetViews>
@@ -7650,10 +7523,10 @@
     </row>
     <row r="2" spans="1:15" ht="20" customHeight="1">
       <c r="A2" s="68" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -7672,7 +7545,7 @@
     <row r="3" spans="1:15" ht="20" customHeight="1">
       <c r="A3" s="66"/>
       <c r="B3" s="69" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C3" s="69"/>
       <c r="D3" s="66"/>
@@ -7691,17 +7564,17 @@
     <row r="4" spans="1:15" ht="20" customHeight="1">
       <c r="A4" s="66"/>
       <c r="B4" s="70" t="s">
-        <v>169</v>
-      </c>
-      <c r="C4" s="212" t="s">
-        <v>237</v>
-      </c>
-      <c r="D4" s="222"/>
-      <c r="E4" s="222"/>
-      <c r="F4" s="222"/>
-      <c r="G4" s="222"/>
-      <c r="H4" s="222"/>
-      <c r="I4" s="213"/>
+        <v>166</v>
+      </c>
+      <c r="C4" s="210" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" s="218"/>
+      <c r="E4" s="218"/>
+      <c r="F4" s="218"/>
+      <c r="G4" s="218"/>
+      <c r="H4" s="218"/>
+      <c r="I4" s="211"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -7712,17 +7585,17 @@
     <row r="5" spans="1:15" ht="20" customHeight="1">
       <c r="A5" s="66"/>
       <c r="B5" s="70" t="s">
-        <v>170</v>
-      </c>
-      <c r="C5" s="212" t="s">
-        <v>223</v>
-      </c>
-      <c r="D5" s="222"/>
-      <c r="E5" s="222"/>
-      <c r="F5" s="222"/>
-      <c r="G5" s="222"/>
-      <c r="H5" s="222"/>
-      <c r="I5" s="213"/>
+        <v>167</v>
+      </c>
+      <c r="C5" s="210" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="218"/>
+      <c r="E5" s="218"/>
+      <c r="F5" s="218"/>
+      <c r="G5" s="218"/>
+      <c r="H5" s="218"/>
+      <c r="I5" s="211"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -7733,10 +7606,10 @@
     <row r="6" spans="1:15" ht="20" customHeight="1">
       <c r="A6" s="66"/>
       <c r="B6" s="70" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C6" s="103" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D6" s="72"/>
       <c r="E6" s="72"/>
@@ -7754,17 +7627,17 @@
     <row r="7" spans="1:15" ht="20" customHeight="1">
       <c r="A7" s="66"/>
       <c r="B7" s="70" t="s">
-        <v>296</v>
-      </c>
-      <c r="C7" s="212" t="s">
-        <v>212</v>
-      </c>
-      <c r="D7" s="222"/>
-      <c r="E7" s="222"/>
-      <c r="F7" s="222"/>
-      <c r="G7" s="222"/>
-      <c r="H7" s="222"/>
-      <c r="I7" s="213"/>
+        <v>293</v>
+      </c>
+      <c r="C7" s="210" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="218"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="218"/>
+      <c r="H7" s="218"/>
+      <c r="I7" s="211"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -7775,10 +7648,10 @@
     <row r="8" spans="1:15" ht="20" customHeight="1">
       <c r="A8" s="66"/>
       <c r="B8" s="70" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C8" s="71" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D8" s="72"/>
       <c r="E8" s="72"/>
@@ -7796,17 +7669,17 @@
     <row r="9" spans="1:15" ht="20" customHeight="1">
       <c r="A9" s="66"/>
       <c r="B9" s="70" t="s">
-        <v>331</v>
-      </c>
-      <c r="C9" s="212" t="s">
-        <v>332</v>
-      </c>
-      <c r="D9" s="222"/>
-      <c r="E9" s="222"/>
-      <c r="F9" s="222"/>
-      <c r="G9" s="222"/>
-      <c r="H9" s="222"/>
-      <c r="I9" s="213"/>
+        <v>328</v>
+      </c>
+      <c r="C9" s="210" t="s">
+        <v>329</v>
+      </c>
+      <c r="D9" s="218"/>
+      <c r="E9" s="218"/>
+      <c r="F9" s="218"/>
+      <c r="G9" s="218"/>
+      <c r="H9" s="218"/>
+      <c r="I9" s="211"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -7834,7 +7707,7 @@
     <row r="11" spans="1:15" ht="20" customHeight="1">
       <c r="A11" s="66"/>
       <c r="B11" s="74" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C11" s="74"/>
       <c r="D11" s="66"/>
@@ -7869,19 +7742,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="219" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" s="220"/>
-      <c r="D13" s="220"/>
-      <c r="E13" s="220"/>
-      <c r="F13" s="220"/>
-      <c r="G13" s="220"/>
-      <c r="H13" s="220"/>
-      <c r="I13" s="220"/>
-      <c r="J13" s="220"/>
-      <c r="K13" s="220"/>
-      <c r="L13" s="221"/>
+      <c r="B13" s="212" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="213"/>
+      <c r="D13" s="213"/>
+      <c r="E13" s="213"/>
+      <c r="F13" s="213"/>
+      <c r="G13" s="213"/>
+      <c r="H13" s="213"/>
+      <c r="I13" s="213"/>
+      <c r="J13" s="213"/>
+      <c r="K13" s="213"/>
+      <c r="L13" s="214"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -7890,31 +7763,31 @@
       <c r="A14" s="66"/>
       <c r="B14" s="75"/>
       <c r="C14" s="76" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="76" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" s="76" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="D14" s="76" t="s">
+      <c r="G14" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="E14" s="76" t="s">
+      <c r="H14" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="F14" s="76" t="s">
+      <c r="I14" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="G14" s="76" t="s">
-        <v>176</v>
-      </c>
-      <c r="H14" s="76" t="s">
-        <v>177</v>
-      </c>
-      <c r="I14" s="76" t="s">
-        <v>178</v>
-      </c>
-      <c r="J14" s="223" t="s">
+      <c r="J14" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="223"/>
-      <c r="L14" s="223"/>
+      <c r="K14" s="219"/>
+      <c r="L14" s="219"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -7923,16 +7796,16 @@
       <c r="A15" s="66"/>
       <c r="B15" s="77"/>
       <c r="C15" s="78" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D15" s="79" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E15" s="80" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F15" s="80" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G15" s="80">
         <v>4</v>
@@ -7941,13 +7814,13 @@
         <v>50</v>
       </c>
       <c r="I15" s="81" t="s">
-        <v>288</v>
-      </c>
-      <c r="J15" s="224" t="s">
-        <v>289</v>
-      </c>
-      <c r="K15" s="224"/>
-      <c r="L15" s="224"/>
+        <v>285</v>
+      </c>
+      <c r="J15" s="220" t="s">
+        <v>286</v>
+      </c>
+      <c r="K15" s="220"/>
+      <c r="L15" s="220"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -7956,16 +7829,16 @@
       <c r="A16" s="66"/>
       <c r="B16" s="77"/>
       <c r="C16" s="78" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D16" s="79" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E16" s="80" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F16" s="80" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G16" s="80">
         <v>4</v>
@@ -7974,13 +7847,13 @@
         <v>50</v>
       </c>
       <c r="I16" s="81" t="s">
-        <v>292</v>
-      </c>
-      <c r="J16" s="224" t="s">
-        <v>293</v>
-      </c>
-      <c r="K16" s="224"/>
-      <c r="L16" s="224"/>
+        <v>289</v>
+      </c>
+      <c r="J16" s="220" t="s">
+        <v>290</v>
+      </c>
+      <c r="K16" s="220"/>
+      <c r="L16" s="220"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -7989,28 +7862,28 @@
       <c r="A17" s="66"/>
       <c r="B17" s="77"/>
       <c r="C17" s="78" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D17" s="79" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E17" s="80" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F17" s="80" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G17" s="80" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H17" s="80">
         <v>50</v>
       </c>
       <c r="I17" s="81" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="J17" s="71" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K17" s="72"/>
       <c r="L17" s="73"/>
@@ -8022,31 +7895,31 @@
       <c r="A18" s="66"/>
       <c r="B18" s="77"/>
       <c r="C18" s="78" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D18" s="79" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E18" s="80" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F18" s="80" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G18" s="80" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H18" s="80">
         <v>50</v>
       </c>
       <c r="I18" s="79" t="s">
+        <v>299</v>
+      </c>
+      <c r="J18" s="210" t="s">
         <v>302</v>
       </c>
-      <c r="J18" s="212" t="s">
-        <v>305</v>
-      </c>
-      <c r="K18" s="222"/>
-      <c r="L18" s="213"/>
+      <c r="K18" s="218"/>
+      <c r="L18" s="211"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
       <c r="O18" s="66"/>
@@ -8055,31 +7928,31 @@
       <c r="A19" s="66"/>
       <c r="B19" s="82"/>
       <c r="C19" s="78" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D19" s="79" t="s">
+        <v>305</v>
+      </c>
+      <c r="E19" s="80" t="s">
+        <v>181</v>
+      </c>
+      <c r="F19" s="80" t="s">
         <v>308</v>
       </c>
-      <c r="E19" s="80" t="s">
-        <v>184</v>
-      </c>
-      <c r="F19" s="80" t="s">
-        <v>311</v>
-      </c>
       <c r="G19" s="80" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H19" s="80">
         <v>255</v>
       </c>
       <c r="I19" s="83" t="s">
-        <v>309</v>
-      </c>
-      <c r="J19" s="212" t="s">
-        <v>310</v>
-      </c>
-      <c r="K19" s="222"/>
-      <c r="L19" s="213"/>
+        <v>306</v>
+      </c>
+      <c r="J19" s="210" t="s">
+        <v>307</v>
+      </c>
+      <c r="K19" s="218"/>
+      <c r="L19" s="211"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
       <c r="O19" s="66"/>
@@ -8104,7 +7977,7 @@
     <row r="21" spans="1:15" ht="20" customHeight="1">
       <c r="A21" s="66"/>
       <c r="B21" s="74" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C21" s="84"/>
       <c r="D21" s="84"/>
@@ -8241,11 +8114,11 @@
     </row>
     <row r="29" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A29" s="69"/>
-      <c r="B29" s="225" t="s">
-        <v>298</v>
-      </c>
-      <c r="C29" s="225"/>
-      <c r="D29" s="225"/>
+      <c r="B29" s="221" t="s">
+        <v>295</v>
+      </c>
+      <c r="C29" s="221"/>
+      <c r="D29" s="221"/>
       <c r="E29" s="87"/>
       <c r="F29" s="88"/>
       <c r="G29" s="87"/>
@@ -8260,32 +8133,32 @@
     </row>
     <row r="30" spans="1:15" s="91" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="90"/>
-      <c r="B30" s="216" t="s">
+      <c r="B30" s="215" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30" s="216"/>
+      <c r="D30" s="216"/>
+      <c r="E30" s="217"/>
+      <c r="F30" s="76" t="s">
+        <v>169</v>
+      </c>
+      <c r="G30" s="76" t="s">
+        <v>171</v>
+      </c>
+      <c r="H30" s="76" t="s">
+        <v>172</v>
+      </c>
+      <c r="I30" s="76" t="s">
+        <v>183</v>
+      </c>
+      <c r="J30" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="C30" s="217"/>
-      <c r="D30" s="217"/>
-      <c r="E30" s="218"/>
-      <c r="F30" s="76" t="s">
-        <v>172</v>
-      </c>
-      <c r="G30" s="76" t="s">
+      <c r="K30" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="H30" s="76" t="s">
-        <v>175</v>
-      </c>
-      <c r="I30" s="76" t="s">
-        <v>186</v>
-      </c>
-      <c r="J30" s="76" t="s">
-        <v>176</v>
-      </c>
-      <c r="K30" s="76" t="s">
-        <v>177</v>
-      </c>
       <c r="L30" s="76" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="M30" s="90"/>
       <c r="N30" s="90"/>
@@ -8294,28 +8167,28 @@
     <row r="31" spans="1:15" ht="20" customHeight="1">
       <c r="A31" s="66"/>
       <c r="B31" s="92" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C31" s="93"/>
       <c r="D31" s="93"/>
       <c r="E31" s="94"/>
       <c r="F31" s="80" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G31" s="80" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H31" s="80" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I31" s="80" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J31" s="80" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K31" s="80" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L31" s="79"/>
       <c r="M31" s="66"/>
@@ -8326,27 +8199,27 @@
       <c r="A32" s="66"/>
       <c r="B32" s="92"/>
       <c r="C32" s="95" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D32" s="96"/>
       <c r="E32" s="94"/>
       <c r="F32" s="78" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G32" s="80" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H32" s="80" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I32" s="80">
         <v>1</v>
       </c>
       <c r="J32" s="80" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K32" s="80" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L32" s="79"/>
       <c r="M32" s="66"/>
@@ -8357,30 +8230,30 @@
       <c r="A33" s="66"/>
       <c r="B33" s="92"/>
       <c r="C33" s="97"/>
-      <c r="D33" s="212" t="s">
-        <v>316</v>
-      </c>
-      <c r="E33" s="213"/>
+      <c r="D33" s="210" t="s">
+        <v>313</v>
+      </c>
+      <c r="E33" s="211"/>
       <c r="F33" s="78" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G33" s="80" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H33" s="80" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I33" s="80">
         <v>1</v>
       </c>
       <c r="J33" s="80" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K33" s="80" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L33" s="79" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M33" s="66"/>
       <c r="N33" s="66"/>
@@ -8390,30 +8263,30 @@
       <c r="A34" s="66"/>
       <c r="B34" s="92"/>
       <c r="C34" s="99"/>
-      <c r="D34" s="212" t="s">
-        <v>317</v>
-      </c>
-      <c r="E34" s="213"/>
+      <c r="D34" s="210" t="s">
+        <v>314</v>
+      </c>
+      <c r="E34" s="211"/>
       <c r="F34" s="78" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G34" s="80" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H34" s="80" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I34" s="80">
         <v>1</v>
       </c>
       <c r="J34" s="80" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K34" s="80" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L34" s="79" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M34" s="66"/>
       <c r="N34" s="66"/>
@@ -8423,30 +8296,30 @@
       <c r="A35" s="66"/>
       <c r="B35" s="92"/>
       <c r="C35" s="95" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D35" s="96"/>
       <c r="E35" s="94"/>
       <c r="F35" s="78" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G35" s="80" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H35" s="80" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I35" s="80">
         <v>1</v>
       </c>
       <c r="J35" s="80" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K35" s="80" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L35" s="79" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M35" s="66"/>
       <c r="N35" s="66"/>
@@ -8456,30 +8329,30 @@
       <c r="A36" s="66"/>
       <c r="B36" s="92"/>
       <c r="C36" s="102"/>
-      <c r="D36" s="212" t="s">
-        <v>320</v>
-      </c>
-      <c r="E36" s="213"/>
+      <c r="D36" s="210" t="s">
+        <v>317</v>
+      </c>
+      <c r="E36" s="211"/>
       <c r="F36" s="78" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G36" s="80" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H36" s="80" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I36" s="80">
         <v>1</v>
       </c>
       <c r="J36" s="80" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K36" s="80" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L36" s="79" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M36" s="66"/>
       <c r="N36" s="66"/>
@@ -8489,30 +8362,30 @@
       <c r="A37" s="66"/>
       <c r="B37" s="92"/>
       <c r="C37" s="102"/>
-      <c r="D37" s="214" t="s">
-        <v>285</v>
-      </c>
-      <c r="E37" s="215"/>
+      <c r="D37" s="223" t="s">
+        <v>282</v>
+      </c>
+      <c r="E37" s="224"/>
       <c r="F37" s="78" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G37" s="80" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H37" s="80" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I37" s="80">
         <v>1</v>
       </c>
       <c r="J37" s="80" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K37" s="80" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L37" s="79" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M37" s="66"/>
       <c r="N37" s="66"/>
@@ -8522,30 +8395,30 @@
       <c r="A38" s="66"/>
       <c r="B38" s="92"/>
       <c r="C38" s="97"/>
-      <c r="D38" s="212" t="s">
-        <v>306</v>
-      </c>
-      <c r="E38" s="213"/>
+      <c r="D38" s="210" t="s">
+        <v>303</v>
+      </c>
+      <c r="E38" s="211"/>
       <c r="F38" s="78" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G38" s="80" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H38" s="80" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I38" s="80">
         <v>1</v>
       </c>
       <c r="J38" s="80" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K38" s="80" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L38" s="79" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M38" s="66"/>
       <c r="N38" s="66"/>
@@ -8556,29 +8429,29 @@
       <c r="B39" s="92"/>
       <c r="C39" s="97"/>
       <c r="D39" s="71" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E39" s="73"/>
       <c r="F39" s="78" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G39" s="80" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H39" s="80" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I39" s="80">
         <v>1</v>
       </c>
       <c r="J39" s="80" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K39" s="80" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L39" s="79" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M39" s="66"/>
       <c r="N39" s="66"/>
@@ -8588,30 +8461,30 @@
       <c r="A40" s="66"/>
       <c r="B40" s="98"/>
       <c r="C40" s="99"/>
-      <c r="D40" s="212" t="s">
-        <v>189</v>
-      </c>
-      <c r="E40" s="213"/>
+      <c r="D40" s="210" t="s">
+        <v>186</v>
+      </c>
+      <c r="E40" s="211"/>
       <c r="F40" s="78" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G40" s="80" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H40" s="80" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I40" s="80">
         <v>1</v>
       </c>
       <c r="J40" s="80" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K40" s="80" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L40" s="79" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M40" s="66"/>
       <c r="N40" s="66"/>
@@ -8637,7 +8510,7 @@
     <row r="42" spans="1:15" ht="20" customHeight="1">
       <c r="A42" s="66"/>
       <c r="B42" s="33" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C42" s="93"/>
       <c r="D42" s="86"/>
@@ -8893,18 +8766,18 @@
     </row>
     <row r="57" spans="1:15" ht="20" customHeight="1">
       <c r="A57" s="66"/>
-      <c r="B57" s="226" t="s">
-        <v>192</v>
-      </c>
-      <c r="C57" s="226"/>
-      <c r="D57" s="226"/>
+      <c r="B57" s="222" t="s">
+        <v>189</v>
+      </c>
+      <c r="C57" s="222"/>
+      <c r="D57" s="222"/>
       <c r="E57" s="66"/>
       <c r="F57" s="66"/>
       <c r="G57" s="66"/>
       <c r="H57" s="66"/>
       <c r="I57" s="66"/>
       <c r="J57" s="66" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K57" s="66"/>
       <c r="L57" s="66"/>
@@ -8914,29 +8787,29 @@
     </row>
     <row r="58" spans="1:15" s="91" customFormat="1" ht="20" customHeight="1">
       <c r="A58" s="90"/>
-      <c r="B58" s="216" t="s">
+      <c r="B58" s="215" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" s="216"/>
+      <c r="D58" s="216"/>
+      <c r="E58" s="217"/>
+      <c r="F58" s="76" t="s">
+        <v>169</v>
+      </c>
+      <c r="G58" s="76" t="s">
+        <v>171</v>
+      </c>
+      <c r="H58" s="76" t="s">
+        <v>172</v>
+      </c>
+      <c r="I58" s="76" t="s">
+        <v>183</v>
+      </c>
+      <c r="J58" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="C58" s="217"/>
-      <c r="D58" s="217"/>
-      <c r="E58" s="218"/>
-      <c r="F58" s="76" t="s">
-        <v>172</v>
-      </c>
-      <c r="G58" s="76" t="s">
+      <c r="K58" s="76" t="s">
         <v>174</v>
-      </c>
-      <c r="H58" s="76" t="s">
-        <v>175</v>
-      </c>
-      <c r="I58" s="76" t="s">
-        <v>186</v>
-      </c>
-      <c r="J58" s="76" t="s">
-        <v>176</v>
-      </c>
-      <c r="K58" s="76" t="s">
-        <v>177</v>
       </c>
       <c r="L58" s="76" t="s">
         <v>0</v>
@@ -8948,28 +8821,28 @@
     <row r="59" spans="1:15" ht="20" customHeight="1">
       <c r="A59" s="66"/>
       <c r="B59" s="92" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C59" s="93"/>
       <c r="D59" s="93"/>
       <c r="E59" s="94"/>
       <c r="F59" s="80" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G59" s="80" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H59" s="80" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I59" s="80" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J59" s="80" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K59" s="80" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L59" s="79"/>
       <c r="M59" s="66"/>
@@ -8980,27 +8853,27 @@
       <c r="A60" s="66"/>
       <c r="B60" s="92"/>
       <c r="C60" s="95" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D60" s="96"/>
       <c r="E60" s="94"/>
       <c r="F60" s="78" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G60" s="80" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H60" s="80" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I60" s="80">
         <v>1</v>
       </c>
       <c r="J60" s="80" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K60" s="80" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L60" s="79"/>
       <c r="M60" s="66"/>
@@ -9011,27 +8884,27 @@
       <c r="A61" s="66"/>
       <c r="B61" s="92"/>
       <c r="C61" s="97"/>
-      <c r="D61" s="212" t="s">
-        <v>316</v>
-      </c>
-      <c r="E61" s="213"/>
+      <c r="D61" s="210" t="s">
+        <v>313</v>
+      </c>
+      <c r="E61" s="211"/>
       <c r="F61" s="78" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G61" s="80" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H61" s="80" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I61" s="80">
         <v>1</v>
       </c>
       <c r="J61" s="80" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K61" s="80" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L61" s="79"/>
       <c r="M61" s="66"/>
@@ -9042,30 +8915,30 @@
       <c r="A62" s="66"/>
       <c r="B62" s="92"/>
       <c r="C62" s="99"/>
-      <c r="D62" s="212" t="s">
-        <v>317</v>
-      </c>
-      <c r="E62" s="213"/>
+      <c r="D62" s="210" t="s">
+        <v>314</v>
+      </c>
+      <c r="E62" s="211"/>
       <c r="F62" s="78" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G62" s="80" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H62" s="80" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I62" s="80">
         <v>1</v>
       </c>
       <c r="J62" s="80" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K62" s="80" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L62" s="79" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="M62" s="66"/>
       <c r="N62" s="66"/>
@@ -9075,27 +8948,27 @@
       <c r="A63" s="66"/>
       <c r="B63" s="92"/>
       <c r="C63" s="95" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D63" s="96"/>
       <c r="E63" s="94"/>
       <c r="F63" s="78" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G63" s="80" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H63" s="80" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I63" s="80">
         <v>1</v>
       </c>
       <c r="J63" s="80" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K63" s="80" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L63" s="79"/>
       <c r="M63" s="66"/>
@@ -9106,8 +8979,8 @@
       <c r="A64" s="66"/>
       <c r="B64" s="98"/>
       <c r="C64" s="99"/>
-      <c r="D64" s="212"/>
-      <c r="E64" s="213"/>
+      <c r="D64" s="210"/>
+      <c r="E64" s="211"/>
       <c r="F64" s="78"/>
       <c r="G64" s="80"/>
       <c r="H64" s="80"/>
@@ -9139,7 +9012,7 @@
     <row r="66" spans="1:15" ht="20" customHeight="1">
       <c r="A66" s="66"/>
       <c r="B66" s="74" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C66" s="66"/>
       <c r="D66" s="66"/>
@@ -9361,6 +9234,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B58:E58"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="B30:E30"/>
@@ -9377,13 +9257,6 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B58:E58"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>

--- a/doc/detail_design/api/MCS_Web_API_Specification.xlsx
+++ b/doc/detail_design/api/MCS_Web_API_Specification.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5620" yWindow="-19140" windowWidth="27480" windowHeight="14520" tabRatio="957" activeTab="5"/>
+    <workbookView xWindow="5620" yWindow="-19140" windowWidth="27480" windowHeight="14520" tabRatio="957" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="23" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="368">
   <si>
     <t>Description</t>
   </si>
@@ -308,19 +308,10 @@
     <t>add a new player into system</t>
   </si>
   <si>
-    <t>Player error (2001 -&gt; 2500)</t>
-  </si>
-  <si>
-    <t>Validate data error</t>
-  </si>
-  <si>
     <t>2008</t>
   </si>
   <si>
     <t>Get information of all player is null</t>
-  </si>
-  <si>
-    <t>Add new player failed</t>
   </si>
   <si>
     <t>Edit player failed</t>
@@ -918,9 +909,6 @@
     <t>1.2 Request parameters</t>
   </si>
   <si>
-    <t>User account register</t>
-  </si>
-  <si>
     <t>HTTP Method</t>
   </si>
   <si>
@@ -1014,9 +1002,6 @@
     <t>Access token.</t>
   </si>
   <si>
-    <t>Detail error message.</t>
-  </si>
-  <si>
     <t>Data section.</t>
   </si>
   <si>
@@ -1033,9 +1018,6 @@
   </si>
   <si>
     <t>Descritption</t>
-  </si>
-  <si>
-    <t>3001: User was existed.</t>
   </si>
   <si>
     <t>9001: Database error was occurred. Please try again later.</t>
@@ -1127,12 +1109,116 @@
   <si>
     <t>Note</t>
   </si>
+  <si>
+    <t>User error (2001 -&gt; 2500)</t>
+  </si>
+  <si>
+    <t>This username is already in used.</t>
+  </si>
+  <si>
+    <t>Error Message</t>
+  </si>
+  <si>
+    <t>Validate data error.</t>
+  </si>
+  <si>
+    <t>{Should include all field validation messages}</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Error description.</t>
+  </si>
+  <si>
+    <t>Error code.</t>
+  </si>
+  <si>
+    <t>messages</t>
+  </si>
+  <si>
+    <t>Many</t>
+  </si>
+  <si>
+    <t>Error messages</t>
+  </si>
+  <si>
+    <t>Error message</t>
+  </si>
+  <si>
+    <t>Separated Detail error message.</t>
+  </si>
+  <si>
+    <t>All error messages.</t>
+  </si>
+  <si>
+    <r>
+      <t>User's e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>mail address</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Create </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">User </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ccount</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1335,6 +1421,11 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -1587,7 +1678,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="404">
+  <cellStyleXfs count="411">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1992,8 +2083,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="226">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2353,29 +2451,79 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2387,44 +2535,6 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2453,6 +2563,21 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -2465,43 +2590,28 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2510,12 +2620,6 @@
     <xf numFmtId="0" fontId="32" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2551,19 +2655,21 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2579,13 +2685,44 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="404">
+  <cellStyles count="411">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2914,6 +3051,13 @@
     <cellStyle name="Followed Hyperlink" xfId="401" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="409" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3639,14 +3783,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>16329</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>61686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1445079</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>181428</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3655,8 +3799,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="844097" y="8044543"/>
-          <a:ext cx="9717768" cy="3113314"/>
+          <a:off x="841829" y="10729686"/>
+          <a:ext cx="9582150" cy="3608614"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3865,7 +4009,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>      "username": "vutruong",</a:t>
+            <a:t>      "username":"vutruong",</a:t>
           </a:r>
           <a:endParaRPr lang="en-GB" b="0">
             <a:effectLst/>
@@ -3901,7 +4045,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>      "firstname": "Vu",</a:t>
+            <a:t>      "firstname":"Vu",</a:t>
           </a:r>
           <a:endParaRPr lang="en-GB" b="0">
             <a:effectLst/>
@@ -3937,7 +4081,33 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>      "lastname": "Truong",</a:t>
+            <a:t>      "lastname":"Truong",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="sk-SK" sz="1100" b="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      "email":"truong.vu@mulodo.com",</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0">
             <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
@@ -3972,7 +4142,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>      "token": "xxxxxx"</a:t>
+            <a:t>      "token":"xxxxxx"</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0">
             <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
@@ -4003,16 +4173,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>827767</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2267</xdr:colOff>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>56696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1428749</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>204107</xdr:rowOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4021,8 +4191,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="827767" y="16271875"/>
-          <a:ext cx="9717768" cy="2143125"/>
+          <a:off x="827767" y="17328696"/>
+          <a:ext cx="9579882" cy="3727904"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4141,7 +4311,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>      "code": 2001,</a:t>
+            <a:t>      "code":1001,</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4150,21 +4320,109 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>      "message": "Database</a:t>
+            <a:t>      "description":"Input validation failed.",</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      "messages": </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      [</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>	message:"Username is required."</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t> error occured. Please try again later.</a:t>
+            <a:t>        </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0">
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>"</a:t>
+            <a:t>},</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>	message:"Password is required."</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      ]</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4182,7 +4440,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>  "data": null</a:t>
+            <a:t>  "data":null</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4537,299 +4795,299 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="43" customFormat="1">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="184" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="154" t="s">
+      <c r="B1" s="185"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="187" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="156" t="s">
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="188"/>
+      <c r="H1" s="188"/>
+      <c r="I1" s="188"/>
+      <c r="J1" s="188"/>
+      <c r="K1" s="192" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="157"/>
-      <c r="M1" s="158"/>
-      <c r="N1" s="159" t="s">
+      <c r="L1" s="193"/>
+      <c r="M1" s="194"/>
+      <c r="N1" s="174" t="s">
+        <v>191</v>
+      </c>
+      <c r="O1" s="175"/>
+      <c r="P1" s="175"/>
+      <c r="Q1" s="175"/>
+      <c r="R1" s="175"/>
+      <c r="S1" s="175"/>
+      <c r="T1" s="175"/>
+      <c r="U1" s="176"/>
+      <c r="V1" s="195" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" s="196"/>
+      <c r="X1" s="196"/>
+      <c r="Y1" s="196"/>
+      <c r="Z1" s="196"/>
+      <c r="AA1" s="196"/>
+      <c r="AB1" s="196"/>
+      <c r="AC1" s="196"/>
+      <c r="AD1" s="197"/>
+    </row>
+    <row r="2" spans="1:30" s="43" customFormat="1">
+      <c r="A2" s="184" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="185"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="187" t="s">
         <v>194</v>
       </c>
-      <c r="O1" s="160"/>
-      <c r="P1" s="160"/>
-      <c r="Q1" s="160"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="160"/>
-      <c r="T1" s="160"/>
-      <c r="U1" s="161"/>
-      <c r="V1" s="162" t="s">
-        <v>39</v>
-      </c>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="163"/>
-      <c r="AA1" s="163"/>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="163"/>
-      <c r="AD1" s="164"/>
-    </row>
-    <row r="2" spans="1:30" s="43" customFormat="1">
-      <c r="A2" s="151" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="154" t="s">
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="169" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="170"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="189" t="s">
+        <v>196</v>
+      </c>
+      <c r="O2" s="190"/>
+      <c r="P2" s="190"/>
+      <c r="Q2" s="190"/>
+      <c r="R2" s="190"/>
+      <c r="S2" s="190"/>
+      <c r="T2" s="190"/>
+      <c r="U2" s="191"/>
+      <c r="V2" s="166" t="s">
+        <v>198</v>
+      </c>
+      <c r="W2" s="167"/>
+      <c r="X2" s="168"/>
+      <c r="Y2" s="166" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z2" s="167"/>
+      <c r="AA2" s="168"/>
+      <c r="AB2" s="166" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC2" s="167"/>
+      <c r="AD2" s="168"/>
+    </row>
+    <row r="3" spans="1:30" s="43" customFormat="1">
+      <c r="A3" s="169" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="170"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="172" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="173"/>
+      <c r="K3" s="169" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="170"/>
+      <c r="M3" s="171"/>
+      <c r="N3" s="174" t="s">
         <v>197</v>
       </c>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="168" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="169"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="180" t="s">
+      <c r="O3" s="175"/>
+      <c r="P3" s="175"/>
+      <c r="Q3" s="175"/>
+      <c r="R3" s="175"/>
+      <c r="S3" s="175"/>
+      <c r="T3" s="175"/>
+      <c r="U3" s="176"/>
+      <c r="V3" s="177" t="s">
         <v>199</v>
       </c>
-      <c r="O2" s="181"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="181"/>
-      <c r="R2" s="181"/>
-      <c r="S2" s="181"/>
-      <c r="T2" s="181"/>
-      <c r="U2" s="182"/>
-      <c r="V2" s="165" t="s">
-        <v>201</v>
-      </c>
-      <c r="W2" s="166"/>
-      <c r="X2" s="167"/>
-      <c r="Y2" s="165" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z2" s="166"/>
-      <c r="AA2" s="167"/>
-      <c r="AB2" s="165" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC2" s="166"/>
-      <c r="AD2" s="167"/>
-    </row>
-    <row r="3" spans="1:30" s="43" customFormat="1">
-      <c r="A3" s="168" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="169"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="171" t="s">
-        <v>198</v>
-      </c>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="168" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="169"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="159" t="s">
-        <v>200</v>
-      </c>
-      <c r="O3" s="160"/>
-      <c r="P3" s="160"/>
-      <c r="Q3" s="160"/>
-      <c r="R3" s="160"/>
-      <c r="S3" s="160"/>
-      <c r="T3" s="160"/>
-      <c r="U3" s="161"/>
-      <c r="V3" s="173" t="s">
-        <v>202</v>
-      </c>
-      <c r="W3" s="174"/>
-      <c r="X3" s="175"/>
-      <c r="Y3" s="176"/>
-      <c r="Z3" s="177"/>
-      <c r="AA3" s="178"/>
-      <c r="AB3" s="179"/>
-      <c r="AC3" s="177"/>
-      <c r="AD3" s="178"/>
+      <c r="W3" s="178"/>
+      <c r="X3" s="179"/>
+      <c r="Y3" s="180"/>
+      <c r="Z3" s="181"/>
+      <c r="AA3" s="182"/>
+      <c r="AB3" s="183"/>
+      <c r="AC3" s="181"/>
+      <c r="AD3" s="182"/>
     </row>
     <row r="7" spans="1:30" ht="16" thickBot="1"/>
     <row r="8" spans="1:30" ht="16" thickBot="1">
-      <c r="B8" s="195" t="s">
+      <c r="B8" s="164" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="195"/>
-      <c r="D8" s="195"/>
-      <c r="E8" s="195"/>
-      <c r="F8" s="195" t="s">
+      <c r="C8" s="164"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="164" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="195"/>
-      <c r="H8" s="195" t="s">
+      <c r="G8" s="164"/>
+      <c r="H8" s="164" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="195"/>
-      <c r="J8" s="195"/>
-      <c r="K8" s="195" t="s">
+      <c r="I8" s="164"/>
+      <c r="J8" s="164"/>
+      <c r="K8" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="195"/>
-      <c r="M8" s="195"/>
-      <c r="N8" s="195"/>
-      <c r="O8" s="195"/>
-      <c r="P8" s="195"/>
-      <c r="Q8" s="195"/>
-      <c r="R8" s="195"/>
-      <c r="S8" s="195"/>
-      <c r="T8" s="195"/>
-      <c r="U8" s="195"/>
-      <c r="V8" s="195"/>
-      <c r="W8" s="195"/>
-      <c r="X8" s="195" t="s">
+      <c r="L8" s="164"/>
+      <c r="M8" s="164"/>
+      <c r="N8" s="164"/>
+      <c r="O8" s="164"/>
+      <c r="P8" s="164"/>
+      <c r="Q8" s="164"/>
+      <c r="R8" s="164"/>
+      <c r="S8" s="164"/>
+      <c r="T8" s="164"/>
+      <c r="U8" s="164"/>
+      <c r="V8" s="164"/>
+      <c r="W8" s="164"/>
+      <c r="X8" s="164" t="s">
         <v>47</v>
       </c>
-      <c r="Y8" s="195"/>
-      <c r="Z8" s="195"/>
-      <c r="AA8" s="195"/>
-      <c r="AB8" s="195"/>
-      <c r="AC8" s="195"/>
+      <c r="Y8" s="164"/>
+      <c r="Z8" s="164"/>
+      <c r="AA8" s="164"/>
+      <c r="AB8" s="164"/>
+      <c r="AC8" s="164"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="B9" s="183" t="s">
-        <v>196</v>
-      </c>
-      <c r="C9" s="184"/>
-      <c r="D9" s="184"/>
-      <c r="E9" s="185"/>
-      <c r="F9" s="186" t="s">
+      <c r="B9" s="165" t="s">
         <v>193</v>
       </c>
-      <c r="G9" s="187"/>
-      <c r="H9" s="188"/>
-      <c r="I9" s="184"/>
-      <c r="J9" s="185"/>
-      <c r="K9" s="189"/>
-      <c r="L9" s="190"/>
-      <c r="M9" s="190"/>
-      <c r="N9" s="190"/>
-      <c r="O9" s="190"/>
-      <c r="P9" s="190"/>
-      <c r="Q9" s="190"/>
-      <c r="R9" s="190"/>
-      <c r="S9" s="190"/>
-      <c r="T9" s="190"/>
-      <c r="U9" s="190"/>
-      <c r="V9" s="190"/>
-      <c r="W9" s="191"/>
-      <c r="X9" s="192"/>
-      <c r="Y9" s="193"/>
-      <c r="Z9" s="193"/>
-      <c r="AA9" s="193"/>
-      <c r="AB9" s="193"/>
-      <c r="AC9" s="194"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="156" t="s">
+        <v>190</v>
+      </c>
+      <c r="G9" s="157"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
+      <c r="J9" s="155"/>
+      <c r="K9" s="158"/>
+      <c r="L9" s="159"/>
+      <c r="M9" s="159"/>
+      <c r="N9" s="159"/>
+      <c r="O9" s="159"/>
+      <c r="P9" s="159"/>
+      <c r="Q9" s="159"/>
+      <c r="R9" s="159"/>
+      <c r="S9" s="159"/>
+      <c r="T9" s="159"/>
+      <c r="U9" s="159"/>
+      <c r="V9" s="159"/>
+      <c r="W9" s="160"/>
+      <c r="X9" s="161"/>
+      <c r="Y9" s="162"/>
+      <c r="Z9" s="162"/>
+      <c r="AA9" s="162"/>
+      <c r="AB9" s="162"/>
+      <c r="AC9" s="163"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="B10" s="188"/>
-      <c r="C10" s="184"/>
-      <c r="D10" s="184"/>
-      <c r="E10" s="185"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="188"/>
-      <c r="I10" s="184"/>
-      <c r="J10" s="185"/>
-      <c r="K10" s="189"/>
-      <c r="L10" s="190"/>
-      <c r="M10" s="190"/>
-      <c r="N10" s="190"/>
-      <c r="O10" s="190"/>
-      <c r="P10" s="190"/>
-      <c r="Q10" s="190"/>
-      <c r="R10" s="190"/>
-      <c r="S10" s="190"/>
-      <c r="T10" s="190"/>
-      <c r="U10" s="190"/>
-      <c r="V10" s="190"/>
-      <c r="W10" s="191"/>
-      <c r="X10" s="192"/>
-      <c r="Y10" s="193"/>
-      <c r="Z10" s="193"/>
-      <c r="AA10" s="193"/>
-      <c r="AB10" s="193"/>
-      <c r="AC10" s="194"/>
+      <c r="B10" s="153"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="157"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="155"/>
+      <c r="K10" s="158"/>
+      <c r="L10" s="159"/>
+      <c r="M10" s="159"/>
+      <c r="N10" s="159"/>
+      <c r="O10" s="159"/>
+      <c r="P10" s="159"/>
+      <c r="Q10" s="159"/>
+      <c r="R10" s="159"/>
+      <c r="S10" s="159"/>
+      <c r="T10" s="159"/>
+      <c r="U10" s="159"/>
+      <c r="V10" s="159"/>
+      <c r="W10" s="160"/>
+      <c r="X10" s="161"/>
+      <c r="Y10" s="162"/>
+      <c r="Z10" s="162"/>
+      <c r="AA10" s="162"/>
+      <c r="AB10" s="162"/>
+      <c r="AC10" s="163"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="B11" s="188"/>
-      <c r="C11" s="184"/>
-      <c r="D11" s="184"/>
-      <c r="E11" s="185"/>
-      <c r="F11" s="186"/>
-      <c r="G11" s="187"/>
-      <c r="H11" s="188"/>
-      <c r="I11" s="184"/>
-      <c r="J11" s="185"/>
-      <c r="K11" s="189"/>
-      <c r="L11" s="190"/>
-      <c r="M11" s="190"/>
-      <c r="N11" s="190"/>
-      <c r="O11" s="190"/>
-      <c r="P11" s="190"/>
-      <c r="Q11" s="190"/>
-      <c r="R11" s="190"/>
-      <c r="S11" s="190"/>
-      <c r="T11" s="190"/>
-      <c r="U11" s="190"/>
-      <c r="V11" s="190"/>
-      <c r="W11" s="191"/>
-      <c r="X11" s="192"/>
-      <c r="Y11" s="193"/>
-      <c r="Z11" s="193"/>
-      <c r="AA11" s="193"/>
-      <c r="AB11" s="193"/>
-      <c r="AC11" s="194"/>
+      <c r="B11" s="153"/>
+      <c r="C11" s="154"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="157"/>
+      <c r="H11" s="153"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="155"/>
+      <c r="K11" s="158"/>
+      <c r="L11" s="159"/>
+      <c r="M11" s="159"/>
+      <c r="N11" s="159"/>
+      <c r="O11" s="159"/>
+      <c r="P11" s="159"/>
+      <c r="Q11" s="159"/>
+      <c r="R11" s="159"/>
+      <c r="S11" s="159"/>
+      <c r="T11" s="159"/>
+      <c r="U11" s="159"/>
+      <c r="V11" s="159"/>
+      <c r="W11" s="160"/>
+      <c r="X11" s="161"/>
+      <c r="Y11" s="162"/>
+      <c r="Z11" s="162"/>
+      <c r="AA11" s="162"/>
+      <c r="AB11" s="162"/>
+      <c r="AC11" s="163"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="B12" s="188"/>
-      <c r="C12" s="184"/>
-      <c r="D12" s="184"/>
-      <c r="E12" s="185"/>
-      <c r="F12" s="186"/>
-      <c r="G12" s="187"/>
-      <c r="H12" s="188"/>
-      <c r="I12" s="184"/>
-      <c r="J12" s="185"/>
-      <c r="K12" s="189"/>
-      <c r="L12" s="190"/>
-      <c r="M12" s="190"/>
-      <c r="N12" s="190"/>
-      <c r="O12" s="190"/>
-      <c r="P12" s="190"/>
-      <c r="Q12" s="190"/>
-      <c r="R12" s="190"/>
-      <c r="S12" s="190"/>
-      <c r="T12" s="190"/>
-      <c r="U12" s="190"/>
-      <c r="V12" s="190"/>
-      <c r="W12" s="191"/>
-      <c r="X12" s="192"/>
-      <c r="Y12" s="193"/>
-      <c r="Z12" s="193"/>
-      <c r="AA12" s="193"/>
-      <c r="AB12" s="193"/>
-      <c r="AC12" s="194"/>
+      <c r="B12" s="153"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="157"/>
+      <c r="H12" s="153"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="155"/>
+      <c r="K12" s="158"/>
+      <c r="L12" s="159"/>
+      <c r="M12" s="159"/>
+      <c r="N12" s="159"/>
+      <c r="O12" s="159"/>
+      <c r="P12" s="159"/>
+      <c r="Q12" s="159"/>
+      <c r="R12" s="159"/>
+      <c r="S12" s="159"/>
+      <c r="T12" s="159"/>
+      <c r="U12" s="159"/>
+      <c r="V12" s="159"/>
+      <c r="W12" s="160"/>
+      <c r="X12" s="161"/>
+      <c r="Y12" s="162"/>
+      <c r="Z12" s="162"/>
+      <c r="AA12" s="162"/>
+      <c r="AB12" s="162"/>
+      <c r="AC12" s="163"/>
     </row>
     <row r="13" spans="1:30" ht="18" customHeight="1"/>
     <row r="14" spans="1:30" ht="18" customHeight="1"/>
@@ -4859,31 +5117,11 @@
     <row r="38" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AC12"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AC9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AD1"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="A3:C3"/>
@@ -4898,11 +5136,31 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:U2"/>
     <mergeCell ref="V2:X2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AD1"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AC9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AC12"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5049,13 +5307,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E14" s="26" t="s">
         <v>58</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="18">
@@ -5077,13 +5335,13 @@
         <v>3</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E16" s="26" t="s">
         <v>58</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="3:6" ht="18">
@@ -5127,7 +5385,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E21" s="26" t="s">
         <v>63</v>
@@ -5141,7 +5399,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E22" s="26" t="s">
         <v>64</v>
@@ -5155,7 +5413,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E23" s="26" t="s">
         <v>65</v>
@@ -5169,7 +5427,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E24" s="26" t="s">
         <v>65</v>
@@ -5183,7 +5441,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E25" s="26" t="s">
         <v>65</v>
@@ -5297,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E38" s="26" t="s">
         <v>81</v>
@@ -5311,13 +5569,13 @@
         <v>2</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="3:6" ht="18">
@@ -5369,13 +5627,13 @@
         <v>1</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="3:6" ht="18">
@@ -5383,13 +5641,13 @@
         <v>2</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="3:6" ht="18">
@@ -5438,7 +5696,7 @@
     </row>
     <row r="56" spans="3:6" ht="18">
       <c r="C56" s="15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D56" s="16"/>
       <c r="E56" s="28"/>
@@ -5446,7 +5704,7 @@
     </row>
     <row r="57" spans="3:6" ht="18">
       <c r="C57" s="17" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="28"/>
@@ -5471,13 +5729,13 @@
         <v>1</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F59" s="32" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -5530,7 +5788,7 @@
   <sheetData>
     <row r="1" spans="2:11" s="135" customFormat="1" ht="26" customHeight="1">
       <c r="B1" s="56" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C1" s="134"/>
     </row>
@@ -5549,7 +5807,7 @@
     <row r="4" spans="2:11">
       <c r="B4" s="48"/>
       <c r="C4" s="136" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D4" s="49"/>
       <c r="E4" s="49"/>
@@ -5755,7 +6013,7 @@
     <row r="21" spans="2:14">
       <c r="B21" s="48"/>
       <c r="C21" s="136" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D21" s="49"/>
       <c r="E21" s="49"/>
@@ -5952,8 +6210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6005,14 +6263,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="104" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D4" s="199" t="s">
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="E4" s="199"/>
       <c r="F4" s="150" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G4" s="125"/>
       <c r="H4" s="122"/>
@@ -6022,17 +6280,19 @@
       <c r="L4" s="122"/>
     </row>
     <row r="5" spans="2:12" ht="20" customHeight="1">
-      <c r="B5" s="126">
+      <c r="B5" s="227">
         <v>1</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="228" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="198" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="198"/>
-      <c r="F5" s="148"/>
+      <c r="D5" s="229" t="s">
+        <v>356</v>
+      </c>
+      <c r="E5" s="229"/>
+      <c r="F5" s="230" t="s">
+        <v>355</v>
+      </c>
       <c r="G5" s="125"/>
       <c r="H5" s="125"/>
     </row>
@@ -6082,14 +6342,14 @@
         <v>2</v>
       </c>
       <c r="C9" s="150" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D9" s="199" t="s">
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="E9" s="199"/>
       <c r="F9" s="150" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="20" customHeight="1">
@@ -6105,7 +6365,7 @@
       <c r="E10" s="198"/>
       <c r="F10" s="148"/>
       <c r="G10" s="125" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H10" s="125"/>
     </row>
@@ -6197,14 +6457,14 @@
         <v>2</v>
       </c>
       <c r="C18" s="150" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D18" s="199" t="s">
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="E18" s="199"/>
       <c r="F18" s="150" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="20" customHeight="1">
@@ -6218,7 +6478,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="198"/>
-      <c r="F19" s="225"/>
+      <c r="F19" s="152"/>
       <c r="G19" s="125"/>
       <c r="H19" s="125"/>
     </row>
@@ -6230,10 +6490,10 @@
         <v>23</v>
       </c>
       <c r="D20" s="198" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E20" s="198"/>
-      <c r="F20" s="225"/>
+      <c r="F20" s="152"/>
       <c r="G20" s="125"/>
       <c r="H20" s="125"/>
     </row>
@@ -6248,7 +6508,7 @@
         <v>31</v>
       </c>
       <c r="E21" s="198"/>
-      <c r="F21" s="225"/>
+      <c r="F21" s="152"/>
       <c r="G21" s="125"/>
       <c r="H21" s="125"/>
     </row>
@@ -6263,7 +6523,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="198"/>
-      <c r="F22" s="225"/>
+      <c r="F22" s="152"/>
       <c r="G22" s="125"/>
       <c r="H22" s="125"/>
     </row>
@@ -6278,7 +6538,7 @@
         <v>33</v>
       </c>
       <c r="E23" s="198"/>
-      <c r="F23" s="225"/>
+      <c r="F23" s="152"/>
       <c r="G23" s="125"/>
       <c r="H23" s="125"/>
     </row>
@@ -6293,13 +6553,13 @@
         <v>32</v>
       </c>
       <c r="E24" s="198"/>
-      <c r="F24" s="225"/>
+      <c r="F24" s="152"/>
       <c r="G24" s="125"/>
       <c r="H24" s="125"/>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="123" t="s">
-        <v>94</v>
+        <v>352</v>
       </c>
       <c r="C26" s="132"/>
       <c r="D26" s="132"/>
@@ -6310,31 +6570,29 @@
         <v>2</v>
       </c>
       <c r="C27" s="150" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D27" s="199" t="s">
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="E27" s="199"/>
       <c r="F27" s="150" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="20" customHeight="1">
-      <c r="B28" s="126">
+      <c r="B28" s="227">
         <v>1</v>
       </c>
-      <c r="C28" s="127" t="s">
+      <c r="C28" s="228" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="198" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" s="198"/>
-      <c r="F28" s="225"/>
-      <c r="G28" s="125" t="s">
-        <v>331</v>
-      </c>
+      <c r="D28" s="229" t="s">
+        <v>353</v>
+      </c>
+      <c r="E28" s="229"/>
+      <c r="F28" s="231"/>
+      <c r="G28" s="125"/>
       <c r="H28" s="125"/>
     </row>
     <row r="29" spans="2:8" ht="20" customHeight="1">
@@ -6345,10 +6603,10 @@
         <v>23</v>
       </c>
       <c r="D29" s="198" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E29" s="198"/>
-      <c r="F29" s="225"/>
+      <c r="F29" s="152"/>
       <c r="G29" s="125"/>
       <c r="H29" s="125"/>
     </row>
@@ -6360,10 +6618,10 @@
         <v>24</v>
       </c>
       <c r="D30" s="198" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E30" s="198"/>
-      <c r="F30" s="225"/>
+      <c r="F30" s="152"/>
       <c r="G30" s="125"/>
       <c r="H30" s="125"/>
     </row>
@@ -6375,10 +6633,10 @@
         <v>25</v>
       </c>
       <c r="D31" s="198" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E31" s="198"/>
-      <c r="F31" s="225"/>
+      <c r="F31" s="152"/>
       <c r="G31" s="125"/>
       <c r="H31" s="125"/>
     </row>
@@ -6390,10 +6648,10 @@
         <v>26</v>
       </c>
       <c r="D32" s="198" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E32" s="198"/>
-      <c r="F32" s="225"/>
+      <c r="F32" s="152"/>
       <c r="G32" s="125"/>
       <c r="H32" s="125"/>
     </row>
@@ -6405,10 +6663,10 @@
         <v>27</v>
       </c>
       <c r="D33" s="198" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E33" s="198"/>
-      <c r="F33" s="225"/>
+      <c r="F33" s="152"/>
       <c r="G33" s="125"/>
       <c r="H33" s="125"/>
     </row>
@@ -6420,10 +6678,10 @@
         <v>30</v>
       </c>
       <c r="D34" s="198" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E34" s="198"/>
-      <c r="F34" s="225"/>
+      <c r="F34" s="152"/>
       <c r="G34" s="125"/>
       <c r="H34" s="125"/>
     </row>
@@ -6432,13 +6690,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="127" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D35" s="198" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E35" s="198"/>
-      <c r="F35" s="225"/>
+      <c r="F35" s="152"/>
       <c r="G35" s="125"/>
       <c r="H35" s="125"/>
     </row>
@@ -6447,19 +6705,19 @@
         <v>9</v>
       </c>
       <c r="C36" s="127" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D36" s="198" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E36" s="198"/>
-      <c r="F36" s="225"/>
+      <c r="F36" s="152"/>
       <c r="G36" s="125"/>
       <c r="H36" s="125"/>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="123" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C39" s="132"/>
       <c r="D39" s="132"/>
@@ -6468,14 +6726,14 @@
     <row r="40" spans="2:8">
       <c r="B40" s="124"/>
       <c r="C40" s="150" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D40" s="199" t="s">
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="E40" s="199"/>
       <c r="F40" s="150" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="15" customHeight="1">
@@ -6483,12 +6741,12 @@
         <v>1</v>
       </c>
       <c r="C41" s="127" t="s">
-        <v>149</v>
-      </c>
-      <c r="D41" s="196" t="s">
-        <v>154</v>
-      </c>
-      <c r="E41" s="197"/>
+        <v>146</v>
+      </c>
+      <c r="D41" s="200" t="s">
+        <v>151</v>
+      </c>
+      <c r="E41" s="201"/>
       <c r="F41" s="149"/>
     </row>
     <row r="42" spans="2:8" ht="15" customHeight="1">
@@ -6496,12 +6754,12 @@
         <v>2</v>
       </c>
       <c r="C42" s="127" t="s">
-        <v>150</v>
-      </c>
-      <c r="D42" s="196" t="s">
-        <v>159</v>
-      </c>
-      <c r="E42" s="197"/>
+        <v>147</v>
+      </c>
+      <c r="D42" s="200" t="s">
+        <v>156</v>
+      </c>
+      <c r="E42" s="201"/>
       <c r="F42" s="149"/>
     </row>
     <row r="43" spans="2:8">
@@ -6509,10 +6767,10 @@
         <v>3</v>
       </c>
       <c r="C43" s="127" t="s">
-        <v>151</v>
-      </c>
-      <c r="D43" s="196"/>
-      <c r="E43" s="197"/>
+        <v>148</v>
+      </c>
+      <c r="D43" s="200"/>
+      <c r="E43" s="201"/>
       <c r="F43" s="149"/>
     </row>
     <row r="44" spans="2:8">
@@ -6520,10 +6778,10 @@
         <v>4</v>
       </c>
       <c r="C44" s="127" t="s">
-        <v>152</v>
-      </c>
-      <c r="D44" s="196"/>
-      <c r="E44" s="197"/>
+        <v>149</v>
+      </c>
+      <c r="D44" s="200"/>
+      <c r="E44" s="201"/>
       <c r="F44" s="149"/>
     </row>
     <row r="45" spans="2:8">
@@ -6531,15 +6789,15 @@
         <v>5</v>
       </c>
       <c r="C45" s="127" t="s">
-        <v>153</v>
-      </c>
-      <c r="D45" s="196"/>
-      <c r="E45" s="197"/>
+        <v>150</v>
+      </c>
+      <c r="D45" s="200"/>
+      <c r="E45" s="201"/>
       <c r="F45" s="149"/>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="123" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C48" s="132"/>
       <c r="D48" s="132"/>
@@ -6548,14 +6806,14 @@
     <row r="49" spans="2:6">
       <c r="B49" s="124"/>
       <c r="C49" s="150" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D49" s="199" t="s">
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="E49" s="199"/>
       <c r="F49" s="150" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="20" customHeight="1">
@@ -6563,95 +6821,95 @@
         <v>1</v>
       </c>
       <c r="C50" s="127" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D50" s="198" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E50" s="198"/>
-      <c r="F50" s="225"/>
+      <c r="F50" s="152"/>
     </row>
     <row r="51" spans="2:6" ht="20" customHeight="1">
       <c r="B51" s="126">
         <v>2</v>
       </c>
       <c r="C51" s="127" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D51" s="198" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E51" s="198"/>
-      <c r="F51" s="225"/>
+      <c r="F51" s="152"/>
     </row>
     <row r="52" spans="2:6" ht="20" customHeight="1">
       <c r="B52" s="126">
         <v>3</v>
       </c>
       <c r="C52" s="127" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D52" s="198" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E52" s="198"/>
-      <c r="F52" s="225"/>
+      <c r="F52" s="152"/>
     </row>
     <row r="53" spans="2:6" ht="20" customHeight="1">
       <c r="B53" s="126">
         <v>4</v>
       </c>
       <c r="C53" s="127" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D53" s="198" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E53" s="198"/>
-      <c r="F53" s="225"/>
+      <c r="F53" s="152"/>
     </row>
     <row r="54" spans="2:6" ht="20" customHeight="1">
       <c r="B54" s="126">
         <v>5</v>
       </c>
       <c r="C54" s="127" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D54" s="198" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E54" s="198"/>
-      <c r="F54" s="225"/>
+      <c r="F54" s="152"/>
     </row>
     <row r="55" spans="2:6" ht="20" customHeight="1">
       <c r="B55" s="126">
         <v>6</v>
       </c>
       <c r="C55" s="127" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D55" s="198" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E55" s="198"/>
-      <c r="F55" s="225"/>
+      <c r="F55" s="152"/>
     </row>
     <row r="56" spans="2:6" ht="20" customHeight="1">
       <c r="B56" s="126">
         <v>7</v>
       </c>
       <c r="C56" s="127" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D56" s="198" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E56" s="198"/>
-      <c r="F56" s="225"/>
+      <c r="F56" s="152"/>
     </row>
     <row r="59" spans="2:6">
       <c r="B59" s="123" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C59" s="132"/>
       <c r="D59" s="132"/>
@@ -6660,14 +6918,14 @@
     <row r="60" spans="2:6">
       <c r="B60" s="124"/>
       <c r="C60" s="150" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D60" s="199" t="s">
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="E60" s="199"/>
       <c r="F60" s="150" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="61" spans="2:6" ht="15" customHeight="1">
@@ -6675,66 +6933,99 @@
         <v>1</v>
       </c>
       <c r="C61" s="127" t="s">
-        <v>133</v>
-      </c>
-      <c r="D61" s="196" t="s">
-        <v>138</v>
-      </c>
-      <c r="E61" s="197"/>
-      <c r="F61" s="225"/>
+        <v>130</v>
+      </c>
+      <c r="D61" s="200" t="s">
+        <v>135</v>
+      </c>
+      <c r="E61" s="201"/>
+      <c r="F61" s="152"/>
     </row>
     <row r="62" spans="2:6" ht="15" customHeight="1">
       <c r="B62" s="126">
         <v>2</v>
       </c>
       <c r="C62" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="D62" s="196" t="s">
-        <v>139</v>
-      </c>
-      <c r="E62" s="197"/>
-      <c r="F62" s="225"/>
+        <v>131</v>
+      </c>
+      <c r="D62" s="200" t="s">
+        <v>136</v>
+      </c>
+      <c r="E62" s="201"/>
+      <c r="F62" s="152"/>
     </row>
     <row r="63" spans="2:6" ht="15" customHeight="1">
       <c r="B63" s="126">
         <v>3</v>
       </c>
       <c r="C63" s="127" t="s">
-        <v>135</v>
-      </c>
-      <c r="D63" s="196" t="s">
-        <v>140</v>
-      </c>
-      <c r="E63" s="197"/>
-      <c r="F63" s="225"/>
+        <v>132</v>
+      </c>
+      <c r="D63" s="200" t="s">
+        <v>137</v>
+      </c>
+      <c r="E63" s="201"/>
+      <c r="F63" s="152"/>
     </row>
     <row r="64" spans="2:6" ht="15" customHeight="1">
       <c r="B64" s="126">
         <v>4</v>
       </c>
       <c r="C64" s="127" t="s">
-        <v>136</v>
-      </c>
-      <c r="D64" s="196" t="s">
-        <v>141</v>
-      </c>
-      <c r="E64" s="197"/>
-      <c r="F64" s="225"/>
+        <v>133</v>
+      </c>
+      <c r="D64" s="200" t="s">
+        <v>138</v>
+      </c>
+      <c r="E64" s="201"/>
+      <c r="F64" s="152"/>
     </row>
     <row r="65" spans="2:6">
       <c r="B65" s="126">
         <v>5</v>
       </c>
       <c r="C65" s="127" t="s">
-        <v>137</v>
-      </c>
-      <c r="D65" s="196"/>
-      <c r="E65" s="197"/>
-      <c r="F65" s="225"/>
+        <v>134</v>
+      </c>
+      <c r="D65" s="200"/>
+      <c r="E65" s="201"/>
+      <c r="F65" s="152"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D32:E32"/>
@@ -6748,39 +7039,6 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6817,7 +7075,7 @@
   <sheetData>
     <row r="1" spans="2:14" s="34" customFormat="1" ht="26" customHeight="1">
       <c r="B1" s="133" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C1" s="57"/>
       <c r="D1" s="35"/>
@@ -6856,17 +7114,17 @@
         <v>2</v>
       </c>
       <c r="C4" s="104" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D4" s="104" t="s">
-        <v>233</v>
-      </c>
-      <c r="E4" s="200" t="s">
-        <v>232</v>
-      </c>
-      <c r="F4" s="201"/>
+        <v>230</v>
+      </c>
+      <c r="E4" s="202" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="203"/>
       <c r="G4" s="104" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H4" s="104" t="s">
         <v>0</v>
@@ -6877,22 +7135,22 @@
         <v>1</v>
       </c>
       <c r="C5" s="106" t="s">
-        <v>234</v>
-      </c>
-      <c r="D5" s="202" t="s">
+        <v>231</v>
+      </c>
+      <c r="D5" s="204" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="107" t="s">
         <v>206</v>
       </c>
-      <c r="E5" s="107" t="s">
-        <v>209</v>
-      </c>
       <c r="F5" s="108" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G5" s="108" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H5" s="109" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I5" s="110"/>
       <c r="J5" s="38"/>
@@ -6902,20 +7160,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="106" t="s">
-        <v>235</v>
-      </c>
-      <c r="D6" s="203"/>
+        <v>232</v>
+      </c>
+      <c r="D6" s="205"/>
       <c r="E6" s="107" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F6" s="108" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G6" s="108" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="H6" s="109" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I6" s="110"/>
       <c r="J6" s="38"/>
@@ -6925,20 +7183,20 @@
         <v>3</v>
       </c>
       <c r="C7" s="106" t="s">
-        <v>236</v>
-      </c>
-      <c r="D7" s="203"/>
+        <v>233</v>
+      </c>
+      <c r="D7" s="205"/>
       <c r="E7" s="107" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F7" s="108" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G7" s="108" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H7" s="109" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I7" s="110"/>
       <c r="J7" s="38"/>
@@ -6948,20 +7206,20 @@
         <v>4</v>
       </c>
       <c r="C8" s="106" t="s">
-        <v>342</v>
-      </c>
-      <c r="D8" s="203"/>
+        <v>336</v>
+      </c>
+      <c r="D8" s="205"/>
       <c r="E8" s="137" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F8" s="138" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G8" s="138" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H8" s="139" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="I8" s="110"/>
       <c r="J8" s="38"/>
@@ -6971,20 +7229,20 @@
         <v>5</v>
       </c>
       <c r="C9" s="106" t="s">
-        <v>237</v>
-      </c>
-      <c r="D9" s="203"/>
+        <v>234</v>
+      </c>
+      <c r="D9" s="205"/>
       <c r="E9" s="107" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F9" s="108" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G9" s="108" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H9" s="109" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I9" s="110"/>
       <c r="J9" s="38"/>
@@ -6994,23 +7252,23 @@
         <v>6</v>
       </c>
       <c r="C10" s="106" t="s">
+        <v>328</v>
+      </c>
+      <c r="D10" s="205"/>
+      <c r="E10" s="137" t="s">
+        <v>209</v>
+      </c>
+      <c r="F10" s="138" t="s">
+        <v>346</v>
+      </c>
+      <c r="G10" s="138" t="s">
         <v>334</v>
       </c>
-      <c r="D10" s="203"/>
-      <c r="E10" s="137" t="s">
-        <v>212</v>
-      </c>
-      <c r="F10" s="138" t="s">
-        <v>352</v>
-      </c>
-      <c r="G10" s="138" t="s">
-        <v>340</v>
-      </c>
       <c r="H10" s="139" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="I10" s="110" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="J10" s="38"/>
     </row>
@@ -7019,20 +7277,20 @@
         <v>7</v>
       </c>
       <c r="C11" s="106" t="s">
-        <v>238</v>
-      </c>
-      <c r="D11" s="204"/>
+        <v>235</v>
+      </c>
+      <c r="D11" s="206"/>
       <c r="E11" s="107" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F11" s="108" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G11" s="108" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H11" s="109" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I11" s="110"/>
       <c r="J11" s="38"/>
@@ -7042,22 +7300,22 @@
         <v>8</v>
       </c>
       <c r="C12" s="111" t="s">
-        <v>242</v>
-      </c>
-      <c r="D12" s="205" t="s">
-        <v>207</v>
+        <v>239</v>
+      </c>
+      <c r="D12" s="207" t="s">
+        <v>204</v>
       </c>
       <c r="E12" s="112" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F12" s="113" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G12" s="113" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H12" s="114" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I12" s="110"/>
       <c r="J12" s="38"/>
@@ -7067,23 +7325,23 @@
         <v>9</v>
       </c>
       <c r="C13" s="111" t="s">
-        <v>343</v>
-      </c>
-      <c r="D13" s="206"/>
+        <v>337</v>
+      </c>
+      <c r="D13" s="208"/>
       <c r="E13" s="140" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F13" s="141" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G13" s="141" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H13" s="142" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="I13" s="110" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="J13" s="38"/>
     </row>
@@ -7092,20 +7350,20 @@
         <v>10</v>
       </c>
       <c r="C14" s="111" t="s">
-        <v>240</v>
-      </c>
-      <c r="D14" s="206"/>
+        <v>237</v>
+      </c>
+      <c r="D14" s="208"/>
       <c r="E14" s="112" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F14" s="113" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G14" s="113" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H14" s="114" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I14" s="110"/>
       <c r="J14" s="38"/>
@@ -7115,20 +7373,20 @@
         <v>11</v>
       </c>
       <c r="C15" s="111" t="s">
-        <v>239</v>
-      </c>
-      <c r="D15" s="206"/>
+        <v>236</v>
+      </c>
+      <c r="D15" s="208"/>
       <c r="E15" s="112" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F15" s="113" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="G15" s="113" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H15" s="114" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I15" s="110"/>
       <c r="J15" s="38"/>
@@ -7138,20 +7396,20 @@
         <v>12</v>
       </c>
       <c r="C16" s="111" t="s">
-        <v>252</v>
-      </c>
-      <c r="D16" s="206"/>
+        <v>249</v>
+      </c>
+      <c r="D16" s="208"/>
       <c r="E16" s="112" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F16" s="113" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G16" s="113" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H16" s="114" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I16" s="110"/>
       <c r="J16" s="38"/>
@@ -7161,20 +7419,20 @@
         <v>13</v>
       </c>
       <c r="C17" s="111" t="s">
-        <v>243</v>
-      </c>
-      <c r="D17" s="206"/>
+        <v>240</v>
+      </c>
+      <c r="D17" s="208"/>
       <c r="E17" s="112" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F17" s="113" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G17" s="113" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H17" s="114" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I17" s="110"/>
       <c r="J17" s="38"/>
@@ -7184,20 +7442,20 @@
         <v>14</v>
       </c>
       <c r="C18" s="111" t="s">
-        <v>244</v>
-      </c>
-      <c r="D18" s="206"/>
+        <v>241</v>
+      </c>
+      <c r="D18" s="208"/>
       <c r="E18" s="112" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F18" s="113" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G18" s="113" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H18" s="114" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I18" s="110"/>
       <c r="J18" s="38"/>
@@ -7207,20 +7465,20 @@
         <v>15</v>
       </c>
       <c r="C19" s="111" t="s">
-        <v>245</v>
-      </c>
-      <c r="D19" s="206"/>
+        <v>242</v>
+      </c>
+      <c r="D19" s="208"/>
       <c r="E19" s="112" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F19" s="113" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G19" s="113" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H19" s="114" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I19" s="110"/>
       <c r="J19" s="38"/>
@@ -7230,22 +7488,22 @@
         <v>16</v>
       </c>
       <c r="C20" s="115" t="s">
-        <v>246</v>
-      </c>
-      <c r="D20" s="207" t="s">
-        <v>208</v>
+        <v>243</v>
+      </c>
+      <c r="D20" s="209" t="s">
+        <v>205</v>
       </c>
       <c r="E20" s="116" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F20" s="117" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G20" s="117" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H20" s="118" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I20" s="110"/>
       <c r="J20" s="38"/>
@@ -7255,20 +7513,20 @@
         <v>17</v>
       </c>
       <c r="C21" s="115" t="s">
-        <v>247</v>
-      </c>
-      <c r="D21" s="208"/>
+        <v>244</v>
+      </c>
+      <c r="D21" s="210"/>
       <c r="E21" s="116" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F21" s="117" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G21" s="117" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H21" s="118" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I21" s="110"/>
       <c r="J21" s="38"/>
@@ -7278,20 +7536,20 @@
         <v>18</v>
       </c>
       <c r="C22" s="115" t="s">
-        <v>248</v>
-      </c>
-      <c r="D22" s="208"/>
+        <v>245</v>
+      </c>
+      <c r="D22" s="210"/>
       <c r="E22" s="116" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F22" s="117" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G22" s="117" t="s">
+        <v>267</v>
+      </c>
+      <c r="H22" s="118" t="s">
         <v>270</v>
-      </c>
-      <c r="H22" s="118" t="s">
-        <v>273</v>
       </c>
       <c r="I22" s="110"/>
       <c r="J22" s="38"/>
@@ -7301,20 +7559,20 @@
         <v>19</v>
       </c>
       <c r="C23" s="115" t="s">
-        <v>249</v>
-      </c>
-      <c r="D23" s="208"/>
+        <v>246</v>
+      </c>
+      <c r="D23" s="210"/>
       <c r="E23" s="116" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F23" s="117" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G23" s="117" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H23" s="118" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I23" s="110"/>
       <c r="J23" s="38"/>
@@ -7324,20 +7582,20 @@
         <v>20</v>
       </c>
       <c r="C24" s="115" t="s">
-        <v>250</v>
-      </c>
-      <c r="D24" s="208"/>
+        <v>247</v>
+      </c>
+      <c r="D24" s="210"/>
       <c r="E24" s="116" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F24" s="117" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G24" s="117" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H24" s="118" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I24" s="110"/>
       <c r="J24" s="38"/>
@@ -7347,20 +7605,20 @@
         <v>21</v>
       </c>
       <c r="C25" s="115" t="s">
-        <v>251</v>
-      </c>
-      <c r="D25" s="209"/>
+        <v>248</v>
+      </c>
+      <c r="D25" s="211"/>
       <c r="E25" s="116" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F25" s="117" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G25" s="117" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H25" s="118" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I25" s="110"/>
       <c r="J25" s="38"/>
@@ -7370,22 +7628,22 @@
         <v>22</v>
       </c>
       <c r="C26" s="143" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D26" s="144" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E26" s="145" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F26" s="146" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G26" s="146" t="s">
+        <v>343</v>
+      </c>
+      <c r="H26" s="147" t="s">
         <v>349</v>
-      </c>
-      <c r="H26" s="147" t="s">
-        <v>355</v>
       </c>
       <c r="I26" s="110"/>
       <c r="J26" s="38"/>
@@ -7481,10 +7739,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O78"/>
+  <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19:L19"/>
+    <sheetView showGridLines="0" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7492,8 +7750,8 @@
     <col min="1" max="1" width="10.83203125" style="67"/>
     <col min="2" max="2" width="17.83203125" style="67" customWidth="1"/>
     <col min="3" max="3" width="15" style="67" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" style="67" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="67" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" style="67" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="67" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="67"/>
     <col min="8" max="8" width="11.83203125" style="67" bestFit="1" customWidth="1"/>
@@ -7523,10 +7781,10 @@
     </row>
     <row r="2" spans="1:15" ht="20" customHeight="1">
       <c r="A2" s="68" t="s">
-        <v>179</v>
-      </c>
-      <c r="B2" s="69" t="s">
-        <v>292</v>
+        <v>176</v>
+      </c>
+      <c r="B2" s="240" t="s">
+        <v>367</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -7545,7 +7803,7 @@
     <row r="3" spans="1:15" ht="20" customHeight="1">
       <c r="A3" s="66"/>
       <c r="B3" s="69" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C3" s="69"/>
       <c r="D3" s="66"/>
@@ -7564,17 +7822,17 @@
     <row r="4" spans="1:15" ht="20" customHeight="1">
       <c r="A4" s="66"/>
       <c r="B4" s="70" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="210" t="s">
-        <v>234</v>
-      </c>
-      <c r="D4" s="218"/>
-      <c r="E4" s="218"/>
-      <c r="F4" s="218"/>
-      <c r="G4" s="218"/>
-      <c r="H4" s="218"/>
-      <c r="I4" s="211"/>
+        <v>163</v>
+      </c>
+      <c r="C4" s="212" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="222"/>
+      <c r="E4" s="222"/>
+      <c r="F4" s="222"/>
+      <c r="G4" s="222"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="213"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -7585,17 +7843,17 @@
     <row r="5" spans="1:15" ht="20" customHeight="1">
       <c r="A5" s="66"/>
       <c r="B5" s="70" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" s="210" t="s">
-        <v>220</v>
-      </c>
-      <c r="D5" s="218"/>
-      <c r="E5" s="218"/>
-      <c r="F5" s="218"/>
-      <c r="G5" s="218"/>
-      <c r="H5" s="218"/>
-      <c r="I5" s="211"/>
+        <v>164</v>
+      </c>
+      <c r="C5" s="212" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" s="222"/>
+      <c r="E5" s="222"/>
+      <c r="F5" s="222"/>
+      <c r="G5" s="222"/>
+      <c r="H5" s="222"/>
+      <c r="I5" s="213"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -7606,10 +7864,10 @@
     <row r="6" spans="1:15" ht="20" customHeight="1">
       <c r="A6" s="66"/>
       <c r="B6" s="70" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C6" s="103" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D6" s="72"/>
       <c r="E6" s="72"/>
@@ -7627,17 +7885,17 @@
     <row r="7" spans="1:15" ht="20" customHeight="1">
       <c r="A7" s="66"/>
       <c r="B7" s="70" t="s">
-        <v>293</v>
-      </c>
-      <c r="C7" s="210" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" s="218"/>
-      <c r="E7" s="218"/>
-      <c r="F7" s="218"/>
-      <c r="G7" s="218"/>
-      <c r="H7" s="218"/>
-      <c r="I7" s="211"/>
+        <v>289</v>
+      </c>
+      <c r="C7" s="212" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" s="222"/>
+      <c r="E7" s="222"/>
+      <c r="F7" s="222"/>
+      <c r="G7" s="222"/>
+      <c r="H7" s="222"/>
+      <c r="I7" s="213"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -7648,7 +7906,7 @@
     <row r="8" spans="1:15" ht="20" customHeight="1">
       <c r="A8" s="66"/>
       <c r="B8" s="70" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C8" s="71" t="s">
         <v>35</v>
@@ -7669,17 +7927,17 @@
     <row r="9" spans="1:15" ht="20" customHeight="1">
       <c r="A9" s="66"/>
       <c r="B9" s="70" t="s">
-        <v>328</v>
-      </c>
-      <c r="C9" s="210" t="s">
-        <v>329</v>
-      </c>
-      <c r="D9" s="218"/>
-      <c r="E9" s="218"/>
-      <c r="F9" s="218"/>
-      <c r="G9" s="218"/>
-      <c r="H9" s="218"/>
-      <c r="I9" s="211"/>
+        <v>323</v>
+      </c>
+      <c r="C9" s="212" t="s">
+        <v>324</v>
+      </c>
+      <c r="D9" s="222"/>
+      <c r="E9" s="222"/>
+      <c r="F9" s="222"/>
+      <c r="G9" s="222"/>
+      <c r="H9" s="222"/>
+      <c r="I9" s="213"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -7707,7 +7965,7 @@
     <row r="11" spans="1:15" ht="20" customHeight="1">
       <c r="A11" s="66"/>
       <c r="B11" s="74" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C11" s="74"/>
       <c r="D11" s="66"/>
@@ -7742,19 +8000,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="212" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" s="213"/>
-      <c r="D13" s="213"/>
-      <c r="E13" s="213"/>
-      <c r="F13" s="213"/>
-      <c r="G13" s="213"/>
-      <c r="H13" s="213"/>
-      <c r="I13" s="213"/>
-      <c r="J13" s="213"/>
-      <c r="K13" s="213"/>
-      <c r="L13" s="214"/>
+      <c r="B13" s="219" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="220"/>
+      <c r="D13" s="220"/>
+      <c r="E13" s="220"/>
+      <c r="F13" s="220"/>
+      <c r="G13" s="220"/>
+      <c r="H13" s="220"/>
+      <c r="I13" s="220"/>
+      <c r="J13" s="220"/>
+      <c r="K13" s="220"/>
+      <c r="L13" s="221"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -7763,31 +8021,31 @@
       <c r="A14" s="66"/>
       <c r="B14" s="75"/>
       <c r="C14" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="76" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="76" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" s="76" t="s">
         <v>169</v>
       </c>
-      <c r="D14" s="76" t="s">
+      <c r="G14" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="E14" s="76" t="s">
+      <c r="H14" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="F14" s="76" t="s">
+      <c r="I14" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="G14" s="76" t="s">
-        <v>173</v>
-      </c>
-      <c r="H14" s="76" t="s">
-        <v>174</v>
-      </c>
-      <c r="I14" s="76" t="s">
-        <v>175</v>
-      </c>
-      <c r="J14" s="219" t="s">
+      <c r="J14" s="223" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="219"/>
-      <c r="L14" s="219"/>
+      <c r="K14" s="223"/>
+      <c r="L14" s="223"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -7796,16 +8054,16 @@
       <c r="A15" s="66"/>
       <c r="B15" s="77"/>
       <c r="C15" s="78" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D15" s="79" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E15" s="80" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F15" s="80" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G15" s="80">
         <v>4</v>
@@ -7814,13 +8072,13 @@
         <v>50</v>
       </c>
       <c r="I15" s="81" t="s">
-        <v>285</v>
-      </c>
-      <c r="J15" s="220" t="s">
-        <v>286</v>
-      </c>
-      <c r="K15" s="220"/>
-      <c r="L15" s="220"/>
+        <v>282</v>
+      </c>
+      <c r="J15" s="224" t="s">
+        <v>283</v>
+      </c>
+      <c r="K15" s="224"/>
+      <c r="L15" s="224"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -7829,16 +8087,16 @@
       <c r="A16" s="66"/>
       <c r="B16" s="77"/>
       <c r="C16" s="78" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D16" s="79" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E16" s="80" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F16" s="80" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G16" s="80">
         <v>4</v>
@@ -7847,13 +8105,13 @@
         <v>50</v>
       </c>
       <c r="I16" s="81" t="s">
-        <v>289</v>
-      </c>
-      <c r="J16" s="220" t="s">
-        <v>290</v>
-      </c>
-      <c r="K16" s="220"/>
-      <c r="L16" s="220"/>
+        <v>286</v>
+      </c>
+      <c r="J16" s="224" t="s">
+        <v>287</v>
+      </c>
+      <c r="K16" s="224"/>
+      <c r="L16" s="224"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -7862,28 +8120,28 @@
       <c r="A17" s="66"/>
       <c r="B17" s="77"/>
       <c r="C17" s="78" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D17" s="79" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E17" s="80" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F17" s="80" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G17" s="80" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H17" s="80">
         <v>50</v>
       </c>
       <c r="I17" s="81" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="J17" s="71" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="K17" s="72"/>
       <c r="L17" s="73"/>
@@ -7895,31 +8153,31 @@
       <c r="A18" s="66"/>
       <c r="B18" s="77"/>
       <c r="C18" s="78" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D18" s="79" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E18" s="80" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F18" s="80" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G18" s="80" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H18" s="80">
         <v>50</v>
       </c>
       <c r="I18" s="79" t="s">
-        <v>299</v>
-      </c>
-      <c r="J18" s="210" t="s">
-        <v>302</v>
-      </c>
-      <c r="K18" s="218"/>
-      <c r="L18" s="211"/>
+        <v>295</v>
+      </c>
+      <c r="J18" s="212" t="s">
+        <v>298</v>
+      </c>
+      <c r="K18" s="222"/>
+      <c r="L18" s="213"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
       <c r="O18" s="66"/>
@@ -7928,31 +8186,31 @@
       <c r="A19" s="66"/>
       <c r="B19" s="82"/>
       <c r="C19" s="78" t="s">
+        <v>300</v>
+      </c>
+      <c r="D19" s="79" t="s">
+        <v>301</v>
+      </c>
+      <c r="E19" s="80" t="s">
+        <v>178</v>
+      </c>
+      <c r="F19" s="80" t="s">
         <v>304</v>
       </c>
-      <c r="D19" s="79" t="s">
-        <v>305</v>
-      </c>
-      <c r="E19" s="80" t="s">
-        <v>181</v>
-      </c>
-      <c r="F19" s="80" t="s">
-        <v>308</v>
-      </c>
       <c r="G19" s="80" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H19" s="80">
         <v>255</v>
       </c>
       <c r="I19" s="83" t="s">
-        <v>306</v>
-      </c>
-      <c r="J19" s="210" t="s">
-        <v>307</v>
-      </c>
-      <c r="K19" s="218"/>
-      <c r="L19" s="211"/>
+        <v>302</v>
+      </c>
+      <c r="J19" s="212" t="s">
+        <v>303</v>
+      </c>
+      <c r="K19" s="222"/>
+      <c r="L19" s="213"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
       <c r="O19" s="66"/>
@@ -7977,7 +8235,7 @@
     <row r="21" spans="1:15" ht="20" customHeight="1">
       <c r="A21" s="66"/>
       <c r="B21" s="74" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C21" s="84"/>
       <c r="D21" s="84"/>
@@ -8114,11 +8372,11 @@
     </row>
     <row r="29" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A29" s="69"/>
-      <c r="B29" s="221" t="s">
-        <v>295</v>
-      </c>
-      <c r="C29" s="221"/>
-      <c r="D29" s="221"/>
+      <c r="B29" s="225" t="s">
+        <v>291</v>
+      </c>
+      <c r="C29" s="225"/>
+      <c r="D29" s="225"/>
       <c r="E29" s="87"/>
       <c r="F29" s="88"/>
       <c r="G29" s="87"/>
@@ -8133,32 +8391,32 @@
     </row>
     <row r="30" spans="1:15" s="91" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="90"/>
-      <c r="B30" s="215" t="s">
+      <c r="B30" s="216" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" s="217"/>
+      <c r="D30" s="217"/>
+      <c r="E30" s="218"/>
+      <c r="F30" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="G30" s="76" t="s">
+        <v>168</v>
+      </c>
+      <c r="H30" s="76" t="s">
+        <v>169</v>
+      </c>
+      <c r="I30" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="J30" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="C30" s="216"/>
-      <c r="D30" s="216"/>
-      <c r="E30" s="217"/>
-      <c r="F30" s="76" t="s">
-        <v>169</v>
-      </c>
-      <c r="G30" s="76" t="s">
+      <c r="K30" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="H30" s="76" t="s">
-        <v>172</v>
-      </c>
-      <c r="I30" s="76" t="s">
-        <v>183</v>
-      </c>
-      <c r="J30" s="76" t="s">
-        <v>173</v>
-      </c>
-      <c r="K30" s="76" t="s">
-        <v>174</v>
-      </c>
       <c r="L30" s="76" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="M30" s="90"/>
       <c r="N30" s="90"/>
@@ -8167,28 +8425,28 @@
     <row r="31" spans="1:15" ht="20" customHeight="1">
       <c r="A31" s="66"/>
       <c r="B31" s="92" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C31" s="93"/>
       <c r="D31" s="93"/>
       <c r="E31" s="94"/>
       <c r="F31" s="80" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G31" s="80" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H31" s="80" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I31" s="80" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J31" s="80" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K31" s="80" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L31" s="79"/>
       <c r="M31" s="66"/>
@@ -8199,27 +8457,27 @@
       <c r="A32" s="66"/>
       <c r="B32" s="92"/>
       <c r="C32" s="95" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D32" s="96"/>
       <c r="E32" s="94"/>
       <c r="F32" s="78" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G32" s="80" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H32" s="80" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I32" s="80">
         <v>1</v>
       </c>
       <c r="J32" s="80" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K32" s="80" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L32" s="79"/>
       <c r="M32" s="66"/>
@@ -8230,30 +8488,30 @@
       <c r="A33" s="66"/>
       <c r="B33" s="92"/>
       <c r="C33" s="97"/>
-      <c r="D33" s="210" t="s">
-        <v>313</v>
-      </c>
-      <c r="E33" s="211"/>
+      <c r="D33" s="212" t="s">
+        <v>309</v>
+      </c>
+      <c r="E33" s="213"/>
       <c r="F33" s="78" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G33" s="80" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H33" s="80" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I33" s="80">
         <v>1</v>
       </c>
       <c r="J33" s="80" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K33" s="80" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L33" s="79" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M33" s="66"/>
       <c r="N33" s="66"/>
@@ -8263,30 +8521,30 @@
       <c r="A34" s="66"/>
       <c r="B34" s="92"/>
       <c r="C34" s="99"/>
-      <c r="D34" s="210" t="s">
-        <v>314</v>
-      </c>
-      <c r="E34" s="211"/>
+      <c r="D34" s="212" t="s">
+        <v>310</v>
+      </c>
+      <c r="E34" s="213"/>
       <c r="F34" s="78" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G34" s="80" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H34" s="80" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I34" s="80">
         <v>1</v>
       </c>
       <c r="J34" s="80" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K34" s="80" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L34" s="79" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="M34" s="66"/>
       <c r="N34" s="66"/>
@@ -8296,30 +8554,30 @@
       <c r="A35" s="66"/>
       <c r="B35" s="92"/>
       <c r="C35" s="95" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D35" s="96"/>
       <c r="E35" s="94"/>
       <c r="F35" s="78" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G35" s="80" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H35" s="80" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I35" s="80">
         <v>1</v>
       </c>
       <c r="J35" s="80" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K35" s="80" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L35" s="79" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="M35" s="66"/>
       <c r="N35" s="66"/>
@@ -8329,30 +8587,30 @@
       <c r="A36" s="66"/>
       <c r="B36" s="92"/>
       <c r="C36" s="102"/>
-      <c r="D36" s="210" t="s">
-        <v>317</v>
-      </c>
-      <c r="E36" s="211"/>
+      <c r="D36" s="212" t="s">
+        <v>313</v>
+      </c>
+      <c r="E36" s="213"/>
       <c r="F36" s="78" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G36" s="80" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H36" s="80" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I36" s="80">
         <v>1</v>
       </c>
       <c r="J36" s="80" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K36" s="80" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L36" s="79" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M36" s="66"/>
       <c r="N36" s="66"/>
@@ -8362,30 +8620,30 @@
       <c r="A37" s="66"/>
       <c r="B37" s="92"/>
       <c r="C37" s="102"/>
-      <c r="D37" s="223" t="s">
-        <v>282</v>
-      </c>
-      <c r="E37" s="224"/>
+      <c r="D37" s="214" t="s">
+        <v>279</v>
+      </c>
+      <c r="E37" s="215"/>
       <c r="F37" s="78" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G37" s="80" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H37" s="80" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I37" s="80">
         <v>1</v>
       </c>
       <c r="J37" s="80" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K37" s="80" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L37" s="79" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M37" s="66"/>
       <c r="N37" s="66"/>
@@ -8395,30 +8653,30 @@
       <c r="A38" s="66"/>
       <c r="B38" s="92"/>
       <c r="C38" s="97"/>
-      <c r="D38" s="210" t="s">
-        <v>303</v>
-      </c>
-      <c r="E38" s="211"/>
+      <c r="D38" s="212" t="s">
+        <v>299</v>
+      </c>
+      <c r="E38" s="213"/>
       <c r="F38" s="78" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G38" s="80" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H38" s="80" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I38" s="80">
         <v>1</v>
       </c>
       <c r="J38" s="80" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K38" s="80" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L38" s="79" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M38" s="66"/>
       <c r="N38" s="66"/>
@@ -8429,29 +8687,29 @@
       <c r="B39" s="92"/>
       <c r="C39" s="97"/>
       <c r="D39" s="71" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E39" s="73"/>
       <c r="F39" s="78" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G39" s="80" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H39" s="80" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I39" s="80">
         <v>1</v>
       </c>
       <c r="J39" s="80" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K39" s="80" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L39" s="79" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="M39" s="66"/>
       <c r="N39" s="66"/>
@@ -8459,32 +8717,32 @@
     </row>
     <row r="40" spans="1:15" ht="20" customHeight="1">
       <c r="A40" s="66"/>
-      <c r="B40" s="98"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="210" t="s">
-        <v>186</v>
-      </c>
-      <c r="E40" s="211"/>
-      <c r="F40" s="78" t="s">
-        <v>187</v>
+      <c r="B40" s="92"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="103" t="s">
+        <v>300</v>
+      </c>
+      <c r="E40" s="151"/>
+      <c r="F40" s="232" t="s">
+        <v>301</v>
       </c>
       <c r="G40" s="80" t="s">
-        <v>188</v>
+        <v>281</v>
       </c>
       <c r="H40" s="80" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I40" s="80">
         <v>1</v>
       </c>
       <c r="J40" s="80" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="K40" s="80" t="s">
-        <v>177</v>
-      </c>
-      <c r="L40" s="79" t="s">
-        <v>323</v>
+        <v>174</v>
+      </c>
+      <c r="L40" s="234" t="s">
+        <v>366</v>
       </c>
       <c r="M40" s="66"/>
       <c r="N40" s="66"/>
@@ -8492,26 +8750,40 @@
     </row>
     <row r="41" spans="1:15" ht="20" customHeight="1">
       <c r="A41" s="66"/>
-      <c r="B41" s="84"/>
-      <c r="C41" s="93"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="86"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="100"/>
-      <c r="H41" s="100"/>
-      <c r="I41" s="100"/>
-      <c r="J41" s="100"/>
-      <c r="K41" s="100"/>
-      <c r="L41" s="84"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="212" t="s">
+        <v>183</v>
+      </c>
+      <c r="E41" s="213"/>
+      <c r="F41" s="78" t="s">
+        <v>184</v>
+      </c>
+      <c r="G41" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="H41" s="80" t="s">
+        <v>304</v>
+      </c>
+      <c r="I41" s="80">
+        <v>1</v>
+      </c>
+      <c r="J41" s="80" t="s">
+        <v>179</v>
+      </c>
+      <c r="K41" s="80" t="s">
+        <v>174</v>
+      </c>
+      <c r="L41" s="79" t="s">
+        <v>319</v>
+      </c>
       <c r="M41" s="66"/>
       <c r="N41" s="66"/>
       <c r="O41" s="66"/>
     </row>
     <row r="42" spans="1:15" ht="20" customHeight="1">
       <c r="A42" s="66"/>
-      <c r="B42" s="33" t="s">
-        <v>336</v>
-      </c>
+      <c r="B42" s="84"/>
       <c r="C42" s="93"/>
       <c r="D42" s="86"/>
       <c r="E42" s="86"/>
@@ -8528,7 +8800,9 @@
     </row>
     <row r="43" spans="1:15" ht="20" customHeight="1">
       <c r="A43" s="66"/>
-      <c r="B43" s="84"/>
+      <c r="B43" s="33" t="s">
+        <v>330</v>
+      </c>
       <c r="C43" s="93"/>
       <c r="D43" s="86"/>
       <c r="E43" s="86"/>
@@ -8749,197 +9023,153 @@
     </row>
     <row r="56" spans="1:15" ht="20" customHeight="1">
       <c r="A56" s="66"/>
-      <c r="B56" s="66"/>
-      <c r="C56" s="66"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="66"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="66"/>
-      <c r="H56" s="66"/>
-      <c r="I56" s="66"/>
-      <c r="J56" s="66"/>
-      <c r="K56" s="66"/>
-      <c r="L56" s="66"/>
+      <c r="B56" s="84"/>
+      <c r="C56" s="93"/>
+      <c r="D56" s="86"/>
+      <c r="E56" s="86"/>
+      <c r="F56" s="84"/>
+      <c r="G56" s="100"/>
+      <c r="H56" s="100"/>
+      <c r="I56" s="100"/>
+      <c r="J56" s="100"/>
+      <c r="K56" s="100"/>
+      <c r="L56" s="84"/>
       <c r="M56" s="66"/>
       <c r="N56" s="66"/>
       <c r="O56" s="66"/>
     </row>
     <row r="57" spans="1:15" ht="20" customHeight="1">
       <c r="A57" s="66"/>
-      <c r="B57" s="222" t="s">
-        <v>189</v>
-      </c>
-      <c r="C57" s="222"/>
-      <c r="D57" s="222"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="66"/>
-      <c r="H57" s="66"/>
-      <c r="I57" s="66"/>
-      <c r="J57" s="66" t="s">
-        <v>182</v>
-      </c>
-      <c r="K57" s="66"/>
-      <c r="L57" s="66"/>
+      <c r="B57" s="84"/>
+      <c r="C57" s="93"/>
+      <c r="D57" s="86"/>
+      <c r="E57" s="86"/>
+      <c r="F57" s="84"/>
+      <c r="G57" s="100"/>
+      <c r="H57" s="100"/>
+      <c r="I57" s="100"/>
+      <c r="J57" s="100"/>
+      <c r="K57" s="100"/>
+      <c r="L57" s="84"/>
       <c r="M57" s="66"/>
       <c r="N57" s="66"/>
       <c r="O57" s="66"/>
     </row>
-    <row r="58" spans="1:15" s="91" customFormat="1" ht="20" customHeight="1">
-      <c r="A58" s="90"/>
-      <c r="B58" s="215" t="s">
-        <v>170</v>
-      </c>
-      <c r="C58" s="216"/>
-      <c r="D58" s="216"/>
-      <c r="E58" s="217"/>
-      <c r="F58" s="76" t="s">
-        <v>169</v>
-      </c>
-      <c r="G58" s="76" t="s">
-        <v>171</v>
-      </c>
-      <c r="H58" s="76" t="s">
-        <v>172</v>
-      </c>
-      <c r="I58" s="76" t="s">
-        <v>183</v>
-      </c>
-      <c r="J58" s="76" t="s">
-        <v>173</v>
-      </c>
-      <c r="K58" s="76" t="s">
-        <v>174</v>
-      </c>
-      <c r="L58" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="M58" s="90"/>
-      <c r="N58" s="90"/>
-      <c r="O58" s="90"/>
+    <row r="58" spans="1:15" ht="20" customHeight="1">
+      <c r="A58" s="66"/>
+      <c r="B58" s="84"/>
+      <c r="C58" s="93"/>
+      <c r="D58" s="86"/>
+      <c r="E58" s="86"/>
+      <c r="F58" s="84"/>
+      <c r="G58" s="100"/>
+      <c r="H58" s="100"/>
+      <c r="I58" s="100"/>
+      <c r="J58" s="100"/>
+      <c r="K58" s="100"/>
+      <c r="L58" s="84"/>
+      <c r="M58" s="66"/>
+      <c r="N58" s="66"/>
+      <c r="O58" s="66"/>
     </row>
     <row r="59" spans="1:15" ht="20" customHeight="1">
       <c r="A59" s="66"/>
-      <c r="B59" s="92" t="s">
-        <v>184</v>
-      </c>
-      <c r="C59" s="93"/>
-      <c r="D59" s="93"/>
-      <c r="E59" s="94"/>
-      <c r="F59" s="80" t="s">
-        <v>182</v>
-      </c>
-      <c r="G59" s="80" t="s">
-        <v>182</v>
-      </c>
-      <c r="H59" s="80" t="s">
-        <v>182</v>
-      </c>
-      <c r="I59" s="80" t="s">
-        <v>182</v>
-      </c>
-      <c r="J59" s="80" t="s">
-        <v>182</v>
-      </c>
-      <c r="K59" s="80" t="s">
-        <v>182</v>
-      </c>
-      <c r="L59" s="79"/>
+      <c r="B59" s="66"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="66"/>
+      <c r="E59" s="66"/>
+      <c r="F59" s="66"/>
+      <c r="G59" s="66"/>
+      <c r="H59" s="66"/>
+      <c r="I59" s="66"/>
+      <c r="J59" s="66"/>
+      <c r="K59" s="66"/>
+      <c r="L59" s="66"/>
       <c r="M59" s="66"/>
       <c r="N59" s="66"/>
       <c r="O59" s="66"/>
     </row>
     <row r="60" spans="1:15" ht="20" customHeight="1">
       <c r="A60" s="66"/>
-      <c r="B60" s="92"/>
-      <c r="C60" s="95" t="s">
-        <v>311</v>
-      </c>
-      <c r="D60" s="96"/>
-      <c r="E60" s="94"/>
-      <c r="F60" s="78" t="s">
-        <v>309</v>
-      </c>
-      <c r="G60" s="80" t="s">
-        <v>182</v>
-      </c>
-      <c r="H60" s="80" t="s">
-        <v>308</v>
-      </c>
-      <c r="I60" s="80">
-        <v>1</v>
-      </c>
-      <c r="J60" s="80" t="s">
-        <v>182</v>
-      </c>
-      <c r="K60" s="80" t="s">
-        <v>190</v>
-      </c>
-      <c r="L60" s="79"/>
+      <c r="B60" s="226" t="s">
+        <v>186</v>
+      </c>
+      <c r="C60" s="226"/>
+      <c r="D60" s="226"/>
+      <c r="E60" s="66"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="66"/>
+      <c r="I60" s="66"/>
+      <c r="J60" s="66" t="s">
+        <v>179</v>
+      </c>
+      <c r="K60" s="66"/>
+      <c r="L60" s="66"/>
       <c r="M60" s="66"/>
       <c r="N60" s="66"/>
       <c r="O60" s="66"/>
     </row>
-    <row r="61" spans="1:15" ht="20" customHeight="1">
-      <c r="A61" s="66"/>
-      <c r="B61" s="92"/>
-      <c r="C61" s="97"/>
-      <c r="D61" s="210" t="s">
-        <v>313</v>
-      </c>
-      <c r="E61" s="211"/>
-      <c r="F61" s="78" t="s">
-        <v>185</v>
-      </c>
-      <c r="G61" s="80" t="s">
-        <v>178</v>
-      </c>
-      <c r="H61" s="80" t="s">
-        <v>308</v>
-      </c>
-      <c r="I61" s="80">
-        <v>1</v>
-      </c>
-      <c r="J61" s="80" t="s">
-        <v>182</v>
-      </c>
-      <c r="K61" s="80" t="s">
-        <v>190</v>
-      </c>
-      <c r="L61" s="79"/>
-      <c r="M61" s="66"/>
-      <c r="N61" s="66"/>
-      <c r="O61" s="66"/>
+    <row r="61" spans="1:15" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A61" s="90"/>
+      <c r="B61" s="216" t="s">
+        <v>167</v>
+      </c>
+      <c r="C61" s="217"/>
+      <c r="D61" s="217"/>
+      <c r="E61" s="218"/>
+      <c r="F61" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="G61" s="76" t="s">
+        <v>168</v>
+      </c>
+      <c r="H61" s="76" t="s">
+        <v>169</v>
+      </c>
+      <c r="I61" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="J61" s="76" t="s">
+        <v>170</v>
+      </c>
+      <c r="K61" s="76" t="s">
+        <v>171</v>
+      </c>
+      <c r="L61" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="M61" s="90"/>
+      <c r="N61" s="90"/>
+      <c r="O61" s="90"/>
     </row>
     <row r="62" spans="1:15" ht="20" customHeight="1">
       <c r="A62" s="66"/>
-      <c r="B62" s="92"/>
-      <c r="C62" s="99"/>
-      <c r="D62" s="210" t="s">
-        <v>314</v>
-      </c>
-      <c r="E62" s="211"/>
-      <c r="F62" s="78" t="s">
-        <v>315</v>
+      <c r="B62" s="92" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" s="93"/>
+      <c r="D62" s="93"/>
+      <c r="E62" s="94"/>
+      <c r="F62" s="80" t="s">
+        <v>179</v>
       </c>
       <c r="G62" s="80" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="H62" s="80" t="s">
-        <v>182</v>
-      </c>
-      <c r="I62" s="80">
-        <v>1</v>
+        <v>179</v>
+      </c>
+      <c r="I62" s="80" t="s">
+        <v>179</v>
       </c>
       <c r="J62" s="80" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K62" s="80" t="s">
-        <v>177</v>
-      </c>
-      <c r="L62" s="79" t="s">
-        <v>324</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="L62" s="79"/>
       <c r="M62" s="66"/>
       <c r="N62" s="66"/>
       <c r="O62" s="66"/>
@@ -8948,27 +9178,27 @@
       <c r="A63" s="66"/>
       <c r="B63" s="92"/>
       <c r="C63" s="95" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D63" s="96"/>
       <c r="E63" s="94"/>
       <c r="F63" s="78" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G63" s="80" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H63" s="80" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I63" s="80">
         <v>1</v>
       </c>
       <c r="J63" s="80" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K63" s="80" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L63" s="79"/>
       <c r="M63" s="66"/>
@@ -8977,128 +9207,206 @@
     </row>
     <row r="64" spans="1:15" ht="20" customHeight="1">
       <c r="A64" s="66"/>
-      <c r="B64" s="98"/>
-      <c r="C64" s="99"/>
-      <c r="D64" s="210"/>
-      <c r="E64" s="211"/>
-      <c r="F64" s="78"/>
-      <c r="G64" s="80"/>
-      <c r="H64" s="80"/>
-      <c r="I64" s="80"/>
-      <c r="J64" s="80"/>
-      <c r="K64" s="80"/>
-      <c r="L64" s="79"/>
+      <c r="B64" s="92"/>
+      <c r="C64" s="97"/>
+      <c r="D64" s="235" t="s">
+        <v>309</v>
+      </c>
+      <c r="E64" s="213"/>
+      <c r="F64" s="78" t="s">
+        <v>182</v>
+      </c>
+      <c r="G64" s="80" t="s">
+        <v>175</v>
+      </c>
+      <c r="H64" s="80" t="s">
+        <v>304</v>
+      </c>
+      <c r="I64" s="80">
+        <v>1</v>
+      </c>
+      <c r="J64" s="80" t="s">
+        <v>179</v>
+      </c>
+      <c r="K64" s="80" t="s">
+        <v>187</v>
+      </c>
+      <c r="L64" s="234" t="s">
+        <v>359</v>
+      </c>
       <c r="M64" s="66"/>
       <c r="N64" s="66"/>
       <c r="O64" s="66"/>
     </row>
     <row r="65" spans="1:15" ht="20" customHeight="1">
       <c r="A65" s="66"/>
-      <c r="B65" s="84"/>
-      <c r="C65" s="93"/>
-      <c r="D65" s="86"/>
-      <c r="E65" s="86"/>
-      <c r="F65" s="84"/>
-      <c r="G65" s="100"/>
-      <c r="H65" s="100"/>
-      <c r="I65" s="100"/>
-      <c r="J65" s="100"/>
-      <c r="K65" s="100"/>
-      <c r="L65" s="84"/>
+      <c r="B65" s="92"/>
+      <c r="C65" s="97"/>
+      <c r="D65" s="235" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="236"/>
+      <c r="F65" s="232" t="s">
+        <v>357</v>
+      </c>
+      <c r="G65" s="233" t="s">
+        <v>281</v>
+      </c>
+      <c r="H65" s="80" t="s">
+        <v>304</v>
+      </c>
+      <c r="I65" s="80">
+        <v>1</v>
+      </c>
+      <c r="J65" s="233" t="s">
+        <v>174</v>
+      </c>
+      <c r="K65" s="233" t="s">
+        <v>174</v>
+      </c>
+      <c r="L65" s="234" t="s">
+        <v>358</v>
+      </c>
       <c r="M65" s="66"/>
       <c r="N65" s="66"/>
       <c r="O65" s="66"/>
     </row>
     <row r="66" spans="1:15" ht="20" customHeight="1">
       <c r="A66" s="66"/>
-      <c r="B66" s="74" t="s">
-        <v>327</v>
-      </c>
-      <c r="C66" s="66"/>
-      <c r="D66" s="66"/>
-      <c r="E66" s="66"/>
-      <c r="F66" s="66"/>
-      <c r="G66" s="66"/>
-      <c r="H66" s="66"/>
-      <c r="I66" s="66"/>
-      <c r="J66" s="66"/>
-      <c r="K66" s="66"/>
-      <c r="L66" s="66"/>
+      <c r="B66" s="92"/>
+      <c r="C66" s="97"/>
+      <c r="D66" s="238" t="s">
+        <v>362</v>
+      </c>
+      <c r="E66" s="236"/>
+      <c r="F66" s="232" t="s">
+        <v>360</v>
+      </c>
+      <c r="G66" s="80" t="s">
+        <v>179</v>
+      </c>
+      <c r="H66" s="80" t="s">
+        <v>304</v>
+      </c>
+      <c r="I66" s="80">
+        <v>1</v>
+      </c>
+      <c r="J66" s="80" t="s">
+        <v>179</v>
+      </c>
+      <c r="K66" s="80" t="s">
+        <v>187</v>
+      </c>
+      <c r="L66" s="234" t="s">
+        <v>365</v>
+      </c>
       <c r="M66" s="66"/>
       <c r="N66" s="66"/>
       <c r="O66" s="66"/>
     </row>
     <row r="67" spans="1:15" ht="20" customHeight="1">
       <c r="A67" s="66"/>
-      <c r="B67" s="66"/>
-      <c r="C67" s="66"/>
-      <c r="D67" s="66"/>
-      <c r="E67" s="66"/>
-      <c r="F67" s="66"/>
-      <c r="G67" s="66"/>
-      <c r="H67" s="66"/>
-      <c r="I67" s="66"/>
-      <c r="J67" s="66"/>
-      <c r="K67" s="66"/>
-      <c r="L67" s="66"/>
+      <c r="B67" s="92"/>
+      <c r="C67" s="102"/>
+      <c r="D67" s="239"/>
+      <c r="E67" s="237" t="s">
+        <v>363</v>
+      </c>
+      <c r="F67" s="232" t="s">
+        <v>311</v>
+      </c>
+      <c r="G67" s="233" t="s">
+        <v>281</v>
+      </c>
+      <c r="H67" s="80" t="s">
+        <v>304</v>
+      </c>
+      <c r="I67" s="233" t="s">
+        <v>361</v>
+      </c>
+      <c r="J67" s="233" t="s">
+        <v>174</v>
+      </c>
+      <c r="K67" s="233" t="s">
+        <v>174</v>
+      </c>
+      <c r="L67" s="234" t="s">
+        <v>364</v>
+      </c>
       <c r="M67" s="66"/>
       <c r="N67" s="66"/>
       <c r="O67" s="66"/>
     </row>
     <row r="68" spans="1:15" ht="20" customHeight="1">
       <c r="A68" s="66"/>
-      <c r="B68" s="66"/>
-      <c r="C68" s="66"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="66"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="66"/>
-      <c r="H68" s="66"/>
-      <c r="I68" s="66"/>
-      <c r="J68" s="66"/>
-      <c r="K68" s="66"/>
-      <c r="L68" s="66"/>
+      <c r="B68" s="92"/>
+      <c r="C68" s="95" t="s">
+        <v>308</v>
+      </c>
+      <c r="D68" s="96"/>
+      <c r="E68" s="94"/>
+      <c r="F68" s="78" t="s">
+        <v>306</v>
+      </c>
+      <c r="G68" s="80" t="s">
+        <v>179</v>
+      </c>
+      <c r="H68" s="80" t="s">
+        <v>304</v>
+      </c>
+      <c r="I68" s="80">
+        <v>1</v>
+      </c>
+      <c r="J68" s="80" t="s">
+        <v>179</v>
+      </c>
+      <c r="K68" s="80" t="s">
+        <v>187</v>
+      </c>
+      <c r="L68" s="79"/>
       <c r="M68" s="66"/>
       <c r="N68" s="66"/>
       <c r="O68" s="66"/>
     </row>
     <row r="69" spans="1:15" ht="20" customHeight="1">
       <c r="A69" s="66"/>
-      <c r="B69" s="66"/>
-      <c r="C69" s="66"/>
-      <c r="D69" s="66"/>
-      <c r="E69" s="66"/>
-      <c r="F69" s="66"/>
-      <c r="G69" s="66"/>
-      <c r="H69" s="66"/>
-      <c r="I69" s="66"/>
-      <c r="J69" s="66"/>
-      <c r="K69" s="66"/>
-      <c r="L69" s="66"/>
+      <c r="B69" s="98"/>
+      <c r="C69" s="99"/>
+      <c r="D69" s="212"/>
+      <c r="E69" s="213"/>
+      <c r="F69" s="78"/>
+      <c r="G69" s="80"/>
+      <c r="H69" s="80"/>
+      <c r="I69" s="80"/>
+      <c r="J69" s="80"/>
+      <c r="K69" s="80"/>
+      <c r="L69" s="79"/>
       <c r="M69" s="66"/>
       <c r="N69" s="66"/>
       <c r="O69" s="66"/>
     </row>
     <row r="70" spans="1:15" ht="20" customHeight="1">
       <c r="A70" s="66"/>
-      <c r="B70" s="66"/>
-      <c r="C70" s="66"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="66"/>
-      <c r="F70" s="66"/>
-      <c r="G70" s="66"/>
-      <c r="H70" s="66"/>
-      <c r="I70" s="66"/>
-      <c r="J70" s="66"/>
-      <c r="K70" s="66"/>
-      <c r="L70" s="66"/>
+      <c r="B70" s="84"/>
+      <c r="C70" s="93"/>
+      <c r="D70" s="86"/>
+      <c r="E70" s="86"/>
+      <c r="F70" s="84"/>
+      <c r="G70" s="100"/>
+      <c r="H70" s="100"/>
+      <c r="I70" s="100"/>
+      <c r="J70" s="100"/>
+      <c r="K70" s="100"/>
+      <c r="L70" s="84"/>
       <c r="M70" s="66"/>
       <c r="N70" s="66"/>
       <c r="O70" s="66"/>
     </row>
     <row r="71" spans="1:15" ht="20" customHeight="1">
       <c r="A71" s="66"/>
-      <c r="B71" s="66"/>
+      <c r="B71" s="74" t="s">
+        <v>322</v>
+      </c>
       <c r="C71" s="66"/>
       <c r="D71" s="66"/>
       <c r="E71" s="66"/>
@@ -9216,32 +9524,246 @@
       <c r="O77" s="66"/>
     </row>
     <row r="78" spans="1:15" ht="20" customHeight="1">
-      <c r="A78" s="101"/>
-      <c r="B78" s="101"/>
-      <c r="C78" s="101"/>
-      <c r="D78" s="101"/>
-      <c r="E78" s="101"/>
-      <c r="F78" s="101"/>
-      <c r="G78" s="101"/>
-      <c r="H78" s="101"/>
-      <c r="I78" s="101"/>
-      <c r="J78" s="101"/>
-      <c r="K78" s="101"/>
-      <c r="L78" s="101"/>
-      <c r="M78" s="101"/>
-      <c r="N78" s="101"/>
-      <c r="O78" s="101"/>
+      <c r="A78" s="66"/>
+      <c r="B78" s="66"/>
+      <c r="C78" s="66"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="66"/>
+      <c r="F78" s="66"/>
+      <c r="G78" s="66"/>
+      <c r="H78" s="66"/>
+      <c r="I78" s="66"/>
+      <c r="J78" s="66"/>
+      <c r="K78" s="66"/>
+      <c r="L78" s="66"/>
+      <c r="M78" s="66"/>
+      <c r="N78" s="66"/>
+      <c r="O78" s="66"/>
+    </row>
+    <row r="79" spans="1:15" ht="20" customHeight="1">
+      <c r="A79" s="66"/>
+      <c r="B79" s="66"/>
+      <c r="C79" s="66"/>
+      <c r="D79" s="66"/>
+      <c r="E79" s="66"/>
+      <c r="F79" s="66"/>
+      <c r="G79" s="66"/>
+      <c r="H79" s="66"/>
+      <c r="I79" s="66"/>
+      <c r="J79" s="66"/>
+      <c r="K79" s="66"/>
+      <c r="L79" s="66"/>
+      <c r="M79" s="66"/>
+      <c r="N79" s="66"/>
+      <c r="O79" s="66"/>
+    </row>
+    <row r="80" spans="1:15" ht="20" customHeight="1">
+      <c r="A80" s="66"/>
+      <c r="B80" s="66"/>
+      <c r="C80" s="66"/>
+      <c r="D80" s="66"/>
+      <c r="E80" s="66"/>
+      <c r="F80" s="66"/>
+      <c r="G80" s="66"/>
+      <c r="H80" s="66"/>
+      <c r="I80" s="66"/>
+      <c r="J80" s="66"/>
+      <c r="K80" s="66"/>
+      <c r="L80" s="66"/>
+      <c r="M80" s="66"/>
+      <c r="N80" s="66"/>
+      <c r="O80" s="66"/>
+    </row>
+    <row r="81" spans="1:15" ht="20" customHeight="1">
+      <c r="A81" s="66"/>
+      <c r="B81" s="66"/>
+      <c r="C81" s="66"/>
+      <c r="D81" s="66"/>
+      <c r="E81" s="66"/>
+      <c r="F81" s="66"/>
+      <c r="G81" s="66"/>
+      <c r="H81" s="66"/>
+      <c r="I81" s="66"/>
+      <c r="J81" s="66"/>
+      <c r="K81" s="66"/>
+      <c r="L81" s="66"/>
+      <c r="M81" s="66"/>
+      <c r="N81" s="66"/>
+      <c r="O81" s="66"/>
+    </row>
+    <row r="82" spans="1:15" ht="20" customHeight="1">
+      <c r="A82" s="66"/>
+      <c r="B82" s="66"/>
+      <c r="C82" s="66"/>
+      <c r="D82" s="66"/>
+      <c r="E82" s="66"/>
+      <c r="F82" s="66"/>
+      <c r="G82" s="66"/>
+      <c r="H82" s="66"/>
+      <c r="I82" s="66"/>
+      <c r="J82" s="66"/>
+      <c r="K82" s="66"/>
+      <c r="L82" s="66"/>
+      <c r="M82" s="66"/>
+      <c r="N82" s="66"/>
+      <c r="O82" s="66"/>
+    </row>
+    <row r="83" spans="1:15" ht="20" customHeight="1">
+      <c r="A83" s="66"/>
+      <c r="B83" s="66"/>
+      <c r="C83" s="66"/>
+      <c r="D83" s="66"/>
+      <c r="E83" s="66"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="66"/>
+      <c r="H83" s="66"/>
+      <c r="I83" s="66"/>
+      <c r="J83" s="66"/>
+      <c r="K83" s="66"/>
+      <c r="L83" s="66"/>
+      <c r="M83" s="66"/>
+      <c r="N83" s="66"/>
+      <c r="O83" s="66"/>
+    </row>
+    <row r="84" spans="1:15" ht="20" customHeight="1">
+      <c r="A84" s="66"/>
+      <c r="B84" s="66"/>
+      <c r="C84" s="66"/>
+      <c r="D84" s="66"/>
+      <c r="E84" s="66"/>
+      <c r="F84" s="66"/>
+      <c r="G84" s="66"/>
+      <c r="H84" s="66"/>
+      <c r="I84" s="66"/>
+      <c r="J84" s="66"/>
+      <c r="K84" s="66"/>
+      <c r="L84" s="66"/>
+      <c r="M84" s="66"/>
+      <c r="N84" s="66"/>
+      <c r="O84" s="66"/>
+    </row>
+    <row r="85" spans="1:15" ht="20" customHeight="1">
+      <c r="A85" s="66"/>
+      <c r="B85" s="66"/>
+      <c r="C85" s="66"/>
+      <c r="D85" s="66"/>
+      <c r="E85" s="66"/>
+      <c r="F85" s="66"/>
+      <c r="G85" s="66"/>
+      <c r="H85" s="66"/>
+      <c r="I85" s="66"/>
+      <c r="J85" s="66"/>
+      <c r="K85" s="66"/>
+      <c r="L85" s="66"/>
+      <c r="M85" s="66"/>
+      <c r="N85" s="66"/>
+      <c r="O85" s="66"/>
+    </row>
+    <row r="86" spans="1:15" ht="20" customHeight="1">
+      <c r="A86" s="66"/>
+      <c r="B86" s="66"/>
+      <c r="C86" s="66"/>
+      <c r="D86" s="66"/>
+      <c r="E86" s="66"/>
+      <c r="F86" s="66"/>
+      <c r="G86" s="66"/>
+      <c r="H86" s="66"/>
+      <c r="I86" s="66"/>
+      <c r="J86" s="66"/>
+      <c r="K86" s="66"/>
+      <c r="L86" s="66"/>
+      <c r="M86" s="66"/>
+      <c r="N86" s="66"/>
+      <c r="O86" s="66"/>
+    </row>
+    <row r="87" spans="1:15" ht="20" customHeight="1">
+      <c r="A87" s="66"/>
+      <c r="B87" s="66"/>
+      <c r="C87" s="66"/>
+      <c r="D87" s="66"/>
+      <c r="E87" s="66"/>
+      <c r="F87" s="66"/>
+      <c r="G87" s="66"/>
+      <c r="H87" s="66"/>
+      <c r="I87" s="66"/>
+      <c r="J87" s="66"/>
+      <c r="K87" s="66"/>
+      <c r="L87" s="66"/>
+      <c r="M87" s="66"/>
+      <c r="N87" s="66"/>
+      <c r="O87" s="66"/>
+    </row>
+    <row r="88" spans="1:15" ht="20" customHeight="1">
+      <c r="A88" s="66"/>
+      <c r="B88" s="66"/>
+      <c r="C88" s="66"/>
+      <c r="D88" s="66"/>
+      <c r="E88" s="66"/>
+      <c r="F88" s="66"/>
+      <c r="G88" s="66"/>
+      <c r="H88" s="66"/>
+      <c r="I88" s="66"/>
+      <c r="J88" s="66"/>
+      <c r="K88" s="66"/>
+      <c r="L88" s="66"/>
+      <c r="M88" s="66"/>
+      <c r="N88" s="66"/>
+      <c r="O88" s="66"/>
+    </row>
+    <row r="89" spans="1:15" ht="20" customHeight="1">
+      <c r="A89" s="66"/>
+      <c r="B89" s="66"/>
+      <c r="C89" s="66"/>
+      <c r="D89" s="66"/>
+      <c r="E89" s="66"/>
+      <c r="F89" s="66"/>
+      <c r="G89" s="66"/>
+      <c r="H89" s="66"/>
+      <c r="I89" s="66"/>
+      <c r="J89" s="66"/>
+      <c r="K89" s="66"/>
+      <c r="L89" s="66"/>
+      <c r="M89" s="66"/>
+      <c r="N89" s="66"/>
+      <c r="O89" s="66"/>
+    </row>
+    <row r="90" spans="1:15" ht="20" customHeight="1">
+      <c r="A90" s="66"/>
+      <c r="B90" s="66"/>
+      <c r="C90" s="66"/>
+      <c r="D90" s="66"/>
+      <c r="E90" s="66"/>
+      <c r="F90" s="66"/>
+      <c r="G90" s="66"/>
+      <c r="H90" s="66"/>
+      <c r="I90" s="66"/>
+      <c r="J90" s="66"/>
+      <c r="K90" s="66"/>
+      <c r="L90" s="66"/>
+      <c r="M90" s="66"/>
+      <c r="N90" s="66"/>
+      <c r="O90" s="66"/>
+    </row>
+    <row r="91" spans="1:15" ht="20" customHeight="1">
+      <c r="A91" s="101"/>
+      <c r="B91" s="101"/>
+      <c r="C91" s="101"/>
+      <c r="D91" s="101"/>
+      <c r="E91" s="101"/>
+      <c r="F91" s="101"/>
+      <c r="G91" s="101"/>
+      <c r="H91" s="101"/>
+      <c r="I91" s="101"/>
+      <c r="J91" s="101"/>
+      <c r="K91" s="101"/>
+      <c r="L91" s="101"/>
+      <c r="M91" s="101"/>
+      <c r="N91" s="101"/>
+      <c r="O91" s="101"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="D64:E64"/>
+  <mergeCells count="24">
+    <mergeCell ref="D69:E69"/>
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="C4:I4"/>
@@ -9255,8 +9777,16 @@
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B60:D60"/>
     <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>

--- a/doc/detail_design/api/MCS_Web_API_Specification.xlsx
+++ b/doc/detail_design/api/MCS_Web_API_Specification.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5620" yWindow="-19140" windowWidth="27480" windowHeight="14520" tabRatio="957" activeTab="3"/>
+    <workbookView xWindow="5620" yWindow="-19140" windowWidth="27480" windowHeight="14520" tabRatio="957" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="23" r:id="rId1"/>
@@ -1168,7 +1168,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -1189,7 +1188,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">User </t>
     </r>
@@ -1208,7 +1206,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>ccount</t>
     </r>
@@ -1222,14 +1219,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1237,7 +1234,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1245,7 +1242,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1258,45 +1255,45 @@
     <font>
       <sz val="18"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="5" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF963634"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1311,7 +1308,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2457,44 +2454,72 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2526,16 +2551,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2563,21 +2578,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -2590,22 +2590,43 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2620,6 +2641,9 @@
     <xf numFmtId="0" fontId="32" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2655,21 +2679,19 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2685,42 +2707,17 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="411">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3928,7 +3925,16 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>      "message": "Success"</a:t>
+            <a:t>      "description": "User account was created successfully.",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      "message": "Account created success!"</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4795,299 +4801,299 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="43" customFormat="1">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="163" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="187" t="s">
+      <c r="B1" s="164"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="166" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="192" t="s">
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="168" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="193"/>
-      <c r="M1" s="194"/>
-      <c r="N1" s="174" t="s">
+      <c r="L1" s="169"/>
+      <c r="M1" s="170"/>
+      <c r="N1" s="171" t="s">
         <v>191</v>
       </c>
-      <c r="O1" s="175"/>
-      <c r="P1" s="175"/>
-      <c r="Q1" s="175"/>
-      <c r="R1" s="175"/>
-      <c r="S1" s="175"/>
-      <c r="T1" s="175"/>
-      <c r="U1" s="176"/>
-      <c r="V1" s="195" t="s">
+      <c r="O1" s="172"/>
+      <c r="P1" s="172"/>
+      <c r="Q1" s="172"/>
+      <c r="R1" s="172"/>
+      <c r="S1" s="172"/>
+      <c r="T1" s="172"/>
+      <c r="U1" s="173"/>
+      <c r="V1" s="174" t="s">
         <v>39</v>
       </c>
-      <c r="W1" s="196"/>
-      <c r="X1" s="196"/>
-      <c r="Y1" s="196"/>
-      <c r="Z1" s="196"/>
-      <c r="AA1" s="196"/>
-      <c r="AB1" s="196"/>
-      <c r="AC1" s="196"/>
-      <c r="AD1" s="197"/>
+      <c r="W1" s="175"/>
+      <c r="X1" s="175"/>
+      <c r="Y1" s="175"/>
+      <c r="Z1" s="175"/>
+      <c r="AA1" s="175"/>
+      <c r="AB1" s="175"/>
+      <c r="AC1" s="175"/>
+      <c r="AD1" s="176"/>
     </row>
     <row r="2" spans="1:30" s="43" customFormat="1">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="163" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="187" t="s">
+      <c r="B2" s="164"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="166" t="s">
         <v>194</v>
       </c>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="188"/>
-      <c r="J2" s="188"/>
-      <c r="K2" s="169" t="s">
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="180" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="170"/>
-      <c r="M2" s="171"/>
-      <c r="N2" s="189" t="s">
+      <c r="L2" s="181"/>
+      <c r="M2" s="182"/>
+      <c r="N2" s="192" t="s">
         <v>196</v>
       </c>
-      <c r="O2" s="190"/>
-      <c r="P2" s="190"/>
-      <c r="Q2" s="190"/>
-      <c r="R2" s="190"/>
-      <c r="S2" s="190"/>
-      <c r="T2" s="190"/>
-      <c r="U2" s="191"/>
-      <c r="V2" s="166" t="s">
+      <c r="O2" s="193"/>
+      <c r="P2" s="193"/>
+      <c r="Q2" s="193"/>
+      <c r="R2" s="193"/>
+      <c r="S2" s="193"/>
+      <c r="T2" s="193"/>
+      <c r="U2" s="194"/>
+      <c r="V2" s="177" t="s">
         <v>198</v>
       </c>
-      <c r="W2" s="167"/>
-      <c r="X2" s="168"/>
-      <c r="Y2" s="166" t="s">
+      <c r="W2" s="178"/>
+      <c r="X2" s="179"/>
+      <c r="Y2" s="177" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" s="167"/>
-      <c r="AA2" s="168"/>
-      <c r="AB2" s="166" t="s">
+      <c r="Z2" s="178"/>
+      <c r="AA2" s="179"/>
+      <c r="AB2" s="177" t="s">
         <v>43</v>
       </c>
-      <c r="AC2" s="167"/>
-      <c r="AD2" s="168"/>
+      <c r="AC2" s="178"/>
+      <c r="AD2" s="179"/>
     </row>
     <row r="3" spans="1:30" s="43" customFormat="1">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="172" t="s">
+      <c r="B3" s="181"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="183" t="s">
         <v>195</v>
       </c>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="173"/>
-      <c r="J3" s="173"/>
-      <c r="K3" s="169" t="s">
+      <c r="E3" s="184"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="184"/>
+      <c r="J3" s="184"/>
+      <c r="K3" s="180" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="170"/>
-      <c r="M3" s="171"/>
-      <c r="N3" s="174" t="s">
+      <c r="L3" s="181"/>
+      <c r="M3" s="182"/>
+      <c r="N3" s="171" t="s">
         <v>197</v>
       </c>
-      <c r="O3" s="175"/>
-      <c r="P3" s="175"/>
-      <c r="Q3" s="175"/>
-      <c r="R3" s="175"/>
-      <c r="S3" s="175"/>
-      <c r="T3" s="175"/>
-      <c r="U3" s="176"/>
-      <c r="V3" s="177" t="s">
+      <c r="O3" s="172"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="172"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="173"/>
+      <c r="V3" s="185" t="s">
         <v>199</v>
       </c>
-      <c r="W3" s="178"/>
-      <c r="X3" s="179"/>
-      <c r="Y3" s="180"/>
-      <c r="Z3" s="181"/>
-      <c r="AA3" s="182"/>
-      <c r="AB3" s="183"/>
-      <c r="AC3" s="181"/>
-      <c r="AD3" s="182"/>
+      <c r="W3" s="186"/>
+      <c r="X3" s="187"/>
+      <c r="Y3" s="188"/>
+      <c r="Z3" s="189"/>
+      <c r="AA3" s="190"/>
+      <c r="AB3" s="191"/>
+      <c r="AC3" s="189"/>
+      <c r="AD3" s="190"/>
     </row>
     <row r="7" spans="1:30" ht="16" thickBot="1"/>
     <row r="8" spans="1:30" ht="16" thickBot="1">
-      <c r="B8" s="164" t="s">
+      <c r="B8" s="207" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="164"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="164" t="s">
+      <c r="C8" s="207"/>
+      <c r="D8" s="207"/>
+      <c r="E8" s="207"/>
+      <c r="F8" s="207" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="164"/>
-      <c r="H8" s="164" t="s">
+      <c r="G8" s="207"/>
+      <c r="H8" s="207" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="164"/>
-      <c r="J8" s="164"/>
-      <c r="K8" s="164" t="s">
+      <c r="I8" s="207"/>
+      <c r="J8" s="207"/>
+      <c r="K8" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="164"/>
-      <c r="M8" s="164"/>
-      <c r="N8" s="164"/>
-      <c r="O8" s="164"/>
-      <c r="P8" s="164"/>
-      <c r="Q8" s="164"/>
-      <c r="R8" s="164"/>
-      <c r="S8" s="164"/>
-      <c r="T8" s="164"/>
-      <c r="U8" s="164"/>
-      <c r="V8" s="164"/>
-      <c r="W8" s="164"/>
-      <c r="X8" s="164" t="s">
+      <c r="L8" s="207"/>
+      <c r="M8" s="207"/>
+      <c r="N8" s="207"/>
+      <c r="O8" s="207"/>
+      <c r="P8" s="207"/>
+      <c r="Q8" s="207"/>
+      <c r="R8" s="207"/>
+      <c r="S8" s="207"/>
+      <c r="T8" s="207"/>
+      <c r="U8" s="207"/>
+      <c r="V8" s="207"/>
+      <c r="W8" s="207"/>
+      <c r="X8" s="207" t="s">
         <v>47</v>
       </c>
-      <c r="Y8" s="164"/>
-      <c r="Z8" s="164"/>
-      <c r="AA8" s="164"/>
-      <c r="AB8" s="164"/>
-      <c r="AC8" s="164"/>
+      <c r="Y8" s="207"/>
+      <c r="Z8" s="207"/>
+      <c r="AA8" s="207"/>
+      <c r="AB8" s="207"/>
+      <c r="AC8" s="207"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="B9" s="165" t="s">
+      <c r="B9" s="195" t="s">
         <v>193</v>
       </c>
-      <c r="C9" s="154"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="156" t="s">
+      <c r="C9" s="196"/>
+      <c r="D9" s="196"/>
+      <c r="E9" s="197"/>
+      <c r="F9" s="198" t="s">
         <v>190</v>
       </c>
-      <c r="G9" s="157"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="154"/>
-      <c r="J9" s="155"/>
-      <c r="K9" s="158"/>
-      <c r="L9" s="159"/>
-      <c r="M9" s="159"/>
-      <c r="N9" s="159"/>
-      <c r="O9" s="159"/>
-      <c r="P9" s="159"/>
-      <c r="Q9" s="159"/>
-      <c r="R9" s="159"/>
-      <c r="S9" s="159"/>
-      <c r="T9" s="159"/>
-      <c r="U9" s="159"/>
-      <c r="V9" s="159"/>
-      <c r="W9" s="160"/>
-      <c r="X9" s="161"/>
-      <c r="Y9" s="162"/>
-      <c r="Z9" s="162"/>
-      <c r="AA9" s="162"/>
-      <c r="AB9" s="162"/>
-      <c r="AC9" s="163"/>
+      <c r="G9" s="199"/>
+      <c r="H9" s="200"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="197"/>
+      <c r="K9" s="201"/>
+      <c r="L9" s="202"/>
+      <c r="M9" s="202"/>
+      <c r="N9" s="202"/>
+      <c r="O9" s="202"/>
+      <c r="P9" s="202"/>
+      <c r="Q9" s="202"/>
+      <c r="R9" s="202"/>
+      <c r="S9" s="202"/>
+      <c r="T9" s="202"/>
+      <c r="U9" s="202"/>
+      <c r="V9" s="202"/>
+      <c r="W9" s="203"/>
+      <c r="X9" s="204"/>
+      <c r="Y9" s="205"/>
+      <c r="Z9" s="205"/>
+      <c r="AA9" s="205"/>
+      <c r="AB9" s="205"/>
+      <c r="AC9" s="206"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="B10" s="153"/>
-      <c r="C10" s="154"/>
-      <c r="D10" s="154"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="157"/>
-      <c r="H10" s="153"/>
-      <c r="I10" s="154"/>
-      <c r="J10" s="155"/>
-      <c r="K10" s="158"/>
-      <c r="L10" s="159"/>
-      <c r="M10" s="159"/>
-      <c r="N10" s="159"/>
-      <c r="O10" s="159"/>
-      <c r="P10" s="159"/>
-      <c r="Q10" s="159"/>
-      <c r="R10" s="159"/>
-      <c r="S10" s="159"/>
-      <c r="T10" s="159"/>
-      <c r="U10" s="159"/>
-      <c r="V10" s="159"/>
-      <c r="W10" s="160"/>
-      <c r="X10" s="161"/>
-      <c r="Y10" s="162"/>
-      <c r="Z10" s="162"/>
-      <c r="AA10" s="162"/>
-      <c r="AB10" s="162"/>
-      <c r="AC10" s="163"/>
+      <c r="B10" s="200"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="197"/>
+      <c r="F10" s="198"/>
+      <c r="G10" s="199"/>
+      <c r="H10" s="200"/>
+      <c r="I10" s="196"/>
+      <c r="J10" s="197"/>
+      <c r="K10" s="201"/>
+      <c r="L10" s="202"/>
+      <c r="M10" s="202"/>
+      <c r="N10" s="202"/>
+      <c r="O10" s="202"/>
+      <c r="P10" s="202"/>
+      <c r="Q10" s="202"/>
+      <c r="R10" s="202"/>
+      <c r="S10" s="202"/>
+      <c r="T10" s="202"/>
+      <c r="U10" s="202"/>
+      <c r="V10" s="202"/>
+      <c r="W10" s="203"/>
+      <c r="X10" s="204"/>
+      <c r="Y10" s="205"/>
+      <c r="Z10" s="205"/>
+      <c r="AA10" s="205"/>
+      <c r="AB10" s="205"/>
+      <c r="AC10" s="206"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="B11" s="153"/>
-      <c r="C11" s="154"/>
-      <c r="D11" s="154"/>
-      <c r="E11" s="155"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="157"/>
-      <c r="H11" s="153"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="155"/>
-      <c r="K11" s="158"/>
-      <c r="L11" s="159"/>
-      <c r="M11" s="159"/>
-      <c r="N11" s="159"/>
-      <c r="O11" s="159"/>
-      <c r="P11" s="159"/>
-      <c r="Q11" s="159"/>
-      <c r="R11" s="159"/>
-      <c r="S11" s="159"/>
-      <c r="T11" s="159"/>
-      <c r="U11" s="159"/>
-      <c r="V11" s="159"/>
-      <c r="W11" s="160"/>
-      <c r="X11" s="161"/>
-      <c r="Y11" s="162"/>
-      <c r="Z11" s="162"/>
-      <c r="AA11" s="162"/>
-      <c r="AB11" s="162"/>
-      <c r="AC11" s="163"/>
+      <c r="B11" s="200"/>
+      <c r="C11" s="196"/>
+      <c r="D11" s="196"/>
+      <c r="E11" s="197"/>
+      <c r="F11" s="198"/>
+      <c r="G11" s="199"/>
+      <c r="H11" s="200"/>
+      <c r="I11" s="196"/>
+      <c r="J11" s="197"/>
+      <c r="K11" s="201"/>
+      <c r="L11" s="202"/>
+      <c r="M11" s="202"/>
+      <c r="N11" s="202"/>
+      <c r="O11" s="202"/>
+      <c r="P11" s="202"/>
+      <c r="Q11" s="202"/>
+      <c r="R11" s="202"/>
+      <c r="S11" s="202"/>
+      <c r="T11" s="202"/>
+      <c r="U11" s="202"/>
+      <c r="V11" s="202"/>
+      <c r="W11" s="203"/>
+      <c r="X11" s="204"/>
+      <c r="Y11" s="205"/>
+      <c r="Z11" s="205"/>
+      <c r="AA11" s="205"/>
+      <c r="AB11" s="205"/>
+      <c r="AC11" s="206"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="B12" s="153"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="157"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="154"/>
-      <c r="J12" s="155"/>
-      <c r="K12" s="158"/>
-      <c r="L12" s="159"/>
-      <c r="M12" s="159"/>
-      <c r="N12" s="159"/>
-      <c r="O12" s="159"/>
-      <c r="P12" s="159"/>
-      <c r="Q12" s="159"/>
-      <c r="R12" s="159"/>
-      <c r="S12" s="159"/>
-      <c r="T12" s="159"/>
-      <c r="U12" s="159"/>
-      <c r="V12" s="159"/>
-      <c r="W12" s="160"/>
-      <c r="X12" s="161"/>
-      <c r="Y12" s="162"/>
-      <c r="Z12" s="162"/>
-      <c r="AA12" s="162"/>
-      <c r="AB12" s="162"/>
-      <c r="AC12" s="163"/>
+      <c r="B12" s="200"/>
+      <c r="C12" s="196"/>
+      <c r="D12" s="196"/>
+      <c r="E12" s="197"/>
+      <c r="F12" s="198"/>
+      <c r="G12" s="199"/>
+      <c r="H12" s="200"/>
+      <c r="I12" s="196"/>
+      <c r="J12" s="197"/>
+      <c r="K12" s="201"/>
+      <c r="L12" s="202"/>
+      <c r="M12" s="202"/>
+      <c r="N12" s="202"/>
+      <c r="O12" s="202"/>
+      <c r="P12" s="202"/>
+      <c r="Q12" s="202"/>
+      <c r="R12" s="202"/>
+      <c r="S12" s="202"/>
+      <c r="T12" s="202"/>
+      <c r="U12" s="202"/>
+      <c r="V12" s="202"/>
+      <c r="W12" s="203"/>
+      <c r="X12" s="204"/>
+      <c r="Y12" s="205"/>
+      <c r="Z12" s="205"/>
+      <c r="AA12" s="205"/>
+      <c r="AB12" s="205"/>
+      <c r="AC12" s="206"/>
     </row>
     <row r="13" spans="1:30" ht="18" customHeight="1"/>
     <row r="14" spans="1:30" ht="18" customHeight="1"/>
@@ -5117,11 +5123,31 @@
     <row r="38" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AD1"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AC9"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="A3:C3"/>
@@ -5136,31 +5162,11 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:U2"/>
     <mergeCell ref="V2:X2"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AC9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AD1"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5181,7 +5187,7 @@
       <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="1"/>
     <col min="3" max="3" width="10.83203125" style="2"/>
@@ -5199,10 +5205,10 @@
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
     </row>
-    <row r="3" spans="2:6" ht="16">
+    <row r="3" spans="2:6">
       <c r="E3" s="23"/>
     </row>
-    <row r="4" spans="2:6" ht="18">
+    <row r="4" spans="2:6" ht="20">
       <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
@@ -5210,7 +5216,7 @@
       <c r="E4" s="24"/>
       <c r="F4" s="24"/>
     </row>
-    <row r="5" spans="2:6" ht="18">
+    <row r="5" spans="2:6" ht="20">
       <c r="C5" s="7" t="s">
         <v>50</v>
       </c>
@@ -5218,7 +5224,7 @@
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
     </row>
-    <row r="6" spans="2:6" ht="18">
+    <row r="6" spans="2:6" ht="20">
       <c r="C6" s="8" t="s">
         <v>35</v>
       </c>
@@ -5232,7 +5238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="18">
+    <row r="7" spans="2:6" ht="20">
       <c r="C7" s="7">
         <v>1</v>
       </c>
@@ -5246,7 +5252,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="18">
+    <row r="8" spans="2:6" ht="20">
       <c r="C8" s="7">
         <v>2</v>
       </c>
@@ -5260,19 +5266,19 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="18">
+    <row r="9" spans="2:6" ht="20">
       <c r="C9" s="7"/>
       <c r="D9" s="11"/>
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
     </row>
-    <row r="10" spans="2:6" ht="18">
+    <row r="10" spans="2:6" ht="20">
       <c r="C10" s="7"/>
       <c r="D10" s="12"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
     </row>
-    <row r="11" spans="2:6" ht="18">
+    <row r="11" spans="2:6" ht="20">
       <c r="C11" s="13" t="s">
         <v>56</v>
       </c>
@@ -5280,7 +5286,7 @@
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
     </row>
-    <row r="12" spans="2:6" ht="18">
+    <row r="12" spans="2:6" ht="20">
       <c r="C12" s="14" t="s">
         <v>57</v>
       </c>
@@ -5288,7 +5294,7 @@
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
     </row>
-    <row r="13" spans="2:6" ht="18">
+    <row r="13" spans="2:6" ht="20">
       <c r="C13" s="8" t="s">
         <v>35</v>
       </c>
@@ -5302,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="18">
+    <row r="14" spans="2:6" ht="20">
       <c r="C14" s="7">
         <v>1</v>
       </c>
@@ -5316,7 +5322,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="18">
+    <row r="15" spans="2:6" ht="20">
       <c r="C15" s="7">
         <v>2</v>
       </c>
@@ -5330,7 +5336,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="18">
+    <row r="16" spans="2:6" ht="20">
       <c r="C16" s="7">
         <v>3</v>
       </c>
@@ -5344,13 +5350,13 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="3:6" ht="18">
+    <row r="17" spans="3:6" ht="20">
       <c r="C17" s="7"/>
       <c r="D17" s="6"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
     </row>
-    <row r="18" spans="3:6" ht="18">
+    <row r="18" spans="3:6" ht="20">
       <c r="C18" s="15" t="s">
         <v>61</v>
       </c>
@@ -5358,7 +5364,7 @@
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
     </row>
-    <row r="19" spans="3:6" ht="18">
+    <row r="19" spans="3:6" ht="20">
       <c r="C19" s="17" t="s">
         <v>62</v>
       </c>
@@ -5366,7 +5372,7 @@
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
     </row>
-    <row r="20" spans="3:6" ht="18">
+    <row r="20" spans="3:6" ht="20">
       <c r="C20" s="18" t="s">
         <v>35</v>
       </c>
@@ -5380,7 +5386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:6" ht="18">
+    <row r="21" spans="3:6" ht="20">
       <c r="C21" s="20">
         <v>1</v>
       </c>
@@ -5394,7 +5400,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="3:6" ht="18">
+    <row r="22" spans="3:6" ht="20">
       <c r="C22" s="20">
         <v>2</v>
       </c>
@@ -5408,7 +5414,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="3:6" ht="18">
+    <row r="23" spans="3:6" ht="20">
       <c r="C23" s="20">
         <v>3</v>
       </c>
@@ -5422,7 +5428,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="3:6" ht="18">
+    <row r="24" spans="3:6" ht="20">
       <c r="C24" s="20">
         <v>4</v>
       </c>
@@ -5436,7 +5442,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="3:6" ht="18">
+    <row r="25" spans="3:6" ht="20">
       <c r="C25" s="20">
         <v>5</v>
       </c>
@@ -5450,7 +5456,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="3:6" ht="18">
+    <row r="28" spans="3:6" ht="20">
       <c r="C28" s="15" t="s">
         <v>83</v>
       </c>
@@ -5458,7 +5464,7 @@
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
     </row>
-    <row r="29" spans="3:6" ht="18">
+    <row r="29" spans="3:6" ht="20">
       <c r="C29" s="17" t="s">
         <v>85</v>
       </c>
@@ -5466,7 +5472,7 @@
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
     </row>
-    <row r="30" spans="3:6" ht="18">
+    <row r="30" spans="3:6" ht="20">
       <c r="C30" s="18" t="s">
         <v>35</v>
       </c>
@@ -5480,7 +5486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:6" ht="18">
+    <row r="31" spans="3:6" ht="20">
       <c r="C31" s="20">
         <v>1</v>
       </c>
@@ -5494,7 +5500,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="3:6" ht="18">
+    <row r="32" spans="3:6" ht="20">
       <c r="C32" s="20">
         <v>2</v>
       </c>
@@ -5508,19 +5514,19 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="3:6" ht="18">
+    <row r="33" spans="3:6" ht="20">
       <c r="C33" s="20"/>
       <c r="D33" s="21"/>
       <c r="E33" s="26"/>
       <c r="F33" s="32"/>
     </row>
-    <row r="34" spans="3:6" ht="18">
+    <row r="34" spans="3:6" ht="20">
       <c r="C34" s="20"/>
       <c r="D34" s="21"/>
       <c r="E34" s="26"/>
       <c r="F34" s="32"/>
     </row>
-    <row r="35" spans="3:6" ht="18">
+    <row r="35" spans="3:6" ht="20">
       <c r="C35" s="15" t="s">
         <v>78</v>
       </c>
@@ -5528,7 +5534,7 @@
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
     </row>
-    <row r="36" spans="3:6" ht="18">
+    <row r="36" spans="3:6" ht="20">
       <c r="C36" s="17" t="s">
         <v>79</v>
       </c>
@@ -5536,7 +5542,7 @@
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
     </row>
-    <row r="37" spans="3:6" ht="18">
+    <row r="37" spans="3:6" ht="20">
       <c r="C37" s="18" t="s">
         <v>35</v>
       </c>
@@ -5550,7 +5556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:6" ht="18">
+    <row r="38" spans="3:6" ht="20">
       <c r="C38" s="20">
         <v>1</v>
       </c>
@@ -5564,7 +5570,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="3:6" ht="18">
+    <row r="39" spans="3:6" ht="20">
       <c r="C39" s="20">
         <v>2</v>
       </c>
@@ -5578,7 +5584,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="3:6" ht="18">
+    <row r="40" spans="3:6" ht="20">
       <c r="C40" s="20">
         <v>3</v>
       </c>
@@ -5592,7 +5598,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="3:6" ht="18">
+    <row r="43" spans="3:6" ht="20">
       <c r="C43" s="15" t="s">
         <v>72</v>
       </c>
@@ -5600,7 +5606,7 @@
       <c r="E43" s="28"/>
       <c r="F43" s="28"/>
     </row>
-    <row r="44" spans="3:6" ht="18">
+    <row r="44" spans="3:6" ht="20">
       <c r="C44" s="17" t="s">
         <v>71</v>
       </c>
@@ -5608,7 +5614,7 @@
       <c r="E44" s="28"/>
       <c r="F44" s="28"/>
     </row>
-    <row r="45" spans="3:6" ht="18">
+    <row r="45" spans="3:6" ht="20">
       <c r="C45" s="18" t="s">
         <v>35</v>
       </c>
@@ -5622,7 +5628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:6" ht="18">
+    <row r="46" spans="3:6" ht="20">
       <c r="C46" s="20">
         <v>1</v>
       </c>
@@ -5636,7 +5642,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="3:6" ht="18">
+    <row r="47" spans="3:6" ht="20">
       <c r="C47" s="20">
         <v>2</v>
       </c>
@@ -5650,7 +5656,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="3:6" ht="18">
+    <row r="50" spans="3:6" ht="20">
       <c r="C50" s="15" t="s">
         <v>73</v>
       </c>
@@ -5658,7 +5664,7 @@
       <c r="E50" s="28"/>
       <c r="F50" s="28"/>
     </row>
-    <row r="51" spans="3:6" ht="18">
+    <row r="51" spans="3:6" ht="20">
       <c r="C51" s="17" t="s">
         <v>74</v>
       </c>
@@ -5666,7 +5672,7 @@
       <c r="E51" s="28"/>
       <c r="F51" s="28"/>
     </row>
-    <row r="52" spans="3:6" ht="18">
+    <row r="52" spans="3:6" ht="20">
       <c r="C52" s="18" t="s">
         <v>35</v>
       </c>
@@ -5680,7 +5686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:6" ht="18">
+    <row r="53" spans="3:6" ht="20">
       <c r="C53" s="20">
         <v>1</v>
       </c>
@@ -5694,7 +5700,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="3:6" ht="18">
+    <row r="56" spans="3:6" ht="20">
       <c r="C56" s="15" t="s">
         <v>157</v>
       </c>
@@ -5702,7 +5708,7 @@
       <c r="E56" s="28"/>
       <c r="F56" s="28"/>
     </row>
-    <row r="57" spans="3:6" ht="18">
+    <row r="57" spans="3:6" ht="20">
       <c r="C57" s="17" t="s">
         <v>158</v>
       </c>
@@ -5710,7 +5716,7 @@
       <c r="E57" s="28"/>
       <c r="F57" s="28"/>
     </row>
-    <row r="58" spans="3:6" ht="18">
+    <row r="58" spans="3:6" ht="20">
       <c r="C58" s="18" t="s">
         <v>35</v>
       </c>
@@ -5724,7 +5730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:6" ht="18">
+    <row r="59" spans="3:6" ht="20">
       <c r="C59" s="20">
         <v>1</v>
       </c>
@@ -6210,7 +6216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -6265,10 +6271,10 @@
       <c r="C4" s="104" t="s">
         <v>350</v>
       </c>
-      <c r="D4" s="199" t="s">
+      <c r="D4" s="209" t="s">
         <v>354</v>
       </c>
-      <c r="E4" s="199"/>
+      <c r="E4" s="209"/>
       <c r="F4" s="150" t="s">
         <v>351</v>
       </c>
@@ -6280,17 +6286,17 @@
       <c r="L4" s="122"/>
     </row>
     <row r="5" spans="2:12" ht="20" customHeight="1">
-      <c r="B5" s="227">
+      <c r="B5" s="153">
         <v>1</v>
       </c>
-      <c r="C5" s="228" t="s">
+      <c r="C5" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="229" t="s">
+      <c r="D5" s="212" t="s">
         <v>356</v>
       </c>
-      <c r="E5" s="229"/>
-      <c r="F5" s="230" t="s">
+      <c r="E5" s="212"/>
+      <c r="F5" s="155" t="s">
         <v>355</v>
       </c>
       <c r="G5" s="125"/>
@@ -6344,10 +6350,10 @@
       <c r="C9" s="150" t="s">
         <v>350</v>
       </c>
-      <c r="D9" s="199" t="s">
+      <c r="D9" s="209" t="s">
         <v>354</v>
       </c>
-      <c r="E9" s="199"/>
+      <c r="E9" s="209"/>
       <c r="F9" s="150" t="s">
         <v>351</v>
       </c>
@@ -6359,10 +6365,10 @@
       <c r="C10" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="198" t="s">
+      <c r="D10" s="208" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="198"/>
+      <c r="E10" s="208"/>
       <c r="F10" s="148"/>
       <c r="G10" s="125" t="s">
         <v>326</v>
@@ -6376,10 +6382,10 @@
       <c r="C11" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="198" t="s">
+      <c r="D11" s="208" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="198"/>
+      <c r="E11" s="208"/>
       <c r="F11" s="148"/>
       <c r="G11" s="125"/>
       <c r="H11" s="125"/>
@@ -6391,10 +6397,10 @@
       <c r="C12" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="198" t="s">
+      <c r="D12" s="208" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="198"/>
+      <c r="E12" s="208"/>
       <c r="F12" s="148"/>
       <c r="G12" s="125"/>
       <c r="H12" s="125"/>
@@ -6406,10 +6412,10 @@
       <c r="C13" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="198" t="s">
+      <c r="D13" s="208" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="198"/>
+      <c r="E13" s="208"/>
       <c r="F13" s="148"/>
       <c r="G13" s="125"/>
       <c r="H13" s="125"/>
@@ -6421,10 +6427,10 @@
       <c r="C14" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="198" t="s">
+      <c r="D14" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="198"/>
+      <c r="E14" s="208"/>
       <c r="F14" s="148"/>
       <c r="G14" s="125"/>
       <c r="H14" s="125"/>
@@ -6436,10 +6442,10 @@
       <c r="C15" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="198" t="s">
+      <c r="D15" s="208" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="198"/>
+      <c r="E15" s="208"/>
       <c r="F15" s="148"/>
       <c r="G15" s="125"/>
       <c r="H15" s="125"/>
@@ -6459,10 +6465,10 @@
       <c r="C18" s="150" t="s">
         <v>350</v>
       </c>
-      <c r="D18" s="199" t="s">
+      <c r="D18" s="209" t="s">
         <v>354</v>
       </c>
-      <c r="E18" s="199"/>
+      <c r="E18" s="209"/>
       <c r="F18" s="150" t="s">
         <v>351</v>
       </c>
@@ -6474,10 +6480,10 @@
       <c r="C19" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="198" t="s">
+      <c r="D19" s="208" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="198"/>
+      <c r="E19" s="208"/>
       <c r="F19" s="152"/>
       <c r="G19" s="125"/>
       <c r="H19" s="125"/>
@@ -6489,10 +6495,10 @@
       <c r="C20" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="198" t="s">
+      <c r="D20" s="208" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="198"/>
+      <c r="E20" s="208"/>
       <c r="F20" s="152"/>
       <c r="G20" s="125"/>
       <c r="H20" s="125"/>
@@ -6504,10 +6510,10 @@
       <c r="C21" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="198" t="s">
+      <c r="D21" s="208" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="198"/>
+      <c r="E21" s="208"/>
       <c r="F21" s="152"/>
       <c r="G21" s="125"/>
       <c r="H21" s="125"/>
@@ -6519,10 +6525,10 @@
       <c r="C22" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="198" t="s">
+      <c r="D22" s="208" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="198"/>
+      <c r="E22" s="208"/>
       <c r="F22" s="152"/>
       <c r="G22" s="125"/>
       <c r="H22" s="125"/>
@@ -6534,10 +6540,10 @@
       <c r="C23" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="198" t="s">
+      <c r="D23" s="208" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="198"/>
+      <c r="E23" s="208"/>
       <c r="F23" s="152"/>
       <c r="G23" s="125"/>
       <c r="H23" s="125"/>
@@ -6549,10 +6555,10 @@
       <c r="C24" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="198" t="s">
+      <c r="D24" s="208" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="198"/>
+      <c r="E24" s="208"/>
       <c r="F24" s="152"/>
       <c r="G24" s="125"/>
       <c r="H24" s="125"/>
@@ -6572,26 +6578,26 @@
       <c r="C27" s="150" t="s">
         <v>350</v>
       </c>
-      <c r="D27" s="199" t="s">
+      <c r="D27" s="209" t="s">
         <v>354</v>
       </c>
-      <c r="E27" s="199"/>
+      <c r="E27" s="209"/>
       <c r="F27" s="150" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="20" customHeight="1">
-      <c r="B28" s="227">
+      <c r="B28" s="153">
         <v>1</v>
       </c>
-      <c r="C28" s="228" t="s">
+      <c r="C28" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="229" t="s">
+      <c r="D28" s="212" t="s">
         <v>353</v>
       </c>
-      <c r="E28" s="229"/>
-      <c r="F28" s="231"/>
+      <c r="E28" s="212"/>
+      <c r="F28" s="156"/>
       <c r="G28" s="125"/>
       <c r="H28" s="125"/>
     </row>
@@ -6602,10 +6608,10 @@
       <c r="C29" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="198" t="s">
+      <c r="D29" s="208" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="198"/>
+      <c r="E29" s="208"/>
       <c r="F29" s="152"/>
       <c r="G29" s="125"/>
       <c r="H29" s="125"/>
@@ -6617,10 +6623,10 @@
       <c r="C30" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="198" t="s">
+      <c r="D30" s="208" t="s">
         <v>97</v>
       </c>
-      <c r="E30" s="198"/>
+      <c r="E30" s="208"/>
       <c r="F30" s="152"/>
       <c r="G30" s="125"/>
       <c r="H30" s="125"/>
@@ -6632,10 +6638,10 @@
       <c r="C31" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="198" t="s">
+      <c r="D31" s="208" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="198"/>
+      <c r="E31" s="208"/>
       <c r="F31" s="152"/>
       <c r="G31" s="125"/>
       <c r="H31" s="125"/>
@@ -6647,10 +6653,10 @@
       <c r="C32" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="198" t="s">
+      <c r="D32" s="208" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="198"/>
+      <c r="E32" s="208"/>
       <c r="F32" s="152"/>
       <c r="G32" s="125"/>
       <c r="H32" s="125"/>
@@ -6662,10 +6668,10 @@
       <c r="C33" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="198" t="s">
+      <c r="D33" s="208" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="198"/>
+      <c r="E33" s="208"/>
       <c r="F33" s="152"/>
       <c r="G33" s="125"/>
       <c r="H33" s="125"/>
@@ -6677,10 +6683,10 @@
       <c r="C34" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="198" t="s">
+      <c r="D34" s="208" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="198"/>
+      <c r="E34" s="208"/>
       <c r="F34" s="152"/>
       <c r="G34" s="125"/>
       <c r="H34" s="125"/>
@@ -6692,10 +6698,10 @@
       <c r="C35" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="198" t="s">
+      <c r="D35" s="208" t="s">
         <v>95</v>
       </c>
-      <c r="E35" s="198"/>
+      <c r="E35" s="208"/>
       <c r="F35" s="152"/>
       <c r="G35" s="125"/>
       <c r="H35" s="125"/>
@@ -6707,10 +6713,10 @@
       <c r="C36" s="127" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="198" t="s">
+      <c r="D36" s="208" t="s">
         <v>107</v>
       </c>
-      <c r="E36" s="198"/>
+      <c r="E36" s="208"/>
       <c r="F36" s="152"/>
       <c r="G36" s="125"/>
       <c r="H36" s="125"/>
@@ -6728,10 +6734,10 @@
       <c r="C40" s="150" t="s">
         <v>350</v>
       </c>
-      <c r="D40" s="199" t="s">
+      <c r="D40" s="209" t="s">
         <v>354</v>
       </c>
-      <c r="E40" s="199"/>
+      <c r="E40" s="209"/>
       <c r="F40" s="150" t="s">
         <v>351</v>
       </c>
@@ -6743,10 +6749,10 @@
       <c r="C41" s="127" t="s">
         <v>146</v>
       </c>
-      <c r="D41" s="200" t="s">
+      <c r="D41" s="210" t="s">
         <v>151</v>
       </c>
-      <c r="E41" s="201"/>
+      <c r="E41" s="211"/>
       <c r="F41" s="149"/>
     </row>
     <row r="42" spans="2:8" ht="15" customHeight="1">
@@ -6756,10 +6762,10 @@
       <c r="C42" s="127" t="s">
         <v>147</v>
       </c>
-      <c r="D42" s="200" t="s">
+      <c r="D42" s="210" t="s">
         <v>156</v>
       </c>
-      <c r="E42" s="201"/>
+      <c r="E42" s="211"/>
       <c r="F42" s="149"/>
     </row>
     <row r="43" spans="2:8">
@@ -6769,8 +6775,8 @@
       <c r="C43" s="127" t="s">
         <v>148</v>
       </c>
-      <c r="D43" s="200"/>
-      <c r="E43" s="201"/>
+      <c r="D43" s="210"/>
+      <c r="E43" s="211"/>
       <c r="F43" s="149"/>
     </row>
     <row r="44" spans="2:8">
@@ -6780,8 +6786,8 @@
       <c r="C44" s="127" t="s">
         <v>149</v>
       </c>
-      <c r="D44" s="200"/>
-      <c r="E44" s="201"/>
+      <c r="D44" s="210"/>
+      <c r="E44" s="211"/>
       <c r="F44" s="149"/>
     </row>
     <row r="45" spans="2:8">
@@ -6791,8 +6797,8 @@
       <c r="C45" s="127" t="s">
         <v>150</v>
       </c>
-      <c r="D45" s="200"/>
-      <c r="E45" s="201"/>
+      <c r="D45" s="210"/>
+      <c r="E45" s="211"/>
       <c r="F45" s="149"/>
     </row>
     <row r="48" spans="2:8">
@@ -6808,10 +6814,10 @@
       <c r="C49" s="150" t="s">
         <v>350</v>
       </c>
-      <c r="D49" s="199" t="s">
+      <c r="D49" s="209" t="s">
         <v>354</v>
       </c>
-      <c r="E49" s="199"/>
+      <c r="E49" s="209"/>
       <c r="F49" s="150" t="s">
         <v>351</v>
       </c>
@@ -6823,10 +6829,10 @@
       <c r="C50" s="127" t="s">
         <v>116</v>
       </c>
-      <c r="D50" s="198" t="s">
+      <c r="D50" s="208" t="s">
         <v>115</v>
       </c>
-      <c r="E50" s="198"/>
+      <c r="E50" s="208"/>
       <c r="F50" s="152"/>
     </row>
     <row r="51" spans="2:6" ht="20" customHeight="1">
@@ -6836,10 +6842,10 @@
       <c r="C51" s="127" t="s">
         <v>117</v>
       </c>
-      <c r="D51" s="198" t="s">
+      <c r="D51" s="208" t="s">
         <v>123</v>
       </c>
-      <c r="E51" s="198"/>
+      <c r="E51" s="208"/>
       <c r="F51" s="152"/>
     </row>
     <row r="52" spans="2:6" ht="20" customHeight="1">
@@ -6849,10 +6855,10 @@
       <c r="C52" s="127" t="s">
         <v>118</v>
       </c>
-      <c r="D52" s="198" t="s">
+      <c r="D52" s="208" t="s">
         <v>124</v>
       </c>
-      <c r="E52" s="198"/>
+      <c r="E52" s="208"/>
       <c r="F52" s="152"/>
     </row>
     <row r="53" spans="2:6" ht="20" customHeight="1">
@@ -6862,10 +6868,10 @@
       <c r="C53" s="127" t="s">
         <v>119</v>
       </c>
-      <c r="D53" s="198" t="s">
+      <c r="D53" s="208" t="s">
         <v>125</v>
       </c>
-      <c r="E53" s="198"/>
+      <c r="E53" s="208"/>
       <c r="F53" s="152"/>
     </row>
     <row r="54" spans="2:6" ht="20" customHeight="1">
@@ -6875,10 +6881,10 @@
       <c r="C54" s="127" t="s">
         <v>120</v>
       </c>
-      <c r="D54" s="198" t="s">
+      <c r="D54" s="208" t="s">
         <v>126</v>
       </c>
-      <c r="E54" s="198"/>
+      <c r="E54" s="208"/>
       <c r="F54" s="152"/>
     </row>
     <row r="55" spans="2:6" ht="20" customHeight="1">
@@ -6888,10 +6894,10 @@
       <c r="C55" s="127" t="s">
         <v>121</v>
       </c>
-      <c r="D55" s="198" t="s">
+      <c r="D55" s="208" t="s">
         <v>127</v>
       </c>
-      <c r="E55" s="198"/>
+      <c r="E55" s="208"/>
       <c r="F55" s="152"/>
     </row>
     <row r="56" spans="2:6" ht="20" customHeight="1">
@@ -6901,10 +6907,10 @@
       <c r="C56" s="127" t="s">
         <v>122</v>
       </c>
-      <c r="D56" s="198" t="s">
+      <c r="D56" s="208" t="s">
         <v>128</v>
       </c>
-      <c r="E56" s="198"/>
+      <c r="E56" s="208"/>
       <c r="F56" s="152"/>
     </row>
     <row r="59" spans="2:6">
@@ -6920,10 +6926,10 @@
       <c r="C60" s="150" t="s">
         <v>350</v>
       </c>
-      <c r="D60" s="199" t="s">
+      <c r="D60" s="209" t="s">
         <v>354</v>
       </c>
-      <c r="E60" s="199"/>
+      <c r="E60" s="209"/>
       <c r="F60" s="150" t="s">
         <v>351</v>
       </c>
@@ -6935,10 +6941,10 @@
       <c r="C61" s="127" t="s">
         <v>130</v>
       </c>
-      <c r="D61" s="200" t="s">
+      <c r="D61" s="210" t="s">
         <v>135</v>
       </c>
-      <c r="E61" s="201"/>
+      <c r="E61" s="211"/>
       <c r="F61" s="152"/>
     </row>
     <row r="62" spans="2:6" ht="15" customHeight="1">
@@ -6948,10 +6954,10 @@
       <c r="C62" s="127" t="s">
         <v>131</v>
       </c>
-      <c r="D62" s="200" t="s">
+      <c r="D62" s="210" t="s">
         <v>136</v>
       </c>
-      <c r="E62" s="201"/>
+      <c r="E62" s="211"/>
       <c r="F62" s="152"/>
     </row>
     <row r="63" spans="2:6" ht="15" customHeight="1">
@@ -6961,10 +6967,10 @@
       <c r="C63" s="127" t="s">
         <v>132</v>
       </c>
-      <c r="D63" s="200" t="s">
+      <c r="D63" s="210" t="s">
         <v>137</v>
       </c>
-      <c r="E63" s="201"/>
+      <c r="E63" s="211"/>
       <c r="F63" s="152"/>
     </row>
     <row r="64" spans="2:6" ht="15" customHeight="1">
@@ -6974,10 +6980,10 @@
       <c r="C64" s="127" t="s">
         <v>133</v>
       </c>
-      <c r="D64" s="200" t="s">
+      <c r="D64" s="210" t="s">
         <v>138</v>
       </c>
-      <c r="E64" s="201"/>
+      <c r="E64" s="211"/>
       <c r="F64" s="152"/>
     </row>
     <row r="65" spans="2:6">
@@ -6987,29 +6993,21 @@
       <c r="C65" s="127" t="s">
         <v>134</v>
       </c>
-      <c r="D65" s="200"/>
-      <c r="E65" s="201"/>
+      <c r="D65" s="210"/>
+      <c r="E65" s="211"/>
       <c r="F65" s="152"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="D23:E23"/>
@@ -7026,19 +7024,27 @@
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7055,7 +7061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N32"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -7119,10 +7125,10 @@
       <c r="D4" s="104" t="s">
         <v>230</v>
       </c>
-      <c r="E4" s="202" t="s">
+      <c r="E4" s="213" t="s">
         <v>229</v>
       </c>
-      <c r="F4" s="203"/>
+      <c r="F4" s="214"/>
       <c r="G4" s="104" t="s">
         <v>211</v>
       </c>
@@ -7137,7 +7143,7 @@
       <c r="C5" s="106" t="s">
         <v>231</v>
       </c>
-      <c r="D5" s="204" t="s">
+      <c r="D5" s="215" t="s">
         <v>203</v>
       </c>
       <c r="E5" s="107" t="s">
@@ -7162,7 +7168,7 @@
       <c r="C6" s="106" t="s">
         <v>232</v>
       </c>
-      <c r="D6" s="205"/>
+      <c r="D6" s="216"/>
       <c r="E6" s="107" t="s">
         <v>206</v>
       </c>
@@ -7185,7 +7191,7 @@
       <c r="C7" s="106" t="s">
         <v>233</v>
       </c>
-      <c r="D7" s="205"/>
+      <c r="D7" s="216"/>
       <c r="E7" s="107" t="s">
         <v>207</v>
       </c>
@@ -7208,7 +7214,7 @@
       <c r="C8" s="106" t="s">
         <v>336</v>
       </c>
-      <c r="D8" s="205"/>
+      <c r="D8" s="216"/>
       <c r="E8" s="137" t="s">
         <v>207</v>
       </c>
@@ -7231,7 +7237,7 @@
       <c r="C9" s="106" t="s">
         <v>234</v>
       </c>
-      <c r="D9" s="205"/>
+      <c r="D9" s="216"/>
       <c r="E9" s="107" t="s">
         <v>209</v>
       </c>
@@ -7254,7 +7260,7 @@
       <c r="C10" s="106" t="s">
         <v>328</v>
       </c>
-      <c r="D10" s="205"/>
+      <c r="D10" s="216"/>
       <c r="E10" s="137" t="s">
         <v>209</v>
       </c>
@@ -7279,7 +7285,7 @@
       <c r="C11" s="106" t="s">
         <v>235</v>
       </c>
-      <c r="D11" s="206"/>
+      <c r="D11" s="217"/>
       <c r="E11" s="107" t="s">
         <v>207</v>
       </c>
@@ -7302,7 +7308,7 @@
       <c r="C12" s="111" t="s">
         <v>239</v>
       </c>
-      <c r="D12" s="207" t="s">
+      <c r="D12" s="218" t="s">
         <v>204</v>
       </c>
       <c r="E12" s="112" t="s">
@@ -7327,7 +7333,7 @@
       <c r="C13" s="111" t="s">
         <v>337</v>
       </c>
-      <c r="D13" s="208"/>
+      <c r="D13" s="219"/>
       <c r="E13" s="140" t="s">
         <v>209</v>
       </c>
@@ -7352,7 +7358,7 @@
       <c r="C14" s="111" t="s">
         <v>237</v>
       </c>
-      <c r="D14" s="208"/>
+      <c r="D14" s="219"/>
       <c r="E14" s="112" t="s">
         <v>209</v>
       </c>
@@ -7375,7 +7381,7 @@
       <c r="C15" s="111" t="s">
         <v>236</v>
       </c>
-      <c r="D15" s="208"/>
+      <c r="D15" s="219"/>
       <c r="E15" s="112" t="s">
         <v>209</v>
       </c>
@@ -7398,7 +7404,7 @@
       <c r="C16" s="111" t="s">
         <v>249</v>
       </c>
-      <c r="D16" s="208"/>
+      <c r="D16" s="219"/>
       <c r="E16" s="112" t="s">
         <v>209</v>
       </c>
@@ -7421,7 +7427,7 @@
       <c r="C17" s="111" t="s">
         <v>240</v>
       </c>
-      <c r="D17" s="208"/>
+      <c r="D17" s="219"/>
       <c r="E17" s="112" t="s">
         <v>206</v>
       </c>
@@ -7444,7 +7450,7 @@
       <c r="C18" s="111" t="s">
         <v>241</v>
       </c>
-      <c r="D18" s="208"/>
+      <c r="D18" s="219"/>
       <c r="E18" s="112" t="s">
         <v>207</v>
       </c>
@@ -7467,7 +7473,7 @@
       <c r="C19" s="111" t="s">
         <v>242</v>
       </c>
-      <c r="D19" s="208"/>
+      <c r="D19" s="219"/>
       <c r="E19" s="112" t="s">
         <v>208</v>
       </c>
@@ -7490,7 +7496,7 @@
       <c r="C20" s="115" t="s">
         <v>243</v>
       </c>
-      <c r="D20" s="209" t="s">
+      <c r="D20" s="220" t="s">
         <v>205</v>
       </c>
       <c r="E20" s="116" t="s">
@@ -7515,7 +7521,7 @@
       <c r="C21" s="115" t="s">
         <v>244</v>
       </c>
-      <c r="D21" s="210"/>
+      <c r="D21" s="221"/>
       <c r="E21" s="116" t="s">
         <v>209</v>
       </c>
@@ -7538,7 +7544,7 @@
       <c r="C22" s="115" t="s">
         <v>245</v>
       </c>
-      <c r="D22" s="210"/>
+      <c r="D22" s="221"/>
       <c r="E22" s="116" t="s">
         <v>209</v>
       </c>
@@ -7561,7 +7567,7 @@
       <c r="C23" s="115" t="s">
         <v>246</v>
       </c>
-      <c r="D23" s="210"/>
+      <c r="D23" s="221"/>
       <c r="E23" s="116" t="s">
         <v>206</v>
       </c>
@@ -7584,7 +7590,7 @@
       <c r="C24" s="115" t="s">
         <v>247</v>
       </c>
-      <c r="D24" s="210"/>
+      <c r="D24" s="221"/>
       <c r="E24" s="116" t="s">
         <v>207</v>
       </c>
@@ -7607,7 +7613,7 @@
       <c r="C25" s="115" t="s">
         <v>248</v>
       </c>
-      <c r="D25" s="211"/>
+      <c r="D25" s="222"/>
       <c r="E25" s="116" t="s">
         <v>208</v>
       </c>
@@ -7727,6 +7733,7 @@
     <mergeCell ref="D12:D19"/>
     <mergeCell ref="D20:D25"/>
   </mergeCells>
+  <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -7741,8 +7748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7783,7 +7790,7 @@
       <c r="A2" s="68" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="240" t="s">
+      <c r="B2" s="162" t="s">
         <v>367</v>
       </c>
       <c r="C2" s="66"/>
@@ -7824,15 +7831,15 @@
       <c r="B4" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="212" t="s">
+      <c r="C4" s="223" t="s">
         <v>231</v>
       </c>
-      <c r="D4" s="222"/>
-      <c r="E4" s="222"/>
-      <c r="F4" s="222"/>
-      <c r="G4" s="222"/>
-      <c r="H4" s="222"/>
-      <c r="I4" s="213"/>
+      <c r="D4" s="231"/>
+      <c r="E4" s="231"/>
+      <c r="F4" s="231"/>
+      <c r="G4" s="231"/>
+      <c r="H4" s="231"/>
+      <c r="I4" s="224"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -7845,15 +7852,15 @@
       <c r="B5" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="212" t="s">
+      <c r="C5" s="223" t="s">
         <v>217</v>
       </c>
-      <c r="D5" s="222"/>
-      <c r="E5" s="222"/>
-      <c r="F5" s="222"/>
-      <c r="G5" s="222"/>
-      <c r="H5" s="222"/>
-      <c r="I5" s="213"/>
+      <c r="D5" s="231"/>
+      <c r="E5" s="231"/>
+      <c r="F5" s="231"/>
+      <c r="G5" s="231"/>
+      <c r="H5" s="231"/>
+      <c r="I5" s="224"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -7887,15 +7894,15 @@
       <c r="B7" s="70" t="s">
         <v>289</v>
       </c>
-      <c r="C7" s="212" t="s">
+      <c r="C7" s="223" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="222"/>
-      <c r="E7" s="222"/>
-      <c r="F7" s="222"/>
-      <c r="G7" s="222"/>
-      <c r="H7" s="222"/>
-      <c r="I7" s="213"/>
+      <c r="D7" s="231"/>
+      <c r="E7" s="231"/>
+      <c r="F7" s="231"/>
+      <c r="G7" s="231"/>
+      <c r="H7" s="231"/>
+      <c r="I7" s="224"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -7929,15 +7936,15 @@
       <c r="B9" s="70" t="s">
         <v>323</v>
       </c>
-      <c r="C9" s="212" t="s">
+      <c r="C9" s="223" t="s">
         <v>324</v>
       </c>
-      <c r="D9" s="222"/>
-      <c r="E9" s="222"/>
-      <c r="F9" s="222"/>
-      <c r="G9" s="222"/>
-      <c r="H9" s="222"/>
-      <c r="I9" s="213"/>
+      <c r="D9" s="231"/>
+      <c r="E9" s="231"/>
+      <c r="F9" s="231"/>
+      <c r="G9" s="231"/>
+      <c r="H9" s="231"/>
+      <c r="I9" s="224"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -8000,19 +8007,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="219" t="s">
+      <c r="B13" s="225" t="s">
         <v>165</v>
       </c>
-      <c r="C13" s="220"/>
-      <c r="D13" s="220"/>
-      <c r="E13" s="220"/>
-      <c r="F13" s="220"/>
-      <c r="G13" s="220"/>
-      <c r="H13" s="220"/>
-      <c r="I13" s="220"/>
-      <c r="J13" s="220"/>
-      <c r="K13" s="220"/>
-      <c r="L13" s="221"/>
+      <c r="C13" s="226"/>
+      <c r="D13" s="226"/>
+      <c r="E13" s="226"/>
+      <c r="F13" s="226"/>
+      <c r="G13" s="226"/>
+      <c r="H13" s="226"/>
+      <c r="I13" s="226"/>
+      <c r="J13" s="226"/>
+      <c r="K13" s="226"/>
+      <c r="L13" s="227"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -8041,11 +8048,11 @@
       <c r="I14" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="J14" s="223" t="s">
+      <c r="J14" s="232" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="223"/>
-      <c r="L14" s="223"/>
+      <c r="K14" s="232"/>
+      <c r="L14" s="232"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -8074,11 +8081,11 @@
       <c r="I15" s="81" t="s">
         <v>282</v>
       </c>
-      <c r="J15" s="224" t="s">
+      <c r="J15" s="233" t="s">
         <v>283</v>
       </c>
-      <c r="K15" s="224"/>
-      <c r="L15" s="224"/>
+      <c r="K15" s="233"/>
+      <c r="L15" s="233"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -8107,11 +8114,11 @@
       <c r="I16" s="81" t="s">
         <v>286</v>
       </c>
-      <c r="J16" s="224" t="s">
+      <c r="J16" s="233" t="s">
         <v>287</v>
       </c>
-      <c r="K16" s="224"/>
-      <c r="L16" s="224"/>
+      <c r="K16" s="233"/>
+      <c r="L16" s="233"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -8173,11 +8180,11 @@
       <c r="I18" s="79" t="s">
         <v>295</v>
       </c>
-      <c r="J18" s="212" t="s">
+      <c r="J18" s="223" t="s">
         <v>298</v>
       </c>
-      <c r="K18" s="222"/>
-      <c r="L18" s="213"/>
+      <c r="K18" s="231"/>
+      <c r="L18" s="224"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
       <c r="O18" s="66"/>
@@ -8206,11 +8213,11 @@
       <c r="I19" s="83" t="s">
         <v>302</v>
       </c>
-      <c r="J19" s="212" t="s">
+      <c r="J19" s="223" t="s">
         <v>303</v>
       </c>
-      <c r="K19" s="222"/>
-      <c r="L19" s="213"/>
+      <c r="K19" s="231"/>
+      <c r="L19" s="224"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
       <c r="O19" s="66"/>
@@ -8372,11 +8379,11 @@
     </row>
     <row r="29" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A29" s="69"/>
-      <c r="B29" s="225" t="s">
+      <c r="B29" s="234" t="s">
         <v>291</v>
       </c>
-      <c r="C29" s="225"/>
-      <c r="D29" s="225"/>
+      <c r="C29" s="234"/>
+      <c r="D29" s="234"/>
       <c r="E29" s="87"/>
       <c r="F29" s="88"/>
       <c r="G29" s="87"/>
@@ -8391,12 +8398,12 @@
     </row>
     <row r="30" spans="1:15" s="91" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="90"/>
-      <c r="B30" s="216" t="s">
+      <c r="B30" s="228" t="s">
         <v>167</v>
       </c>
-      <c r="C30" s="217"/>
-      <c r="D30" s="217"/>
-      <c r="E30" s="218"/>
+      <c r="C30" s="229"/>
+      <c r="D30" s="229"/>
+      <c r="E30" s="230"/>
       <c r="F30" s="76" t="s">
         <v>166</v>
       </c>
@@ -8488,10 +8495,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="92"/>
       <c r="C33" s="97"/>
-      <c r="D33" s="212" t="s">
+      <c r="D33" s="223" t="s">
         <v>309</v>
       </c>
-      <c r="E33" s="213"/>
+      <c r="E33" s="224"/>
       <c r="F33" s="78" t="s">
         <v>182</v>
       </c>
@@ -8521,10 +8528,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="92"/>
       <c r="C34" s="99"/>
-      <c r="D34" s="212" t="s">
+      <c r="D34" s="223" t="s">
         <v>310</v>
       </c>
-      <c r="E34" s="213"/>
+      <c r="E34" s="224"/>
       <c r="F34" s="78" t="s">
         <v>311</v>
       </c>
@@ -8587,10 +8594,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="92"/>
       <c r="C36" s="102"/>
-      <c r="D36" s="212" t="s">
+      <c r="D36" s="223" t="s">
         <v>313</v>
       </c>
-      <c r="E36" s="213"/>
+      <c r="E36" s="224"/>
       <c r="F36" s="78" t="s">
         <v>315</v>
       </c>
@@ -8620,10 +8627,10 @@
       <c r="A37" s="66"/>
       <c r="B37" s="92"/>
       <c r="C37" s="102"/>
-      <c r="D37" s="214" t="s">
+      <c r="D37" s="237" t="s">
         <v>279</v>
       </c>
-      <c r="E37" s="215"/>
+      <c r="E37" s="238"/>
       <c r="F37" s="78" t="s">
         <v>280</v>
       </c>
@@ -8653,10 +8660,10 @@
       <c r="A38" s="66"/>
       <c r="B38" s="92"/>
       <c r="C38" s="97"/>
-      <c r="D38" s="212" t="s">
+      <c r="D38" s="223" t="s">
         <v>299</v>
       </c>
-      <c r="E38" s="213"/>
+      <c r="E38" s="224"/>
       <c r="F38" s="78" t="s">
         <v>292</v>
       </c>
@@ -8723,7 +8730,7 @@
         <v>300</v>
       </c>
       <c r="E40" s="151"/>
-      <c r="F40" s="232" t="s">
+      <c r="F40" s="157" t="s">
         <v>301</v>
       </c>
       <c r="G40" s="80" t="s">
@@ -8741,7 +8748,7 @@
       <c r="K40" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="L40" s="234" t="s">
+      <c r="L40" s="159" t="s">
         <v>366</v>
       </c>
       <c r="M40" s="66"/>
@@ -8752,10 +8759,10 @@
       <c r="A41" s="66"/>
       <c r="B41" s="98"/>
       <c r="C41" s="99"/>
-      <c r="D41" s="212" t="s">
+      <c r="D41" s="223" t="s">
         <v>183</v>
       </c>
-      <c r="E41" s="213"/>
+      <c r="E41" s="224"/>
       <c r="F41" s="78" t="s">
         <v>184</v>
       </c>
@@ -9091,11 +9098,11 @@
     </row>
     <row r="60" spans="1:15" ht="20" customHeight="1">
       <c r="A60" s="66"/>
-      <c r="B60" s="226" t="s">
+      <c r="B60" s="235" t="s">
         <v>186</v>
       </c>
-      <c r="C60" s="226"/>
-      <c r="D60" s="226"/>
+      <c r="C60" s="235"/>
+      <c r="D60" s="235"/>
       <c r="E60" s="66"/>
       <c r="F60" s="66"/>
       <c r="G60" s="66"/>
@@ -9112,12 +9119,12 @@
     </row>
     <row r="61" spans="1:15" s="91" customFormat="1" ht="20" customHeight="1">
       <c r="A61" s="90"/>
-      <c r="B61" s="216" t="s">
+      <c r="B61" s="228" t="s">
         <v>167</v>
       </c>
-      <c r="C61" s="217"/>
-      <c r="D61" s="217"/>
-      <c r="E61" s="218"/>
+      <c r="C61" s="229"/>
+      <c r="D61" s="229"/>
+      <c r="E61" s="230"/>
       <c r="F61" s="76" t="s">
         <v>166</v>
       </c>
@@ -9209,10 +9216,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="92"/>
       <c r="C64" s="97"/>
-      <c r="D64" s="235" t="s">
+      <c r="D64" s="236" t="s">
         <v>309</v>
       </c>
-      <c r="E64" s="213"/>
+      <c r="E64" s="224"/>
       <c r="F64" s="78" t="s">
         <v>182</v>
       </c>
@@ -9231,7 +9238,7 @@
       <c r="K64" s="80" t="s">
         <v>187</v>
       </c>
-      <c r="L64" s="234" t="s">
+      <c r="L64" s="159" t="s">
         <v>359</v>
       </c>
       <c r="M64" s="66"/>
@@ -9242,14 +9249,14 @@
       <c r="A65" s="66"/>
       <c r="B65" s="92"/>
       <c r="C65" s="97"/>
-      <c r="D65" s="235" t="s">
+      <c r="D65" s="236" t="s">
         <v>0</v>
       </c>
-      <c r="E65" s="236"/>
-      <c r="F65" s="232" t="s">
+      <c r="E65" s="239"/>
+      <c r="F65" s="157" t="s">
         <v>357</v>
       </c>
-      <c r="G65" s="233" t="s">
+      <c r="G65" s="158" t="s">
         <v>281</v>
       </c>
       <c r="H65" s="80" t="s">
@@ -9258,13 +9265,13 @@
       <c r="I65" s="80">
         <v>1</v>
       </c>
-      <c r="J65" s="233" t="s">
+      <c r="J65" s="158" t="s">
         <v>174</v>
       </c>
-      <c r="K65" s="233" t="s">
+      <c r="K65" s="158" t="s">
         <v>174</v>
       </c>
-      <c r="L65" s="234" t="s">
+      <c r="L65" s="159" t="s">
         <v>358</v>
       </c>
       <c r="M65" s="66"/>
@@ -9275,11 +9282,11 @@
       <c r="A66" s="66"/>
       <c r="B66" s="92"/>
       <c r="C66" s="97"/>
-      <c r="D66" s="238" t="s">
+      <c r="D66" s="240" t="s">
         <v>362</v>
       </c>
-      <c r="E66" s="236"/>
-      <c r="F66" s="232" t="s">
+      <c r="E66" s="239"/>
+      <c r="F66" s="157" t="s">
         <v>360</v>
       </c>
       <c r="G66" s="80" t="s">
@@ -9297,7 +9304,7 @@
       <c r="K66" s="80" t="s">
         <v>187</v>
       </c>
-      <c r="L66" s="234" t="s">
+      <c r="L66" s="159" t="s">
         <v>365</v>
       </c>
       <c r="M66" s="66"/>
@@ -9308,29 +9315,29 @@
       <c r="A67" s="66"/>
       <c r="B67" s="92"/>
       <c r="C67" s="102"/>
-      <c r="D67" s="239"/>
-      <c r="E67" s="237" t="s">
+      <c r="D67" s="161"/>
+      <c r="E67" s="160" t="s">
         <v>363</v>
       </c>
-      <c r="F67" s="232" t="s">
+      <c r="F67" s="157" t="s">
         <v>311</v>
       </c>
-      <c r="G67" s="233" t="s">
+      <c r="G67" s="158" t="s">
         <v>281</v>
       </c>
       <c r="H67" s="80" t="s">
         <v>304</v>
       </c>
-      <c r="I67" s="233" t="s">
+      <c r="I67" s="158" t="s">
         <v>361</v>
       </c>
-      <c r="J67" s="233" t="s">
+      <c r="J67" s="158" t="s">
         <v>174</v>
       </c>
-      <c r="K67" s="233" t="s">
+      <c r="K67" s="158" t="s">
         <v>174</v>
       </c>
-      <c r="L67" s="234" t="s">
+      <c r="L67" s="159" t="s">
         <v>364</v>
       </c>
       <c r="M67" s="66"/>
@@ -9372,8 +9379,8 @@
       <c r="A69" s="66"/>
       <c r="B69" s="98"/>
       <c r="C69" s="99"/>
-      <c r="D69" s="212"/>
-      <c r="E69" s="213"/>
+      <c r="D69" s="223"/>
+      <c r="E69" s="224"/>
       <c r="F69" s="78"/>
       <c r="G69" s="80"/>
       <c r="H69" s="80"/>
@@ -9763,6 +9770,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B61:E61"/>
     <mergeCell ref="D69:E69"/>
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="B30:E30"/>
@@ -9779,14 +9794,6 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>

--- a/doc/detail_design/api/MCS_Web_API_Specification.xlsx
+++ b/doc/detail_design/api/MCS_Web_API_Specification.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5620" yWindow="-19140" windowWidth="27480" windowHeight="14520" tabRatio="957" activeTab="5"/>
+    <workbookView xWindow="5620" yWindow="-19140" windowWidth="27480" windowHeight="14520" tabRatio="957" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="23" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="363">
   <si>
     <t>Description</t>
   </si>
@@ -44,28 +44,10 @@
     <t>Login failed</t>
   </si>
   <si>
-    <t>API has been requested doesn't exist</t>
-  </si>
-  <si>
-    <t>Format type in API not null</t>
-  </si>
-  <si>
-    <t>Token in API not null</t>
-  </si>
-  <si>
-    <t>You have not permission to perform the specified operation</t>
-  </si>
-  <si>
-    <t>System error</t>
-  </si>
-  <si>
     <t>Authentication</t>
   </si>
   <si>
     <t>Example Request</t>
-  </si>
-  <si>
-    <t>Unknown error</t>
   </si>
   <si>
     <t>End point</t>
@@ -1018,9 +1000,6 @@
   </si>
   <si>
     <t>Descritption</t>
-  </si>
-  <si>
-    <t>9001: Database error was occurred. Please try again later.</t>
   </si>
   <si>
     <t>POST /v1/users/login</t>
@@ -1210,17 +1189,26 @@
       <t>ccount</t>
     </r>
   </si>
+  <si>
+    <t>Database error was occurred. Please try again later.</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>System error was occurred. Please try again later.</t>
+    <phoneticPr fontId="14"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1423,6 +1411,11 @@
     <font>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -2088,7 +2081,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2375,12 +2368,6 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2439,20 +2426,11 @@
     <xf numFmtId="0" fontId="34" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2478,29 +2456,76 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2512,44 +2537,6 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2578,6 +2565,21 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -2590,60 +2592,30 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2674,24 +2646,35 @@
     <xf numFmtId="49" fontId="13" fillId="8" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2707,16 +2690,29 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="411">
@@ -4801,299 +4797,299 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="43" customFormat="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="190" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="191"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="193" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
+      <c r="K1" s="198" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="199"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="180" t="s">
+        <v>185</v>
+      </c>
+      <c r="O1" s="181"/>
+      <c r="P1" s="181"/>
+      <c r="Q1" s="181"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="181"/>
+      <c r="U1" s="182"/>
+      <c r="V1" s="201" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" s="202"/>
+      <c r="X1" s="202"/>
+      <c r="Y1" s="202"/>
+      <c r="Z1" s="202"/>
+      <c r="AA1" s="202"/>
+      <c r="AB1" s="202"/>
+      <c r="AC1" s="202"/>
+      <c r="AD1" s="203"/>
+    </row>
+    <row r="2" spans="1:30" s="43" customFormat="1">
+      <c r="A2" s="190" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="191"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="193" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="175" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="176"/>
+      <c r="M2" s="177"/>
+      <c r="N2" s="195" t="s">
+        <v>190</v>
+      </c>
+      <c r="O2" s="196"/>
+      <c r="P2" s="196"/>
+      <c r="Q2" s="196"/>
+      <c r="R2" s="196"/>
+      <c r="S2" s="196"/>
+      <c r="T2" s="196"/>
+      <c r="U2" s="197"/>
+      <c r="V2" s="172" t="s">
+        <v>192</v>
+      </c>
+      <c r="W2" s="173"/>
+      <c r="X2" s="174"/>
+      <c r="Y2" s="172" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="166" t="s">
+      <c r="Z2" s="173"/>
+      <c r="AA2" s="174"/>
+      <c r="AB2" s="172" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="168" t="s">
+      <c r="AC2" s="173"/>
+      <c r="AD2" s="174"/>
+    </row>
+    <row r="3" spans="1:30" s="43" customFormat="1">
+      <c r="A3" s="175" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="176"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="178" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="179"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="179"/>
+      <c r="I3" s="179"/>
+      <c r="J3" s="179"/>
+      <c r="K3" s="175" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="169"/>
-      <c r="M1" s="170"/>
-      <c r="N1" s="171" t="s">
+      <c r="L3" s="176"/>
+      <c r="M3" s="177"/>
+      <c r="N3" s="180" t="s">
         <v>191</v>
       </c>
-      <c r="O1" s="172"/>
-      <c r="P1" s="172"/>
-      <c r="Q1" s="172"/>
-      <c r="R1" s="172"/>
-      <c r="S1" s="172"/>
-      <c r="T1" s="172"/>
-      <c r="U1" s="173"/>
-      <c r="V1" s="174" t="s">
-        <v>39</v>
-      </c>
-      <c r="W1" s="175"/>
-      <c r="X1" s="175"/>
-      <c r="Y1" s="175"/>
-      <c r="Z1" s="175"/>
-      <c r="AA1" s="175"/>
-      <c r="AB1" s="175"/>
-      <c r="AC1" s="175"/>
-      <c r="AD1" s="176"/>
-    </row>
-    <row r="2" spans="1:30" s="43" customFormat="1">
-      <c r="A2" s="163" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="166" t="s">
-        <v>194</v>
-      </c>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="180" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="181"/>
-      <c r="M2" s="182"/>
-      <c r="N2" s="192" t="s">
-        <v>196</v>
-      </c>
-      <c r="O2" s="193"/>
-      <c r="P2" s="193"/>
-      <c r="Q2" s="193"/>
-      <c r="R2" s="193"/>
-      <c r="S2" s="193"/>
-      <c r="T2" s="193"/>
-      <c r="U2" s="194"/>
-      <c r="V2" s="177" t="s">
-        <v>198</v>
-      </c>
-      <c r="W2" s="178"/>
-      <c r="X2" s="179"/>
-      <c r="Y2" s="177" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z2" s="178"/>
-      <c r="AA2" s="179"/>
-      <c r="AB2" s="177" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC2" s="178"/>
-      <c r="AD2" s="179"/>
-    </row>
-    <row r="3" spans="1:30" s="43" customFormat="1">
-      <c r="A3" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="181"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="183" t="s">
-        <v>195</v>
-      </c>
-      <c r="E3" s="184"/>
-      <c r="F3" s="184"/>
-      <c r="G3" s="184"/>
-      <c r="H3" s="184"/>
-      <c r="I3" s="184"/>
-      <c r="J3" s="184"/>
-      <c r="K3" s="180" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="181"/>
-      <c r="M3" s="182"/>
-      <c r="N3" s="171" t="s">
-        <v>197</v>
-      </c>
-      <c r="O3" s="172"/>
-      <c r="P3" s="172"/>
-      <c r="Q3" s="172"/>
-      <c r="R3" s="172"/>
-      <c r="S3" s="172"/>
-      <c r="T3" s="172"/>
-      <c r="U3" s="173"/>
-      <c r="V3" s="185" t="s">
-        <v>199</v>
-      </c>
-      <c r="W3" s="186"/>
-      <c r="X3" s="187"/>
-      <c r="Y3" s="188"/>
-      <c r="Z3" s="189"/>
-      <c r="AA3" s="190"/>
-      <c r="AB3" s="191"/>
-      <c r="AC3" s="189"/>
-      <c r="AD3" s="190"/>
+      <c r="O3" s="181"/>
+      <c r="P3" s="181"/>
+      <c r="Q3" s="181"/>
+      <c r="R3" s="181"/>
+      <c r="S3" s="181"/>
+      <c r="T3" s="181"/>
+      <c r="U3" s="182"/>
+      <c r="V3" s="183" t="s">
+        <v>193</v>
+      </c>
+      <c r="W3" s="184"/>
+      <c r="X3" s="185"/>
+      <c r="Y3" s="186"/>
+      <c r="Z3" s="187"/>
+      <c r="AA3" s="188"/>
+      <c r="AB3" s="189"/>
+      <c r="AC3" s="187"/>
+      <c r="AD3" s="188"/>
     </row>
     <row r="7" spans="1:30" ht="16" thickBot="1"/>
     <row r="8" spans="1:30" ht="16" thickBot="1">
-      <c r="B8" s="207" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="207"/>
-      <c r="D8" s="207"/>
-      <c r="E8" s="207"/>
-      <c r="F8" s="207" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="207"/>
-      <c r="H8" s="207" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="207"/>
-      <c r="J8" s="207"/>
-      <c r="K8" s="207" t="s">
+      <c r="B8" s="170" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="170"/>
+      <c r="J8" s="170"/>
+      <c r="K8" s="170" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="207"/>
-      <c r="M8" s="207"/>
-      <c r="N8" s="207"/>
-      <c r="O8" s="207"/>
-      <c r="P8" s="207"/>
-      <c r="Q8" s="207"/>
-      <c r="R8" s="207"/>
-      <c r="S8" s="207"/>
-      <c r="T8" s="207"/>
-      <c r="U8" s="207"/>
-      <c r="V8" s="207"/>
-      <c r="W8" s="207"/>
-      <c r="X8" s="207" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y8" s="207"/>
-      <c r="Z8" s="207"/>
-      <c r="AA8" s="207"/>
-      <c r="AB8" s="207"/>
-      <c r="AC8" s="207"/>
+      <c r="L8" s="170"/>
+      <c r="M8" s="170"/>
+      <c r="N8" s="170"/>
+      <c r="O8" s="170"/>
+      <c r="P8" s="170"/>
+      <c r="Q8" s="170"/>
+      <c r="R8" s="170"/>
+      <c r="S8" s="170"/>
+      <c r="T8" s="170"/>
+      <c r="U8" s="170"/>
+      <c r="V8" s="170"/>
+      <c r="W8" s="170"/>
+      <c r="X8" s="170" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y8" s="170"/>
+      <c r="Z8" s="170"/>
+      <c r="AA8" s="170"/>
+      <c r="AB8" s="170"/>
+      <c r="AC8" s="170"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="B9" s="195" t="s">
-        <v>193</v>
-      </c>
-      <c r="C9" s="196"/>
-      <c r="D9" s="196"/>
-      <c r="E9" s="197"/>
-      <c r="F9" s="198" t="s">
-        <v>190</v>
-      </c>
-      <c r="G9" s="199"/>
-      <c r="H9" s="200"/>
-      <c r="I9" s="196"/>
-      <c r="J9" s="197"/>
-      <c r="K9" s="201"/>
-      <c r="L9" s="202"/>
-      <c r="M9" s="202"/>
-      <c r="N9" s="202"/>
-      <c r="O9" s="202"/>
-      <c r="P9" s="202"/>
-      <c r="Q9" s="202"/>
-      <c r="R9" s="202"/>
-      <c r="S9" s="202"/>
-      <c r="T9" s="202"/>
-      <c r="U9" s="202"/>
-      <c r="V9" s="202"/>
-      <c r="W9" s="203"/>
-      <c r="X9" s="204"/>
-      <c r="Y9" s="205"/>
-      <c r="Z9" s="205"/>
-      <c r="AA9" s="205"/>
-      <c r="AB9" s="205"/>
-      <c r="AC9" s="206"/>
+      <c r="B9" s="171" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="160"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="162" t="s">
+        <v>184</v>
+      </c>
+      <c r="G9" s="163"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="160"/>
+      <c r="J9" s="161"/>
+      <c r="K9" s="164"/>
+      <c r="L9" s="165"/>
+      <c r="M9" s="165"/>
+      <c r="N9" s="165"/>
+      <c r="O9" s="165"/>
+      <c r="P9" s="165"/>
+      <c r="Q9" s="165"/>
+      <c r="R9" s="165"/>
+      <c r="S9" s="165"/>
+      <c r="T9" s="165"/>
+      <c r="U9" s="165"/>
+      <c r="V9" s="165"/>
+      <c r="W9" s="166"/>
+      <c r="X9" s="167"/>
+      <c r="Y9" s="168"/>
+      <c r="Z9" s="168"/>
+      <c r="AA9" s="168"/>
+      <c r="AB9" s="168"/>
+      <c r="AC9" s="169"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="B10" s="200"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="197"/>
-      <c r="F10" s="198"/>
-      <c r="G10" s="199"/>
-      <c r="H10" s="200"/>
-      <c r="I10" s="196"/>
-      <c r="J10" s="197"/>
-      <c r="K10" s="201"/>
-      <c r="L10" s="202"/>
-      <c r="M10" s="202"/>
-      <c r="N10" s="202"/>
-      <c r="O10" s="202"/>
-      <c r="P10" s="202"/>
-      <c r="Q10" s="202"/>
-      <c r="R10" s="202"/>
-      <c r="S10" s="202"/>
-      <c r="T10" s="202"/>
-      <c r="U10" s="202"/>
-      <c r="V10" s="202"/>
-      <c r="W10" s="203"/>
-      <c r="X10" s="204"/>
-      <c r="Y10" s="205"/>
-      <c r="Z10" s="205"/>
-      <c r="AA10" s="205"/>
-      <c r="AB10" s="205"/>
-      <c r="AC10" s="206"/>
+      <c r="B10" s="159"/>
+      <c r="C10" s="160"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="160"/>
+      <c r="J10" s="161"/>
+      <c r="K10" s="164"/>
+      <c r="L10" s="165"/>
+      <c r="M10" s="165"/>
+      <c r="N10" s="165"/>
+      <c r="O10" s="165"/>
+      <c r="P10" s="165"/>
+      <c r="Q10" s="165"/>
+      <c r="R10" s="165"/>
+      <c r="S10" s="165"/>
+      <c r="T10" s="165"/>
+      <c r="U10" s="165"/>
+      <c r="V10" s="165"/>
+      <c r="W10" s="166"/>
+      <c r="X10" s="167"/>
+      <c r="Y10" s="168"/>
+      <c r="Z10" s="168"/>
+      <c r="AA10" s="168"/>
+      <c r="AB10" s="168"/>
+      <c r="AC10" s="169"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="B11" s="200"/>
-      <c r="C11" s="196"/>
-      <c r="D11" s="196"/>
-      <c r="E11" s="197"/>
-      <c r="F11" s="198"/>
-      <c r="G11" s="199"/>
-      <c r="H11" s="200"/>
-      <c r="I11" s="196"/>
-      <c r="J11" s="197"/>
-      <c r="K11" s="201"/>
-      <c r="L11" s="202"/>
-      <c r="M11" s="202"/>
-      <c r="N11" s="202"/>
-      <c r="O11" s="202"/>
-      <c r="P11" s="202"/>
-      <c r="Q11" s="202"/>
-      <c r="R11" s="202"/>
-      <c r="S11" s="202"/>
-      <c r="T11" s="202"/>
-      <c r="U11" s="202"/>
-      <c r="V11" s="202"/>
-      <c r="W11" s="203"/>
-      <c r="X11" s="204"/>
-      <c r="Y11" s="205"/>
-      <c r="Z11" s="205"/>
-      <c r="AA11" s="205"/>
-      <c r="AB11" s="205"/>
-      <c r="AC11" s="206"/>
+      <c r="B11" s="159"/>
+      <c r="C11" s="160"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="160"/>
+      <c r="J11" s="161"/>
+      <c r="K11" s="164"/>
+      <c r="L11" s="165"/>
+      <c r="M11" s="165"/>
+      <c r="N11" s="165"/>
+      <c r="O11" s="165"/>
+      <c r="P11" s="165"/>
+      <c r="Q11" s="165"/>
+      <c r="R11" s="165"/>
+      <c r="S11" s="165"/>
+      <c r="T11" s="165"/>
+      <c r="U11" s="165"/>
+      <c r="V11" s="165"/>
+      <c r="W11" s="166"/>
+      <c r="X11" s="167"/>
+      <c r="Y11" s="168"/>
+      <c r="Z11" s="168"/>
+      <c r="AA11" s="168"/>
+      <c r="AB11" s="168"/>
+      <c r="AC11" s="169"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="B12" s="200"/>
-      <c r="C12" s="196"/>
-      <c r="D12" s="196"/>
-      <c r="E12" s="197"/>
-      <c r="F12" s="198"/>
-      <c r="G12" s="199"/>
-      <c r="H12" s="200"/>
-      <c r="I12" s="196"/>
-      <c r="J12" s="197"/>
-      <c r="K12" s="201"/>
-      <c r="L12" s="202"/>
-      <c r="M12" s="202"/>
-      <c r="N12" s="202"/>
-      <c r="O12" s="202"/>
-      <c r="P12" s="202"/>
-      <c r="Q12" s="202"/>
-      <c r="R12" s="202"/>
-      <c r="S12" s="202"/>
-      <c r="T12" s="202"/>
-      <c r="U12" s="202"/>
-      <c r="V12" s="202"/>
-      <c r="W12" s="203"/>
-      <c r="X12" s="204"/>
-      <c r="Y12" s="205"/>
-      <c r="Z12" s="205"/>
-      <c r="AA12" s="205"/>
-      <c r="AB12" s="205"/>
-      <c r="AC12" s="206"/>
+      <c r="B12" s="159"/>
+      <c r="C12" s="160"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="162"/>
+      <c r="G12" s="163"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="160"/>
+      <c r="J12" s="161"/>
+      <c r="K12" s="164"/>
+      <c r="L12" s="165"/>
+      <c r="M12" s="165"/>
+      <c r="N12" s="165"/>
+      <c r="O12" s="165"/>
+      <c r="P12" s="165"/>
+      <c r="Q12" s="165"/>
+      <c r="R12" s="165"/>
+      <c r="S12" s="165"/>
+      <c r="T12" s="165"/>
+      <c r="U12" s="165"/>
+      <c r="V12" s="165"/>
+      <c r="W12" s="166"/>
+      <c r="X12" s="167"/>
+      <c r="Y12" s="168"/>
+      <c r="Z12" s="168"/>
+      <c r="AA12" s="168"/>
+      <c r="AB12" s="168"/>
+      <c r="AC12" s="169"/>
     </row>
     <row r="13" spans="1:30" ht="18" customHeight="1"/>
     <row r="14" spans="1:30" ht="18" customHeight="1"/>
@@ -5123,31 +5119,11 @@
     <row r="38" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AC12"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AC9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AD1"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="A3:C3"/>
@@ -5162,11 +5138,31 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:U2"/>
     <mergeCell ref="V2:X2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AD1"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AC9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AC12"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5199,7 +5195,7 @@
   <sheetData>
     <row r="1" spans="2:6" s="3" customFormat="1" ht="26" customHeight="1">
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C1" s="4"/>
       <c r="E1" s="22"/>
@@ -5210,7 +5206,7 @@
     </row>
     <row r="4" spans="2:6" ht="20">
       <c r="C4" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="24"/>
@@ -5218,7 +5214,7 @@
     </row>
     <row r="5" spans="2:6" ht="20">
       <c r="C5" s="7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="24"/>
@@ -5226,13 +5222,13 @@
     </row>
     <row r="6" spans="2:6" ht="20">
       <c r="C6" s="8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F6" s="25" t="s">
         <v>0</v>
@@ -5243,13 +5239,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="20">
@@ -5257,13 +5253,13 @@
         <v>2</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="20">
@@ -5280,7 +5276,7 @@
     </row>
     <row r="11" spans="2:6" ht="20">
       <c r="C11" s="13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="27"/>
@@ -5288,7 +5284,7 @@
     </row>
     <row r="12" spans="2:6" ht="20">
       <c r="C12" s="14" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="27"/>
@@ -5296,13 +5292,13 @@
     </row>
     <row r="13" spans="2:6" ht="20">
       <c r="C13" s="8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F13" s="25" t="s">
         <v>0</v>
@@ -5313,13 +5309,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="20">
@@ -5327,13 +5323,13 @@
         <v>2</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="20">
@@ -5341,13 +5337,13 @@
         <v>3</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="3:6" ht="20">
@@ -5358,7 +5354,7 @@
     </row>
     <row r="18" spans="3:6" ht="20">
       <c r="C18" s="15" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="28"/>
@@ -5366,7 +5362,7 @@
     </row>
     <row r="19" spans="3:6" ht="20">
       <c r="C19" s="17" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="28"/>
@@ -5374,13 +5370,13 @@
     </row>
     <row r="20" spans="3:6" ht="20">
       <c r="C20" s="18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F20" s="29" t="s">
         <v>0</v>
@@ -5391,13 +5387,13 @@
         <v>1</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="3:6" ht="20">
@@ -5405,13 +5401,13 @@
         <v>2</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="3:6" ht="20">
@@ -5419,13 +5415,13 @@
         <v>3</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="3:6" ht="20">
@@ -5433,13 +5429,13 @@
         <v>4</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="3:6" ht="20">
@@ -5447,18 +5443,18 @@
         <v>5</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="20">
       <c r="C28" s="15" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="28"/>
@@ -5466,7 +5462,7 @@
     </row>
     <row r="29" spans="3:6" ht="20">
       <c r="C29" s="17" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="28"/>
@@ -5474,13 +5470,13 @@
     </row>
     <row r="30" spans="3:6" ht="20">
       <c r="C30" s="18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F30" s="29" t="s">
         <v>0</v>
@@ -5491,13 +5487,13 @@
         <v>1</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="3:6" ht="20">
@@ -5505,13 +5501,13 @@
         <v>2</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="3:6" ht="20">
@@ -5528,7 +5524,7 @@
     </row>
     <row r="35" spans="3:6" ht="20">
       <c r="C35" s="15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="28"/>
@@ -5536,7 +5532,7 @@
     </row>
     <row r="36" spans="3:6" ht="20">
       <c r="C36" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="28"/>
@@ -5544,13 +5540,13 @@
     </row>
     <row r="37" spans="3:6" ht="20">
       <c r="C37" s="18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F37" s="29" t="s">
         <v>0</v>
@@ -5561,13 +5557,13 @@
         <v>1</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="3:6" ht="20">
@@ -5575,13 +5571,13 @@
         <v>2</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="3:6" ht="20">
@@ -5589,18 +5585,18 @@
         <v>3</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="3:6" ht="20">
       <c r="C43" s="15" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D43" s="16"/>
       <c r="E43" s="28"/>
@@ -5608,7 +5604,7 @@
     </row>
     <row r="44" spans="3:6" ht="20">
       <c r="C44" s="17" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="28"/>
@@ -5616,13 +5612,13 @@
     </row>
     <row r="45" spans="3:6" ht="20">
       <c r="C45" s="18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F45" s="29" t="s">
         <v>0</v>
@@ -5633,13 +5629,13 @@
         <v>1</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="3:6" ht="20">
@@ -5647,18 +5643,18 @@
         <v>2</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="3:6" ht="20">
       <c r="C50" s="15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="28"/>
@@ -5666,7 +5662,7 @@
     </row>
     <row r="51" spans="3:6" ht="20">
       <c r="C51" s="17" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="28"/>
@@ -5674,13 +5670,13 @@
     </row>
     <row r="52" spans="3:6" ht="20">
       <c r="C52" s="18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F52" s="29" t="s">
         <v>0</v>
@@ -5691,18 +5687,18 @@
         <v>1</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F53" s="32" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="3:6" ht="20">
       <c r="C56" s="15" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D56" s="16"/>
       <c r="E56" s="28"/>
@@ -5710,7 +5706,7 @@
     </row>
     <row r="57" spans="3:6" ht="20">
       <c r="C57" s="17" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="28"/>
@@ -5718,13 +5714,13 @@
     </row>
     <row r="58" spans="3:6" ht="20">
       <c r="C58" s="18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F58" s="29" t="s">
         <v>0</v>
@@ -5735,13 +5731,13 @@
         <v>1</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F59" s="32" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -5792,11 +5788,11 @@
     <col min="4" max="16384" width="10.83203125" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="135" customFormat="1" ht="26" customHeight="1">
+    <row r="1" spans="2:11" s="133" customFormat="1" ht="26" customHeight="1">
       <c r="B1" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="C1" s="134"/>
+        <v>186</v>
+      </c>
+      <c r="C1" s="132"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="45"/>
@@ -5812,8 +5808,8 @@
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="48"/>
-      <c r="C4" s="136" t="s">
-        <v>200</v>
+      <c r="C4" s="134" t="s">
+        <v>194</v>
       </c>
       <c r="D4" s="49"/>
       <c r="E4" s="49"/>
@@ -6018,8 +6014,8 @@
     </row>
     <row r="21" spans="2:14">
       <c r="B21" s="48"/>
-      <c r="C21" s="136" t="s">
-        <v>201</v>
+      <c r="C21" s="134" t="s">
+        <v>195</v>
       </c>
       <c r="D21" s="49"/>
       <c r="E21" s="49"/>
@@ -6216,8 +6212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6233,7 +6229,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" s="120" customFormat="1" ht="26" customHeight="1">
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="131" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="121"/>
@@ -6252,7 +6248,7 @@
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="123" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C3" s="122"/>
       <c r="D3" s="122"/>
@@ -6269,14 +6265,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="104" t="s">
-        <v>350</v>
-      </c>
-      <c r="D4" s="209" t="s">
-        <v>354</v>
-      </c>
-      <c r="E4" s="209"/>
-      <c r="F4" s="150" t="s">
-        <v>351</v>
+        <v>343</v>
+      </c>
+      <c r="D4" s="205" t="s">
+        <v>347</v>
+      </c>
+      <c r="E4" s="205"/>
+      <c r="F4" s="146" t="s">
+        <v>344</v>
       </c>
       <c r="G4" s="125"/>
       <c r="H4" s="122"/>
@@ -6286,28 +6282,28 @@
       <c r="L4" s="122"/>
     </row>
     <row r="5" spans="2:12" ht="20" customHeight="1">
-      <c r="B5" s="153">
+      <c r="B5" s="148">
         <v>1</v>
       </c>
-      <c r="C5" s="154" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="212" t="s">
-        <v>356</v>
-      </c>
-      <c r="E5" s="212"/>
-      <c r="F5" s="155" t="s">
-        <v>355</v>
+      <c r="C5" s="149" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="204" t="s">
+        <v>349</v>
+      </c>
+      <c r="E5" s="204"/>
+      <c r="F5" s="150" t="s">
+        <v>348</v>
       </c>
       <c r="G5" s="125"/>
       <c r="H5" s="125"/>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="128"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="131"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="129"/>
       <c r="G6" s="125"/>
       <c r="H6" s="122"/>
       <c r="I6" s="122"/>
@@ -6316,11 +6312,11 @@
       <c r="L6" s="122"/>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="128"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="131"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="129"/>
       <c r="G7" s="125"/>
       <c r="H7" s="122"/>
       <c r="I7" s="122"/>
@@ -6332,8 +6328,8 @@
       <c r="B8" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
       <c r="E8" s="122"/>
       <c r="F8" s="122"/>
       <c r="G8" s="122"/>
@@ -6347,667 +6343,669 @@
       <c r="B9" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="150" t="s">
-        <v>350</v>
-      </c>
-      <c r="D9" s="209" t="s">
-        <v>354</v>
-      </c>
-      <c r="E9" s="209"/>
-      <c r="F9" s="150" t="s">
-        <v>351</v>
+      <c r="C9" s="146" t="s">
+        <v>343</v>
+      </c>
+      <c r="D9" s="205" t="s">
+        <v>347</v>
+      </c>
+      <c r="E9" s="205"/>
+      <c r="F9" s="146" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="20" customHeight="1">
-      <c r="B10" s="126">
+      <c r="B10" s="148">
         <v>1</v>
       </c>
-      <c r="C10" s="127" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="208" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="208"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="125" t="s">
-        <v>326</v>
-      </c>
+      <c r="C10" s="149" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="204" t="s">
+        <v>362</v>
+      </c>
+      <c r="E10" s="204"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="125"/>
       <c r="H10" s="125"/>
     </row>
     <row r="11" spans="2:12" ht="20" customHeight="1">
-      <c r="B11" s="126">
+      <c r="B11" s="148">
         <v>2</v>
       </c>
-      <c r="C11" s="127" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="208" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="208"/>
-      <c r="F11" s="148"/>
+      <c r="C11" s="149" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="204" t="s">
+        <v>361</v>
+      </c>
+      <c r="E11" s="204"/>
+      <c r="F11" s="158"/>
       <c r="G11" s="125"/>
       <c r="H11" s="125"/>
     </row>
     <row r="12" spans="2:12" ht="20" customHeight="1">
-      <c r="B12" s="126">
+      <c r="B12" s="234">
         <v>3</v>
       </c>
-      <c r="C12" s="127" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="208" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="208"/>
-      <c r="F12" s="148"/>
+      <c r="C12" s="235" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="236"/>
+      <c r="E12" s="236"/>
+      <c r="F12" s="241"/>
       <c r="G12" s="125"/>
       <c r="H12" s="125"/>
     </row>
     <row r="13" spans="2:12" ht="20" customHeight="1">
-      <c r="B13" s="126">
+      <c r="B13" s="234">
         <v>4</v>
       </c>
-      <c r="C13" s="127" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="208" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="208"/>
-      <c r="F13" s="148"/>
+      <c r="C13" s="235" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="236"/>
+      <c r="E13" s="236"/>
+      <c r="F13" s="241"/>
       <c r="G13" s="125"/>
       <c r="H13" s="125"/>
     </row>
     <row r="14" spans="2:12" ht="20" customHeight="1">
-      <c r="B14" s="126">
+      <c r="B14" s="234">
         <v>5</v>
       </c>
-      <c r="C14" s="127" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="208" t="s">
+      <c r="C14" s="235" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="208"/>
-      <c r="F14" s="148"/>
+      <c r="D14" s="236"/>
+      <c r="E14" s="236"/>
+      <c r="F14" s="241"/>
       <c r="G14" s="125"/>
       <c r="H14" s="125"/>
     </row>
     <row r="15" spans="2:12" ht="20" customHeight="1">
-      <c r="B15" s="126">
+      <c r="B15" s="234">
         <v>6</v>
       </c>
-      <c r="C15" s="127" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="208" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="208"/>
-      <c r="F15" s="148"/>
+      <c r="C15" s="235" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="236"/>
+      <c r="E15" s="236"/>
+      <c r="F15" s="241"/>
       <c r="G15" s="125"/>
       <c r="H15" s="125"/>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="123" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="132"/>
-      <c r="D17" s="132"/>
+        <v>23</v>
+      </c>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
       <c r="E17" s="122"/>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="150" t="s">
-        <v>350</v>
-      </c>
-      <c r="D18" s="209" t="s">
-        <v>354</v>
-      </c>
-      <c r="E18" s="209"/>
-      <c r="F18" s="150" t="s">
-        <v>351</v>
+      <c r="C18" s="146" t="s">
+        <v>343</v>
+      </c>
+      <c r="D18" s="205" t="s">
+        <v>347</v>
+      </c>
+      <c r="E18" s="205"/>
+      <c r="F18" s="146" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="20" customHeight="1">
-      <c r="B19" s="126">
+      <c r="B19" s="234">
         <v>1</v>
       </c>
-      <c r="C19" s="127" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="208" t="s">
+      <c r="C19" s="235" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="236" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="208"/>
-      <c r="F19" s="152"/>
+      <c r="E19" s="236"/>
+      <c r="F19" s="237"/>
       <c r="G19" s="125"/>
       <c r="H19" s="125"/>
     </row>
     <row r="20" spans="2:8" ht="20" customHeight="1">
-      <c r="B20" s="126">
+      <c r="B20" s="234">
         <v>2</v>
       </c>
-      <c r="C20" s="127" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="208" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="208"/>
-      <c r="F20" s="152"/>
+      <c r="C20" s="235" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="236" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="236"/>
+      <c r="F20" s="237"/>
       <c r="G20" s="125"/>
       <c r="H20" s="125"/>
     </row>
     <row r="21" spans="2:8" ht="20" customHeight="1">
-      <c r="B21" s="126">
+      <c r="B21" s="234">
         <v>3</v>
       </c>
-      <c r="C21" s="127" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="208" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="208"/>
-      <c r="F21" s="152"/>
+      <c r="C21" s="235" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="236" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="236"/>
+      <c r="F21" s="237"/>
       <c r="G21" s="125"/>
       <c r="H21" s="125"/>
     </row>
     <row r="22" spans="2:8" ht="20" customHeight="1">
-      <c r="B22" s="126">
+      <c r="B22" s="234">
         <v>4</v>
       </c>
-      <c r="C22" s="127" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="208" t="s">
+      <c r="C22" s="235" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="236" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="208"/>
-      <c r="F22" s="152"/>
+      <c r="E22" s="236"/>
+      <c r="F22" s="237"/>
       <c r="G22" s="125"/>
       <c r="H22" s="125"/>
     </row>
     <row r="23" spans="2:8" ht="20" customHeight="1">
-      <c r="B23" s="126">
+      <c r="B23" s="234">
         <v>5</v>
       </c>
-      <c r="C23" s="127" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="208" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="208"/>
-      <c r="F23" s="152"/>
+      <c r="C23" s="235" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="236" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="236"/>
+      <c r="F23" s="237"/>
       <c r="G23" s="125"/>
       <c r="H23" s="125"/>
     </row>
     <row r="24" spans="2:8" ht="20" customHeight="1">
-      <c r="B24" s="126">
+      <c r="B24" s="234">
         <v>6</v>
       </c>
-      <c r="C24" s="127" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="208" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="208"/>
-      <c r="F24" s="152"/>
+      <c r="C24" s="235" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="236" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="236"/>
+      <c r="F24" s="237"/>
       <c r="G24" s="125"/>
       <c r="H24" s="125"/>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="123" t="s">
-        <v>352</v>
-      </c>
-      <c r="C26" s="132"/>
-      <c r="D26" s="132"/>
+        <v>345</v>
+      </c>
+      <c r="C26" s="130"/>
+      <c r="D26" s="130"/>
       <c r="E26" s="122"/>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="150" t="s">
-        <v>350</v>
-      </c>
-      <c r="D27" s="209" t="s">
-        <v>354</v>
-      </c>
-      <c r="E27" s="209"/>
-      <c r="F27" s="150" t="s">
-        <v>351</v>
+      <c r="C27" s="146" t="s">
+        <v>343</v>
+      </c>
+      <c r="D27" s="205" t="s">
+        <v>347</v>
+      </c>
+      <c r="E27" s="205"/>
+      <c r="F27" s="146" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="20" customHeight="1">
-      <c r="B28" s="153">
+      <c r="B28" s="148">
         <v>1</v>
       </c>
-      <c r="C28" s="154" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="212" t="s">
-        <v>353</v>
-      </c>
-      <c r="E28" s="212"/>
-      <c r="F28" s="156"/>
+      <c r="C28" s="149" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="204" t="s">
+        <v>346</v>
+      </c>
+      <c r="E28" s="204"/>
+      <c r="F28" s="151"/>
       <c r="G28" s="125"/>
       <c r="H28" s="125"/>
     </row>
     <row r="29" spans="2:8" ht="20" customHeight="1">
-      <c r="B29" s="126">
+      <c r="B29" s="234">
         <v>2</v>
       </c>
-      <c r="C29" s="127" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="208" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" s="208"/>
-      <c r="F29" s="152"/>
+      <c r="C29" s="235" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="236" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="236"/>
+      <c r="F29" s="237"/>
       <c r="G29" s="125"/>
       <c r="H29" s="125"/>
     </row>
     <row r="30" spans="2:8" ht="20" customHeight="1">
-      <c r="B30" s="126">
+      <c r="B30" s="234">
         <v>3</v>
       </c>
-      <c r="C30" s="127" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="208" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" s="208"/>
-      <c r="F30" s="152"/>
+      <c r="C30" s="235" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="236" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="236"/>
+      <c r="F30" s="237"/>
       <c r="G30" s="125"/>
       <c r="H30" s="125"/>
     </row>
     <row r="31" spans="2:8" ht="20" customHeight="1">
-      <c r="B31" s="126">
+      <c r="B31" s="234">
         <v>4</v>
       </c>
-      <c r="C31" s="127" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="208" t="s">
-        <v>98</v>
-      </c>
-      <c r="E31" s="208"/>
-      <c r="F31" s="152"/>
+      <c r="C31" s="235" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="236" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="236"/>
+      <c r="F31" s="237"/>
       <c r="G31" s="125"/>
       <c r="H31" s="125"/>
     </row>
     <row r="32" spans="2:8" ht="20" customHeight="1">
-      <c r="B32" s="126">
+      <c r="B32" s="234">
         <v>5</v>
       </c>
-      <c r="C32" s="127" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="208" t="s">
-        <v>99</v>
-      </c>
-      <c r="E32" s="208"/>
-      <c r="F32" s="152"/>
+      <c r="C32" s="235" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="236" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" s="236"/>
+      <c r="F32" s="237"/>
       <c r="G32" s="125"/>
       <c r="H32" s="125"/>
     </row>
     <row r="33" spans="2:8" ht="20" customHeight="1">
-      <c r="B33" s="126">
+      <c r="B33" s="234">
         <v>6</v>
       </c>
-      <c r="C33" s="127" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="208" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" s="208"/>
-      <c r="F33" s="152"/>
+      <c r="C33" s="235" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="236" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="236"/>
+      <c r="F33" s="237"/>
       <c r="G33" s="125"/>
       <c r="H33" s="125"/>
     </row>
     <row r="34" spans="2:8" ht="20" customHeight="1">
-      <c r="B34" s="126">
+      <c r="B34" s="234">
         <v>7</v>
       </c>
-      <c r="C34" s="127" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="208" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" s="208"/>
-      <c r="F34" s="152"/>
+      <c r="C34" s="235" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="236" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="236"/>
+      <c r="F34" s="237"/>
       <c r="G34" s="125"/>
       <c r="H34" s="125"/>
     </row>
     <row r="35" spans="2:8" ht="20" customHeight="1">
-      <c r="B35" s="126">
+      <c r="B35" s="234">
         <v>8</v>
       </c>
-      <c r="C35" s="127" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="208" t="s">
-        <v>95</v>
-      </c>
-      <c r="E35" s="208"/>
-      <c r="F35" s="152"/>
+      <c r="C35" s="235" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="236" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="236"/>
+      <c r="F35" s="237"/>
       <c r="G35" s="125"/>
       <c r="H35" s="125"/>
     </row>
     <row r="36" spans="2:8" ht="20" customHeight="1">
-      <c r="B36" s="126">
+      <c r="B36" s="234">
         <v>9</v>
       </c>
-      <c r="C36" s="127" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36" s="208" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" s="208"/>
-      <c r="F36" s="152"/>
+      <c r="C36" s="235" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="236" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="236"/>
+      <c r="F36" s="237"/>
       <c r="G36" s="125"/>
       <c r="H36" s="125"/>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="123" t="s">
-        <v>145</v>
-      </c>
-      <c r="C39" s="132"/>
-      <c r="D39" s="132"/>
+        <v>139</v>
+      </c>
+      <c r="C39" s="130"/>
+      <c r="D39" s="130"/>
       <c r="E39" s="122"/>
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="124"/>
-      <c r="C40" s="150" t="s">
-        <v>350</v>
-      </c>
-      <c r="D40" s="209" t="s">
-        <v>354</v>
-      </c>
-      <c r="E40" s="209"/>
-      <c r="F40" s="150" t="s">
-        <v>351</v>
+      <c r="C40" s="146" t="s">
+        <v>343</v>
+      </c>
+      <c r="D40" s="205" t="s">
+        <v>347</v>
+      </c>
+      <c r="E40" s="205"/>
+      <c r="F40" s="146" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="15" customHeight="1">
-      <c r="B41" s="126">
+      <c r="B41" s="234">
         <v>1</v>
       </c>
-      <c r="C41" s="127" t="s">
-        <v>146</v>
-      </c>
-      <c r="D41" s="210" t="s">
-        <v>151</v>
-      </c>
-      <c r="E41" s="211"/>
-      <c r="F41" s="149"/>
+      <c r="C41" s="235" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" s="238" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" s="239"/>
+      <c r="F41" s="240"/>
     </row>
     <row r="42" spans="2:8" ht="15" customHeight="1">
-      <c r="B42" s="126">
+      <c r="B42" s="234">
         <v>2</v>
       </c>
-      <c r="C42" s="127" t="s">
-        <v>147</v>
-      </c>
-      <c r="D42" s="210" t="s">
-        <v>156</v>
-      </c>
-      <c r="E42" s="211"/>
-      <c r="F42" s="149"/>
+      <c r="C42" s="235" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" s="238" t="s">
+        <v>150</v>
+      </c>
+      <c r="E42" s="239"/>
+      <c r="F42" s="240"/>
     </row>
     <row r="43" spans="2:8">
-      <c r="B43" s="126">
+      <c r="B43" s="234">
         <v>3</v>
       </c>
-      <c r="C43" s="127" t="s">
-        <v>148</v>
-      </c>
-      <c r="D43" s="210"/>
-      <c r="E43" s="211"/>
-      <c r="F43" s="149"/>
+      <c r="C43" s="235" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="238"/>
+      <c r="E43" s="239"/>
+      <c r="F43" s="240"/>
     </row>
     <row r="44" spans="2:8">
-      <c r="B44" s="126">
+      <c r="B44" s="234">
         <v>4</v>
       </c>
-      <c r="C44" s="127" t="s">
-        <v>149</v>
-      </c>
-      <c r="D44" s="210"/>
-      <c r="E44" s="211"/>
-      <c r="F44" s="149"/>
+      <c r="C44" s="235" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44" s="238"/>
+      <c r="E44" s="239"/>
+      <c r="F44" s="240"/>
     </row>
     <row r="45" spans="2:8">
-      <c r="B45" s="126">
+      <c r="B45" s="234">
         <v>5</v>
       </c>
-      <c r="C45" s="127" t="s">
-        <v>150</v>
-      </c>
-      <c r="D45" s="210"/>
-      <c r="E45" s="211"/>
-      <c r="F45" s="149"/>
+      <c r="C45" s="235" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="238"/>
+      <c r="E45" s="239"/>
+      <c r="F45" s="240"/>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="123" t="s">
-        <v>114</v>
-      </c>
-      <c r="C48" s="132"/>
-      <c r="D48" s="132"/>
+        <v>108</v>
+      </c>
+      <c r="C48" s="130"/>
+      <c r="D48" s="130"/>
       <c r="E48" s="122"/>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="124"/>
-      <c r="C49" s="150" t="s">
-        <v>350</v>
-      </c>
-      <c r="D49" s="209" t="s">
-        <v>354</v>
-      </c>
-      <c r="E49" s="209"/>
-      <c r="F49" s="150" t="s">
-        <v>351</v>
+      <c r="C49" s="146" t="s">
+        <v>343</v>
+      </c>
+      <c r="D49" s="205" t="s">
+        <v>347</v>
+      </c>
+      <c r="E49" s="205"/>
+      <c r="F49" s="146" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="20" customHeight="1">
-      <c r="B50" s="126">
+      <c r="B50" s="234">
         <v>1</v>
       </c>
-      <c r="C50" s="127" t="s">
+      <c r="C50" s="235" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" s="236" t="s">
+        <v>109</v>
+      </c>
+      <c r="E50" s="236"/>
+      <c r="F50" s="237"/>
+    </row>
+    <row r="51" spans="2:6" ht="20" customHeight="1">
+      <c r="B51" s="234">
+        <v>2</v>
+      </c>
+      <c r="C51" s="235" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51" s="236" t="s">
+        <v>117</v>
+      </c>
+      <c r="E51" s="236"/>
+      <c r="F51" s="237"/>
+    </row>
+    <row r="52" spans="2:6" ht="20" customHeight="1">
+      <c r="B52" s="234">
+        <v>3</v>
+      </c>
+      <c r="C52" s="235" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" s="236" t="s">
+        <v>118</v>
+      </c>
+      <c r="E52" s="236"/>
+      <c r="F52" s="237"/>
+    </row>
+    <row r="53" spans="2:6" ht="20" customHeight="1">
+      <c r="B53" s="234">
+        <v>4</v>
+      </c>
+      <c r="C53" s="235" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="236" t="s">
+        <v>119</v>
+      </c>
+      <c r="E53" s="236"/>
+      <c r="F53" s="237"/>
+    </row>
+    <row r="54" spans="2:6" ht="20" customHeight="1">
+      <c r="B54" s="234">
+        <v>5</v>
+      </c>
+      <c r="C54" s="235" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" s="236" t="s">
+        <v>120</v>
+      </c>
+      <c r="E54" s="236"/>
+      <c r="F54" s="237"/>
+    </row>
+    <row r="55" spans="2:6" ht="20" customHeight="1">
+      <c r="B55" s="234">
+        <v>6</v>
+      </c>
+      <c r="C55" s="235" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" s="236" t="s">
+        <v>121</v>
+      </c>
+      <c r="E55" s="236"/>
+      <c r="F55" s="237"/>
+    </row>
+    <row r="56" spans="2:6" ht="20" customHeight="1">
+      <c r="B56" s="234">
+        <v>7</v>
+      </c>
+      <c r="C56" s="235" t="s">
         <v>116</v>
       </c>
-      <c r="D50" s="208" t="s">
-        <v>115</v>
-      </c>
-      <c r="E50" s="208"/>
-      <c r="F50" s="152"/>
-    </row>
-    <row r="51" spans="2:6" ht="20" customHeight="1">
-      <c r="B51" s="126">
-        <v>2</v>
-      </c>
-      <c r="C51" s="127" t="s">
-        <v>117</v>
-      </c>
-      <c r="D51" s="208" t="s">
-        <v>123</v>
-      </c>
-      <c r="E51" s="208"/>
-      <c r="F51" s="152"/>
-    </row>
-    <row r="52" spans="2:6" ht="20" customHeight="1">
-      <c r="B52" s="126">
-        <v>3</v>
-      </c>
-      <c r="C52" s="127" t="s">
-        <v>118</v>
-      </c>
-      <c r="D52" s="208" t="s">
-        <v>124</v>
-      </c>
-      <c r="E52" s="208"/>
-      <c r="F52" s="152"/>
-    </row>
-    <row r="53" spans="2:6" ht="20" customHeight="1">
-      <c r="B53" s="126">
-        <v>4</v>
-      </c>
-      <c r="C53" s="127" t="s">
-        <v>119</v>
-      </c>
-      <c r="D53" s="208" t="s">
-        <v>125</v>
-      </c>
-      <c r="E53" s="208"/>
-      <c r="F53" s="152"/>
-    </row>
-    <row r="54" spans="2:6" ht="20" customHeight="1">
-      <c r="B54" s="126">
-        <v>5</v>
-      </c>
-      <c r="C54" s="127" t="s">
-        <v>120</v>
-      </c>
-      <c r="D54" s="208" t="s">
-        <v>126</v>
-      </c>
-      <c r="E54" s="208"/>
-      <c r="F54" s="152"/>
-    </row>
-    <row r="55" spans="2:6" ht="20" customHeight="1">
-      <c r="B55" s="126">
-        <v>6</v>
-      </c>
-      <c r="C55" s="127" t="s">
-        <v>121</v>
-      </c>
-      <c r="D55" s="208" t="s">
-        <v>127</v>
-      </c>
-      <c r="E55" s="208"/>
-      <c r="F55" s="152"/>
-    </row>
-    <row r="56" spans="2:6" ht="20" customHeight="1">
-      <c r="B56" s="126">
-        <v>7</v>
-      </c>
-      <c r="C56" s="127" t="s">
+      <c r="D56" s="236" t="s">
         <v>122</v>
       </c>
-      <c r="D56" s="208" t="s">
-        <v>128</v>
-      </c>
-      <c r="E56" s="208"/>
-      <c r="F56" s="152"/>
+      <c r="E56" s="236"/>
+      <c r="F56" s="237"/>
     </row>
     <row r="59" spans="2:6">
       <c r="B59" s="123" t="s">
-        <v>129</v>
-      </c>
-      <c r="C59" s="132"/>
-      <c r="D59" s="132"/>
+        <v>123</v>
+      </c>
+      <c r="C59" s="130"/>
+      <c r="D59" s="130"/>
       <c r="E59" s="122"/>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="124"/>
-      <c r="C60" s="150" t="s">
-        <v>350</v>
-      </c>
-      <c r="D60" s="209" t="s">
-        <v>354</v>
-      </c>
-      <c r="E60" s="209"/>
-      <c r="F60" s="150" t="s">
-        <v>351</v>
+      <c r="C60" s="146" t="s">
+        <v>343</v>
+      </c>
+      <c r="D60" s="205" t="s">
+        <v>347</v>
+      </c>
+      <c r="E60" s="205"/>
+      <c r="F60" s="146" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="61" spans="2:6" ht="15" customHeight="1">
-      <c r="B61" s="126">
+      <c r="B61" s="234">
         <v>1</v>
       </c>
-      <c r="C61" s="127" t="s">
+      <c r="C61" s="235" t="s">
+        <v>124</v>
+      </c>
+      <c r="D61" s="238" t="s">
+        <v>129</v>
+      </c>
+      <c r="E61" s="239"/>
+      <c r="F61" s="237"/>
+    </row>
+    <row r="62" spans="2:6" ht="15" customHeight="1">
+      <c r="B62" s="234">
+        <v>2</v>
+      </c>
+      <c r="C62" s="235" t="s">
+        <v>125</v>
+      </c>
+      <c r="D62" s="238" t="s">
         <v>130</v>
       </c>
-      <c r="D61" s="210" t="s">
-        <v>135</v>
-      </c>
-      <c r="E61" s="211"/>
-      <c r="F61" s="152"/>
-    </row>
-    <row r="62" spans="2:6" ht="15" customHeight="1">
-      <c r="B62" s="126">
-        <v>2</v>
-      </c>
-      <c r="C62" s="127" t="s">
+      <c r="E62" s="239"/>
+      <c r="F62" s="237"/>
+    </row>
+    <row r="63" spans="2:6" ht="15" customHeight="1">
+      <c r="B63" s="234">
+        <v>3</v>
+      </c>
+      <c r="C63" s="235" t="s">
+        <v>126</v>
+      </c>
+      <c r="D63" s="238" t="s">
         <v>131</v>
       </c>
-      <c r="D62" s="210" t="s">
-        <v>136</v>
-      </c>
-      <c r="E62" s="211"/>
-      <c r="F62" s="152"/>
-    </row>
-    <row r="63" spans="2:6" ht="15" customHeight="1">
-      <c r="B63" s="126">
-        <v>3</v>
-      </c>
-      <c r="C63" s="127" t="s">
+      <c r="E63" s="239"/>
+      <c r="F63" s="237"/>
+    </row>
+    <row r="64" spans="2:6" ht="15" customHeight="1">
+      <c r="B64" s="234">
+        <v>4</v>
+      </c>
+      <c r="C64" s="235" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64" s="238" t="s">
         <v>132</v>
       </c>
-      <c r="D63" s="210" t="s">
-        <v>137</v>
-      </c>
-      <c r="E63" s="211"/>
-      <c r="F63" s="152"/>
-    </row>
-    <row r="64" spans="2:6" ht="15" customHeight="1">
-      <c r="B64" s="126">
-        <v>4</v>
-      </c>
-      <c r="C64" s="127" t="s">
-        <v>133</v>
-      </c>
-      <c r="D64" s="210" t="s">
-        <v>138</v>
-      </c>
-      <c r="E64" s="211"/>
-      <c r="F64" s="152"/>
+      <c r="E64" s="239"/>
+      <c r="F64" s="237"/>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="126">
+      <c r="B65" s="234">
         <v>5</v>
       </c>
-      <c r="C65" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="D65" s="210"/>
-      <c r="E65" s="211"/>
-      <c r="F65" s="152"/>
+      <c r="C65" s="235" t="s">
+        <v>128</v>
+      </c>
+      <c r="D65" s="238"/>
+      <c r="E65" s="239"/>
+      <c r="F65" s="237"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="D23:E23"/>
@@ -7024,27 +7022,15 @@
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7080,8 +7066,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" s="34" customFormat="1" ht="26" customHeight="1">
-      <c r="B1" s="133" t="s">
-        <v>202</v>
+      <c r="B1" s="131" t="s">
+        <v>196</v>
       </c>
       <c r="C1" s="57"/>
       <c r="D1" s="35"/>
@@ -7120,17 +7106,17 @@
         <v>2</v>
       </c>
       <c r="C4" s="104" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D4" s="104" t="s">
-        <v>230</v>
-      </c>
-      <c r="E4" s="213" t="s">
-        <v>229</v>
-      </c>
-      <c r="F4" s="214"/>
+        <v>224</v>
+      </c>
+      <c r="E4" s="206" t="s">
+        <v>223</v>
+      </c>
+      <c r="F4" s="207"/>
       <c r="G4" s="104" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H4" s="104" t="s">
         <v>0</v>
@@ -7141,22 +7127,22 @@
         <v>1</v>
       </c>
       <c r="C5" s="106" t="s">
-        <v>231</v>
-      </c>
-      <c r="D5" s="215" t="s">
-        <v>203</v>
+        <v>225</v>
+      </c>
+      <c r="D5" s="208" t="s">
+        <v>197</v>
       </c>
       <c r="E5" s="107" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" s="108" t="s">
+        <v>245</v>
+      </c>
+      <c r="G5" s="108" t="s">
         <v>206</v>
       </c>
-      <c r="F5" s="108" t="s">
-        <v>251</v>
-      </c>
-      <c r="G5" s="108" t="s">
-        <v>212</v>
-      </c>
       <c r="H5" s="109" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="I5" s="110"/>
       <c r="J5" s="38"/>
@@ -7166,20 +7152,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="106" t="s">
-        <v>232</v>
-      </c>
-      <c r="D6" s="216"/>
+        <v>226</v>
+      </c>
+      <c r="D6" s="209"/>
       <c r="E6" s="107" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F6" s="108" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G6" s="108" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H6" s="109" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="I6" s="110"/>
       <c r="J6" s="38"/>
@@ -7189,20 +7175,20 @@
         <v>3</v>
       </c>
       <c r="C7" s="106" t="s">
-        <v>233</v>
-      </c>
-      <c r="D7" s="216"/>
+        <v>227</v>
+      </c>
+      <c r="D7" s="209"/>
       <c r="E7" s="107" t="s">
+        <v>201</v>
+      </c>
+      <c r="F7" s="108" t="s">
+        <v>246</v>
+      </c>
+      <c r="G7" s="108" t="s">
         <v>207</v>
       </c>
-      <c r="F7" s="108" t="s">
-        <v>252</v>
-      </c>
-      <c r="G7" s="108" t="s">
+      <c r="H7" s="109" t="s">
         <v>213</v>
-      </c>
-      <c r="H7" s="109" t="s">
-        <v>219</v>
       </c>
       <c r="I7" s="110"/>
       <c r="J7" s="38"/>
@@ -7212,20 +7198,20 @@
         <v>4</v>
       </c>
       <c r="C8" s="106" t="s">
-        <v>336</v>
-      </c>
-      <c r="D8" s="216"/>
-      <c r="E8" s="137" t="s">
-        <v>207</v>
-      </c>
-      <c r="F8" s="138" t="s">
-        <v>251</v>
-      </c>
-      <c r="G8" s="138" t="s">
-        <v>331</v>
-      </c>
-      <c r="H8" s="139" t="s">
-        <v>332</v>
+        <v>329</v>
+      </c>
+      <c r="D8" s="209"/>
+      <c r="E8" s="135" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8" s="136" t="s">
+        <v>245</v>
+      </c>
+      <c r="G8" s="136" t="s">
+        <v>324</v>
+      </c>
+      <c r="H8" s="137" t="s">
+        <v>325</v>
       </c>
       <c r="I8" s="110"/>
       <c r="J8" s="38"/>
@@ -7235,20 +7221,20 @@
         <v>5</v>
       </c>
       <c r="C9" s="106" t="s">
-        <v>234</v>
-      </c>
-      <c r="D9" s="216"/>
+        <v>228</v>
+      </c>
+      <c r="D9" s="209"/>
       <c r="E9" s="107" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F9" s="108" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G9" s="108" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H9" s="109" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I9" s="110"/>
       <c r="J9" s="38"/>
@@ -7258,23 +7244,23 @@
         <v>6</v>
       </c>
       <c r="C10" s="106" t="s">
-        <v>328</v>
-      </c>
-      <c r="D10" s="216"/>
-      <c r="E10" s="137" t="s">
-        <v>209</v>
-      </c>
-      <c r="F10" s="138" t="s">
-        <v>346</v>
-      </c>
-      <c r="G10" s="138" t="s">
-        <v>334</v>
-      </c>
-      <c r="H10" s="139" t="s">
-        <v>333</v>
+        <v>321</v>
+      </c>
+      <c r="D10" s="209"/>
+      <c r="E10" s="135" t="s">
+        <v>203</v>
+      </c>
+      <c r="F10" s="136" t="s">
+        <v>339</v>
+      </c>
+      <c r="G10" s="136" t="s">
+        <v>327</v>
+      </c>
+      <c r="H10" s="137" t="s">
+        <v>326</v>
       </c>
       <c r="I10" s="110" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="J10" s="38"/>
     </row>
@@ -7283,20 +7269,20 @@
         <v>7</v>
       </c>
       <c r="C11" s="106" t="s">
-        <v>235</v>
-      </c>
-      <c r="D11" s="217"/>
+        <v>229</v>
+      </c>
+      <c r="D11" s="210"/>
       <c r="E11" s="107" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F11" s="108" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G11" s="108" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H11" s="109" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I11" s="110"/>
       <c r="J11" s="38"/>
@@ -7306,22 +7292,22 @@
         <v>8</v>
       </c>
       <c r="C12" s="111" t="s">
-        <v>239</v>
-      </c>
-      <c r="D12" s="218" t="s">
-        <v>204</v>
+        <v>233</v>
+      </c>
+      <c r="D12" s="211" t="s">
+        <v>198</v>
       </c>
       <c r="E12" s="112" t="s">
+        <v>203</v>
+      </c>
+      <c r="F12" s="113" t="s">
+        <v>249</v>
+      </c>
+      <c r="G12" s="113" t="s">
         <v>209</v>
       </c>
-      <c r="F12" s="113" t="s">
-        <v>255</v>
-      </c>
-      <c r="G12" s="113" t="s">
-        <v>215</v>
-      </c>
       <c r="H12" s="114" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="I12" s="110"/>
       <c r="J12" s="38"/>
@@ -7331,23 +7317,23 @@
         <v>9</v>
       </c>
       <c r="C13" s="111" t="s">
+        <v>330</v>
+      </c>
+      <c r="D13" s="212"/>
+      <c r="E13" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="F13" s="139" t="s">
         <v>337</v>
       </c>
-      <c r="D13" s="219"/>
-      <c r="E13" s="140" t="s">
-        <v>209</v>
-      </c>
-      <c r="F13" s="141" t="s">
-        <v>344</v>
-      </c>
-      <c r="G13" s="141" t="s">
-        <v>345</v>
-      </c>
-      <c r="H13" s="142" t="s">
-        <v>335</v>
+      <c r="G13" s="139" t="s">
+        <v>338</v>
+      </c>
+      <c r="H13" s="140" t="s">
+        <v>328</v>
       </c>
       <c r="I13" s="110" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="J13" s="38"/>
     </row>
@@ -7356,20 +7342,20 @@
         <v>10</v>
       </c>
       <c r="C14" s="111" t="s">
-        <v>237</v>
-      </c>
-      <c r="D14" s="219"/>
+        <v>231</v>
+      </c>
+      <c r="D14" s="212"/>
       <c r="E14" s="112" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F14" s="113" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G14" s="113" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H14" s="114" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I14" s="110"/>
       <c r="J14" s="38"/>
@@ -7379,20 +7365,20 @@
         <v>11</v>
       </c>
       <c r="C15" s="111" t="s">
-        <v>236</v>
-      </c>
-      <c r="D15" s="219"/>
+        <v>230</v>
+      </c>
+      <c r="D15" s="212"/>
       <c r="E15" s="112" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F15" s="113" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G15" s="113" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H15" s="114" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="I15" s="110"/>
       <c r="J15" s="38"/>
@@ -7402,20 +7388,20 @@
         <v>12</v>
       </c>
       <c r="C16" s="111" t="s">
-        <v>249</v>
-      </c>
-      <c r="D16" s="219"/>
+        <v>243</v>
+      </c>
+      <c r="D16" s="212"/>
       <c r="E16" s="112" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F16" s="113" t="s">
+        <v>251</v>
+      </c>
+      <c r="G16" s="113" t="s">
         <v>257</v>
       </c>
-      <c r="G16" s="113" t="s">
-        <v>263</v>
-      </c>
       <c r="H16" s="114" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I16" s="110"/>
       <c r="J16" s="38"/>
@@ -7425,20 +7411,20 @@
         <v>13</v>
       </c>
       <c r="C17" s="111" t="s">
-        <v>240</v>
-      </c>
-      <c r="D17" s="219"/>
+        <v>234</v>
+      </c>
+      <c r="D17" s="212"/>
       <c r="E17" s="112" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F17" s="113" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="G17" s="113" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H17" s="114" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I17" s="110"/>
       <c r="J17" s="38"/>
@@ -7448,20 +7434,20 @@
         <v>14</v>
       </c>
       <c r="C18" s="111" t="s">
-        <v>241</v>
-      </c>
-      <c r="D18" s="219"/>
+        <v>235</v>
+      </c>
+      <c r="D18" s="212"/>
       <c r="E18" s="112" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F18" s="113" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G18" s="113" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H18" s="114" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="I18" s="110"/>
       <c r="J18" s="38"/>
@@ -7471,20 +7457,20 @@
         <v>15</v>
       </c>
       <c r="C19" s="111" t="s">
-        <v>242</v>
-      </c>
-      <c r="D19" s="219"/>
+        <v>236</v>
+      </c>
+      <c r="D19" s="212"/>
       <c r="E19" s="112" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F19" s="113" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G19" s="113" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H19" s="114" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="I19" s="110"/>
       <c r="J19" s="38"/>
@@ -7494,22 +7480,22 @@
         <v>16</v>
       </c>
       <c r="C20" s="115" t="s">
-        <v>243</v>
-      </c>
-      <c r="D20" s="220" t="s">
-        <v>205</v>
+        <v>237</v>
+      </c>
+      <c r="D20" s="213" t="s">
+        <v>199</v>
       </c>
       <c r="E20" s="116" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F20" s="117" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G20" s="117" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H20" s="118" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="I20" s="110"/>
       <c r="J20" s="38"/>
@@ -7519,20 +7505,20 @@
         <v>17</v>
       </c>
       <c r="C21" s="115" t="s">
-        <v>244</v>
-      </c>
-      <c r="D21" s="221"/>
+        <v>238</v>
+      </c>
+      <c r="D21" s="214"/>
       <c r="E21" s="116" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F21" s="117" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G21" s="117" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H21" s="118" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="I21" s="110"/>
       <c r="J21" s="38"/>
@@ -7542,20 +7528,20 @@
         <v>18</v>
       </c>
       <c r="C22" s="115" t="s">
-        <v>245</v>
-      </c>
-      <c r="D22" s="221"/>
+        <v>239</v>
+      </c>
+      <c r="D22" s="214"/>
       <c r="E22" s="116" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F22" s="117" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G22" s="117" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H22" s="118" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="I22" s="110"/>
       <c r="J22" s="38"/>
@@ -7565,20 +7551,20 @@
         <v>19</v>
       </c>
       <c r="C23" s="115" t="s">
-        <v>246</v>
-      </c>
-      <c r="D23" s="221"/>
+        <v>240</v>
+      </c>
+      <c r="D23" s="214"/>
       <c r="E23" s="116" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F23" s="117" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G23" s="117" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H23" s="118" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="I23" s="110"/>
       <c r="J23" s="38"/>
@@ -7588,20 +7574,20 @@
         <v>20</v>
       </c>
       <c r="C24" s="115" t="s">
-        <v>247</v>
-      </c>
-      <c r="D24" s="221"/>
+        <v>241</v>
+      </c>
+      <c r="D24" s="214"/>
       <c r="E24" s="116" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F24" s="117" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G24" s="117" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H24" s="118" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="I24" s="110"/>
       <c r="J24" s="38"/>
@@ -7611,20 +7597,20 @@
         <v>21</v>
       </c>
       <c r="C25" s="115" t="s">
-        <v>248</v>
-      </c>
-      <c r="D25" s="222"/>
+        <v>242</v>
+      </c>
+      <c r="D25" s="215"/>
       <c r="E25" s="116" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F25" s="117" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G25" s="117" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H25" s="118" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="I25" s="110"/>
       <c r="J25" s="38"/>
@@ -7633,23 +7619,23 @@
       <c r="B26" s="105">
         <v>22</v>
       </c>
-      <c r="C26" s="143" t="s">
-        <v>340</v>
-      </c>
-      <c r="D26" s="144" t="s">
-        <v>341</v>
-      </c>
-      <c r="E26" s="145" t="s">
-        <v>209</v>
-      </c>
-      <c r="F26" s="146" t="s">
+      <c r="C26" s="141" t="s">
+        <v>333</v>
+      </c>
+      <c r="D26" s="142" t="s">
+        <v>334</v>
+      </c>
+      <c r="E26" s="143" t="s">
+        <v>203</v>
+      </c>
+      <c r="F26" s="144" t="s">
+        <v>335</v>
+      </c>
+      <c r="G26" s="144" t="s">
+        <v>336</v>
+      </c>
+      <c r="H26" s="145" t="s">
         <v>342</v>
-      </c>
-      <c r="G26" s="146" t="s">
-        <v>343</v>
-      </c>
-      <c r="H26" s="147" t="s">
-        <v>349</v>
       </c>
       <c r="I26" s="110"/>
       <c r="J26" s="38"/>
@@ -7748,7 +7734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
@@ -7788,10 +7774,10 @@
     </row>
     <row r="2" spans="1:15" ht="20" customHeight="1">
       <c r="A2" s="68" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" s="162" t="s">
-        <v>367</v>
+        <v>170</v>
+      </c>
+      <c r="B2" s="157" t="s">
+        <v>360</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -7810,7 +7796,7 @@
     <row r="3" spans="1:15" ht="20" customHeight="1">
       <c r="A3" s="66"/>
       <c r="B3" s="69" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C3" s="69"/>
       <c r="D3" s="66"/>
@@ -7829,17 +7815,17 @@
     <row r="4" spans="1:15" ht="20" customHeight="1">
       <c r="A4" s="66"/>
       <c r="B4" s="70" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="223" t="s">
-        <v>231</v>
-      </c>
-      <c r="D4" s="231"/>
-      <c r="E4" s="231"/>
-      <c r="F4" s="231"/>
-      <c r="G4" s="231"/>
-      <c r="H4" s="231"/>
-      <c r="I4" s="224"/>
+        <v>157</v>
+      </c>
+      <c r="C4" s="220" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" s="229"/>
+      <c r="E4" s="229"/>
+      <c r="F4" s="229"/>
+      <c r="G4" s="229"/>
+      <c r="H4" s="229"/>
+      <c r="I4" s="219"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -7850,17 +7836,17 @@
     <row r="5" spans="1:15" ht="20" customHeight="1">
       <c r="A5" s="66"/>
       <c r="B5" s="70" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="223" t="s">
-        <v>217</v>
-      </c>
-      <c r="D5" s="231"/>
-      <c r="E5" s="231"/>
-      <c r="F5" s="231"/>
-      <c r="G5" s="231"/>
-      <c r="H5" s="231"/>
-      <c r="I5" s="224"/>
+        <v>158</v>
+      </c>
+      <c r="C5" s="220" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" s="229"/>
+      <c r="E5" s="229"/>
+      <c r="F5" s="229"/>
+      <c r="G5" s="229"/>
+      <c r="H5" s="229"/>
+      <c r="I5" s="219"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -7871,10 +7857,10 @@
     <row r="6" spans="1:15" ht="20" customHeight="1">
       <c r="A6" s="66"/>
       <c r="B6" s="70" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C6" s="103" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D6" s="72"/>
       <c r="E6" s="72"/>
@@ -7892,17 +7878,17 @@
     <row r="7" spans="1:15" ht="20" customHeight="1">
       <c r="A7" s="66"/>
       <c r="B7" s="70" t="s">
-        <v>289</v>
-      </c>
-      <c r="C7" s="223" t="s">
-        <v>206</v>
-      </c>
-      <c r="D7" s="231"/>
-      <c r="E7" s="231"/>
-      <c r="F7" s="231"/>
-      <c r="G7" s="231"/>
-      <c r="H7" s="231"/>
-      <c r="I7" s="224"/>
+        <v>283</v>
+      </c>
+      <c r="C7" s="220" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" s="229"/>
+      <c r="E7" s="229"/>
+      <c r="F7" s="229"/>
+      <c r="G7" s="229"/>
+      <c r="H7" s="229"/>
+      <c r="I7" s="219"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -7913,10 +7899,10 @@
     <row r="8" spans="1:15" ht="20" customHeight="1">
       <c r="A8" s="66"/>
       <c r="B8" s="70" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C8" s="71" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D8" s="72"/>
       <c r="E8" s="72"/>
@@ -7934,17 +7920,17 @@
     <row r="9" spans="1:15" ht="20" customHeight="1">
       <c r="A9" s="66"/>
       <c r="B9" s="70" t="s">
-        <v>323</v>
-      </c>
-      <c r="C9" s="223" t="s">
-        <v>324</v>
-      </c>
-      <c r="D9" s="231"/>
-      <c r="E9" s="231"/>
-      <c r="F9" s="231"/>
-      <c r="G9" s="231"/>
-      <c r="H9" s="231"/>
-      <c r="I9" s="224"/>
+        <v>317</v>
+      </c>
+      <c r="C9" s="220" t="s">
+        <v>318</v>
+      </c>
+      <c r="D9" s="229"/>
+      <c r="E9" s="229"/>
+      <c r="F9" s="229"/>
+      <c r="G9" s="229"/>
+      <c r="H9" s="229"/>
+      <c r="I9" s="219"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -7972,7 +7958,7 @@
     <row r="11" spans="1:15" ht="20" customHeight="1">
       <c r="A11" s="66"/>
       <c r="B11" s="74" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C11" s="74"/>
       <c r="D11" s="66"/>
@@ -8007,19 +7993,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="225" t="s">
-        <v>165</v>
-      </c>
-      <c r="C13" s="226"/>
-      <c r="D13" s="226"/>
-      <c r="E13" s="226"/>
-      <c r="F13" s="226"/>
-      <c r="G13" s="226"/>
-      <c r="H13" s="226"/>
-      <c r="I13" s="226"/>
-      <c r="J13" s="226"/>
-      <c r="K13" s="226"/>
-      <c r="L13" s="227"/>
+      <c r="B13" s="226" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="227"/>
+      <c r="D13" s="227"/>
+      <c r="E13" s="227"/>
+      <c r="F13" s="227"/>
+      <c r="G13" s="227"/>
+      <c r="H13" s="227"/>
+      <c r="I13" s="227"/>
+      <c r="J13" s="227"/>
+      <c r="K13" s="227"/>
+      <c r="L13" s="228"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -8028,31 +8014,31 @@
       <c r="A14" s="66"/>
       <c r="B14" s="75"/>
       <c r="C14" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="F14" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="G14" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="H14" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="I14" s="76" t="s">
         <v>166</v>
       </c>
-      <c r="D14" s="76" t="s">
-        <v>167</v>
-      </c>
-      <c r="E14" s="76" t="s">
-        <v>168</v>
-      </c>
-      <c r="F14" s="76" t="s">
-        <v>169</v>
-      </c>
-      <c r="G14" s="76" t="s">
-        <v>170</v>
-      </c>
-      <c r="H14" s="76" t="s">
-        <v>171</v>
-      </c>
-      <c r="I14" s="76" t="s">
-        <v>172</v>
-      </c>
-      <c r="J14" s="232" t="s">
+      <c r="J14" s="230" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="232"/>
-      <c r="L14" s="232"/>
+      <c r="K14" s="230"/>
+      <c r="L14" s="230"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -8061,16 +8047,16 @@
       <c r="A15" s="66"/>
       <c r="B15" s="77"/>
       <c r="C15" s="78" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D15" s="79" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E15" s="80" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F15" s="80" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G15" s="80">
         <v>4</v>
@@ -8079,13 +8065,13 @@
         <v>50</v>
       </c>
       <c r="I15" s="81" t="s">
-        <v>282</v>
-      </c>
-      <c r="J15" s="233" t="s">
-        <v>283</v>
-      </c>
-      <c r="K15" s="233"/>
-      <c r="L15" s="233"/>
+        <v>276</v>
+      </c>
+      <c r="J15" s="231" t="s">
+        <v>277</v>
+      </c>
+      <c r="K15" s="231"/>
+      <c r="L15" s="231"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -8094,16 +8080,16 @@
       <c r="A16" s="66"/>
       <c r="B16" s="77"/>
       <c r="C16" s="78" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D16" s="79" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E16" s="80" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F16" s="80" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G16" s="80">
         <v>4</v>
@@ -8112,13 +8098,13 @@
         <v>50</v>
       </c>
       <c r="I16" s="81" t="s">
-        <v>286</v>
-      </c>
-      <c r="J16" s="233" t="s">
-        <v>287</v>
-      </c>
-      <c r="K16" s="233"/>
-      <c r="L16" s="233"/>
+        <v>280</v>
+      </c>
+      <c r="J16" s="231" t="s">
+        <v>281</v>
+      </c>
+      <c r="K16" s="231"/>
+      <c r="L16" s="231"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -8127,28 +8113,28 @@
       <c r="A17" s="66"/>
       <c r="B17" s="77"/>
       <c r="C17" s="78" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D17" s="79" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E17" s="80" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F17" s="80" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G17" s="80" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H17" s="80">
         <v>50</v>
       </c>
       <c r="I17" s="81" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="J17" s="71" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K17" s="72"/>
       <c r="L17" s="73"/>
@@ -8160,31 +8146,31 @@
       <c r="A18" s="66"/>
       <c r="B18" s="77"/>
       <c r="C18" s="78" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D18" s="79" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E18" s="80" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F18" s="80" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G18" s="80" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H18" s="80">
         <v>50</v>
       </c>
       <c r="I18" s="79" t="s">
-        <v>295</v>
-      </c>
-      <c r="J18" s="223" t="s">
-        <v>298</v>
-      </c>
-      <c r="K18" s="231"/>
-      <c r="L18" s="224"/>
+        <v>289</v>
+      </c>
+      <c r="J18" s="220" t="s">
+        <v>292</v>
+      </c>
+      <c r="K18" s="229"/>
+      <c r="L18" s="219"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
       <c r="O18" s="66"/>
@@ -8193,31 +8179,31 @@
       <c r="A19" s="66"/>
       <c r="B19" s="82"/>
       <c r="C19" s="78" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D19" s="79" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E19" s="80" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F19" s="80" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G19" s="80" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H19" s="80">
         <v>255</v>
       </c>
       <c r="I19" s="83" t="s">
-        <v>302</v>
-      </c>
-      <c r="J19" s="223" t="s">
-        <v>303</v>
-      </c>
-      <c r="K19" s="231"/>
-      <c r="L19" s="224"/>
+        <v>296</v>
+      </c>
+      <c r="J19" s="220" t="s">
+        <v>297</v>
+      </c>
+      <c r="K19" s="229"/>
+      <c r="L19" s="219"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
       <c r="O19" s="66"/>
@@ -8242,7 +8228,7 @@
     <row r="21" spans="1:15" ht="20" customHeight="1">
       <c r="A21" s="66"/>
       <c r="B21" s="74" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C21" s="84"/>
       <c r="D21" s="84"/>
@@ -8379,11 +8365,11 @@
     </row>
     <row r="29" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A29" s="69"/>
-      <c r="B29" s="234" t="s">
-        <v>291</v>
-      </c>
-      <c r="C29" s="234"/>
-      <c r="D29" s="234"/>
+      <c r="B29" s="232" t="s">
+        <v>285</v>
+      </c>
+      <c r="C29" s="232"/>
+      <c r="D29" s="232"/>
       <c r="E29" s="87"/>
       <c r="F29" s="88"/>
       <c r="G29" s="87"/>
@@ -8398,32 +8384,32 @@
     </row>
     <row r="30" spans="1:15" s="91" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="90"/>
-      <c r="B30" s="228" t="s">
-        <v>167</v>
-      </c>
-      <c r="C30" s="229"/>
-      <c r="D30" s="229"/>
-      <c r="E30" s="230"/>
+      <c r="B30" s="223" t="s">
+        <v>161</v>
+      </c>
+      <c r="C30" s="224"/>
+      <c r="D30" s="224"/>
+      <c r="E30" s="225"/>
       <c r="F30" s="76" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G30" s="76" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H30" s="76" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I30" s="76" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="J30" s="76" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="K30" s="76" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L30" s="76" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="M30" s="90"/>
       <c r="N30" s="90"/>
@@ -8432,28 +8418,28 @@
     <row r="31" spans="1:15" ht="20" customHeight="1">
       <c r="A31" s="66"/>
       <c r="B31" s="92" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C31" s="93"/>
       <c r="D31" s="93"/>
       <c r="E31" s="94"/>
       <c r="F31" s="80" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G31" s="80" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H31" s="80" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I31" s="80" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J31" s="80" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K31" s="80" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L31" s="79"/>
       <c r="M31" s="66"/>
@@ -8464,27 +8450,27 @@
       <c r="A32" s="66"/>
       <c r="B32" s="92"/>
       <c r="C32" s="95" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D32" s="96"/>
       <c r="E32" s="94"/>
       <c r="F32" s="78" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G32" s="80" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H32" s="80" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="I32" s="80">
         <v>1</v>
       </c>
       <c r="J32" s="80" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K32" s="80" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="L32" s="79"/>
       <c r="M32" s="66"/>
@@ -8495,30 +8481,30 @@
       <c r="A33" s="66"/>
       <c r="B33" s="92"/>
       <c r="C33" s="97"/>
-      <c r="D33" s="223" t="s">
-        <v>309</v>
-      </c>
-      <c r="E33" s="224"/>
+      <c r="D33" s="220" t="s">
+        <v>303</v>
+      </c>
+      <c r="E33" s="219"/>
       <c r="F33" s="78" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G33" s="80" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H33" s="80" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="I33" s="80">
         <v>1</v>
       </c>
       <c r="J33" s="80" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K33" s="80" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="L33" s="79" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="M33" s="66"/>
       <c r="N33" s="66"/>
@@ -8528,30 +8514,30 @@
       <c r="A34" s="66"/>
       <c r="B34" s="92"/>
       <c r="C34" s="99"/>
-      <c r="D34" s="223" t="s">
-        <v>310</v>
-      </c>
-      <c r="E34" s="224"/>
+      <c r="D34" s="220" t="s">
+        <v>304</v>
+      </c>
+      <c r="E34" s="219"/>
       <c r="F34" s="78" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G34" s="80" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H34" s="80" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I34" s="80">
         <v>1</v>
       </c>
       <c r="J34" s="80" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K34" s="80" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="L34" s="79" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="M34" s="66"/>
       <c r="N34" s="66"/>
@@ -8561,30 +8547,30 @@
       <c r="A35" s="66"/>
       <c r="B35" s="92"/>
       <c r="C35" s="95" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D35" s="96"/>
       <c r="E35" s="94"/>
       <c r="F35" s="78" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G35" s="80" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H35" s="80" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="I35" s="80">
         <v>1</v>
       </c>
       <c r="J35" s="80" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K35" s="80" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="L35" s="79" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="M35" s="66"/>
       <c r="N35" s="66"/>
@@ -8594,30 +8580,30 @@
       <c r="A36" s="66"/>
       <c r="B36" s="92"/>
       <c r="C36" s="102"/>
-      <c r="D36" s="223" t="s">
-        <v>313</v>
-      </c>
-      <c r="E36" s="224"/>
+      <c r="D36" s="220" t="s">
+        <v>307</v>
+      </c>
+      <c r="E36" s="219"/>
       <c r="F36" s="78" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="G36" s="80" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="H36" s="80" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="I36" s="80">
         <v>1</v>
       </c>
       <c r="J36" s="80" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="K36" s="80" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="L36" s="79" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="M36" s="66"/>
       <c r="N36" s="66"/>
@@ -8627,30 +8613,30 @@
       <c r="A37" s="66"/>
       <c r="B37" s="92"/>
       <c r="C37" s="102"/>
-      <c r="D37" s="237" t="s">
-        <v>279</v>
-      </c>
-      <c r="E37" s="238"/>
+      <c r="D37" s="221" t="s">
+        <v>273</v>
+      </c>
+      <c r="E37" s="222"/>
       <c r="F37" s="78" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G37" s="80" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H37" s="80" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="I37" s="80">
         <v>1</v>
       </c>
       <c r="J37" s="80" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="K37" s="80" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="L37" s="79" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="M37" s="66"/>
       <c r="N37" s="66"/>
@@ -8660,30 +8646,30 @@
       <c r="A38" s="66"/>
       <c r="B38" s="92"/>
       <c r="C38" s="97"/>
-      <c r="D38" s="223" t="s">
-        <v>299</v>
-      </c>
-      <c r="E38" s="224"/>
+      <c r="D38" s="220" t="s">
+        <v>293</v>
+      </c>
+      <c r="E38" s="219"/>
       <c r="F38" s="78" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G38" s="80" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H38" s="80" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="I38" s="80">
         <v>1</v>
       </c>
       <c r="J38" s="80" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="K38" s="80" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="L38" s="79" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="M38" s="66"/>
       <c r="N38" s="66"/>
@@ -8694,29 +8680,29 @@
       <c r="B39" s="92"/>
       <c r="C39" s="97"/>
       <c r="D39" s="71" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E39" s="73"/>
       <c r="F39" s="78" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G39" s="80" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H39" s="80" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="I39" s="80">
         <v>1</v>
       </c>
       <c r="J39" s="80" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="K39" s="80" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="L39" s="79" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="M39" s="66"/>
       <c r="N39" s="66"/>
@@ -8727,29 +8713,29 @@
       <c r="B40" s="92"/>
       <c r="C40" s="97"/>
       <c r="D40" s="103" t="s">
-        <v>300</v>
-      </c>
-      <c r="E40" s="151"/>
-      <c r="F40" s="157" t="s">
-        <v>301</v>
+        <v>294</v>
+      </c>
+      <c r="E40" s="147"/>
+      <c r="F40" s="152" t="s">
+        <v>295</v>
       </c>
       <c r="G40" s="80" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H40" s="80" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="I40" s="80">
         <v>1</v>
       </c>
       <c r="J40" s="80" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="K40" s="80" t="s">
-        <v>174</v>
-      </c>
-      <c r="L40" s="159" t="s">
-        <v>366</v>
+        <v>168</v>
+      </c>
+      <c r="L40" s="154" t="s">
+        <v>359</v>
       </c>
       <c r="M40" s="66"/>
       <c r="N40" s="66"/>
@@ -8759,30 +8745,30 @@
       <c r="A41" s="66"/>
       <c r="B41" s="98"/>
       <c r="C41" s="99"/>
-      <c r="D41" s="223" t="s">
-        <v>183</v>
-      </c>
-      <c r="E41" s="224"/>
+      <c r="D41" s="220" t="s">
+        <v>177</v>
+      </c>
+      <c r="E41" s="219"/>
       <c r="F41" s="78" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G41" s="80" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H41" s="80" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="I41" s="80">
         <v>1</v>
       </c>
       <c r="J41" s="80" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K41" s="80" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="L41" s="79" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M41" s="66"/>
       <c r="N41" s="66"/>
@@ -8808,7 +8794,7 @@
     <row r="43" spans="1:15" ht="20" customHeight="1">
       <c r="A43" s="66"/>
       <c r="B43" s="33" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C43" s="93"/>
       <c r="D43" s="86"/>
@@ -9098,18 +9084,18 @@
     </row>
     <row r="60" spans="1:15" ht="20" customHeight="1">
       <c r="A60" s="66"/>
-      <c r="B60" s="235" t="s">
-        <v>186</v>
-      </c>
-      <c r="C60" s="235"/>
-      <c r="D60" s="235"/>
+      <c r="B60" s="233" t="s">
+        <v>180</v>
+      </c>
+      <c r="C60" s="233"/>
+      <c r="D60" s="233"/>
       <c r="E60" s="66"/>
       <c r="F60" s="66"/>
       <c r="G60" s="66"/>
       <c r="H60" s="66"/>
       <c r="I60" s="66"/>
       <c r="J60" s="66" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K60" s="66"/>
       <c r="L60" s="66"/>
@@ -9119,29 +9105,29 @@
     </row>
     <row r="61" spans="1:15" s="91" customFormat="1" ht="20" customHeight="1">
       <c r="A61" s="90"/>
-      <c r="B61" s="228" t="s">
-        <v>167</v>
-      </c>
-      <c r="C61" s="229"/>
-      <c r="D61" s="229"/>
-      <c r="E61" s="230"/>
+      <c r="B61" s="223" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" s="224"/>
+      <c r="D61" s="224"/>
+      <c r="E61" s="225"/>
       <c r="F61" s="76" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G61" s="76" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H61" s="76" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I61" s="76" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="J61" s="76" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="K61" s="76" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L61" s="76" t="s">
         <v>0</v>
@@ -9153,28 +9139,28 @@
     <row r="62" spans="1:15" ht="20" customHeight="1">
       <c r="A62" s="66"/>
       <c r="B62" s="92" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C62" s="93"/>
       <c r="D62" s="93"/>
       <c r="E62" s="94"/>
       <c r="F62" s="80" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G62" s="80" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H62" s="80" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I62" s="80" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J62" s="80" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K62" s="80" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L62" s="79"/>
       <c r="M62" s="66"/>
@@ -9185,27 +9171,27 @@
       <c r="A63" s="66"/>
       <c r="B63" s="92"/>
       <c r="C63" s="95" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D63" s="96"/>
       <c r="E63" s="94"/>
       <c r="F63" s="78" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G63" s="80" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H63" s="80" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="I63" s="80">
         <v>1</v>
       </c>
       <c r="J63" s="80" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K63" s="80" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="L63" s="79"/>
       <c r="M63" s="66"/>
@@ -9216,30 +9202,30 @@
       <c r="A64" s="66"/>
       <c r="B64" s="92"/>
       <c r="C64" s="97"/>
-      <c r="D64" s="236" t="s">
-        <v>309</v>
-      </c>
-      <c r="E64" s="224"/>
+      <c r="D64" s="216" t="s">
+        <v>303</v>
+      </c>
+      <c r="E64" s="219"/>
       <c r="F64" s="78" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G64" s="80" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H64" s="80" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="I64" s="80">
         <v>1</v>
       </c>
       <c r="J64" s="80" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K64" s="80" t="s">
-        <v>187</v>
-      </c>
-      <c r="L64" s="159" t="s">
-        <v>359</v>
+        <v>181</v>
+      </c>
+      <c r="L64" s="154" t="s">
+        <v>352</v>
       </c>
       <c r="M64" s="66"/>
       <c r="N64" s="66"/>
@@ -9249,30 +9235,30 @@
       <c r="A65" s="66"/>
       <c r="B65" s="92"/>
       <c r="C65" s="97"/>
-      <c r="D65" s="236" t="s">
+      <c r="D65" s="216" t="s">
         <v>0</v>
       </c>
-      <c r="E65" s="239"/>
-      <c r="F65" s="157" t="s">
-        <v>357</v>
-      </c>
-      <c r="G65" s="158" t="s">
-        <v>281</v>
+      <c r="E65" s="217"/>
+      <c r="F65" s="152" t="s">
+        <v>350</v>
+      </c>
+      <c r="G65" s="153" t="s">
+        <v>275</v>
       </c>
       <c r="H65" s="80" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="I65" s="80">
         <v>1</v>
       </c>
-      <c r="J65" s="158" t="s">
-        <v>174</v>
-      </c>
-      <c r="K65" s="158" t="s">
-        <v>174</v>
-      </c>
-      <c r="L65" s="159" t="s">
-        <v>358</v>
+      <c r="J65" s="153" t="s">
+        <v>168</v>
+      </c>
+      <c r="K65" s="153" t="s">
+        <v>168</v>
+      </c>
+      <c r="L65" s="154" t="s">
+        <v>351</v>
       </c>
       <c r="M65" s="66"/>
       <c r="N65" s="66"/>
@@ -9282,30 +9268,30 @@
       <c r="A66" s="66"/>
       <c r="B66" s="92"/>
       <c r="C66" s="97"/>
-      <c r="D66" s="240" t="s">
-        <v>362</v>
-      </c>
-      <c r="E66" s="239"/>
-      <c r="F66" s="157" t="s">
-        <v>360</v>
+      <c r="D66" s="218" t="s">
+        <v>355</v>
+      </c>
+      <c r="E66" s="217"/>
+      <c r="F66" s="152" t="s">
+        <v>353</v>
       </c>
       <c r="G66" s="80" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H66" s="80" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="I66" s="80">
         <v>1</v>
       </c>
       <c r="J66" s="80" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K66" s="80" t="s">
-        <v>187</v>
-      </c>
-      <c r="L66" s="159" t="s">
-        <v>365</v>
+        <v>181</v>
+      </c>
+      <c r="L66" s="154" t="s">
+        <v>358</v>
       </c>
       <c r="M66" s="66"/>
       <c r="N66" s="66"/>
@@ -9315,30 +9301,30 @@
       <c r="A67" s="66"/>
       <c r="B67" s="92"/>
       <c r="C67" s="102"/>
-      <c r="D67" s="161"/>
-      <c r="E67" s="160" t="s">
-        <v>363</v>
-      </c>
-      <c r="F67" s="157" t="s">
-        <v>311</v>
-      </c>
-      <c r="G67" s="158" t="s">
-        <v>281</v>
+      <c r="D67" s="156"/>
+      <c r="E67" s="155" t="s">
+        <v>356</v>
+      </c>
+      <c r="F67" s="152" t="s">
+        <v>305</v>
+      </c>
+      <c r="G67" s="153" t="s">
+        <v>275</v>
       </c>
       <c r="H67" s="80" t="s">
-        <v>304</v>
-      </c>
-      <c r="I67" s="158" t="s">
-        <v>361</v>
-      </c>
-      <c r="J67" s="158" t="s">
-        <v>174</v>
-      </c>
-      <c r="K67" s="158" t="s">
-        <v>174</v>
-      </c>
-      <c r="L67" s="159" t="s">
-        <v>364</v>
+        <v>298</v>
+      </c>
+      <c r="I67" s="153" t="s">
+        <v>354</v>
+      </c>
+      <c r="J67" s="153" t="s">
+        <v>168</v>
+      </c>
+      <c r="K67" s="153" t="s">
+        <v>168</v>
+      </c>
+      <c r="L67" s="154" t="s">
+        <v>357</v>
       </c>
       <c r="M67" s="66"/>
       <c r="N67" s="66"/>
@@ -9348,27 +9334,27 @@
       <c r="A68" s="66"/>
       <c r="B68" s="92"/>
       <c r="C68" s="95" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D68" s="96"/>
       <c r="E68" s="94"/>
       <c r="F68" s="78" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G68" s="80" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H68" s="80" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="I68" s="80">
         <v>1</v>
       </c>
       <c r="J68" s="80" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K68" s="80" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="L68" s="79"/>
       <c r="M68" s="66"/>
@@ -9379,8 +9365,8 @@
       <c r="A69" s="66"/>
       <c r="B69" s="98"/>
       <c r="C69" s="99"/>
-      <c r="D69" s="223"/>
-      <c r="E69" s="224"/>
+      <c r="D69" s="220"/>
+      <c r="E69" s="219"/>
       <c r="F69" s="78"/>
       <c r="G69" s="80"/>
       <c r="H69" s="80"/>
@@ -9412,7 +9398,7 @@
     <row r="71" spans="1:15" ht="20" customHeight="1">
       <c r="A71" s="66"/>
       <c r="B71" s="74" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C71" s="66"/>
       <c r="D71" s="66"/>
@@ -9770,22 +9756,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="J14:L14"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="B61:E61"/>
     <mergeCell ref="D69:E69"/>
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="B30:E30"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="J14:L14"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="J19:L19"/>
@@ -9794,6 +9775,11 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D41:E41"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
